--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04BCC9C-8CB6-444F-B336-6038C19B44F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0207996-FF6C-4974-9A73-E5B46D1CAF2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Sujith</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>JE Lease 111</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -2055,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81362EF-F639-4F16-9B39-A84C1506E605}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,6 +2196,9 @@
       <c r="R2" t="b">
         <v>1</v>
       </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2239,6 +2248,9 @@
       </c>
       <c r="R3" t="b">
         <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD612C6E-0C35-4A08-BC9E-BAB6CEE21F73}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0207996-FF6C-4974-9A73-E5B46D1CAF2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC828A-12EA-4484-905A-765AB73F5A10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Property" sheetId="4" r:id="rId2"/>
-    <sheet name="Lease" sheetId="5" r:id="rId3"/>
-    <sheet name="Space" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Property" sheetId="2" r:id="rId2"/>
+    <sheet name="Lease" sheetId="3" r:id="rId3"/>
+    <sheet name="Space" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>Sujith</t>
   </si>
@@ -55,37 +55,10 @@
     <t>Reference_TcID</t>
   </si>
   <si>
-    <t>Add1</t>
+    <t>TestId</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Kara</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Building List</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>Leased</t>
+    <t>Action</t>
   </si>
   <si>
     <t>propertyName</t>
@@ -133,7 +106,10 @@
     <t>autoManage</t>
   </si>
   <si>
-    <t>TestId</t>
+    <t>ExecutionFlag</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
   <si>
     <t>dbaName</t>
@@ -157,13 +133,25 @@
     <t>expirationDate</t>
   </si>
   <si>
+    <t>contractTerm</t>
+  </si>
+  <si>
+    <t>JE Lease 111</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
     <t>Base Year</t>
   </si>
   <si>
-    <t>contractTerm</t>
+    <t>Expense</t>
   </si>
   <si>
     <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>12/31/2019</t>
   </si>
   <si>
     <t>LeaseName</t>
@@ -175,82 +163,72 @@
     <t>Floor</t>
   </si>
   <si>
-    <t>Action</t>
+    <t>Add1</t>
   </si>
   <si>
-    <t>ExecutionFlag</t>
+    <t>Togo</t>
   </si>
   <si>
-    <t>Expense</t>
+    <t>Kara</t>
   </si>
   <si>
-    <t>12/31/2019</t>
+    <t>test</t>
   </si>
   <si>
-    <t>Coffe Plus, LLC</t>
+    <t>DEFAULT</t>
   </si>
   <si>
-    <t>02 Property</t>
+    <t>USD</t>
   </si>
   <si>
-    <t>P_Test_Property_02</t>
+    <t>Building List</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Leased</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>P_Test_Property_03</t>
   </si>
   <si>
-    <t>P_Test_Property_01_Lease</t>
+    <t>No</t>
   </si>
   <si>
-    <t>P_Test_Property_01_Lease_Space_02</t>
+    <t>01</t>
   </si>
   <si>
-    <t>JE Lease 111</t>
+    <t>Q_Test_Property</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>jjjj</t>
   </si>
   <si>
-    <t>No</t>
+    <t>P_Test_Property_09</t>
+  </si>
+  <si>
+    <t>P_Test_Property_01_Lease_Space_09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -291,28 +269,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -320,73 +283,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -695,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -714,7 +652,6 @@
     <col min="10" max="10" width="6.5703125" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2058,16 +1995,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81362EF-F639-4F16-9B39-A84C1506E605}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
@@ -2086,195 +2023,3194 @@
     <col min="17" max="17" width="10.140625" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="N1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="O1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="P1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="Q1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="R1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="S1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
+      <c r="D2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="11">
+        <v>331112222</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="I2">
         <v>1229</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>17</v>
+      <c r="J2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="N2">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>20</v>
+      <c r="O2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="I3">
         <v>1229</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>17</v>
+      <c r="J3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="N3">
         <v>12</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>20</v>
+      <c r="O3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6"/>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6"/>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6"/>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6"/>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="6"/>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6"/>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6"/>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="6"/>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="6"/>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+    </row>
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6"/>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="6"/>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6"/>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6"/>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6"/>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6"/>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6"/>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6"/>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="6"/>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6"/>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="6"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="6"/>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="6"/>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="6"/>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6"/>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6"/>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="6"/>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6"/>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6"/>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="6"/>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6"/>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="6"/>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6"/>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="6"/>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="6"/>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6"/>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6"/>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6"/>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="6"/>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="6"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="6"/>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="6"/>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6"/>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="6"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6"/>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="6"/>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6"/>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6"/>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="6"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="6"/>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6"/>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="6"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="6"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="6"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="6"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="6"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="6"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="6"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="6"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="6"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="6"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="6"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="6"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="6"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="6"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="6"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="6"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="6"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="6"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="6"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="6"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="6"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="6"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="6"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="6"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="6"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="6"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="6"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="6"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="6"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="6"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="6"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="6"/>
+    </row>
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
+    </row>
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+    </row>
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="6"/>
+    </row>
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+    </row>
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="6"/>
+    </row>
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="6"/>
+    </row>
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="6"/>
+    </row>
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="6"/>
+    </row>
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="6"/>
+    </row>
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="6"/>
+    </row>
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="6"/>
+    </row>
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="6"/>
+    </row>
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="6"/>
+    </row>
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="6"/>
+    </row>
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="6"/>
+    </row>
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="6"/>
+    </row>
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="6"/>
+    </row>
+    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="6"/>
+    </row>
+    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="6"/>
+    </row>
+    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="6"/>
+    </row>
+    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="6"/>
+    </row>
+    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6"/>
+    </row>
+    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="6"/>
+    </row>
+    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="6"/>
+    </row>
+    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="6"/>
+    </row>
+    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="6"/>
+    </row>
+    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="6"/>
+    </row>
+    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="6"/>
+    </row>
+    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="6"/>
+    </row>
+    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="6"/>
+    </row>
+    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="6"/>
+    </row>
+    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="6"/>
+    </row>
+    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="6"/>
+    </row>
+    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="6"/>
+    </row>
+    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="6"/>
+    </row>
+    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="6"/>
+    </row>
+    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="6"/>
+    </row>
+    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="6"/>
+    </row>
+    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="6"/>
+    </row>
+    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="6"/>
+    </row>
+    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="6"/>
+    </row>
+    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="6"/>
+    </row>
+    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="6"/>
+    </row>
+    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="6"/>
+    </row>
+    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6"/>
+    </row>
+    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="6"/>
+    </row>
+    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="6"/>
+    </row>
+    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="6"/>
+    </row>
+    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="6"/>
+    </row>
+    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="6"/>
+    </row>
+    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6"/>
+    </row>
+    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="6"/>
+    </row>
+    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="6"/>
+    </row>
+    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="6"/>
+    </row>
+    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="6"/>
+    </row>
+    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="6"/>
+    </row>
+    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="6"/>
+    </row>
+    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="6"/>
+    </row>
+    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="6"/>
+    </row>
+    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="6"/>
+    </row>
+    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="6"/>
+    </row>
+    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="6"/>
+    </row>
+    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="6"/>
+    </row>
+    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="6"/>
+    </row>
+    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="6"/>
+    </row>
+    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="6"/>
+    </row>
+    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="6"/>
+    </row>
+    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="6"/>
+    </row>
+    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6"/>
+    </row>
+    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="6"/>
+    </row>
+    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="6"/>
+    </row>
+    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="6"/>
+    </row>
+    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="6"/>
+    </row>
+    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="6"/>
+    </row>
+    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="6"/>
+    </row>
+    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="6"/>
+    </row>
+    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="6"/>
+    </row>
+    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="6"/>
+    </row>
+    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="6"/>
+    </row>
+    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="6"/>
+    </row>
+    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="6"/>
+    </row>
+    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="6"/>
+    </row>
+    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="6"/>
+    </row>
+    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="6"/>
+    </row>
+    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="6"/>
+    </row>
+    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="6"/>
+    </row>
+    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="6"/>
+    </row>
+    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="6"/>
+    </row>
+    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="6"/>
+    </row>
+    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="6"/>
+    </row>
+    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="6"/>
+    </row>
+    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="6"/>
+    </row>
+    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="6"/>
+    </row>
+    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="6"/>
+    </row>
+    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="6"/>
+    </row>
+    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="6"/>
+    </row>
+    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="6"/>
+    </row>
+    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="6"/>
+    </row>
+    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="6"/>
+    </row>
+    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="6"/>
+    </row>
+    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="6"/>
+    </row>
+    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="6"/>
+    </row>
+    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="6"/>
+    </row>
+    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="6"/>
+    </row>
+    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="6"/>
+    </row>
+    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="6"/>
+    </row>
+    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="6"/>
+    </row>
+    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="6"/>
+    </row>
+    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="6"/>
+    </row>
+    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="6"/>
+    </row>
+    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="6"/>
+    </row>
+    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="6"/>
+    </row>
+    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="6"/>
+    </row>
+    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="6"/>
+    </row>
+    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="6"/>
+    </row>
+    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="6"/>
+    </row>
+    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="6"/>
+    </row>
+    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="6"/>
+    </row>
+    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="6"/>
+    </row>
+    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="6"/>
+    </row>
+    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6"/>
+    </row>
+    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="6"/>
+    </row>
+    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="6"/>
+    </row>
+    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="6"/>
+    </row>
+    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="6"/>
+    </row>
+    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="6"/>
+    </row>
+    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="6"/>
+    </row>
+    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="6"/>
+    </row>
+    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="6"/>
+    </row>
+    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="6"/>
+    </row>
+    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="6"/>
+    </row>
+    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="6"/>
+    </row>
+    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="6"/>
+    </row>
+    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="6"/>
+    </row>
+    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="6"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="6"/>
+    </row>
+    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="6"/>
+    </row>
+    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="6"/>
+    </row>
+    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="6"/>
+    </row>
+    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="6"/>
+    </row>
+    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="6"/>
+    </row>
+    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="6"/>
+    </row>
+    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="6"/>
+    </row>
+    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="6"/>
+    </row>
+    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="6"/>
+    </row>
+    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="6"/>
+    </row>
+    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="6"/>
+    </row>
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="6"/>
+    </row>
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="6"/>
+    </row>
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="6"/>
+    </row>
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="6"/>
+    </row>
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="6"/>
+    </row>
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="6"/>
+    </row>
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="6"/>
+    </row>
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="6"/>
+    </row>
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="6"/>
+    </row>
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="6"/>
+    </row>
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="6"/>
+    </row>
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="6"/>
+    </row>
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="6"/>
+    </row>
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="6"/>
+    </row>
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="6"/>
+    </row>
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="6"/>
+    </row>
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="6"/>
+    </row>
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="6"/>
+    </row>
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="6"/>
+    </row>
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="6"/>
+    </row>
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="6"/>
+    </row>
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="6"/>
+    </row>
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="6"/>
+    </row>
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="6"/>
+    </row>
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="6"/>
+    </row>
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="6"/>
+    </row>
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="6"/>
+    </row>
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="6"/>
+    </row>
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="6"/>
+    </row>
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="6"/>
+    </row>
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="6"/>
+    </row>
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="6"/>
+    </row>
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="6"/>
+    </row>
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="6"/>
+    </row>
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="6"/>
+    </row>
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="6"/>
+    </row>
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="6"/>
+    </row>
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="6"/>
+    </row>
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="6"/>
+    </row>
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="6"/>
+    </row>
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="6"/>
+    </row>
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="6"/>
+    </row>
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="6"/>
+    </row>
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="6"/>
+    </row>
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="6"/>
+    </row>
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="6"/>
+    </row>
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="6"/>
+    </row>
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="6"/>
+    </row>
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="6"/>
+    </row>
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="6"/>
+    </row>
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="6"/>
+    </row>
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="6"/>
+    </row>
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="6"/>
+    </row>
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="6"/>
+    </row>
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="6"/>
+    </row>
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="6"/>
+    </row>
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="6"/>
+    </row>
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="6"/>
+    </row>
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="6"/>
+    </row>
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="6"/>
+    </row>
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="6"/>
+    </row>
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="6"/>
+    </row>
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="6"/>
+    </row>
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="6"/>
+    </row>
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="6"/>
+    </row>
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="6"/>
+    </row>
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="6"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="6"/>
+    </row>
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="6"/>
+    </row>
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="6"/>
+    </row>
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="6"/>
+    </row>
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="6"/>
+    </row>
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="6"/>
+    </row>
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="6"/>
+    </row>
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="6"/>
+    </row>
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="6"/>
+    </row>
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="6"/>
+    </row>
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="6"/>
+    </row>
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="6"/>
+    </row>
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="6"/>
+    </row>
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="6"/>
+    </row>
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="6"/>
+    </row>
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="6"/>
+    </row>
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="6"/>
+    </row>
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="6"/>
+    </row>
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="6"/>
+    </row>
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="6"/>
+    </row>
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="6"/>
+    </row>
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="6"/>
+    </row>
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="6"/>
+    </row>
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="6"/>
+    </row>
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="6"/>
+    </row>
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="6"/>
+    </row>
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="6"/>
+    </row>
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="6"/>
+    </row>
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="6"/>
+    </row>
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="6"/>
+    </row>
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="6"/>
+    </row>
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="6"/>
+    </row>
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="6"/>
+    </row>
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="6"/>
+    </row>
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="6"/>
+    </row>
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="6"/>
+    </row>
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="6"/>
+    </row>
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="6"/>
+    </row>
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="6"/>
+    </row>
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="6"/>
+    </row>
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="6"/>
+    </row>
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="6"/>
+    </row>
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="6"/>
+    </row>
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="6"/>
+    </row>
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="6"/>
+    </row>
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="6"/>
+    </row>
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="6"/>
+    </row>
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="6"/>
+    </row>
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="6"/>
+    </row>
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="6"/>
+    </row>
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="6"/>
+    </row>
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="6"/>
+    </row>
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="6"/>
+    </row>
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="6"/>
+    </row>
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="6"/>
+    </row>
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="6"/>
+    </row>
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="6"/>
+    </row>
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="6"/>
+    </row>
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="6"/>
+    </row>
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="6"/>
+    </row>
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="6"/>
+    </row>
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="6"/>
+    </row>
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="6"/>
+    </row>
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="6"/>
+    </row>
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="6"/>
+    </row>
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="6"/>
+    </row>
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="6"/>
+    </row>
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="6"/>
+    </row>
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="6"/>
+    </row>
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="6"/>
+    </row>
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="6"/>
+    </row>
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="6"/>
+    </row>
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="6"/>
+    </row>
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="6"/>
+    </row>
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="6"/>
+    </row>
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="6"/>
+    </row>
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="6"/>
+    </row>
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="6"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="6"/>
+    </row>
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="6"/>
+    </row>
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="6"/>
+    </row>
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="6"/>
+    </row>
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="6"/>
+    </row>
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="6"/>
+    </row>
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="6"/>
+    </row>
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="6"/>
+    </row>
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="6"/>
+    </row>
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="6"/>
+    </row>
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="6"/>
+    </row>
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="6"/>
+    </row>
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="6"/>
+    </row>
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="6"/>
+    </row>
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="6"/>
+    </row>
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="6"/>
+    </row>
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="6"/>
+    </row>
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="6"/>
+    </row>
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="6"/>
+    </row>
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="6"/>
+    </row>
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="6"/>
+    </row>
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="6"/>
+    </row>
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="6"/>
+    </row>
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="6"/>
+    </row>
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="6"/>
+    </row>
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="6"/>
+    </row>
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="6"/>
+    </row>
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="6"/>
+    </row>
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="6"/>
+    </row>
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="6"/>
+    </row>
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="6"/>
+    </row>
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="6"/>
+    </row>
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="6"/>
+    </row>
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="6"/>
+    </row>
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="6"/>
+    </row>
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="6"/>
+    </row>
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="6"/>
+    </row>
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="6"/>
+    </row>
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="6"/>
+    </row>
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="6"/>
+    </row>
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="6"/>
+    </row>
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="6"/>
+    </row>
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="6"/>
+    </row>
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="6"/>
+    </row>
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="6"/>
+    </row>
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="6"/>
+    </row>
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="6"/>
+    </row>
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="6"/>
+    </row>
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="6"/>
+    </row>
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="6"/>
+    </row>
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="6"/>
+    </row>
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="6"/>
+    </row>
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="6"/>
+    </row>
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="6"/>
+    </row>
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="6"/>
+    </row>
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="6"/>
+    </row>
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="6"/>
+    </row>
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="6"/>
+    </row>
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="6"/>
+    </row>
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="6"/>
+    </row>
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="6"/>
+    </row>
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="6"/>
+    </row>
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="6"/>
+    </row>
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="6"/>
+    </row>
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="6"/>
+    </row>
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="6"/>
+    </row>
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="6"/>
+    </row>
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="6"/>
+    </row>
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="6"/>
+    </row>
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="6"/>
+    </row>
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="6"/>
+    </row>
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="6"/>
+    </row>
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="6"/>
+    </row>
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="6"/>
+    </row>
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="6"/>
+    </row>
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="6"/>
+    </row>
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="6"/>
+    </row>
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="6"/>
+    </row>
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="6"/>
+    </row>
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="6"/>
+    </row>
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="6"/>
+    </row>
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="6"/>
+    </row>
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="6"/>
+    </row>
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="6"/>
+    </row>
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="6"/>
+    </row>
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="6"/>
+    </row>
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="6"/>
+    </row>
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="6"/>
+    </row>
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="6"/>
+    </row>
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="6"/>
+    </row>
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="6"/>
+    </row>
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="6"/>
+    </row>
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="6"/>
+    </row>
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="6"/>
+    </row>
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="6"/>
+    </row>
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="6"/>
+    </row>
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="6"/>
+    </row>
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="6"/>
+    </row>
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="6"/>
+    </row>
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="6"/>
+    </row>
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="6"/>
+    </row>
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="6"/>
+    </row>
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="6"/>
+    </row>
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="6"/>
+    </row>
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="6"/>
+    </row>
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="6"/>
+    </row>
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="6"/>
+    </row>
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="6"/>
+    </row>
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="6"/>
+    </row>
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="6"/>
+    </row>
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="6"/>
+    </row>
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="6"/>
+    </row>
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="6"/>
+    </row>
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="6"/>
+    </row>
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="6"/>
+    </row>
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="6"/>
+    </row>
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="6"/>
+    </row>
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="6"/>
+    </row>
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="6"/>
+    </row>
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="6"/>
+    </row>
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="6"/>
+    </row>
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="6"/>
+    </row>
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="6"/>
+    </row>
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="6"/>
+    </row>
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="6"/>
+    </row>
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="6"/>
+    </row>
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="6"/>
+    </row>
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="6"/>
+    </row>
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="6"/>
+    </row>
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="6"/>
+    </row>
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="6"/>
+    </row>
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="6"/>
+    </row>
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="6"/>
+    </row>
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="6"/>
+    </row>
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="6"/>
+    </row>
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="6"/>
+    </row>
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="6"/>
+    </row>
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="6"/>
+    </row>
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="6"/>
+    </row>
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="6"/>
+    </row>
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="6"/>
+    </row>
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="6"/>
+    </row>
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="6"/>
+    </row>
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="6"/>
+    </row>
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="6"/>
+    </row>
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="6"/>
+    </row>
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="6"/>
+    </row>
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="6"/>
+    </row>
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="6"/>
+    </row>
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="6"/>
+    </row>
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="6"/>
+    </row>
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="6"/>
+    </row>
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="6"/>
+    </row>
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="6"/>
+    </row>
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="6"/>
+    </row>
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="6"/>
+    </row>
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="6"/>
+    </row>
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="6"/>
+    </row>
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="6"/>
+    </row>
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="6"/>
+    </row>
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="6"/>
+    </row>
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="6"/>
+    </row>
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="6"/>
+    </row>
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="6"/>
+    </row>
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="6"/>
+    </row>
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="6"/>
+    </row>
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="6"/>
+    </row>
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="6"/>
+    </row>
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="6"/>
+    </row>
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="6"/>
+    </row>
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="6"/>
+    </row>
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="6"/>
+    </row>
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="6"/>
+    </row>
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="6"/>
+    </row>
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="6"/>
+    </row>
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="6"/>
+    </row>
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="6"/>
+    </row>
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="6"/>
+    </row>
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="6"/>
+    </row>
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="6"/>
+    </row>
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="6"/>
+    </row>
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="6"/>
+    </row>
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="6"/>
+    </row>
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="6"/>
+    </row>
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="6"/>
+    </row>
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="6"/>
+    </row>
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="6"/>
+    </row>
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="6"/>
+    </row>
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="6"/>
+    </row>
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="6"/>
+    </row>
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="6"/>
+    </row>
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="6"/>
+    </row>
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="6"/>
+    </row>
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="6"/>
+    </row>
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="6"/>
+    </row>
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="6"/>
+    </row>
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="6"/>
+    </row>
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="6"/>
+    </row>
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="6"/>
+    </row>
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="6"/>
+    </row>
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="6"/>
+    </row>
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="6"/>
+    </row>
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="6"/>
+    </row>
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="6"/>
+    </row>
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="6"/>
+    </row>
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="6"/>
+    </row>
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="6"/>
+    </row>
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A785" s="6"/>
+    </row>
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="6"/>
+    </row>
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="6"/>
+    </row>
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="6"/>
+    </row>
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A789" s="6"/>
+    </row>
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="6"/>
+    </row>
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="6"/>
+    </row>
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A792" s="6"/>
+    </row>
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A793" s="6"/>
+    </row>
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="6"/>
+    </row>
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A795" s="6"/>
+    </row>
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A796" s="6"/>
+    </row>
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A797" s="6"/>
+    </row>
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A798" s="6"/>
+    </row>
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="6"/>
+    </row>
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A800" s="6"/>
+    </row>
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="6"/>
+    </row>
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A802" s="6"/>
+    </row>
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A803" s="6"/>
+    </row>
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A804" s="6"/>
+    </row>
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A805" s="6"/>
+    </row>
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A806" s="6"/>
+    </row>
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="6"/>
+    </row>
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="6"/>
+    </row>
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A809" s="6"/>
+    </row>
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A810" s="6"/>
+    </row>
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A811" s="6"/>
+    </row>
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="6"/>
+    </row>
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="6"/>
+    </row>
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="6"/>
+    </row>
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A815" s="6"/>
+    </row>
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A816" s="6"/>
+    </row>
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="6"/>
+    </row>
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="6"/>
+    </row>
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="6"/>
+    </row>
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="6"/>
+    </row>
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="6"/>
+    </row>
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="6"/>
+    </row>
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="6"/>
+    </row>
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="6"/>
+    </row>
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A825" s="6"/>
+    </row>
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A826" s="6"/>
+    </row>
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="6"/>
+    </row>
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A828" s="6"/>
+    </row>
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A829" s="6"/>
+    </row>
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A830" s="6"/>
+    </row>
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A831" s="6"/>
+    </row>
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="6"/>
+    </row>
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A833" s="6"/>
+    </row>
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A834" s="6"/>
+    </row>
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A835" s="6"/>
+    </row>
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A836" s="6"/>
+    </row>
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A837" s="6"/>
+    </row>
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A838" s="6"/>
+    </row>
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A839" s="6"/>
+    </row>
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A840" s="6"/>
+    </row>
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A841" s="6"/>
+    </row>
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A842" s="6"/>
+    </row>
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A843" s="6"/>
+    </row>
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A844" s="6"/>
+    </row>
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A845" s="6"/>
+    </row>
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A846" s="6"/>
+    </row>
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A847" s="6"/>
+    </row>
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="6"/>
+    </row>
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A849" s="6"/>
+    </row>
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A850" s="6"/>
+    </row>
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A851" s="6"/>
+    </row>
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A852" s="6"/>
+    </row>
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="6"/>
+    </row>
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A854" s="6"/>
+    </row>
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A855" s="6"/>
+    </row>
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A856" s="6"/>
+    </row>
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A857" s="6"/>
+    </row>
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="6"/>
+    </row>
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="6"/>
+    </row>
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A860" s="6"/>
+    </row>
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A861" s="6"/>
+    </row>
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="6"/>
+    </row>
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A863" s="6"/>
+    </row>
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="6"/>
+    </row>
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A865" s="6"/>
+    </row>
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A866" s="6"/>
+    </row>
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="6"/>
+    </row>
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="6"/>
+    </row>
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A869" s="6"/>
+    </row>
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A870" s="6"/>
+    </row>
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A871" s="6"/>
+    </row>
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="6"/>
+    </row>
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="6"/>
+    </row>
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A874" s="6"/>
+    </row>
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A875" s="6"/>
+    </row>
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A876" s="6"/>
+    </row>
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A877" s="6"/>
+    </row>
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A878" s="6"/>
+    </row>
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A879" s="6"/>
+    </row>
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A880" s="6"/>
+    </row>
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A881" s="6"/>
+    </row>
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A882" s="6"/>
+    </row>
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A883" s="6"/>
+    </row>
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A884" s="6"/>
+    </row>
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A885" s="6"/>
+    </row>
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A886" s="6"/>
+    </row>
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="6"/>
+    </row>
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A888" s="6"/>
+    </row>
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A889" s="6"/>
+    </row>
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A890" s="6"/>
+    </row>
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A891" s="6"/>
+    </row>
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A892" s="6"/>
+    </row>
+    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A893" s="6"/>
+    </row>
+    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A894" s="6"/>
+    </row>
+    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A895" s="6"/>
+    </row>
+    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A896" s="6"/>
+    </row>
+    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A897" s="6"/>
+    </row>
+    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A898" s="6"/>
+    </row>
+    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A899" s="6"/>
+    </row>
+    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A900" s="6"/>
+    </row>
+    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A901" s="6"/>
+    </row>
+    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A902" s="6"/>
+    </row>
+    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A903" s="6"/>
+    </row>
+    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A904" s="6"/>
+    </row>
+    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A905" s="6"/>
+    </row>
+    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A906" s="6"/>
+    </row>
+    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A907" s="6"/>
+    </row>
+    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A908" s="6"/>
+    </row>
+    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A909" s="6"/>
+    </row>
+    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A910" s="6"/>
+    </row>
+    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A911" s="6"/>
+    </row>
+    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A912" s="6"/>
+    </row>
+    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A913" s="6"/>
+    </row>
+    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="6"/>
+    </row>
+    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="6"/>
+    </row>
+    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A916" s="6"/>
+    </row>
+    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A917" s="6"/>
+    </row>
+    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A918" s="6"/>
+    </row>
+    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A919" s="6"/>
+    </row>
+    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A920" s="6"/>
+    </row>
+    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A921" s="6"/>
+    </row>
+    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A922" s="6"/>
+    </row>
+    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A923" s="6"/>
+    </row>
+    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A924" s="6"/>
+    </row>
+    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A925" s="6"/>
+    </row>
+    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A926" s="6"/>
+    </row>
+    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A927" s="6"/>
+    </row>
+    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A928" s="6"/>
+    </row>
+    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A929" s="6"/>
+    </row>
+    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A930" s="6"/>
+    </row>
+    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A931" s="6"/>
+    </row>
+    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A932" s="6"/>
+    </row>
+    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A933" s="6"/>
+    </row>
+    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A934" s="6"/>
+    </row>
+    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A935" s="6"/>
+    </row>
+    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A936" s="6"/>
+    </row>
+    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="6"/>
+    </row>
+    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A938" s="6"/>
+    </row>
+    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A939" s="6"/>
+    </row>
+    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A940" s="6"/>
+    </row>
+    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A941" s="6"/>
+    </row>
+    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A942" s="6"/>
+    </row>
+    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A943" s="6"/>
+    </row>
+    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A944" s="6"/>
+    </row>
+    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A945" s="6"/>
+    </row>
+    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A946" s="6"/>
+    </row>
+    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A947" s="6"/>
+    </row>
+    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A948" s="6"/>
+    </row>
+    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A949" s="6"/>
+    </row>
+    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A950" s="6"/>
+    </row>
+    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A951" s="6"/>
+    </row>
+    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A952" s="6"/>
+    </row>
+    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A953" s="6"/>
+    </row>
+    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A954" s="6"/>
+    </row>
+    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A955" s="6"/>
+    </row>
+    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A956" s="6"/>
+    </row>
+    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A957" s="6"/>
+    </row>
+    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A958" s="6"/>
+    </row>
+    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A959" s="6"/>
+    </row>
+    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A960" s="6"/>
+    </row>
+    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A961" s="6"/>
+    </row>
+    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="6"/>
+    </row>
+    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="6"/>
+    </row>
+    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A964" s="6"/>
+    </row>
+    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A965" s="6"/>
+    </row>
+    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="6"/>
+    </row>
+    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A967" s="6"/>
+    </row>
+    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="6"/>
+    </row>
+    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A969" s="6"/>
+    </row>
+    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="6"/>
+    </row>
+    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="6"/>
+    </row>
+    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="6"/>
+    </row>
+    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="6"/>
+    </row>
+    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A974" s="6"/>
+    </row>
+    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A975" s="6"/>
+    </row>
+    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="6"/>
+    </row>
+    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A977" s="6"/>
+    </row>
+    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A978" s="6"/>
+    </row>
+    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A979" s="6"/>
+    </row>
+    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="6"/>
+    </row>
+    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="6"/>
+    </row>
+    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="6"/>
+    </row>
+    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="6"/>
+    </row>
+    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="6"/>
+    </row>
+    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="6"/>
+    </row>
+    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="6"/>
+    </row>
+    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="6"/>
+    </row>
+    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="6"/>
+    </row>
+    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="6"/>
+    </row>
+    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A990" s="6"/>
+    </row>
+    <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="6"/>
+    </row>
+    <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A992" s="6"/>
+    </row>
+    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A993" s="6"/>
+    </row>
+    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A994" s="6"/>
+    </row>
+    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A995" s="6"/>
+    </row>
+    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="6"/>
+    </row>
+    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="6"/>
+    </row>
+    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="6"/>
+    </row>
+    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="6"/>
+    </row>
+    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB6E0A-2F06-410F-BCB9-2F2C2849D4D7}">
-  <dimension ref="A1:M11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
@@ -2283,225 +5219,4186 @@
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="M1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="D2" s="19" t="s">
+      <c r="L2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="N2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6"/>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="6"/>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6"/>
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6"/>
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="6"/>
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="6"/>
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6"/>
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="6"/>
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6"/>
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6"/>
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6"/>
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6"/>
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6"/>
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6"/>
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6"/>
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6"/>
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6"/>
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6"/>
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6"/>
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6"/>
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6"/>
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6"/>
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6"/>
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6"/>
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6"/>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="6"/>
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6"/>
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="6"/>
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="6"/>
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="6"/>
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="6"/>
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="6"/>
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="6"/>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="6"/>
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6"/>
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="6"/>
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6"/>
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6"/>
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6"/>
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="6"/>
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="6"/>
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="6"/>
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6"/>
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6"/>
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="6"/>
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="6"/>
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="6"/>
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="6"/>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="6"/>
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="6"/>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="6"/>
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="6"/>
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="6"/>
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="6"/>
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="6"/>
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6"/>
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="6"/>
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="6"/>
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="6"/>
+      <c r="F188" s="6"/>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="6"/>
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="6"/>
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="6"/>
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="6"/>
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="6"/>
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="6"/>
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="6"/>
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="6"/>
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="6"/>
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="6"/>
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="6"/>
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="6"/>
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="6"/>
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="6"/>
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="6"/>
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="6"/>
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="6"/>
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="6"/>
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="6"/>
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="6"/>
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="6"/>
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="6"/>
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="6"/>
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="6"/>
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="6"/>
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="6"/>
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="6"/>
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="6"/>
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="6"/>
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="6"/>
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="6"/>
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="6"/>
+      <c r="F220" s="6"/>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="6"/>
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="6"/>
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="6"/>
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="6"/>
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="6"/>
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="6"/>
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="6"/>
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="6"/>
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="6"/>
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="6"/>
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="6"/>
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="6"/>
+      <c r="F232" s="6"/>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="6"/>
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="6"/>
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="6"/>
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="6"/>
+      <c r="F236" s="6"/>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="6"/>
+      <c r="F237" s="6"/>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="6"/>
+      <c r="F238" s="6"/>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="6"/>
+      <c r="F239" s="6"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="6"/>
+      <c r="F240" s="6"/>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="6"/>
+      <c r="F241" s="6"/>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="6"/>
+      <c r="F242" s="6"/>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="6"/>
+      <c r="F243" s="6"/>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="6"/>
+      <c r="F244" s="6"/>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="6"/>
+      <c r="F245" s="6"/>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="6"/>
+      <c r="F246" s="6"/>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="6"/>
+      <c r="F247" s="6"/>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="6"/>
+      <c r="F248" s="6"/>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="6"/>
+      <c r="F249" s="6"/>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="6"/>
+      <c r="F250" s="6"/>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="6"/>
+      <c r="F251" s="6"/>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="6"/>
+      <c r="F252" s="6"/>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="6"/>
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="6"/>
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="6"/>
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="6"/>
+      <c r="F256" s="6"/>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="6"/>
+      <c r="F257" s="6"/>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="6"/>
+      <c r="F258" s="6"/>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="6"/>
+      <c r="F259" s="6"/>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="6"/>
+      <c r="F260" s="6"/>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="6"/>
+      <c r="F261" s="6"/>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="6"/>
+      <c r="F262" s="6"/>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="6"/>
+      <c r="F263" s="6"/>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="6"/>
+      <c r="F264" s="6"/>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="6"/>
+      <c r="F265" s="6"/>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="6"/>
+      <c r="F266" s="6"/>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="6"/>
+      <c r="F267" s="6"/>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="6"/>
+      <c r="F268" s="6"/>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="6"/>
+      <c r="F269" s="6"/>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="6"/>
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="6"/>
+      <c r="F271" s="6"/>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="6"/>
+      <c r="F272" s="6"/>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="6"/>
+      <c r="F273" s="6"/>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="6"/>
+      <c r="F274" s="6"/>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="6"/>
+      <c r="F275" s="6"/>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="6"/>
+      <c r="F276" s="6"/>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="6"/>
+      <c r="F277" s="6"/>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="6"/>
+      <c r="F278" s="6"/>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="6"/>
+      <c r="F279" s="6"/>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="6"/>
+      <c r="F280" s="6"/>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="6"/>
+      <c r="F281" s="6"/>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="6"/>
+      <c r="F282" s="6"/>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="6"/>
+      <c r="F283" s="6"/>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="6"/>
+      <c r="F284" s="6"/>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="6"/>
+      <c r="F285" s="6"/>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="6"/>
+      <c r="F286" s="6"/>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="6"/>
+      <c r="F287" s="6"/>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="6"/>
+      <c r="F288" s="6"/>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="6"/>
+      <c r="F289" s="6"/>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="6"/>
+      <c r="F290" s="6"/>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="6"/>
+      <c r="F291" s="6"/>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="6"/>
+      <c r="F292" s="6"/>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="6"/>
+      <c r="F293" s="6"/>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="6"/>
+      <c r="F294" s="6"/>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="6"/>
+      <c r="F295" s="6"/>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="6"/>
+      <c r="F296" s="6"/>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="6"/>
+      <c r="F297" s="6"/>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="6"/>
+      <c r="F298" s="6"/>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="6"/>
+      <c r="F299" s="6"/>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="6"/>
+      <c r="F300" s="6"/>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="6"/>
+      <c r="F301" s="6"/>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="6"/>
+      <c r="F302" s="6"/>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="6"/>
+      <c r="F303" s="6"/>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="6"/>
+      <c r="F304" s="6"/>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="6"/>
+      <c r="F305" s="6"/>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="6"/>
+      <c r="F306" s="6"/>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="6"/>
+      <c r="F307" s="6"/>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="6"/>
+      <c r="F308" s="6"/>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="6"/>
+      <c r="F309" s="6"/>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="6"/>
+      <c r="F310" s="6"/>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="6"/>
+      <c r="F311" s="6"/>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="6"/>
+      <c r="F312" s="6"/>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="6"/>
+      <c r="F313" s="6"/>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="6"/>
+      <c r="F314" s="6"/>
+    </row>
+    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="6"/>
+      <c r="F315" s="6"/>
+    </row>
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="6"/>
+      <c r="F316" s="6"/>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="6"/>
+      <c r="F317" s="6"/>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="6"/>
+      <c r="F318" s="6"/>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="6"/>
+      <c r="F319" s="6"/>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="6"/>
+      <c r="F320" s="6"/>
+    </row>
+    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="6"/>
+      <c r="F321" s="6"/>
+    </row>
+    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="6"/>
+      <c r="F322" s="6"/>
+    </row>
+    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="6"/>
+      <c r="F323" s="6"/>
+    </row>
+    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="6"/>
+      <c r="F324" s="6"/>
+    </row>
+    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="6"/>
+      <c r="F325" s="6"/>
+    </row>
+    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="6"/>
+      <c r="F326" s="6"/>
+    </row>
+    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="6"/>
+      <c r="F327" s="6"/>
+    </row>
+    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="6"/>
+      <c r="F328" s="6"/>
+    </row>
+    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="6"/>
+      <c r="F329" s="6"/>
+    </row>
+    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6"/>
+      <c r="F330" s="6"/>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="6"/>
+      <c r="F331" s="6"/>
+    </row>
+    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="6"/>
+      <c r="F332" s="6"/>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="6"/>
+      <c r="F333" s="6"/>
+    </row>
+    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="6"/>
+      <c r="F334" s="6"/>
+    </row>
+    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="6"/>
+      <c r="F335" s="6"/>
+    </row>
+    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6"/>
+      <c r="F336" s="6"/>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="6"/>
+      <c r="F337" s="6"/>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="6"/>
+      <c r="F338" s="6"/>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="6"/>
+      <c r="F339" s="6"/>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="6"/>
+      <c r="F340" s="6"/>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="6"/>
+      <c r="F341" s="6"/>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="6"/>
+      <c r="F342" s="6"/>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="6"/>
+      <c r="F343" s="6"/>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="6"/>
+      <c r="F344" s="6"/>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="6"/>
+      <c r="F345" s="6"/>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="6"/>
+      <c r="F346" s="6"/>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="6"/>
+      <c r="F347" s="6"/>
+    </row>
+    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="6"/>
+      <c r="F348" s="6"/>
+    </row>
+    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="6"/>
+      <c r="F349" s="6"/>
+    </row>
+    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="6"/>
+      <c r="F350" s="6"/>
+    </row>
+    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="6"/>
+      <c r="F351" s="6"/>
+    </row>
+    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="6"/>
+      <c r="F352" s="6"/>
+    </row>
+    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="6"/>
+      <c r="F353" s="6"/>
+    </row>
+    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="6"/>
+      <c r="F354" s="6"/>
+    </row>
+    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="6"/>
+      <c r="F355" s="6"/>
+    </row>
+    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="6"/>
+      <c r="F356" s="6"/>
+    </row>
+    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="6"/>
+      <c r="F357" s="6"/>
+    </row>
+    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="6"/>
+      <c r="F358" s="6"/>
+    </row>
+    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="6"/>
+      <c r="F359" s="6"/>
+    </row>
+    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="6"/>
+      <c r="F360" s="6"/>
+    </row>
+    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="6"/>
+      <c r="F361" s="6"/>
+    </row>
+    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="6"/>
+      <c r="F362" s="6"/>
+    </row>
+    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="6"/>
+      <c r="F363" s="6"/>
+    </row>
+    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="6"/>
+      <c r="F364" s="6"/>
+    </row>
+    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="6"/>
+      <c r="F365" s="6"/>
+    </row>
+    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="6"/>
+      <c r="F366" s="6"/>
+    </row>
+    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="6"/>
+      <c r="F367" s="6"/>
+    </row>
+    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="6"/>
+      <c r="F368" s="6"/>
+    </row>
+    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="6"/>
+      <c r="F369" s="6"/>
+    </row>
+    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="6"/>
+      <c r="F370" s="6"/>
+    </row>
+    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="6"/>
+      <c r="F371" s="6"/>
+    </row>
+    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="6"/>
+      <c r="F372" s="6"/>
+    </row>
+    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="6"/>
+      <c r="F373" s="6"/>
+    </row>
+    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="6"/>
+      <c r="F374" s="6"/>
+    </row>
+    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="6"/>
+      <c r="F375" s="6"/>
+    </row>
+    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="6"/>
+      <c r="F376" s="6"/>
+    </row>
+    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="6"/>
+      <c r="F377" s="6"/>
+    </row>
+    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="6"/>
+      <c r="F378" s="6"/>
+    </row>
+    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="6"/>
+      <c r="F379" s="6"/>
+    </row>
+    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="6"/>
+      <c r="F380" s="6"/>
+    </row>
+    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="6"/>
+      <c r="F381" s="6"/>
+    </row>
+    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="6"/>
+      <c r="F382" s="6"/>
+    </row>
+    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="6"/>
+      <c r="F383" s="6"/>
+    </row>
+    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="6"/>
+      <c r="F384" s="6"/>
+    </row>
+    <row r="385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="6"/>
+      <c r="F385" s="6"/>
+    </row>
+    <row r="386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="6"/>
+      <c r="F386" s="6"/>
+    </row>
+    <row r="387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="6"/>
+      <c r="F387" s="6"/>
+    </row>
+    <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="6"/>
+      <c r="F388" s="6"/>
+    </row>
+    <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="6"/>
+      <c r="F389" s="6"/>
+    </row>
+    <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="6"/>
+      <c r="F390" s="6"/>
+    </row>
+    <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="6"/>
+      <c r="F391" s="6"/>
+    </row>
+    <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="6"/>
+      <c r="F392" s="6"/>
+    </row>
+    <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="6"/>
+      <c r="F393" s="6"/>
+    </row>
+    <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="6"/>
+      <c r="F394" s="6"/>
+    </row>
+    <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="6"/>
+      <c r="F395" s="6"/>
+    </row>
+    <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="6"/>
+      <c r="F396" s="6"/>
+    </row>
+    <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="6"/>
+      <c r="F397" s="6"/>
+    </row>
+    <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="6"/>
+      <c r="F398" s="6"/>
+    </row>
+    <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="6"/>
+      <c r="F399" s="6"/>
+    </row>
+    <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="6"/>
+      <c r="F400" s="6"/>
+    </row>
+    <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="6"/>
+      <c r="F401" s="6"/>
+    </row>
+    <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="6"/>
+      <c r="F402" s="6"/>
+    </row>
+    <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="6"/>
+      <c r="F403" s="6"/>
+    </row>
+    <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="6"/>
+      <c r="F404" s="6"/>
+    </row>
+    <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="6"/>
+      <c r="F405" s="6"/>
+    </row>
+    <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="6"/>
+      <c r="F406" s="6"/>
+    </row>
+    <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="6"/>
+      <c r="F407" s="6"/>
+    </row>
+    <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="6"/>
+      <c r="F408" s="6"/>
+    </row>
+    <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="6"/>
+      <c r="F409" s="6"/>
+    </row>
+    <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="6"/>
+      <c r="F410" s="6"/>
+    </row>
+    <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="6"/>
+      <c r="F411" s="6"/>
+    </row>
+    <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="6"/>
+      <c r="F412" s="6"/>
+    </row>
+    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="6"/>
+      <c r="F413" s="6"/>
+    </row>
+    <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="6"/>
+      <c r="F414" s="6"/>
+    </row>
+    <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="6"/>
+      <c r="F415" s="6"/>
+    </row>
+    <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="6"/>
+      <c r="F416" s="6"/>
+    </row>
+    <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="6"/>
+      <c r="F417" s="6"/>
+    </row>
+    <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="6"/>
+      <c r="F418" s="6"/>
+    </row>
+    <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="6"/>
+      <c r="F419" s="6"/>
+    </row>
+    <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="6"/>
+      <c r="F420" s="6"/>
+    </row>
+    <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="6"/>
+      <c r="F421" s="6"/>
+    </row>
+    <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="6"/>
+      <c r="F422" s="6"/>
+    </row>
+    <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="6"/>
+      <c r="F423" s="6"/>
+    </row>
+    <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="6"/>
+      <c r="F424" s="6"/>
+    </row>
+    <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="6"/>
+      <c r="F425" s="6"/>
+    </row>
+    <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="6"/>
+      <c r="F426" s="6"/>
+    </row>
+    <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="6"/>
+      <c r="F427" s="6"/>
+    </row>
+    <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="6"/>
+      <c r="F428" s="6"/>
+    </row>
+    <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="6"/>
+      <c r="F429" s="6"/>
+    </row>
+    <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="6"/>
+      <c r="F430" s="6"/>
+    </row>
+    <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="6"/>
+      <c r="F431" s="6"/>
+    </row>
+    <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="6"/>
+      <c r="F432" s="6"/>
+    </row>
+    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="6"/>
+      <c r="F433" s="6"/>
+    </row>
+    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="6"/>
+      <c r="F434" s="6"/>
+    </row>
+    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="6"/>
+      <c r="F435" s="6"/>
+    </row>
+    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="6"/>
+      <c r="F436" s="6"/>
+    </row>
+    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="6"/>
+      <c r="F437" s="6"/>
+    </row>
+    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="6"/>
+      <c r="F438" s="6"/>
+    </row>
+    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="6"/>
+      <c r="F439" s="6"/>
+    </row>
+    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="6"/>
+      <c r="F440" s="6"/>
+    </row>
+    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="6"/>
+      <c r="F441" s="6"/>
+    </row>
+    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="6"/>
+      <c r="F442" s="6"/>
+    </row>
+    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="6"/>
+      <c r="F443" s="6"/>
+    </row>
+    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="6"/>
+      <c r="F444" s="6"/>
+    </row>
+    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="6"/>
+      <c r="F445" s="6"/>
+    </row>
+    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="6"/>
+      <c r="F446" s="6"/>
+    </row>
+    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="6"/>
+      <c r="F447" s="6"/>
+    </row>
+    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="6"/>
+      <c r="F448" s="6"/>
+    </row>
+    <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="6"/>
+      <c r="F449" s="6"/>
+    </row>
+    <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="6"/>
+      <c r="F450" s="6"/>
+    </row>
+    <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="6"/>
+      <c r="F451" s="6"/>
+    </row>
+    <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="6"/>
+      <c r="F452" s="6"/>
+    </row>
+    <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="6"/>
+      <c r="F453" s="6"/>
+    </row>
+    <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="6"/>
+      <c r="F454" s="6"/>
+    </row>
+    <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="6"/>
+      <c r="F455" s="6"/>
+    </row>
+    <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="6"/>
+      <c r="F456" s="6"/>
+    </row>
+    <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="6"/>
+      <c r="F457" s="6"/>
+    </row>
+    <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="6"/>
+      <c r="F458" s="6"/>
+    </row>
+    <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="6"/>
+      <c r="F459" s="6"/>
+    </row>
+    <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="6"/>
+      <c r="F460" s="6"/>
+    </row>
+    <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="6"/>
+      <c r="F461" s="6"/>
+    </row>
+    <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="6"/>
+      <c r="F462" s="6"/>
+    </row>
+    <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="6"/>
+      <c r="F463" s="6"/>
+    </row>
+    <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="6"/>
+      <c r="F464" s="6"/>
+    </row>
+    <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="6"/>
+      <c r="F465" s="6"/>
+    </row>
+    <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="6"/>
+      <c r="F466" s="6"/>
+    </row>
+    <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="6"/>
+      <c r="F467" s="6"/>
+    </row>
+    <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="6"/>
+      <c r="F468" s="6"/>
+    </row>
+    <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="6"/>
+      <c r="F469" s="6"/>
+    </row>
+    <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="6"/>
+      <c r="F470" s="6"/>
+    </row>
+    <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="6"/>
+      <c r="F471" s="6"/>
+    </row>
+    <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="6"/>
+      <c r="F472" s="6"/>
+    </row>
+    <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="6"/>
+      <c r="F473" s="6"/>
+    </row>
+    <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="6"/>
+      <c r="F474" s="6"/>
+    </row>
+    <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="6"/>
+      <c r="F475" s="6"/>
+    </row>
+    <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="6"/>
+      <c r="F476" s="6"/>
+    </row>
+    <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="6"/>
+      <c r="F477" s="6"/>
+    </row>
+    <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="6"/>
+      <c r="F478" s="6"/>
+    </row>
+    <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="6"/>
+      <c r="F479" s="6"/>
+    </row>
+    <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="6"/>
+      <c r="F480" s="6"/>
+    </row>
+    <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="6"/>
+      <c r="F481" s="6"/>
+    </row>
+    <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="6"/>
+      <c r="F482" s="6"/>
+    </row>
+    <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="6"/>
+      <c r="F483" s="6"/>
+    </row>
+    <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="6"/>
+      <c r="F484" s="6"/>
+    </row>
+    <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="6"/>
+      <c r="F485" s="6"/>
+    </row>
+    <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="6"/>
+      <c r="F486" s="6"/>
+    </row>
+    <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="6"/>
+      <c r="F487" s="6"/>
+    </row>
+    <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="6"/>
+      <c r="F488" s="6"/>
+    </row>
+    <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="6"/>
+      <c r="F489" s="6"/>
+    </row>
+    <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="6"/>
+      <c r="F490" s="6"/>
+    </row>
+    <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="6"/>
+      <c r="F491" s="6"/>
+    </row>
+    <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="6"/>
+      <c r="F492" s="6"/>
+    </row>
+    <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="6"/>
+      <c r="F493" s="6"/>
+    </row>
+    <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="6"/>
+      <c r="F494" s="6"/>
+    </row>
+    <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="6"/>
+      <c r="F495" s="6"/>
+    </row>
+    <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="6"/>
+      <c r="F496" s="6"/>
+    </row>
+    <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="6"/>
+      <c r="F497" s="6"/>
+    </row>
+    <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="6"/>
+      <c r="F498" s="6"/>
+    </row>
+    <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="6"/>
+      <c r="F499" s="6"/>
+    </row>
+    <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="6"/>
+      <c r="F500" s="6"/>
+    </row>
+    <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="6"/>
+      <c r="F501" s="6"/>
+    </row>
+    <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="6"/>
+      <c r="F502" s="6"/>
+    </row>
+    <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="6"/>
+      <c r="F503" s="6"/>
+    </row>
+    <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="6"/>
+      <c r="F504" s="6"/>
+    </row>
+    <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="6"/>
+      <c r="F505" s="6"/>
+    </row>
+    <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="6"/>
+      <c r="F506" s="6"/>
+    </row>
+    <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="6"/>
+      <c r="F507" s="6"/>
+    </row>
+    <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="6"/>
+      <c r="F508" s="6"/>
+    </row>
+    <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="6"/>
+      <c r="F509" s="6"/>
+    </row>
+    <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="6"/>
+      <c r="F510" s="6"/>
+    </row>
+    <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="6"/>
+      <c r="F511" s="6"/>
+    </row>
+    <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="6"/>
+      <c r="F512" s="6"/>
+    </row>
+    <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="6"/>
+      <c r="F513" s="6"/>
+    </row>
+    <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="6"/>
+      <c r="F514" s="6"/>
+    </row>
+    <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="6"/>
+      <c r="F515" s="6"/>
+    </row>
+    <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="6"/>
+      <c r="F516" s="6"/>
+    </row>
+    <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="6"/>
+      <c r="F517" s="6"/>
+    </row>
+    <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="6"/>
+      <c r="F518" s="6"/>
+    </row>
+    <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="6"/>
+      <c r="F519" s="6"/>
+    </row>
+    <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="6"/>
+      <c r="F520" s="6"/>
+    </row>
+    <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="6"/>
+      <c r="F521" s="6"/>
+    </row>
+    <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="6"/>
+      <c r="F522" s="6"/>
+    </row>
+    <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="6"/>
+      <c r="F523" s="6"/>
+    </row>
+    <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="6"/>
+      <c r="F524" s="6"/>
+    </row>
+    <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="6"/>
+      <c r="F525" s="6"/>
+    </row>
+    <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="6"/>
+      <c r="F526" s="6"/>
+    </row>
+    <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="6"/>
+      <c r="F527" s="6"/>
+    </row>
+    <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="6"/>
+      <c r="F528" s="6"/>
+    </row>
+    <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="6"/>
+      <c r="F529" s="6"/>
+    </row>
+    <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="6"/>
+      <c r="F530" s="6"/>
+    </row>
+    <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="6"/>
+      <c r="F531" s="6"/>
+    </row>
+    <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="6"/>
+      <c r="F532" s="6"/>
+    </row>
+    <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="6"/>
+      <c r="F533" s="6"/>
+    </row>
+    <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="6"/>
+      <c r="F534" s="6"/>
+    </row>
+    <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="6"/>
+      <c r="F535" s="6"/>
+    </row>
+    <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="6"/>
+      <c r="F536" s="6"/>
+    </row>
+    <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="6"/>
+      <c r="F537" s="6"/>
+    </row>
+    <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="6"/>
+      <c r="F538" s="6"/>
+    </row>
+    <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="6"/>
+      <c r="F539" s="6"/>
+    </row>
+    <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="6"/>
+      <c r="F540" s="6"/>
+    </row>
+    <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="6"/>
+      <c r="F541" s="6"/>
+    </row>
+    <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="6"/>
+      <c r="F542" s="6"/>
+    </row>
+    <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="6"/>
+      <c r="F543" s="6"/>
+    </row>
+    <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="6"/>
+      <c r="F544" s="6"/>
+    </row>
+    <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="6"/>
+      <c r="F545" s="6"/>
+    </row>
+    <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="6"/>
+      <c r="F546" s="6"/>
+    </row>
+    <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="6"/>
+      <c r="F547" s="6"/>
+    </row>
+    <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="6"/>
+      <c r="F548" s="6"/>
+    </row>
+    <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="6"/>
+      <c r="F549" s="6"/>
+    </row>
+    <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="6"/>
+      <c r="F550" s="6"/>
+    </row>
+    <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="6"/>
+      <c r="F551" s="6"/>
+    </row>
+    <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="6"/>
+      <c r="F552" s="6"/>
+    </row>
+    <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="6"/>
+      <c r="F553" s="6"/>
+    </row>
+    <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="6"/>
+      <c r="F554" s="6"/>
+    </row>
+    <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="6"/>
+      <c r="F555" s="6"/>
+    </row>
+    <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="6"/>
+      <c r="F556" s="6"/>
+    </row>
+    <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="6"/>
+      <c r="F557" s="6"/>
+    </row>
+    <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="6"/>
+      <c r="F558" s="6"/>
+    </row>
+    <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="6"/>
+      <c r="F559" s="6"/>
+    </row>
+    <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="6"/>
+      <c r="F560" s="6"/>
+    </row>
+    <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="6"/>
+      <c r="F561" s="6"/>
+    </row>
+    <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A562" s="6"/>
+      <c r="F562" s="6"/>
+    </row>
+    <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A563" s="6"/>
+      <c r="F563" s="6"/>
+    </row>
+    <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A564" s="6"/>
+      <c r="F564" s="6"/>
+    </row>
+    <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A565" s="6"/>
+      <c r="F565" s="6"/>
+    </row>
+    <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A566" s="6"/>
+      <c r="F566" s="6"/>
+    </row>
+    <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A567" s="6"/>
+      <c r="F567" s="6"/>
+    </row>
+    <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A568" s="6"/>
+      <c r="F568" s="6"/>
+    </row>
+    <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A569" s="6"/>
+      <c r="F569" s="6"/>
+    </row>
+    <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="6"/>
+      <c r="F570" s="6"/>
+    </row>
+    <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="6"/>
+      <c r="F571" s="6"/>
+    </row>
+    <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A572" s="6"/>
+      <c r="F572" s="6"/>
+    </row>
+    <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A573" s="6"/>
+      <c r="F573" s="6"/>
+    </row>
+    <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A574" s="6"/>
+      <c r="F574" s="6"/>
+    </row>
+    <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A575" s="6"/>
+      <c r="F575" s="6"/>
+    </row>
+    <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A576" s="6"/>
+      <c r="F576" s="6"/>
+    </row>
+    <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A577" s="6"/>
+      <c r="F577" s="6"/>
+    </row>
+    <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A578" s="6"/>
+      <c r="F578" s="6"/>
+    </row>
+    <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A579" s="6"/>
+      <c r="F579" s="6"/>
+    </row>
+    <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="6"/>
+      <c r="F580" s="6"/>
+    </row>
+    <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="6"/>
+      <c r="F581" s="6"/>
+    </row>
+    <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A582" s="6"/>
+      <c r="F582" s="6"/>
+    </row>
+    <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A583" s="6"/>
+      <c r="F583" s="6"/>
+    </row>
+    <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A584" s="6"/>
+      <c r="F584" s="6"/>
+    </row>
+    <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A585" s="6"/>
+      <c r="F585" s="6"/>
+    </row>
+    <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A586" s="6"/>
+      <c r="F586" s="6"/>
+    </row>
+    <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A587" s="6"/>
+      <c r="F587" s="6"/>
+    </row>
+    <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A588" s="6"/>
+      <c r="F588" s="6"/>
+    </row>
+    <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A589" s="6"/>
+      <c r="F589" s="6"/>
+    </row>
+    <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="6"/>
+      <c r="F590" s="6"/>
+    </row>
+    <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="6"/>
+      <c r="F591" s="6"/>
+    </row>
+    <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A592" s="6"/>
+      <c r="F592" s="6"/>
+    </row>
+    <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A593" s="6"/>
+      <c r="F593" s="6"/>
+    </row>
+    <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A594" s="6"/>
+      <c r="F594" s="6"/>
+    </row>
+    <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A595" s="6"/>
+      <c r="F595" s="6"/>
+    </row>
+    <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A596" s="6"/>
+      <c r="F596" s="6"/>
+    </row>
+    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A597" s="6"/>
+      <c r="F597" s="6"/>
+    </row>
+    <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A598" s="6"/>
+      <c r="F598" s="6"/>
+    </row>
+    <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A599" s="6"/>
+      <c r="F599" s="6"/>
+    </row>
+    <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A600" s="6"/>
+      <c r="F600" s="6"/>
+    </row>
+    <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A601" s="6"/>
+      <c r="F601" s="6"/>
+    </row>
+    <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A602" s="6"/>
+      <c r="F602" s="6"/>
+    </row>
+    <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A603" s="6"/>
+      <c r="F603" s="6"/>
+    </row>
+    <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A604" s="6"/>
+      <c r="F604" s="6"/>
+    </row>
+    <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A605" s="6"/>
+      <c r="F605" s="6"/>
+    </row>
+    <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A606" s="6"/>
+      <c r="F606" s="6"/>
+    </row>
+    <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A607" s="6"/>
+      <c r="F607" s="6"/>
+    </row>
+    <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A608" s="6"/>
+      <c r="F608" s="6"/>
+    </row>
+    <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="6"/>
+      <c r="F609" s="6"/>
+    </row>
+    <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="6"/>
+      <c r="F610" s="6"/>
+    </row>
+    <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="6"/>
+      <c r="F611" s="6"/>
+    </row>
+    <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="6"/>
+      <c r="F612" s="6"/>
+    </row>
+    <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="6"/>
+      <c r="F613" s="6"/>
+    </row>
+    <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="6"/>
+      <c r="F614" s="6"/>
+    </row>
+    <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="6"/>
+      <c r="F615" s="6"/>
+    </row>
+    <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="6"/>
+      <c r="F616" s="6"/>
+    </row>
+    <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="6"/>
+      <c r="F617" s="6"/>
+    </row>
+    <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="6"/>
+      <c r="F618" s="6"/>
+    </row>
+    <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="6"/>
+      <c r="F619" s="6"/>
+    </row>
+    <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="6"/>
+      <c r="F620" s="6"/>
+    </row>
+    <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="6"/>
+      <c r="F621" s="6"/>
+    </row>
+    <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="6"/>
+      <c r="F622" s="6"/>
+    </row>
+    <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="6"/>
+      <c r="F623" s="6"/>
+    </row>
+    <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="6"/>
+      <c r="F624" s="6"/>
+    </row>
+    <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A625" s="6"/>
+      <c r="F625" s="6"/>
+    </row>
+    <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A626" s="6"/>
+      <c r="F626" s="6"/>
+    </row>
+    <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A627" s="6"/>
+      <c r="F627" s="6"/>
+    </row>
+    <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A628" s="6"/>
+      <c r="F628" s="6"/>
+    </row>
+    <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A629" s="6"/>
+      <c r="F629" s="6"/>
+    </row>
+    <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A630" s="6"/>
+      <c r="F630" s="6"/>
+    </row>
+    <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A631" s="6"/>
+      <c r="F631" s="6"/>
+    </row>
+    <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A632" s="6"/>
+      <c r="F632" s="6"/>
+    </row>
+    <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A633" s="6"/>
+      <c r="F633" s="6"/>
+    </row>
+    <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A634" s="6"/>
+      <c r="F634" s="6"/>
+    </row>
+    <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A635" s="6"/>
+      <c r="F635" s="6"/>
+    </row>
+    <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A636" s="6"/>
+      <c r="F636" s="6"/>
+    </row>
+    <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A637" s="6"/>
+      <c r="F637" s="6"/>
+    </row>
+    <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A638" s="6"/>
+      <c r="F638" s="6"/>
+    </row>
+    <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A639" s="6"/>
+      <c r="F639" s="6"/>
+    </row>
+    <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A640" s="6"/>
+      <c r="F640" s="6"/>
+    </row>
+    <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A641" s="6"/>
+      <c r="F641" s="6"/>
+    </row>
+    <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A642" s="6"/>
+      <c r="F642" s="6"/>
+    </row>
+    <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A643" s="6"/>
+      <c r="F643" s="6"/>
+    </row>
+    <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A644" s="6"/>
+      <c r="F644" s="6"/>
+    </row>
+    <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A645" s="6"/>
+      <c r="F645" s="6"/>
+    </row>
+    <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A646" s="6"/>
+      <c r="F646" s="6"/>
+    </row>
+    <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A647" s="6"/>
+      <c r="F647" s="6"/>
+    </row>
+    <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A648" s="6"/>
+      <c r="F648" s="6"/>
+    </row>
+    <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A649" s="6"/>
+      <c r="F649" s="6"/>
+    </row>
+    <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A650" s="6"/>
+      <c r="F650" s="6"/>
+    </row>
+    <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A651" s="6"/>
+      <c r="F651" s="6"/>
+    </row>
+    <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A652" s="6"/>
+      <c r="F652" s="6"/>
+    </row>
+    <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A653" s="6"/>
+      <c r="F653" s="6"/>
+    </row>
+    <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A654" s="6"/>
+      <c r="F654" s="6"/>
+    </row>
+    <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A655" s="6"/>
+      <c r="F655" s="6"/>
+    </row>
+    <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A656" s="6"/>
+      <c r="F656" s="6"/>
+    </row>
+    <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="6"/>
+      <c r="F657" s="6"/>
+    </row>
+    <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="6"/>
+      <c r="F658" s="6"/>
+    </row>
+    <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="6"/>
+      <c r="F659" s="6"/>
+    </row>
+    <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="6"/>
+      <c r="F660" s="6"/>
+    </row>
+    <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="6"/>
+      <c r="F661" s="6"/>
+    </row>
+    <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="6"/>
+      <c r="F662" s="6"/>
+    </row>
+    <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="6"/>
+      <c r="F663" s="6"/>
+    </row>
+    <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="6"/>
+      <c r="F664" s="6"/>
+    </row>
+    <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="6"/>
+      <c r="F665" s="6"/>
+    </row>
+    <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="6"/>
+      <c r="F666" s="6"/>
+    </row>
+    <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="6"/>
+      <c r="F667" s="6"/>
+    </row>
+    <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="6"/>
+      <c r="F668" s="6"/>
+    </row>
+    <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="6"/>
+      <c r="F669" s="6"/>
+    </row>
+    <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="6"/>
+      <c r="F670" s="6"/>
+    </row>
+    <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="6"/>
+      <c r="F671" s="6"/>
+    </row>
+    <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="6"/>
+      <c r="F672" s="6"/>
+    </row>
+    <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="6"/>
+      <c r="F673" s="6"/>
+    </row>
+    <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="6"/>
+      <c r="F674" s="6"/>
+    </row>
+    <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="6"/>
+      <c r="F675" s="6"/>
+    </row>
+    <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="6"/>
+      <c r="F676" s="6"/>
+    </row>
+    <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="6"/>
+      <c r="F677" s="6"/>
+    </row>
+    <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="6"/>
+      <c r="F678" s="6"/>
+    </row>
+    <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="6"/>
+      <c r="F679" s="6"/>
+    </row>
+    <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="6"/>
+      <c r="F680" s="6"/>
+    </row>
+    <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="6"/>
+      <c r="F681" s="6"/>
+    </row>
+    <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="6"/>
+      <c r="F682" s="6"/>
+    </row>
+    <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="6"/>
+      <c r="F683" s="6"/>
+    </row>
+    <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="6"/>
+      <c r="F684" s="6"/>
+    </row>
+    <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="6"/>
+      <c r="F685" s="6"/>
+    </row>
+    <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="6"/>
+      <c r="F686" s="6"/>
+    </row>
+    <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="6"/>
+      <c r="F687" s="6"/>
+    </row>
+    <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="6"/>
+      <c r="F688" s="6"/>
+    </row>
+    <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="6"/>
+      <c r="F689" s="6"/>
+    </row>
+    <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="6"/>
+      <c r="F690" s="6"/>
+    </row>
+    <row r="691" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="6"/>
+      <c r="F691" s="6"/>
+    </row>
+    <row r="692" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="6"/>
+      <c r="F692" s="6"/>
+    </row>
+    <row r="693" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="6"/>
+      <c r="F693" s="6"/>
+    </row>
+    <row r="694" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="6"/>
+      <c r="F694" s="6"/>
+    </row>
+    <row r="695" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="6"/>
+      <c r="F695" s="6"/>
+    </row>
+    <row r="696" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="6"/>
+      <c r="F696" s="6"/>
+    </row>
+    <row r="697" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="6"/>
+      <c r="F697" s="6"/>
+    </row>
+    <row r="698" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="6"/>
+      <c r="F698" s="6"/>
+    </row>
+    <row r="699" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="6"/>
+      <c r="F699" s="6"/>
+    </row>
+    <row r="700" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="6"/>
+      <c r="F700" s="6"/>
+    </row>
+    <row r="701" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="6"/>
+      <c r="F701" s="6"/>
+    </row>
+    <row r="702" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="6"/>
+      <c r="F702" s="6"/>
+    </row>
+    <row r="703" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="6"/>
+      <c r="F703" s="6"/>
+    </row>
+    <row r="704" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="6"/>
+      <c r="F704" s="6"/>
+    </row>
+    <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="6"/>
+      <c r="F705" s="6"/>
+    </row>
+    <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="6"/>
+      <c r="F706" s="6"/>
+    </row>
+    <row r="707" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="6"/>
+      <c r="F707" s="6"/>
+    </row>
+    <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="6"/>
+      <c r="F708" s="6"/>
+    </row>
+    <row r="709" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="6"/>
+      <c r="F709" s="6"/>
+    </row>
+    <row r="710" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="6"/>
+      <c r="F710" s="6"/>
+    </row>
+    <row r="711" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="6"/>
+      <c r="F711" s="6"/>
+    </row>
+    <row r="712" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="6"/>
+      <c r="F712" s="6"/>
+    </row>
+    <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="6"/>
+      <c r="F713" s="6"/>
+    </row>
+    <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="6"/>
+      <c r="F714" s="6"/>
+    </row>
+    <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="6"/>
+      <c r="F715" s="6"/>
+    </row>
+    <row r="716" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="6"/>
+      <c r="F716" s="6"/>
+    </row>
+    <row r="717" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="6"/>
+      <c r="F717" s="6"/>
+    </row>
+    <row r="718" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="6"/>
+      <c r="F718" s="6"/>
+    </row>
+    <row r="719" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="6"/>
+      <c r="F719" s="6"/>
+    </row>
+    <row r="720" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="6"/>
+      <c r="F720" s="6"/>
+    </row>
+    <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="6"/>
+      <c r="F721" s="6"/>
+    </row>
+    <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="6"/>
+      <c r="F722" s="6"/>
+    </row>
+    <row r="723" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="6"/>
+      <c r="F723" s="6"/>
+    </row>
+    <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="6"/>
+      <c r="F724" s="6"/>
+    </row>
+    <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="6"/>
+      <c r="F725" s="6"/>
+    </row>
+    <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="6"/>
+      <c r="F726" s="6"/>
+    </row>
+    <row r="727" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="6"/>
+      <c r="F727" s="6"/>
+    </row>
+    <row r="728" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="6"/>
+      <c r="F728" s="6"/>
+    </row>
+    <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="6"/>
+      <c r="F729" s="6"/>
+    </row>
+    <row r="730" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="6"/>
+      <c r="F730" s="6"/>
+    </row>
+    <row r="731" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="6"/>
+      <c r="F731" s="6"/>
+    </row>
+    <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="6"/>
+      <c r="F732" s="6"/>
+    </row>
+    <row r="733" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="6"/>
+      <c r="F733" s="6"/>
+    </row>
+    <row r="734" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="6"/>
+      <c r="F734" s="6"/>
+    </row>
+    <row r="735" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="6"/>
+      <c r="F735" s="6"/>
+    </row>
+    <row r="736" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="6"/>
+      <c r="F736" s="6"/>
+    </row>
+    <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="6"/>
+      <c r="F737" s="6"/>
+    </row>
+    <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="6"/>
+      <c r="F738" s="6"/>
+    </row>
+    <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="6"/>
+      <c r="F739" s="6"/>
+    </row>
+    <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="6"/>
+      <c r="F740" s="6"/>
+    </row>
+    <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="6"/>
+      <c r="F741" s="6"/>
+    </row>
+    <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="6"/>
+      <c r="F742" s="6"/>
+    </row>
+    <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="6"/>
+      <c r="F743" s="6"/>
+    </row>
+    <row r="744" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="6"/>
+      <c r="F744" s="6"/>
+    </row>
+    <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="6"/>
+      <c r="F745" s="6"/>
+    </row>
+    <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="6"/>
+      <c r="F746" s="6"/>
+    </row>
+    <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="6"/>
+      <c r="F747" s="6"/>
+    </row>
+    <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="6"/>
+      <c r="F748" s="6"/>
+    </row>
+    <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="6"/>
+      <c r="F749" s="6"/>
+    </row>
+    <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="6"/>
+      <c r="F750" s="6"/>
+    </row>
+    <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="6"/>
+      <c r="F751" s="6"/>
+    </row>
+    <row r="752" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="6"/>
+      <c r="F752" s="6"/>
+    </row>
+    <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="6"/>
+      <c r="F753" s="6"/>
+    </row>
+    <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="6"/>
+      <c r="F754" s="6"/>
+    </row>
+    <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="6"/>
+      <c r="F755" s="6"/>
+    </row>
+    <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="6"/>
+      <c r="F756" s="6"/>
+    </row>
+    <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="6"/>
+      <c r="F757" s="6"/>
+    </row>
+    <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="6"/>
+      <c r="F758" s="6"/>
+    </row>
+    <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="6"/>
+      <c r="F759" s="6"/>
+    </row>
+    <row r="760" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="6"/>
+      <c r="F760" s="6"/>
+    </row>
+    <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="6"/>
+      <c r="F761" s="6"/>
+    </row>
+    <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="6"/>
+      <c r="F762" s="6"/>
+    </row>
+    <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="6"/>
+      <c r="F763" s="6"/>
+    </row>
+    <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="6"/>
+      <c r="F764" s="6"/>
+    </row>
+    <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="6"/>
+      <c r="F765" s="6"/>
+    </row>
+    <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="6"/>
+      <c r="F766" s="6"/>
+    </row>
+    <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="6"/>
+      <c r="F767" s="6"/>
+    </row>
+    <row r="768" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="6"/>
+      <c r="F768" s="6"/>
+    </row>
+    <row r="769" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="6"/>
+      <c r="F769" s="6"/>
+    </row>
+    <row r="770" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="6"/>
+      <c r="F770" s="6"/>
+    </row>
+    <row r="771" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="6"/>
+      <c r="F771" s="6"/>
+    </row>
+    <row r="772" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="6"/>
+      <c r="F772" s="6"/>
+    </row>
+    <row r="773" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="6"/>
+      <c r="F773" s="6"/>
+    </row>
+    <row r="774" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="6"/>
+      <c r="F774" s="6"/>
+    </row>
+    <row r="775" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="6"/>
+      <c r="F775" s="6"/>
+    </row>
+    <row r="776" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="6"/>
+      <c r="F776" s="6"/>
+    </row>
+    <row r="777" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="6"/>
+      <c r="F777" s="6"/>
+    </row>
+    <row r="778" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="6"/>
+      <c r="F778" s="6"/>
+    </row>
+    <row r="779" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="6"/>
+      <c r="F779" s="6"/>
+    </row>
+    <row r="780" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="6"/>
+      <c r="F780" s="6"/>
+    </row>
+    <row r="781" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="6"/>
+      <c r="F781" s="6"/>
+    </row>
+    <row r="782" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="6"/>
+      <c r="F782" s="6"/>
+    </row>
+    <row r="783" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="6"/>
+      <c r="F783" s="6"/>
+    </row>
+    <row r="784" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="6"/>
+      <c r="F784" s="6"/>
+    </row>
+    <row r="785" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A785" s="6"/>
+      <c r="F785" s="6"/>
+    </row>
+    <row r="786" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="6"/>
+      <c r="F786" s="6"/>
+    </row>
+    <row r="787" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="6"/>
+      <c r="F787" s="6"/>
+    </row>
+    <row r="788" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="6"/>
+      <c r="F788" s="6"/>
+    </row>
+    <row r="789" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A789" s="6"/>
+      <c r="F789" s="6"/>
+    </row>
+    <row r="790" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="6"/>
+      <c r="F790" s="6"/>
+    </row>
+    <row r="791" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="6"/>
+      <c r="F791" s="6"/>
+    </row>
+    <row r="792" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A792" s="6"/>
+      <c r="F792" s="6"/>
+    </row>
+    <row r="793" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A793" s="6"/>
+      <c r="F793" s="6"/>
+    </row>
+    <row r="794" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="6"/>
+      <c r="F794" s="6"/>
+    </row>
+    <row r="795" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A795" s="6"/>
+      <c r="F795" s="6"/>
+    </row>
+    <row r="796" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A796" s="6"/>
+      <c r="F796" s="6"/>
+    </row>
+    <row r="797" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A797" s="6"/>
+      <c r="F797" s="6"/>
+    </row>
+    <row r="798" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A798" s="6"/>
+      <c r="F798" s="6"/>
+    </row>
+    <row r="799" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="6"/>
+      <c r="F799" s="6"/>
+    </row>
+    <row r="800" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A800" s="6"/>
+      <c r="F800" s="6"/>
+    </row>
+    <row r="801" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A801" s="6"/>
+      <c r="F801" s="6"/>
+    </row>
+    <row r="802" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A802" s="6"/>
+      <c r="F802" s="6"/>
+    </row>
+    <row r="803" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A803" s="6"/>
+      <c r="F803" s="6"/>
+    </row>
+    <row r="804" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A804" s="6"/>
+      <c r="F804" s="6"/>
+    </row>
+    <row r="805" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A805" s="6"/>
+      <c r="F805" s="6"/>
+    </row>
+    <row r="806" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A806" s="6"/>
+      <c r="F806" s="6"/>
+    </row>
+    <row r="807" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A807" s="6"/>
+      <c r="F807" s="6"/>
+    </row>
+    <row r="808" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A808" s="6"/>
+      <c r="F808" s="6"/>
+    </row>
+    <row r="809" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A809" s="6"/>
+      <c r="F809" s="6"/>
+    </row>
+    <row r="810" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A810" s="6"/>
+      <c r="F810" s="6"/>
+    </row>
+    <row r="811" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A811" s="6"/>
+      <c r="F811" s="6"/>
+    </row>
+    <row r="812" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A812" s="6"/>
+      <c r="F812" s="6"/>
+    </row>
+    <row r="813" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A813" s="6"/>
+      <c r="F813" s="6"/>
+    </row>
+    <row r="814" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A814" s="6"/>
+      <c r="F814" s="6"/>
+    </row>
+    <row r="815" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A815" s="6"/>
+      <c r="F815" s="6"/>
+    </row>
+    <row r="816" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A816" s="6"/>
+      <c r="F816" s="6"/>
+    </row>
+    <row r="817" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A817" s="6"/>
+      <c r="F817" s="6"/>
+    </row>
+    <row r="818" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A818" s="6"/>
+      <c r="F818" s="6"/>
+    </row>
+    <row r="819" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="6"/>
+      <c r="F819" s="6"/>
+    </row>
+    <row r="820" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="6"/>
+      <c r="F820" s="6"/>
+    </row>
+    <row r="821" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="6"/>
+      <c r="F821" s="6"/>
+    </row>
+    <row r="822" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A822" s="6"/>
+      <c r="F822" s="6"/>
+    </row>
+    <row r="823" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A823" s="6"/>
+      <c r="F823" s="6"/>
+    </row>
+    <row r="824" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A824" s="6"/>
+      <c r="F824" s="6"/>
+    </row>
+    <row r="825" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A825" s="6"/>
+      <c r="F825" s="6"/>
+    </row>
+    <row r="826" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A826" s="6"/>
+      <c r="F826" s="6"/>
+    </row>
+    <row r="827" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A827" s="6"/>
+      <c r="F827" s="6"/>
+    </row>
+    <row r="828" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A828" s="6"/>
+      <c r="F828" s="6"/>
+    </row>
+    <row r="829" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A829" s="6"/>
+      <c r="F829" s="6"/>
+    </row>
+    <row r="830" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A830" s="6"/>
+      <c r="F830" s="6"/>
+    </row>
+    <row r="831" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A831" s="6"/>
+      <c r="F831" s="6"/>
+    </row>
+    <row r="832" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A832" s="6"/>
+      <c r="F832" s="6"/>
+    </row>
+    <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A833" s="6"/>
+      <c r="F833" s="6"/>
+    </row>
+    <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A834" s="6"/>
+      <c r="F834" s="6"/>
+    </row>
+    <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A835" s="6"/>
+      <c r="F835" s="6"/>
+    </row>
+    <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A836" s="6"/>
+      <c r="F836" s="6"/>
+    </row>
+    <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A837" s="6"/>
+      <c r="F837" s="6"/>
+    </row>
+    <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A838" s="6"/>
+      <c r="F838" s="6"/>
+    </row>
+    <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A839" s="6"/>
+      <c r="F839" s="6"/>
+    </row>
+    <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A840" s="6"/>
+      <c r="F840" s="6"/>
+    </row>
+    <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A841" s="6"/>
+      <c r="F841" s="6"/>
+    </row>
+    <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A842" s="6"/>
+      <c r="F842" s="6"/>
+    </row>
+    <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A843" s="6"/>
+      <c r="F843" s="6"/>
+    </row>
+    <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A844" s="6"/>
+      <c r="F844" s="6"/>
+    </row>
+    <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A845" s="6"/>
+      <c r="F845" s="6"/>
+    </row>
+    <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A846" s="6"/>
+      <c r="F846" s="6"/>
+    </row>
+    <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A847" s="6"/>
+      <c r="F847" s="6"/>
+    </row>
+    <row r="848" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A848" s="6"/>
+      <c r="F848" s="6"/>
+    </row>
+    <row r="849" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A849" s="6"/>
+      <c r="F849" s="6"/>
+    </row>
+    <row r="850" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A850" s="6"/>
+      <c r="F850" s="6"/>
+    </row>
+    <row r="851" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A851" s="6"/>
+      <c r="F851" s="6"/>
+    </row>
+    <row r="852" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A852" s="6"/>
+      <c r="F852" s="6"/>
+    </row>
+    <row r="853" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A853" s="6"/>
+      <c r="F853" s="6"/>
+    </row>
+    <row r="854" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A854" s="6"/>
+      <c r="F854" s="6"/>
+    </row>
+    <row r="855" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A855" s="6"/>
+      <c r="F855" s="6"/>
+    </row>
+    <row r="856" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A856" s="6"/>
+      <c r="F856" s="6"/>
+    </row>
+    <row r="857" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A857" s="6"/>
+      <c r="F857" s="6"/>
+    </row>
+    <row r="858" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A858" s="6"/>
+      <c r="F858" s="6"/>
+    </row>
+    <row r="859" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A859" s="6"/>
+      <c r="F859" s="6"/>
+    </row>
+    <row r="860" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A860" s="6"/>
+      <c r="F860" s="6"/>
+    </row>
+    <row r="861" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A861" s="6"/>
+      <c r="F861" s="6"/>
+    </row>
+    <row r="862" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A862" s="6"/>
+      <c r="F862" s="6"/>
+    </row>
+    <row r="863" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A863" s="6"/>
+      <c r="F863" s="6"/>
+    </row>
+    <row r="864" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A864" s="6"/>
+      <c r="F864" s="6"/>
+    </row>
+    <row r="865" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A865" s="6"/>
+      <c r="F865" s="6"/>
+    </row>
+    <row r="866" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A866" s="6"/>
+      <c r="F866" s="6"/>
+    </row>
+    <row r="867" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A867" s="6"/>
+      <c r="F867" s="6"/>
+    </row>
+    <row r="868" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A868" s="6"/>
+      <c r="F868" s="6"/>
+    </row>
+    <row r="869" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A869" s="6"/>
+      <c r="F869" s="6"/>
+    </row>
+    <row r="870" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A870" s="6"/>
+      <c r="F870" s="6"/>
+    </row>
+    <row r="871" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A871" s="6"/>
+      <c r="F871" s="6"/>
+    </row>
+    <row r="872" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="6"/>
+      <c r="F872" s="6"/>
+    </row>
+    <row r="873" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="6"/>
+      <c r="F873" s="6"/>
+    </row>
+    <row r="874" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A874" s="6"/>
+      <c r="F874" s="6"/>
+    </row>
+    <row r="875" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A875" s="6"/>
+      <c r="F875" s="6"/>
+    </row>
+    <row r="876" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A876" s="6"/>
+      <c r="F876" s="6"/>
+    </row>
+    <row r="877" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A877" s="6"/>
+      <c r="F877" s="6"/>
+    </row>
+    <row r="878" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A878" s="6"/>
+      <c r="F878" s="6"/>
+    </row>
+    <row r="879" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A879" s="6"/>
+      <c r="F879" s="6"/>
+    </row>
+    <row r="880" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A880" s="6"/>
+      <c r="F880" s="6"/>
+    </row>
+    <row r="881" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A881" s="6"/>
+      <c r="F881" s="6"/>
+    </row>
+    <row r="882" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A882" s="6"/>
+      <c r="F882" s="6"/>
+    </row>
+    <row r="883" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A883" s="6"/>
+      <c r="F883" s="6"/>
+    </row>
+    <row r="884" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A884" s="6"/>
+      <c r="F884" s="6"/>
+    </row>
+    <row r="885" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A885" s="6"/>
+      <c r="F885" s="6"/>
+    </row>
+    <row r="886" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A886" s="6"/>
+      <c r="F886" s="6"/>
+    </row>
+    <row r="887" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A887" s="6"/>
+      <c r="F887" s="6"/>
+    </row>
+    <row r="888" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A888" s="6"/>
+      <c r="F888" s="6"/>
+    </row>
+    <row r="889" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A889" s="6"/>
+      <c r="F889" s="6"/>
+    </row>
+    <row r="890" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A890" s="6"/>
+      <c r="F890" s="6"/>
+    </row>
+    <row r="891" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A891" s="6"/>
+      <c r="F891" s="6"/>
+    </row>
+    <row r="892" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A892" s="6"/>
+      <c r="F892" s="6"/>
+    </row>
+    <row r="893" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A893" s="6"/>
+      <c r="F893" s="6"/>
+    </row>
+    <row r="894" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A894" s="6"/>
+      <c r="F894" s="6"/>
+    </row>
+    <row r="895" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A895" s="6"/>
+      <c r="F895" s="6"/>
+    </row>
+    <row r="896" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A896" s="6"/>
+      <c r="F896" s="6"/>
+    </row>
+    <row r="897" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A897" s="6"/>
+      <c r="F897" s="6"/>
+    </row>
+    <row r="898" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A898" s="6"/>
+      <c r="F898" s="6"/>
+    </row>
+    <row r="899" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A899" s="6"/>
+      <c r="F899" s="6"/>
+    </row>
+    <row r="900" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A900" s="6"/>
+      <c r="F900" s="6"/>
+    </row>
+    <row r="901" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A901" s="6"/>
+      <c r="F901" s="6"/>
+    </row>
+    <row r="902" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A902" s="6"/>
+      <c r="F902" s="6"/>
+    </row>
+    <row r="903" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A903" s="6"/>
+      <c r="F903" s="6"/>
+    </row>
+    <row r="904" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A904" s="6"/>
+      <c r="F904" s="6"/>
+    </row>
+    <row r="905" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A905" s="6"/>
+      <c r="F905" s="6"/>
+    </row>
+    <row r="906" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A906" s="6"/>
+      <c r="F906" s="6"/>
+    </row>
+    <row r="907" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A907" s="6"/>
+      <c r="F907" s="6"/>
+    </row>
+    <row r="908" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A908" s="6"/>
+      <c r="F908" s="6"/>
+    </row>
+    <row r="909" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A909" s="6"/>
+      <c r="F909" s="6"/>
+    </row>
+    <row r="910" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A910" s="6"/>
+      <c r="F910" s="6"/>
+    </row>
+    <row r="911" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A911" s="6"/>
+      <c r="F911" s="6"/>
+    </row>
+    <row r="912" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A912" s="6"/>
+      <c r="F912" s="6"/>
+    </row>
+    <row r="913" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A913" s="6"/>
+      <c r="F913" s="6"/>
+    </row>
+    <row r="914" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A914" s="6"/>
+      <c r="F914" s="6"/>
+    </row>
+    <row r="915" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A915" s="6"/>
+      <c r="F915" s="6"/>
+    </row>
+    <row r="916" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A916" s="6"/>
+      <c r="F916" s="6"/>
+    </row>
+    <row r="917" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A917" s="6"/>
+      <c r="F917" s="6"/>
+    </row>
+    <row r="918" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A918" s="6"/>
+      <c r="F918" s="6"/>
+    </row>
+    <row r="919" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A919" s="6"/>
+      <c r="F919" s="6"/>
+    </row>
+    <row r="920" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A920" s="6"/>
+      <c r="F920" s="6"/>
+    </row>
+    <row r="921" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A921" s="6"/>
+      <c r="F921" s="6"/>
+    </row>
+    <row r="922" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A922" s="6"/>
+      <c r="F922" s="6"/>
+    </row>
+    <row r="923" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A923" s="6"/>
+      <c r="F923" s="6"/>
+    </row>
+    <row r="924" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A924" s="6"/>
+      <c r="F924" s="6"/>
+    </row>
+    <row r="925" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A925" s="6"/>
+      <c r="F925" s="6"/>
+    </row>
+    <row r="926" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A926" s="6"/>
+      <c r="F926" s="6"/>
+    </row>
+    <row r="927" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A927" s="6"/>
+      <c r="F927" s="6"/>
+    </row>
+    <row r="928" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A928" s="6"/>
+      <c r="F928" s="6"/>
+    </row>
+    <row r="929" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A929" s="6"/>
+      <c r="F929" s="6"/>
+    </row>
+    <row r="930" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A930" s="6"/>
+      <c r="F930" s="6"/>
+    </row>
+    <row r="931" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A931" s="6"/>
+      <c r="F931" s="6"/>
+    </row>
+    <row r="932" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A932" s="6"/>
+      <c r="F932" s="6"/>
+    </row>
+    <row r="933" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A933" s="6"/>
+      <c r="F933" s="6"/>
+    </row>
+    <row r="934" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A934" s="6"/>
+      <c r="F934" s="6"/>
+    </row>
+    <row r="935" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A935" s="6"/>
+      <c r="F935" s="6"/>
+    </row>
+    <row r="936" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A936" s="6"/>
+      <c r="F936" s="6"/>
+    </row>
+    <row r="937" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A937" s="6"/>
+      <c r="F937" s="6"/>
+    </row>
+    <row r="938" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A938" s="6"/>
+      <c r="F938" s="6"/>
+    </row>
+    <row r="939" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A939" s="6"/>
+      <c r="F939" s="6"/>
+    </row>
+    <row r="940" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A940" s="6"/>
+      <c r="F940" s="6"/>
+    </row>
+    <row r="941" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A941" s="6"/>
+      <c r="F941" s="6"/>
+    </row>
+    <row r="942" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A942" s="6"/>
+      <c r="F942" s="6"/>
+    </row>
+    <row r="943" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A943" s="6"/>
+      <c r="F943" s="6"/>
+    </row>
+    <row r="944" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A944" s="6"/>
+      <c r="F944" s="6"/>
+    </row>
+    <row r="945" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A945" s="6"/>
+      <c r="F945" s="6"/>
+    </row>
+    <row r="946" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A946" s="6"/>
+      <c r="F946" s="6"/>
+    </row>
+    <row r="947" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A947" s="6"/>
+      <c r="F947" s="6"/>
+    </row>
+    <row r="948" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A948" s="6"/>
+      <c r="F948" s="6"/>
+    </row>
+    <row r="949" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A949" s="6"/>
+      <c r="F949" s="6"/>
+    </row>
+    <row r="950" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A950" s="6"/>
+      <c r="F950" s="6"/>
+    </row>
+    <row r="951" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A951" s="6"/>
+      <c r="F951" s="6"/>
+    </row>
+    <row r="952" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A952" s="6"/>
+      <c r="F952" s="6"/>
+    </row>
+    <row r="953" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A953" s="6"/>
+      <c r="F953" s="6"/>
+    </row>
+    <row r="954" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A954" s="6"/>
+      <c r="F954" s="6"/>
+    </row>
+    <row r="955" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A955" s="6"/>
+      <c r="F955" s="6"/>
+    </row>
+    <row r="956" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A956" s="6"/>
+      <c r="F956" s="6"/>
+    </row>
+    <row r="957" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A957" s="6"/>
+      <c r="F957" s="6"/>
+    </row>
+    <row r="958" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A958" s="6"/>
+      <c r="F958" s="6"/>
+    </row>
+    <row r="959" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A959" s="6"/>
+      <c r="F959" s="6"/>
+    </row>
+    <row r="960" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A960" s="6"/>
+      <c r="F960" s="6"/>
+    </row>
+    <row r="961" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A961" s="6"/>
+      <c r="F961" s="6"/>
+    </row>
+    <row r="962" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A962" s="6"/>
+      <c r="F962" s="6"/>
+    </row>
+    <row r="963" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A963" s="6"/>
+      <c r="F963" s="6"/>
+    </row>
+    <row r="964" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A964" s="6"/>
+      <c r="F964" s="6"/>
+    </row>
+    <row r="965" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A965" s="6"/>
+      <c r="F965" s="6"/>
+    </row>
+    <row r="966" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A966" s="6"/>
+      <c r="F966" s="6"/>
+    </row>
+    <row r="967" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A967" s="6"/>
+      <c r="F967" s="6"/>
+    </row>
+    <row r="968" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A968" s="6"/>
+      <c r="F968" s="6"/>
+    </row>
+    <row r="969" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A969" s="6"/>
+      <c r="F969" s="6"/>
+    </row>
+    <row r="970" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A970" s="6"/>
+      <c r="F970" s="6"/>
+    </row>
+    <row r="971" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A971" s="6"/>
+      <c r="F971" s="6"/>
+    </row>
+    <row r="972" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A972" s="6"/>
+      <c r="F972" s="6"/>
+    </row>
+    <row r="973" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A973" s="6"/>
+      <c r="F973" s="6"/>
+    </row>
+    <row r="974" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A974" s="6"/>
+      <c r="F974" s="6"/>
+    </row>
+    <row r="975" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A975" s="6"/>
+      <c r="F975" s="6"/>
+    </row>
+    <row r="976" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A976" s="6"/>
+      <c r="F976" s="6"/>
+    </row>
+    <row r="977" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A977" s="6"/>
+      <c r="F977" s="6"/>
+    </row>
+    <row r="978" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A978" s="6"/>
+      <c r="F978" s="6"/>
+    </row>
+    <row r="979" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A979" s="6"/>
+      <c r="F979" s="6"/>
+    </row>
+    <row r="980" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A980" s="6"/>
+      <c r="F980" s="6"/>
+    </row>
+    <row r="981" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A981" s="6"/>
+      <c r="F981" s="6"/>
+    </row>
+    <row r="982" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A982" s="6"/>
+      <c r="F982" s="6"/>
+    </row>
+    <row r="983" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A983" s="6"/>
+      <c r="F983" s="6"/>
+    </row>
+    <row r="984" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A984" s="6"/>
+      <c r="F984" s="6"/>
+    </row>
+    <row r="985" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A985" s="6"/>
+      <c r="F985" s="6"/>
+    </row>
+    <row r="986" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A986" s="6"/>
+      <c r="F986" s="6"/>
+    </row>
+    <row r="987" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A987" s="6"/>
+      <c r="F987" s="6"/>
+    </row>
+    <row r="988" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A988" s="6"/>
+      <c r="F988" s="6"/>
+    </row>
+    <row r="989" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A989" s="6"/>
+      <c r="F989" s="6"/>
+    </row>
+    <row r="990" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A990" s="6"/>
+      <c r="F990" s="6"/>
+    </row>
+    <row r="991" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A991" s="6"/>
+      <c r="F991" s="6"/>
+    </row>
+    <row r="992" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A992" s="6"/>
+      <c r="F992" s="6"/>
+    </row>
+    <row r="993" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A993" s="6"/>
+      <c r="F993" s="6"/>
+    </row>
+    <row r="994" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A994" s="6"/>
+      <c r="F994" s="6"/>
+    </row>
+    <row r="995" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A995" s="6"/>
+      <c r="F995" s="6"/>
+    </row>
+    <row r="996" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A996" s="6"/>
+      <c r="F996" s="6"/>
+    </row>
+    <row r="997" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="6"/>
+      <c r="F997" s="6"/>
+    </row>
+    <row r="998" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="6"/>
+      <c r="F998" s="6"/>
+    </row>
+    <row r="999" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A999" s="6"/>
+      <c r="F999" s="6"/>
+    </row>
+    <row r="1000" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="6"/>
+      <c r="F1000" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD612C6E-0C35-4A08-BC9E-BAB6CEE21F73}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2510,53 +9407,1056 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="D2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>59</v>
+      <c r="B2" s="13"/>
+      <c r="D2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CC828A-12EA-4484-905A-765AB73F5A10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3204DF0-6A55-41A5-9398-917B27B29539}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
-    <sheet name="Property" sheetId="2" r:id="rId2"/>
-    <sheet name="Lease" sheetId="3" r:id="rId3"/>
-    <sheet name="Space" sheetId="4" r:id="rId4"/>
+    <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Property" sheetId="2" r:id="rId3"/>
+    <sheet name="Lease" sheetId="3" r:id="rId4"/>
+    <sheet name="Space" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Sujith</t>
   </si>
@@ -136,9 +137,6 @@
     <t>contractTerm</t>
   </si>
   <si>
-    <t>JE Lease 111</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -149,9 +147,6 @@
   </si>
   <si>
     <t>01/01/2017</t>
-  </si>
-  <si>
-    <t>12/31/2019</t>
   </si>
   <si>
     <t>LeaseName</t>
@@ -193,32 +188,71 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>P_Test_Property_03</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
-    <t>Q_Test_Property</t>
+    <t>FASB - Charge</t>
   </si>
   <si>
-    <t>jjjj</t>
+    <t>Monthly</t>
   </si>
   <si>
-    <t>P_Test_Property_09</t>
+    <t>No Increase</t>
   </si>
   <si>
-    <t>P_Test_Property_01_Lease_Space_09</t>
+    <t>1st of Month After</t>
+  </si>
+  <si>
+    <t>Calendar Year</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>chargeType</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>escalationType</t>
+  </si>
+  <si>
+    <t>leaseTermYear</t>
+  </si>
+  <si>
+    <t>leaseTermDefined</t>
+  </si>
+  <si>
+    <t>effDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Lease</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Lease_01</t>
+  </si>
+  <si>
+    <t>12/31/2021</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Lease_space_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -229,6 +263,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -245,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -279,11 +328,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,6 +383,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,6 +724,1113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="20" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="12" customWidth="1"/>
+    <col min="8" max="9" width="21.28515625" style="12" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="12" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" style="12" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
@@ -1994,11 +3192,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2096,107 +3294,69 @@
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>61</v>
+      <c r="D2" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="E2" s="11">
-        <v>331112222</v>
+        <v>124564125</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="I2">
         <v>1229</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2">
+        <v>100000000</v>
+      </c>
+      <c r="O2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3">
-        <v>1229</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -5195,12 +6355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5210,7 +6370,7 @@
     <col min="3" max="3" width="29.140625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="9" width="14.42578125" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
@@ -5219,7 +6379,7 @@
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -5264,39 +6424,37 @@
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>42</v>
+      <c r="K2" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
@@ -9390,11 +10548,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -9421,13 +10579,13 @@
         <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>27</v>
@@ -9457,17 +10615,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="D2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>62</v>
+      <c r="D2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3204DF0-6A55-41A5-9398-917B27B29539}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721220C1-CCCE-4D7D-B3B7-C8819F3836AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -727,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -6359,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE08CAE-B324-4060-8EEF-5AAD5F0DA1C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B406646-3E46-489B-91E9-767F72034E68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -205,26 +205,29 @@
     <t>Test_Property_Auto</t>
   </si>
   <si>
-    <t>Test_Property_Auto_Lease</t>
-  </si>
-  <si>
-    <t>Test_Property_Auto_Lease_01</t>
-  </si>
-  <si>
     <t>12/31/2021</t>
   </si>
   <si>
-    <t>Test_Property_Auto_Lease_space_01</t>
+    <t>TC_ID</t>
   </si>
   <si>
-    <t>TC_ID</t>
+    <t>Test_Property_Lease-01</t>
+  </si>
+  <si>
+    <t>Test_Property_Lease_01</t>
+  </si>
+  <si>
+    <t>Test_Property_Lease-01_space_01</t>
+  </si>
+  <si>
+    <t>STestProperty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,6 +253,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,22 +334,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,6 +367,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -689,63 +700,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="20" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="10" customWidth="1"/>
-    <col min="8" max="9" width="21.28515625" style="10" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="10" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="10" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" style="10" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="10"/>
+    <col min="1" max="1" width="14.140625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="21.28515625" style="6" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="6" customWidth="1"/>
+    <col min="14" max="26" width="8.7109375" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>64</v>
+      <c r="A1" s="9" t="s">
+        <v>61</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="11" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="2"/>
@@ -763,46 +776,46 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1795,7 +1808,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1837,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1892,46 +1905,46 @@
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>124564125</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I2">
         <v>1229</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="N2">
         <v>100000000</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="5" t="s">
         <v>42</v>
       </c>
       <c r="R2" t="b">
@@ -1943,18 +1956,18 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -4957,4190 +4970,4193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="19" style="23" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="23" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="23" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="23" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="23" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="23" customWidth="1"/>
+    <col min="14" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="21" t="s">
-        <v>59</v>
+      <c r="A2" s="24"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="25" t="s">
+        <v>65</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="12"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="9"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="A26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="A27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="A28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="A29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="A30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="A31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="A32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="A33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="A34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="A35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="A36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="A37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="A38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="A40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="A41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="A42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="A43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="A44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="A45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="A46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="A47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="A48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="A49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="A50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="A51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="A52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="A53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="A54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="A55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="A56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="A57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="A58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="A59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="A60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="A61" s="17"/>
+      <c r="F61" s="17"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="A62" s="17"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="A63" s="17"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="A64" s="17"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="F65" s="4"/>
+      <c r="A65" s="17"/>
+      <c r="F65" s="17"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="A66" s="17"/>
+      <c r="F66" s="17"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="A67" s="17"/>
+      <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="F68" s="4"/>
+      <c r="A68" s="17"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="F69" s="4"/>
+      <c r="A69" s="17"/>
+      <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="A70" s="17"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="A71" s="17"/>
+      <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="F72" s="4"/>
+      <c r="A72" s="17"/>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="F73" s="4"/>
+      <c r="A73" s="17"/>
+      <c r="F73" s="17"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="F74" s="4"/>
+      <c r="A74" s="17"/>
+      <c r="F74" s="17"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="F75" s="4"/>
+      <c r="A75" s="17"/>
+      <c r="F75" s="17"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="F76" s="4"/>
+      <c r="A76" s="17"/>
+      <c r="F76" s="17"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="A77" s="17"/>
+      <c r="F77" s="17"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="F78" s="4"/>
+      <c r="A78" s="17"/>
+      <c r="F78" s="17"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="F79" s="4"/>
+      <c r="A79" s="17"/>
+      <c r="F79" s="17"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="F80" s="4"/>
+      <c r="A80" s="17"/>
+      <c r="F80" s="17"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="A81" s="17"/>
+      <c r="F81" s="17"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="F82" s="4"/>
+      <c r="A82" s="17"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="F83" s="4"/>
+      <c r="A83" s="17"/>
+      <c r="F83" s="17"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="F84" s="4"/>
+      <c r="A84" s="17"/>
+      <c r="F84" s="17"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="F85" s="4"/>
+      <c r="A85" s="17"/>
+      <c r="F85" s="17"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="F86" s="4"/>
+      <c r="A86" s="17"/>
+      <c r="F86" s="17"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="F87" s="4"/>
+      <c r="A87" s="17"/>
+      <c r="F87" s="17"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="F88" s="4"/>
+      <c r="A88" s="17"/>
+      <c r="F88" s="17"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="F89" s="4"/>
+      <c r="A89" s="17"/>
+      <c r="F89" s="17"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="F90" s="4"/>
+      <c r="A90" s="17"/>
+      <c r="F90" s="17"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="A91" s="17"/>
+      <c r="F91" s="17"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="F92" s="4"/>
+      <c r="A92" s="17"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="F93" s="4"/>
+      <c r="A93" s="17"/>
+      <c r="F93" s="17"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="F94" s="4"/>
+      <c r="A94" s="17"/>
+      <c r="F94" s="17"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="F95" s="4"/>
+      <c r="A95" s="17"/>
+      <c r="F95" s="17"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="F96" s="4"/>
+      <c r="A96" s="17"/>
+      <c r="F96" s="17"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="F97" s="4"/>
+      <c r="A97" s="17"/>
+      <c r="F97" s="17"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="F98" s="4"/>
+      <c r="A98" s="17"/>
+      <c r="F98" s="17"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="F99" s="4"/>
+      <c r="A99" s="17"/>
+      <c r="F99" s="17"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="A100" s="17"/>
+      <c r="F100" s="17"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
-      <c r="F101" s="4"/>
+      <c r="A101" s="17"/>
+      <c r="F101" s="17"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
-      <c r="F102" s="4"/>
+      <c r="A102" s="17"/>
+      <c r="F102" s="17"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="F103" s="4"/>
+      <c r="A103" s="17"/>
+      <c r="F103" s="17"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="F104" s="4"/>
+      <c r="A104" s="17"/>
+      <c r="F104" s="17"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="F105" s="4"/>
+      <c r="A105" s="17"/>
+      <c r="F105" s="17"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="F106" s="4"/>
+      <c r="A106" s="17"/>
+      <c r="F106" s="17"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="F107" s="4"/>
+      <c r="A107" s="17"/>
+      <c r="F107" s="17"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="F108" s="4"/>
+      <c r="A108" s="17"/>
+      <c r="F108" s="17"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="F109" s="4"/>
+      <c r="A109" s="17"/>
+      <c r="F109" s="17"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="F110" s="4"/>
+      <c r="A110" s="17"/>
+      <c r="F110" s="17"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="F111" s="4"/>
+      <c r="A111" s="17"/>
+      <c r="F111" s="17"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="F112" s="4"/>
+      <c r="A112" s="17"/>
+      <c r="F112" s="17"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="F113" s="4"/>
+      <c r="A113" s="17"/>
+      <c r="F113" s="17"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="4"/>
-      <c r="F114" s="4"/>
+      <c r="A114" s="17"/>
+      <c r="F114" s="17"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="4"/>
-      <c r="F115" s="4"/>
+      <c r="A115" s="17"/>
+      <c r="F115" s="17"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="4"/>
-      <c r="F116" s="4"/>
+      <c r="A116" s="17"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="4"/>
-      <c r="F117" s="4"/>
+      <c r="A117" s="17"/>
+      <c r="F117" s="17"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="4"/>
-      <c r="F118" s="4"/>
+      <c r="A118" s="17"/>
+      <c r="F118" s="17"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="4"/>
-      <c r="F119" s="4"/>
+      <c r="A119" s="17"/>
+      <c r="F119" s="17"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="F120" s="4"/>
+      <c r="A120" s="17"/>
+      <c r="F120" s="17"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="F121" s="4"/>
+      <c r="A121" s="17"/>
+      <c r="F121" s="17"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="F122" s="4"/>
+      <c r="A122" s="17"/>
+      <c r="F122" s="17"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="F123" s="4"/>
+      <c r="A123" s="17"/>
+      <c r="F123" s="17"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="F124" s="4"/>
+      <c r="A124" s="17"/>
+      <c r="F124" s="17"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="F125" s="4"/>
+      <c r="A125" s="17"/>
+      <c r="F125" s="17"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="A126" s="17"/>
+      <c r="F126" s="17"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="F127" s="4"/>
+      <c r="A127" s="17"/>
+      <c r="F127" s="17"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="F128" s="4"/>
+      <c r="A128" s="17"/>
+      <c r="F128" s="17"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="F129" s="4"/>
+      <c r="A129" s="17"/>
+      <c r="F129" s="17"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="F130" s="4"/>
+      <c r="A130" s="17"/>
+      <c r="F130" s="17"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="F131" s="4"/>
+      <c r="A131" s="17"/>
+      <c r="F131" s="17"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="F132" s="4"/>
+      <c r="A132" s="17"/>
+      <c r="F132" s="17"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="F133" s="4"/>
+      <c r="A133" s="17"/>
+      <c r="F133" s="17"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="F134" s="4"/>
+      <c r="A134" s="17"/>
+      <c r="F134" s="17"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="F135" s="4"/>
+      <c r="A135" s="17"/>
+      <c r="F135" s="17"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="F136" s="4"/>
+      <c r="A136" s="17"/>
+      <c r="F136" s="17"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="A137" s="17"/>
+      <c r="F137" s="17"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="A138" s="17"/>
+      <c r="F138" s="17"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="4"/>
-      <c r="F139" s="4"/>
+      <c r="A139" s="17"/>
+      <c r="F139" s="17"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-      <c r="F140" s="4"/>
+      <c r="A140" s="17"/>
+      <c r="F140" s="17"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="4"/>
-      <c r="F141" s="4"/>
+      <c r="A141" s="17"/>
+      <c r="F141" s="17"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="4"/>
-      <c r="F142" s="4"/>
+      <c r="A142" s="17"/>
+      <c r="F142" s="17"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4"/>
-      <c r="F143" s="4"/>
+      <c r="A143" s="17"/>
+      <c r="F143" s="17"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4"/>
-      <c r="F144" s="4"/>
+      <c r="A144" s="17"/>
+      <c r="F144" s="17"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4"/>
-      <c r="F145" s="4"/>
+      <c r="A145" s="17"/>
+      <c r="F145" s="17"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="4"/>
-      <c r="F146" s="4"/>
+      <c r="A146" s="17"/>
+      <c r="F146" s="17"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
-      <c r="F147" s="4"/>
+      <c r="A147" s="17"/>
+      <c r="F147" s="17"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-      <c r="F148" s="4"/>
+      <c r="A148" s="17"/>
+      <c r="F148" s="17"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="4"/>
-      <c r="F149" s="4"/>
+      <c r="A149" s="17"/>
+      <c r="F149" s="17"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="4"/>
-      <c r="F150" s="4"/>
+      <c r="A150" s="17"/>
+      <c r="F150" s="17"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4"/>
-      <c r="F151" s="4"/>
+      <c r="A151" s="17"/>
+      <c r="F151" s="17"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4"/>
-      <c r="F152" s="4"/>
+      <c r="A152" s="17"/>
+      <c r="F152" s="17"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="4"/>
-      <c r="F153" s="4"/>
+      <c r="A153" s="17"/>
+      <c r="F153" s="17"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="F154" s="4"/>
+      <c r="A154" s="17"/>
+      <c r="F154" s="17"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="F155" s="4"/>
+      <c r="A155" s="17"/>
+      <c r="F155" s="17"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="F156" s="4"/>
+      <c r="A156" s="17"/>
+      <c r="F156" s="17"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="F157" s="4"/>
+      <c r="A157" s="17"/>
+      <c r="F157" s="17"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="F158" s="4"/>
+      <c r="A158" s="17"/>
+      <c r="F158" s="17"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="4"/>
-      <c r="F159" s="4"/>
+      <c r="A159" s="17"/>
+      <c r="F159" s="17"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4"/>
-      <c r="F160" s="4"/>
+      <c r="A160" s="17"/>
+      <c r="F160" s="17"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
-      <c r="F161" s="4"/>
+      <c r="A161" s="17"/>
+      <c r="F161" s="17"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4"/>
-      <c r="F162" s="4"/>
+      <c r="A162" s="17"/>
+      <c r="F162" s="17"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4"/>
-      <c r="F163" s="4"/>
+      <c r="A163" s="17"/>
+      <c r="F163" s="17"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="4"/>
-      <c r="F164" s="4"/>
+      <c r="A164" s="17"/>
+      <c r="F164" s="17"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="4"/>
-      <c r="F165" s="4"/>
+      <c r="A165" s="17"/>
+      <c r="F165" s="17"/>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4"/>
-      <c r="F166" s="4"/>
+      <c r="A166" s="17"/>
+      <c r="F166" s="17"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4"/>
-      <c r="F167" s="4"/>
+      <c r="A167" s="17"/>
+      <c r="F167" s="17"/>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="4"/>
-      <c r="F168" s="4"/>
+      <c r="A168" s="17"/>
+      <c r="F168" s="17"/>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="F169" s="4"/>
+      <c r="A169" s="17"/>
+      <c r="F169" s="17"/>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="4"/>
-      <c r="F170" s="4"/>
+      <c r="A170" s="17"/>
+      <c r="F170" s="17"/>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="A171" s="17"/>
+      <c r="F171" s="17"/>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="4"/>
-      <c r="F172" s="4"/>
+      <c r="A172" s="17"/>
+      <c r="F172" s="17"/>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="4"/>
-      <c r="F173" s="4"/>
+      <c r="A173" s="17"/>
+      <c r="F173" s="17"/>
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="A174" s="17"/>
+      <c r="F174" s="17"/>
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="4"/>
-      <c r="F175" s="4"/>
+      <c r="A175" s="17"/>
+      <c r="F175" s="17"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4"/>
-      <c r="F176" s="4"/>
+      <c r="A176" s="17"/>
+      <c r="F176" s="17"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4"/>
-      <c r="F177" s="4"/>
+      <c r="A177" s="17"/>
+      <c r="F177" s="17"/>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4"/>
-      <c r="F178" s="4"/>
+      <c r="A178" s="17"/>
+      <c r="F178" s="17"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4"/>
-      <c r="F179" s="4"/>
+      <c r="A179" s="17"/>
+      <c r="F179" s="17"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4"/>
-      <c r="F180" s="4"/>
+      <c r="A180" s="17"/>
+      <c r="F180" s="17"/>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="4"/>
-      <c r="F181" s="4"/>
+      <c r="A181" s="17"/>
+      <c r="F181" s="17"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="4"/>
-      <c r="F182" s="4"/>
+      <c r="A182" s="17"/>
+      <c r="F182" s="17"/>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="4"/>
-      <c r="F183" s="4"/>
+      <c r="A183" s="17"/>
+      <c r="F183" s="17"/>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="4"/>
-      <c r="F184" s="4"/>
+      <c r="A184" s="17"/>
+      <c r="F184" s="17"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4"/>
-      <c r="F185" s="4"/>
+      <c r="A185" s="17"/>
+      <c r="F185" s="17"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="4"/>
-      <c r="F186" s="4"/>
+      <c r="A186" s="17"/>
+      <c r="F186" s="17"/>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="4"/>
-      <c r="F187" s="4"/>
+      <c r="A187" s="17"/>
+      <c r="F187" s="17"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="4"/>
-      <c r="F188" s="4"/>
+      <c r="A188" s="17"/>
+      <c r="F188" s="17"/>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="4"/>
-      <c r="F189" s="4"/>
+      <c r="A189" s="17"/>
+      <c r="F189" s="17"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="4"/>
-      <c r="F190" s="4"/>
+      <c r="A190" s="17"/>
+      <c r="F190" s="17"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="4"/>
-      <c r="F191" s="4"/>
+      <c r="A191" s="17"/>
+      <c r="F191" s="17"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-      <c r="F192" s="4"/>
+      <c r="A192" s="17"/>
+      <c r="F192" s="17"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="4"/>
-      <c r="F193" s="4"/>
+      <c r="A193" s="17"/>
+      <c r="F193" s="17"/>
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="4"/>
-      <c r="F194" s="4"/>
+      <c r="A194" s="17"/>
+      <c r="F194" s="17"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="4"/>
-      <c r="F195" s="4"/>
+      <c r="A195" s="17"/>
+      <c r="F195" s="17"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="4"/>
-      <c r="F196" s="4"/>
+      <c r="A196" s="17"/>
+      <c r="F196" s="17"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="4"/>
-      <c r="F197" s="4"/>
+      <c r="A197" s="17"/>
+      <c r="F197" s="17"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="4"/>
-      <c r="F198" s="4"/>
+      <c r="A198" s="17"/>
+      <c r="F198" s="17"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="4"/>
-      <c r="F199" s="4"/>
+      <c r="A199" s="17"/>
+      <c r="F199" s="17"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4"/>
-      <c r="F200" s="4"/>
+      <c r="A200" s="17"/>
+      <c r="F200" s="17"/>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="4"/>
-      <c r="F201" s="4"/>
+      <c r="A201" s="17"/>
+      <c r="F201" s="17"/>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4"/>
-      <c r="F202" s="4"/>
+      <c r="A202" s="17"/>
+      <c r="F202" s="17"/>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="4"/>
-      <c r="F203" s="4"/>
+      <c r="A203" s="17"/>
+      <c r="F203" s="17"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="4"/>
-      <c r="F204" s="4"/>
+      <c r="A204" s="17"/>
+      <c r="F204" s="17"/>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="4"/>
-      <c r="F205" s="4"/>
+      <c r="A205" s="17"/>
+      <c r="F205" s="17"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="4"/>
-      <c r="F206" s="4"/>
+      <c r="A206" s="17"/>
+      <c r="F206" s="17"/>
     </row>
     <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="4"/>
-      <c r="F207" s="4"/>
+      <c r="A207" s="17"/>
+      <c r="F207" s="17"/>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="4"/>
-      <c r="F208" s="4"/>
+      <c r="A208" s="17"/>
+      <c r="F208" s="17"/>
     </row>
     <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="4"/>
-      <c r="F209" s="4"/>
+      <c r="A209" s="17"/>
+      <c r="F209" s="17"/>
     </row>
     <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="4"/>
-      <c r="F210" s="4"/>
+      <c r="A210" s="17"/>
+      <c r="F210" s="17"/>
     </row>
     <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="4"/>
-      <c r="F211" s="4"/>
+      <c r="A211" s="17"/>
+      <c r="F211" s="17"/>
     </row>
     <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4"/>
-      <c r="F212" s="4"/>
+      <c r="A212" s="17"/>
+      <c r="F212" s="17"/>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-      <c r="F213" s="4"/>
+      <c r="A213" s="17"/>
+      <c r="F213" s="17"/>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4"/>
-      <c r="F214" s="4"/>
+      <c r="A214" s="17"/>
+      <c r="F214" s="17"/>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="4"/>
-      <c r="F215" s="4"/>
+      <c r="A215" s="17"/>
+      <c r="F215" s="17"/>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="4"/>
-      <c r="F216" s="4"/>
+      <c r="A216" s="17"/>
+      <c r="F216" s="17"/>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4"/>
-      <c r="F217" s="4"/>
+      <c r="A217" s="17"/>
+      <c r="F217" s="17"/>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4"/>
-      <c r="F218" s="4"/>
+      <c r="A218" s="17"/>
+      <c r="F218" s="17"/>
     </row>
     <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4"/>
-      <c r="F219" s="4"/>
+      <c r="A219" s="17"/>
+      <c r="F219" s="17"/>
     </row>
     <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4"/>
-      <c r="F220" s="4"/>
+      <c r="A220" s="17"/>
+      <c r="F220" s="17"/>
     </row>
     <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
-      <c r="F221" s="4"/>
+      <c r="A221" s="17"/>
+      <c r="F221" s="17"/>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
-      <c r="F222" s="4"/>
+      <c r="A222" s="17"/>
+      <c r="F222" s="17"/>
     </row>
     <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="F223" s="4"/>
+      <c r="A223" s="17"/>
+      <c r="F223" s="17"/>
     </row>
     <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="F224" s="4"/>
+      <c r="A224" s="17"/>
+      <c r="F224" s="17"/>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="F225" s="4"/>
+      <c r="A225" s="17"/>
+      <c r="F225" s="17"/>
     </row>
     <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="F226" s="4"/>
+      <c r="A226" s="17"/>
+      <c r="F226" s="17"/>
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="F227" s="4"/>
+      <c r="A227" s="17"/>
+      <c r="F227" s="17"/>
     </row>
     <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="F228" s="4"/>
+      <c r="A228" s="17"/>
+      <c r="F228" s="17"/>
     </row>
     <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="F229" s="4"/>
+      <c r="A229" s="17"/>
+      <c r="F229" s="17"/>
     </row>
     <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
-      <c r="F230" s="4"/>
+      <c r="A230" s="17"/>
+      <c r="F230" s="17"/>
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
-      <c r="F231" s="4"/>
+      <c r="A231" s="17"/>
+      <c r="F231" s="17"/>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="F232" s="4"/>
+      <c r="A232" s="17"/>
+      <c r="F232" s="17"/>
     </row>
     <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="F233" s="4"/>
+      <c r="A233" s="17"/>
+      <c r="F233" s="17"/>
     </row>
     <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
-      <c r="F234" s="4"/>
+      <c r="A234" s="17"/>
+      <c r="F234" s="17"/>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="F235" s="4"/>
+      <c r="A235" s="17"/>
+      <c r="F235" s="17"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="F236" s="4"/>
+      <c r="A236" s="17"/>
+      <c r="F236" s="17"/>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="F237" s="4"/>
+      <c r="A237" s="17"/>
+      <c r="F237" s="17"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="F238" s="4"/>
+      <c r="A238" s="17"/>
+      <c r="F238" s="17"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
-      <c r="F239" s="4"/>
+      <c r="A239" s="17"/>
+      <c r="F239" s="17"/>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
-      <c r="F240" s="4"/>
+      <c r="A240" s="17"/>
+      <c r="F240" s="17"/>
     </row>
     <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="F241" s="4"/>
+      <c r="A241" s="17"/>
+      <c r="F241" s="17"/>
     </row>
     <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="F242" s="4"/>
+      <c r="A242" s="17"/>
+      <c r="F242" s="17"/>
     </row>
     <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="F243" s="4"/>
+      <c r="A243" s="17"/>
+      <c r="F243" s="17"/>
     </row>
     <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="F244" s="4"/>
+      <c r="A244" s="17"/>
+      <c r="F244" s="17"/>
     </row>
     <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
-      <c r="F245" s="4"/>
+      <c r="A245" s="17"/>
+      <c r="F245" s="17"/>
     </row>
     <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
-      <c r="F246" s="4"/>
+      <c r="A246" s="17"/>
+      <c r="F246" s="17"/>
     </row>
     <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
-      <c r="F247" s="4"/>
+      <c r="A247" s="17"/>
+      <c r="F247" s="17"/>
     </row>
     <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
-      <c r="F248" s="4"/>
+      <c r="A248" s="17"/>
+      <c r="F248" s="17"/>
     </row>
     <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="4"/>
-      <c r="F249" s="4"/>
+      <c r="A249" s="17"/>
+      <c r="F249" s="17"/>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="4"/>
-      <c r="F250" s="4"/>
+      <c r="A250" s="17"/>
+      <c r="F250" s="17"/>
     </row>
     <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="4"/>
-      <c r="F251" s="4"/>
+      <c r="A251" s="17"/>
+      <c r="F251" s="17"/>
     </row>
     <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="4"/>
-      <c r="F252" s="4"/>
+      <c r="A252" s="17"/>
+      <c r="F252" s="17"/>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="4"/>
-      <c r="F253" s="4"/>
+      <c r="A253" s="17"/>
+      <c r="F253" s="17"/>
     </row>
     <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="4"/>
-      <c r="F254" s="4"/>
+      <c r="A254" s="17"/>
+      <c r="F254" s="17"/>
     </row>
     <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="4"/>
-      <c r="F255" s="4"/>
+      <c r="A255" s="17"/>
+      <c r="F255" s="17"/>
     </row>
     <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="4"/>
-      <c r="F256" s="4"/>
+      <c r="A256" s="17"/>
+      <c r="F256" s="17"/>
     </row>
     <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4"/>
-      <c r="F257" s="4"/>
+      <c r="A257" s="17"/>
+      <c r="F257" s="17"/>
     </row>
     <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="4"/>
-      <c r="F258" s="4"/>
+      <c r="A258" s="17"/>
+      <c r="F258" s="17"/>
     </row>
     <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="4"/>
-      <c r="F259" s="4"/>
+      <c r="A259" s="17"/>
+      <c r="F259" s="17"/>
     </row>
     <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="4"/>
-      <c r="F260" s="4"/>
+      <c r="A260" s="17"/>
+      <c r="F260" s="17"/>
     </row>
     <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="4"/>
-      <c r="F261" s="4"/>
+      <c r="A261" s="17"/>
+      <c r="F261" s="17"/>
     </row>
     <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="4"/>
-      <c r="F262" s="4"/>
+      <c r="A262" s="17"/>
+      <c r="F262" s="17"/>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="4"/>
-      <c r="F263" s="4"/>
+      <c r="A263" s="17"/>
+      <c r="F263" s="17"/>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="4"/>
-      <c r="F264" s="4"/>
+      <c r="A264" s="17"/>
+      <c r="F264" s="17"/>
     </row>
     <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="4"/>
-      <c r="F265" s="4"/>
+      <c r="A265" s="17"/>
+      <c r="F265" s="17"/>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="4"/>
-      <c r="F266" s="4"/>
+      <c r="A266" s="17"/>
+      <c r="F266" s="17"/>
     </row>
     <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="4"/>
-      <c r="F267" s="4"/>
+      <c r="A267" s="17"/>
+      <c r="F267" s="17"/>
     </row>
     <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="4"/>
-      <c r="F268" s="4"/>
+      <c r="A268" s="17"/>
+      <c r="F268" s="17"/>
     </row>
     <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="4"/>
-      <c r="F269" s="4"/>
+      <c r="A269" s="17"/>
+      <c r="F269" s="17"/>
     </row>
     <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="4"/>
-      <c r="F270" s="4"/>
+      <c r="A270" s="17"/>
+      <c r="F270" s="17"/>
     </row>
     <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="4"/>
-      <c r="F271" s="4"/>
+      <c r="A271" s="17"/>
+      <c r="F271" s="17"/>
     </row>
     <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="4"/>
-      <c r="F272" s="4"/>
+      <c r="A272" s="17"/>
+      <c r="F272" s="17"/>
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="4"/>
-      <c r="F273" s="4"/>
+      <c r="A273" s="17"/>
+      <c r="F273" s="17"/>
     </row>
     <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="4"/>
-      <c r="F274" s="4"/>
+      <c r="A274" s="17"/>
+      <c r="F274" s="17"/>
     </row>
     <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="4"/>
-      <c r="F275" s="4"/>
+      <c r="A275" s="17"/>
+      <c r="F275" s="17"/>
     </row>
     <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4"/>
-      <c r="F276" s="4"/>
+      <c r="A276" s="17"/>
+      <c r="F276" s="17"/>
     </row>
     <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="4"/>
-      <c r="F277" s="4"/>
+      <c r="A277" s="17"/>
+      <c r="F277" s="17"/>
     </row>
     <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="4"/>
-      <c r="F278" s="4"/>
+      <c r="A278" s="17"/>
+      <c r="F278" s="17"/>
     </row>
     <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="4"/>
-      <c r="F279" s="4"/>
+      <c r="A279" s="17"/>
+      <c r="F279" s="17"/>
     </row>
     <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4"/>
-      <c r="F280" s="4"/>
+      <c r="A280" s="17"/>
+      <c r="F280" s="17"/>
     </row>
     <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="4"/>
-      <c r="F281" s="4"/>
+      <c r="A281" s="17"/>
+      <c r="F281" s="17"/>
     </row>
     <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="4"/>
-      <c r="F282" s="4"/>
+      <c r="A282" s="17"/>
+      <c r="F282" s="17"/>
     </row>
     <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4"/>
-      <c r="F283" s="4"/>
+      <c r="A283" s="17"/>
+      <c r="F283" s="17"/>
     </row>
     <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="4"/>
-      <c r="F284" s="4"/>
+      <c r="A284" s="17"/>
+      <c r="F284" s="17"/>
     </row>
     <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="4"/>
-      <c r="F285" s="4"/>
+      <c r="A285" s="17"/>
+      <c r="F285" s="17"/>
     </row>
     <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="4"/>
-      <c r="F286" s="4"/>
+      <c r="A286" s="17"/>
+      <c r="F286" s="17"/>
     </row>
     <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4"/>
-      <c r="F287" s="4"/>
+      <c r="A287" s="17"/>
+      <c r="F287" s="17"/>
     </row>
     <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4"/>
-      <c r="F288" s="4"/>
+      <c r="A288" s="17"/>
+      <c r="F288" s="17"/>
     </row>
     <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4"/>
-      <c r="F289" s="4"/>
+      <c r="A289" s="17"/>
+      <c r="F289" s="17"/>
     </row>
     <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4"/>
-      <c r="F290" s="4"/>
+      <c r="A290" s="17"/>
+      <c r="F290" s="17"/>
     </row>
     <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4"/>
-      <c r="F291" s="4"/>
+      <c r="A291" s="17"/>
+      <c r="F291" s="17"/>
     </row>
     <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="4"/>
-      <c r="F292" s="4"/>
+      <c r="A292" s="17"/>
+      <c r="F292" s="17"/>
     </row>
     <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="4"/>
-      <c r="F293" s="4"/>
+      <c r="A293" s="17"/>
+      <c r="F293" s="17"/>
     </row>
     <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="4"/>
-      <c r="F294" s="4"/>
+      <c r="A294" s="17"/>
+      <c r="F294" s="17"/>
     </row>
     <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="4"/>
-      <c r="F295" s="4"/>
+      <c r="A295" s="17"/>
+      <c r="F295" s="17"/>
     </row>
     <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="4"/>
-      <c r="F296" s="4"/>
+      <c r="A296" s="17"/>
+      <c r="F296" s="17"/>
     </row>
     <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="4"/>
-      <c r="F297" s="4"/>
+      <c r="A297" s="17"/>
+      <c r="F297" s="17"/>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="4"/>
-      <c r="F298" s="4"/>
+      <c r="A298" s="17"/>
+      <c r="F298" s="17"/>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="4"/>
-      <c r="F299" s="4"/>
+      <c r="A299" s="17"/>
+      <c r="F299" s="17"/>
     </row>
     <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="4"/>
-      <c r="F300" s="4"/>
+      <c r="A300" s="17"/>
+      <c r="F300" s="17"/>
     </row>
     <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="4"/>
-      <c r="F301" s="4"/>
+      <c r="A301" s="17"/>
+      <c r="F301" s="17"/>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="4"/>
-      <c r="F302" s="4"/>
+      <c r="A302" s="17"/>
+      <c r="F302" s="17"/>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="4"/>
-      <c r="F303" s="4"/>
+      <c r="A303" s="17"/>
+      <c r="F303" s="17"/>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="4"/>
-      <c r="F304" s="4"/>
+      <c r="A304" s="17"/>
+      <c r="F304" s="17"/>
     </row>
     <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="4"/>
-      <c r="F305" s="4"/>
+      <c r="A305" s="17"/>
+      <c r="F305" s="17"/>
     </row>
     <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="4"/>
-      <c r="F306" s="4"/>
+      <c r="A306" s="17"/>
+      <c r="F306" s="17"/>
     </row>
     <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="4"/>
-      <c r="F307" s="4"/>
+      <c r="A307" s="17"/>
+      <c r="F307" s="17"/>
     </row>
     <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="4"/>
-      <c r="F308" s="4"/>
+      <c r="A308" s="17"/>
+      <c r="F308" s="17"/>
     </row>
     <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="4"/>
-      <c r="F309" s="4"/>
+      <c r="A309" s="17"/>
+      <c r="F309" s="17"/>
     </row>
     <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="4"/>
-      <c r="F310" s="4"/>
+      <c r="A310" s="17"/>
+      <c r="F310" s="17"/>
     </row>
     <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="4"/>
-      <c r="F311" s="4"/>
+      <c r="A311" s="17"/>
+      <c r="F311" s="17"/>
     </row>
     <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="4"/>
-      <c r="F312" s="4"/>
+      <c r="A312" s="17"/>
+      <c r="F312" s="17"/>
     </row>
     <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="4"/>
-      <c r="F313" s="4"/>
+      <c r="A313" s="17"/>
+      <c r="F313" s="17"/>
     </row>
     <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="4"/>
-      <c r="F314" s="4"/>
+      <c r="A314" s="17"/>
+      <c r="F314" s="17"/>
     </row>
     <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="4"/>
-      <c r="F315" s="4"/>
+      <c r="A315" s="17"/>
+      <c r="F315" s="17"/>
     </row>
     <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="4"/>
-      <c r="F316" s="4"/>
+      <c r="A316" s="17"/>
+      <c r="F316" s="17"/>
     </row>
     <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="4"/>
-      <c r="F317" s="4"/>
+      <c r="A317" s="17"/>
+      <c r="F317" s="17"/>
     </row>
     <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="4"/>
-      <c r="F318" s="4"/>
+      <c r="A318" s="17"/>
+      <c r="F318" s="17"/>
     </row>
     <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="4"/>
-      <c r="F319" s="4"/>
+      <c r="A319" s="17"/>
+      <c r="F319" s="17"/>
     </row>
     <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="4"/>
-      <c r="F320" s="4"/>
+      <c r="A320" s="17"/>
+      <c r="F320" s="17"/>
     </row>
     <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="4"/>
-      <c r="F321" s="4"/>
+      <c r="A321" s="17"/>
+      <c r="F321" s="17"/>
     </row>
     <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="4"/>
-      <c r="F322" s="4"/>
+      <c r="A322" s="17"/>
+      <c r="F322" s="17"/>
     </row>
     <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="4"/>
-      <c r="F323" s="4"/>
+      <c r="A323" s="17"/>
+      <c r="F323" s="17"/>
     </row>
     <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="4"/>
-      <c r="F324" s="4"/>
+      <c r="A324" s="17"/>
+      <c r="F324" s="17"/>
     </row>
     <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="4"/>
-      <c r="F325" s="4"/>
+      <c r="A325" s="17"/>
+      <c r="F325" s="17"/>
     </row>
     <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="4"/>
-      <c r="F326" s="4"/>
+      <c r="A326" s="17"/>
+      <c r="F326" s="17"/>
     </row>
     <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="4"/>
-      <c r="F327" s="4"/>
+      <c r="A327" s="17"/>
+      <c r="F327" s="17"/>
     </row>
     <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="4"/>
-      <c r="F328" s="4"/>
+      <c r="A328" s="17"/>
+      <c r="F328" s="17"/>
     </row>
     <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="4"/>
-      <c r="F329" s="4"/>
+      <c r="A329" s="17"/>
+      <c r="F329" s="17"/>
     </row>
     <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="4"/>
-      <c r="F330" s="4"/>
+      <c r="A330" s="17"/>
+      <c r="F330" s="17"/>
     </row>
     <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="4"/>
-      <c r="F331" s="4"/>
+      <c r="A331" s="17"/>
+      <c r="F331" s="17"/>
     </row>
     <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="4"/>
-      <c r="F332" s="4"/>
+      <c r="A332" s="17"/>
+      <c r="F332" s="17"/>
     </row>
     <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="4"/>
-      <c r="F333" s="4"/>
+      <c r="A333" s="17"/>
+      <c r="F333" s="17"/>
     </row>
     <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="4"/>
-      <c r="F334" s="4"/>
+      <c r="A334" s="17"/>
+      <c r="F334" s="17"/>
     </row>
     <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="4"/>
-      <c r="F335" s="4"/>
+      <c r="A335" s="17"/>
+      <c r="F335" s="17"/>
     </row>
     <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="4"/>
-      <c r="F336" s="4"/>
+      <c r="A336" s="17"/>
+      <c r="F336" s="17"/>
     </row>
     <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="4"/>
-      <c r="F337" s="4"/>
+      <c r="A337" s="17"/>
+      <c r="F337" s="17"/>
     </row>
     <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="4"/>
-      <c r="F338" s="4"/>
+      <c r="A338" s="17"/>
+      <c r="F338" s="17"/>
     </row>
     <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="4"/>
-      <c r="F339" s="4"/>
+      <c r="A339" s="17"/>
+      <c r="F339" s="17"/>
     </row>
     <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="4"/>
-      <c r="F340" s="4"/>
+      <c r="A340" s="17"/>
+      <c r="F340" s="17"/>
     </row>
     <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="4"/>
-      <c r="F341" s="4"/>
+      <c r="A341" s="17"/>
+      <c r="F341" s="17"/>
     </row>
     <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="4"/>
-      <c r="F342" s="4"/>
+      <c r="A342" s="17"/>
+      <c r="F342" s="17"/>
     </row>
     <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="4"/>
-      <c r="F343" s="4"/>
+      <c r="A343" s="17"/>
+      <c r="F343" s="17"/>
     </row>
     <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="4"/>
-      <c r="F344" s="4"/>
+      <c r="A344" s="17"/>
+      <c r="F344" s="17"/>
     </row>
     <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="4"/>
-      <c r="F345" s="4"/>
+      <c r="A345" s="17"/>
+      <c r="F345" s="17"/>
     </row>
     <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="4"/>
-      <c r="F346" s="4"/>
+      <c r="A346" s="17"/>
+      <c r="F346" s="17"/>
     </row>
     <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="4"/>
-      <c r="F347" s="4"/>
+      <c r="A347" s="17"/>
+      <c r="F347" s="17"/>
     </row>
     <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="4"/>
-      <c r="F348" s="4"/>
+      <c r="A348" s="17"/>
+      <c r="F348" s="17"/>
     </row>
     <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="4"/>
-      <c r="F349" s="4"/>
+      <c r="A349" s="17"/>
+      <c r="F349" s="17"/>
     </row>
     <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="4"/>
-      <c r="F350" s="4"/>
+      <c r="A350" s="17"/>
+      <c r="F350" s="17"/>
     </row>
     <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="4"/>
-      <c r="F351" s="4"/>
+      <c r="A351" s="17"/>
+      <c r="F351" s="17"/>
     </row>
     <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="4"/>
-      <c r="F352" s="4"/>
+      <c r="A352" s="17"/>
+      <c r="F352" s="17"/>
     </row>
     <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="4"/>
-      <c r="F353" s="4"/>
+      <c r="A353" s="17"/>
+      <c r="F353" s="17"/>
     </row>
     <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="4"/>
-      <c r="F354" s="4"/>
+      <c r="A354" s="17"/>
+      <c r="F354" s="17"/>
     </row>
     <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="4"/>
-      <c r="F355" s="4"/>
+      <c r="A355" s="17"/>
+      <c r="F355" s="17"/>
     </row>
     <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="4"/>
-      <c r="F356" s="4"/>
+      <c r="A356" s="17"/>
+      <c r="F356" s="17"/>
     </row>
     <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="4"/>
-      <c r="F357" s="4"/>
+      <c r="A357" s="17"/>
+      <c r="F357" s="17"/>
     </row>
     <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="4"/>
-      <c r="F358" s="4"/>
+      <c r="A358" s="17"/>
+      <c r="F358" s="17"/>
     </row>
     <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="4"/>
-      <c r="F359" s="4"/>
+      <c r="A359" s="17"/>
+      <c r="F359" s="17"/>
     </row>
     <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="4"/>
-      <c r="F360" s="4"/>
+      <c r="A360" s="17"/>
+      <c r="F360" s="17"/>
     </row>
     <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="4"/>
-      <c r="F361" s="4"/>
+      <c r="A361" s="17"/>
+      <c r="F361" s="17"/>
     </row>
     <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="4"/>
-      <c r="F362" s="4"/>
+      <c r="A362" s="17"/>
+      <c r="F362" s="17"/>
     </row>
     <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="4"/>
-      <c r="F363" s="4"/>
+      <c r="A363" s="17"/>
+      <c r="F363" s="17"/>
     </row>
     <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="4"/>
-      <c r="F364" s="4"/>
+      <c r="A364" s="17"/>
+      <c r="F364" s="17"/>
     </row>
     <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="4"/>
-      <c r="F365" s="4"/>
+      <c r="A365" s="17"/>
+      <c r="F365" s="17"/>
     </row>
     <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="4"/>
-      <c r="F366" s="4"/>
+      <c r="A366" s="17"/>
+      <c r="F366" s="17"/>
     </row>
     <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="4"/>
-      <c r="F367" s="4"/>
+      <c r="A367" s="17"/>
+      <c r="F367" s="17"/>
     </row>
     <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="4"/>
-      <c r="F368" s="4"/>
+      <c r="A368" s="17"/>
+      <c r="F368" s="17"/>
     </row>
     <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="4"/>
-      <c r="F369" s="4"/>
+      <c r="A369" s="17"/>
+      <c r="F369" s="17"/>
     </row>
     <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="4"/>
-      <c r="F370" s="4"/>
+      <c r="A370" s="17"/>
+      <c r="F370" s="17"/>
     </row>
     <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="4"/>
-      <c r="F371" s="4"/>
+      <c r="A371" s="17"/>
+      <c r="F371" s="17"/>
     </row>
     <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="4"/>
-      <c r="F372" s="4"/>
+      <c r="A372" s="17"/>
+      <c r="F372" s="17"/>
     </row>
     <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="4"/>
-      <c r="F373" s="4"/>
+      <c r="A373" s="17"/>
+      <c r="F373" s="17"/>
     </row>
     <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="4"/>
-      <c r="F374" s="4"/>
+      <c r="A374" s="17"/>
+      <c r="F374" s="17"/>
     </row>
     <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="4"/>
-      <c r="F375" s="4"/>
+      <c r="A375" s="17"/>
+      <c r="F375" s="17"/>
     </row>
     <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="4"/>
-      <c r="F376" s="4"/>
+      <c r="A376" s="17"/>
+      <c r="F376" s="17"/>
     </row>
     <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="4"/>
-      <c r="F377" s="4"/>
+      <c r="A377" s="17"/>
+      <c r="F377" s="17"/>
     </row>
     <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="4"/>
-      <c r="F378" s="4"/>
+      <c r="A378" s="17"/>
+      <c r="F378" s="17"/>
     </row>
     <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="4"/>
-      <c r="F379" s="4"/>
+      <c r="A379" s="17"/>
+      <c r="F379" s="17"/>
     </row>
     <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="4"/>
-      <c r="F380" s="4"/>
+      <c r="A380" s="17"/>
+      <c r="F380" s="17"/>
     </row>
     <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="4"/>
-      <c r="F381" s="4"/>
+      <c r="A381" s="17"/>
+      <c r="F381" s="17"/>
     </row>
     <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="4"/>
-      <c r="F382" s="4"/>
+      <c r="A382" s="17"/>
+      <c r="F382" s="17"/>
     </row>
     <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="4"/>
-      <c r="F383" s="4"/>
+      <c r="A383" s="17"/>
+      <c r="F383" s="17"/>
     </row>
     <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="4"/>
-      <c r="F384" s="4"/>
+      <c r="A384" s="17"/>
+      <c r="F384" s="17"/>
     </row>
     <row r="385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="4"/>
-      <c r="F385" s="4"/>
+      <c r="A385" s="17"/>
+      <c r="F385" s="17"/>
     </row>
     <row r="386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="4"/>
-      <c r="F386" s="4"/>
+      <c r="A386" s="17"/>
+      <c r="F386" s="17"/>
     </row>
     <row r="387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="4"/>
-      <c r="F387" s="4"/>
+      <c r="A387" s="17"/>
+      <c r="F387" s="17"/>
     </row>
     <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="4"/>
-      <c r="F388" s="4"/>
+      <c r="A388" s="17"/>
+      <c r="F388" s="17"/>
     </row>
     <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="4"/>
-      <c r="F389" s="4"/>
+      <c r="A389" s="17"/>
+      <c r="F389" s="17"/>
     </row>
     <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="4"/>
-      <c r="F390" s="4"/>
+      <c r="A390" s="17"/>
+      <c r="F390" s="17"/>
     </row>
     <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="4"/>
-      <c r="F391" s="4"/>
+      <c r="A391" s="17"/>
+      <c r="F391" s="17"/>
     </row>
     <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="4"/>
-      <c r="F392" s="4"/>
+      <c r="A392" s="17"/>
+      <c r="F392" s="17"/>
     </row>
     <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="4"/>
-      <c r="F393" s="4"/>
+      <c r="A393" s="17"/>
+      <c r="F393" s="17"/>
     </row>
     <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="4"/>
-      <c r="F394" s="4"/>
+      <c r="A394" s="17"/>
+      <c r="F394" s="17"/>
     </row>
     <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="4"/>
-      <c r="F395" s="4"/>
+      <c r="A395" s="17"/>
+      <c r="F395" s="17"/>
     </row>
     <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="4"/>
-      <c r="F396" s="4"/>
+      <c r="A396" s="17"/>
+      <c r="F396" s="17"/>
     </row>
     <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="4"/>
-      <c r="F397" s="4"/>
+      <c r="A397" s="17"/>
+      <c r="F397" s="17"/>
     </row>
     <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="4"/>
-      <c r="F398" s="4"/>
+      <c r="A398" s="17"/>
+      <c r="F398" s="17"/>
     </row>
     <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="4"/>
-      <c r="F399" s="4"/>
+      <c r="A399" s="17"/>
+      <c r="F399" s="17"/>
     </row>
     <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="4"/>
-      <c r="F400" s="4"/>
+      <c r="A400" s="17"/>
+      <c r="F400" s="17"/>
     </row>
     <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="4"/>
-      <c r="F401" s="4"/>
+      <c r="A401" s="17"/>
+      <c r="F401" s="17"/>
     </row>
     <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="4"/>
-      <c r="F402" s="4"/>
+      <c r="A402" s="17"/>
+      <c r="F402" s="17"/>
     </row>
     <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="4"/>
-      <c r="F403" s="4"/>
+      <c r="A403" s="17"/>
+      <c r="F403" s="17"/>
     </row>
     <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="4"/>
-      <c r="F404" s="4"/>
+      <c r="A404" s="17"/>
+      <c r="F404" s="17"/>
     </row>
     <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="4"/>
-      <c r="F405" s="4"/>
+      <c r="A405" s="17"/>
+      <c r="F405" s="17"/>
     </row>
     <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="4"/>
-      <c r="F406" s="4"/>
+      <c r="A406" s="17"/>
+      <c r="F406" s="17"/>
     </row>
     <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="4"/>
-      <c r="F407" s="4"/>
+      <c r="A407" s="17"/>
+      <c r="F407" s="17"/>
     </row>
     <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="4"/>
-      <c r="F408" s="4"/>
+      <c r="A408" s="17"/>
+      <c r="F408" s="17"/>
     </row>
     <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="4"/>
-      <c r="F409" s="4"/>
+      <c r="A409" s="17"/>
+      <c r="F409" s="17"/>
     </row>
     <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="4"/>
-      <c r="F410" s="4"/>
+      <c r="A410" s="17"/>
+      <c r="F410" s="17"/>
     </row>
     <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="4"/>
-      <c r="F411" s="4"/>
+      <c r="A411" s="17"/>
+      <c r="F411" s="17"/>
     </row>
     <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="4"/>
-      <c r="F412" s="4"/>
+      <c r="A412" s="17"/>
+      <c r="F412" s="17"/>
     </row>
     <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="4"/>
-      <c r="F413" s="4"/>
+      <c r="A413" s="17"/>
+      <c r="F413" s="17"/>
     </row>
     <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="4"/>
-      <c r="F414" s="4"/>
+      <c r="A414" s="17"/>
+      <c r="F414" s="17"/>
     </row>
     <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="4"/>
-      <c r="F415" s="4"/>
+      <c r="A415" s="17"/>
+      <c r="F415" s="17"/>
     </row>
     <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="4"/>
-      <c r="F416" s="4"/>
+      <c r="A416" s="17"/>
+      <c r="F416" s="17"/>
     </row>
     <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="4"/>
-      <c r="F417" s="4"/>
+      <c r="A417" s="17"/>
+      <c r="F417" s="17"/>
     </row>
     <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="4"/>
-      <c r="F418" s="4"/>
+      <c r="A418" s="17"/>
+      <c r="F418" s="17"/>
     </row>
     <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="4"/>
-      <c r="F419" s="4"/>
+      <c r="A419" s="17"/>
+      <c r="F419" s="17"/>
     </row>
     <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="4"/>
-      <c r="F420" s="4"/>
+      <c r="A420" s="17"/>
+      <c r="F420" s="17"/>
     </row>
     <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="4"/>
-      <c r="F421" s="4"/>
+      <c r="A421" s="17"/>
+      <c r="F421" s="17"/>
     </row>
     <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="4"/>
-      <c r="F422" s="4"/>
+      <c r="A422" s="17"/>
+      <c r="F422" s="17"/>
     </row>
     <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="4"/>
-      <c r="F423" s="4"/>
+      <c r="A423" s="17"/>
+      <c r="F423" s="17"/>
     </row>
     <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="4"/>
-      <c r="F424" s="4"/>
+      <c r="A424" s="17"/>
+      <c r="F424" s="17"/>
     </row>
     <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="4"/>
-      <c r="F425" s="4"/>
+      <c r="A425" s="17"/>
+      <c r="F425" s="17"/>
     </row>
     <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="4"/>
-      <c r="F426" s="4"/>
+      <c r="A426" s="17"/>
+      <c r="F426" s="17"/>
     </row>
     <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="4"/>
-      <c r="F427" s="4"/>
+      <c r="A427" s="17"/>
+      <c r="F427" s="17"/>
     </row>
     <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="4"/>
-      <c r="F428" s="4"/>
+      <c r="A428" s="17"/>
+      <c r="F428" s="17"/>
     </row>
     <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="4"/>
-      <c r="F429" s="4"/>
+      <c r="A429" s="17"/>
+      <c r="F429" s="17"/>
     </row>
     <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="4"/>
-      <c r="F430" s="4"/>
+      <c r="A430" s="17"/>
+      <c r="F430" s="17"/>
     </row>
     <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="4"/>
-      <c r="F431" s="4"/>
+      <c r="A431" s="17"/>
+      <c r="F431" s="17"/>
     </row>
     <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="4"/>
-      <c r="F432" s="4"/>
+      <c r="A432" s="17"/>
+      <c r="F432" s="17"/>
     </row>
     <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="4"/>
-      <c r="F433" s="4"/>
+      <c r="A433" s="17"/>
+      <c r="F433" s="17"/>
     </row>
     <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="4"/>
-      <c r="F434" s="4"/>
+      <c r="A434" s="17"/>
+      <c r="F434" s="17"/>
     </row>
     <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="4"/>
-      <c r="F435" s="4"/>
+      <c r="A435" s="17"/>
+      <c r="F435" s="17"/>
     </row>
     <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="4"/>
-      <c r="F436" s="4"/>
+      <c r="A436" s="17"/>
+      <c r="F436" s="17"/>
     </row>
     <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="4"/>
-      <c r="F437" s="4"/>
+      <c r="A437" s="17"/>
+      <c r="F437" s="17"/>
     </row>
     <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="4"/>
-      <c r="F438" s="4"/>
+      <c r="A438" s="17"/>
+      <c r="F438" s="17"/>
     </row>
     <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="4"/>
-      <c r="F439" s="4"/>
+      <c r="A439" s="17"/>
+      <c r="F439" s="17"/>
     </row>
     <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="4"/>
-      <c r="F440" s="4"/>
+      <c r="A440" s="17"/>
+      <c r="F440" s="17"/>
     </row>
     <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="4"/>
-      <c r="F441" s="4"/>
+      <c r="A441" s="17"/>
+      <c r="F441" s="17"/>
     </row>
     <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="4"/>
-      <c r="F442" s="4"/>
+      <c r="A442" s="17"/>
+      <c r="F442" s="17"/>
     </row>
     <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="4"/>
-      <c r="F443" s="4"/>
+      <c r="A443" s="17"/>
+      <c r="F443" s="17"/>
     </row>
     <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="4"/>
-      <c r="F444" s="4"/>
+      <c r="A444" s="17"/>
+      <c r="F444" s="17"/>
     </row>
     <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="4"/>
-      <c r="F445" s="4"/>
+      <c r="A445" s="17"/>
+      <c r="F445" s="17"/>
     </row>
     <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="4"/>
-      <c r="F446" s="4"/>
+      <c r="A446" s="17"/>
+      <c r="F446" s="17"/>
     </row>
     <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="4"/>
-      <c r="F447" s="4"/>
+      <c r="A447" s="17"/>
+      <c r="F447" s="17"/>
     </row>
     <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="4"/>
-      <c r="F448" s="4"/>
+      <c r="A448" s="17"/>
+      <c r="F448" s="17"/>
     </row>
     <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="4"/>
-      <c r="F449" s="4"/>
+      <c r="A449" s="17"/>
+      <c r="F449" s="17"/>
     </row>
     <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="4"/>
-      <c r="F450" s="4"/>
+      <c r="A450" s="17"/>
+      <c r="F450" s="17"/>
     </row>
     <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="4"/>
-      <c r="F451" s="4"/>
+      <c r="A451" s="17"/>
+      <c r="F451" s="17"/>
     </row>
     <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="4"/>
-      <c r="F452" s="4"/>
+      <c r="A452" s="17"/>
+      <c r="F452" s="17"/>
     </row>
     <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="4"/>
-      <c r="F453" s="4"/>
+      <c r="A453" s="17"/>
+      <c r="F453" s="17"/>
     </row>
     <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="4"/>
-      <c r="F454" s="4"/>
+      <c r="A454" s="17"/>
+      <c r="F454" s="17"/>
     </row>
     <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="4"/>
-      <c r="F455" s="4"/>
+      <c r="A455" s="17"/>
+      <c r="F455" s="17"/>
     </row>
     <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="4"/>
-      <c r="F456" s="4"/>
+      <c r="A456" s="17"/>
+      <c r="F456" s="17"/>
     </row>
     <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="4"/>
-      <c r="F457" s="4"/>
+      <c r="A457" s="17"/>
+      <c r="F457" s="17"/>
     </row>
     <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="4"/>
-      <c r="F458" s="4"/>
+      <c r="A458" s="17"/>
+      <c r="F458" s="17"/>
     </row>
     <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="4"/>
-      <c r="F459" s="4"/>
+      <c r="A459" s="17"/>
+      <c r="F459" s="17"/>
     </row>
     <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="4"/>
-      <c r="F460" s="4"/>
+      <c r="A460" s="17"/>
+      <c r="F460" s="17"/>
     </row>
     <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="4"/>
-      <c r="F461" s="4"/>
+      <c r="A461" s="17"/>
+      <c r="F461" s="17"/>
     </row>
     <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="4"/>
-      <c r="F462" s="4"/>
+      <c r="A462" s="17"/>
+      <c r="F462" s="17"/>
     </row>
     <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="4"/>
-      <c r="F463" s="4"/>
+      <c r="A463" s="17"/>
+      <c r="F463" s="17"/>
     </row>
     <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="4"/>
-      <c r="F464" s="4"/>
+      <c r="A464" s="17"/>
+      <c r="F464" s="17"/>
     </row>
     <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="4"/>
-      <c r="F465" s="4"/>
+      <c r="A465" s="17"/>
+      <c r="F465" s="17"/>
     </row>
     <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="4"/>
-      <c r="F466" s="4"/>
+      <c r="A466" s="17"/>
+      <c r="F466" s="17"/>
     </row>
     <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="4"/>
-      <c r="F467" s="4"/>
+      <c r="A467" s="17"/>
+      <c r="F467" s="17"/>
     </row>
     <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="4"/>
-      <c r="F468" s="4"/>
+      <c r="A468" s="17"/>
+      <c r="F468" s="17"/>
     </row>
     <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="4"/>
-      <c r="F469" s="4"/>
+      <c r="A469" s="17"/>
+      <c r="F469" s="17"/>
     </row>
     <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="4"/>
-      <c r="F470" s="4"/>
+      <c r="A470" s="17"/>
+      <c r="F470" s="17"/>
     </row>
     <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="4"/>
-      <c r="F471" s="4"/>
+      <c r="A471" s="17"/>
+      <c r="F471" s="17"/>
     </row>
     <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="4"/>
-      <c r="F472" s="4"/>
+      <c r="A472" s="17"/>
+      <c r="F472" s="17"/>
     </row>
     <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="4"/>
-      <c r="F473" s="4"/>
+      <c r="A473" s="17"/>
+      <c r="F473" s="17"/>
     </row>
     <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="4"/>
-      <c r="F474" s="4"/>
+      <c r="A474" s="17"/>
+      <c r="F474" s="17"/>
     </row>
     <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="4"/>
-      <c r="F475" s="4"/>
+      <c r="A475" s="17"/>
+      <c r="F475" s="17"/>
     </row>
     <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="4"/>
-      <c r="F476" s="4"/>
+      <c r="A476" s="17"/>
+      <c r="F476" s="17"/>
     </row>
     <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="4"/>
-      <c r="F477" s="4"/>
+      <c r="A477" s="17"/>
+      <c r="F477" s="17"/>
     </row>
     <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="4"/>
-      <c r="F478" s="4"/>
+      <c r="A478" s="17"/>
+      <c r="F478" s="17"/>
     </row>
     <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="4"/>
-      <c r="F479" s="4"/>
+      <c r="A479" s="17"/>
+      <c r="F479" s="17"/>
     </row>
     <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="4"/>
-      <c r="F480" s="4"/>
+      <c r="A480" s="17"/>
+      <c r="F480" s="17"/>
     </row>
     <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="4"/>
-      <c r="F481" s="4"/>
+      <c r="A481" s="17"/>
+      <c r="F481" s="17"/>
     </row>
     <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="4"/>
-      <c r="F482" s="4"/>
+      <c r="A482" s="17"/>
+      <c r="F482" s="17"/>
     </row>
     <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="4"/>
-      <c r="F483" s="4"/>
+      <c r="A483" s="17"/>
+      <c r="F483" s="17"/>
     </row>
     <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="4"/>
-      <c r="F484" s="4"/>
+      <c r="A484" s="17"/>
+      <c r="F484" s="17"/>
     </row>
     <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="4"/>
-      <c r="F485" s="4"/>
+      <c r="A485" s="17"/>
+      <c r="F485" s="17"/>
     </row>
     <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="4"/>
-      <c r="F486" s="4"/>
+      <c r="A486" s="17"/>
+      <c r="F486" s="17"/>
     </row>
     <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="4"/>
-      <c r="F487" s="4"/>
+      <c r="A487" s="17"/>
+      <c r="F487" s="17"/>
     </row>
     <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="4"/>
-      <c r="F488" s="4"/>
+      <c r="A488" s="17"/>
+      <c r="F488" s="17"/>
     </row>
     <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="4"/>
-      <c r="F489" s="4"/>
+      <c r="A489" s="17"/>
+      <c r="F489" s="17"/>
     </row>
     <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="4"/>
-      <c r="F490" s="4"/>
+      <c r="A490" s="17"/>
+      <c r="F490" s="17"/>
     </row>
     <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="4"/>
-      <c r="F491" s="4"/>
+      <c r="A491" s="17"/>
+      <c r="F491" s="17"/>
     </row>
     <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="4"/>
-      <c r="F492" s="4"/>
+      <c r="A492" s="17"/>
+      <c r="F492" s="17"/>
     </row>
     <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="4"/>
-      <c r="F493" s="4"/>
+      <c r="A493" s="17"/>
+      <c r="F493" s="17"/>
     </row>
     <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="4"/>
-      <c r="F494" s="4"/>
+      <c r="A494" s="17"/>
+      <c r="F494" s="17"/>
     </row>
     <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="4"/>
-      <c r="F495" s="4"/>
+      <c r="A495" s="17"/>
+      <c r="F495" s="17"/>
     </row>
     <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="4"/>
-      <c r="F496" s="4"/>
+      <c r="A496" s="17"/>
+      <c r="F496" s="17"/>
     </row>
     <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="4"/>
-      <c r="F497" s="4"/>
+      <c r="A497" s="17"/>
+      <c r="F497" s="17"/>
     </row>
     <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="4"/>
-      <c r="F498" s="4"/>
+      <c r="A498" s="17"/>
+      <c r="F498" s="17"/>
     </row>
     <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="4"/>
-      <c r="F499" s="4"/>
+      <c r="A499" s="17"/>
+      <c r="F499" s="17"/>
     </row>
     <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="4"/>
-      <c r="F500" s="4"/>
+      <c r="A500" s="17"/>
+      <c r="F500" s="17"/>
     </row>
     <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="4"/>
-      <c r="F501" s="4"/>
+      <c r="A501" s="17"/>
+      <c r="F501" s="17"/>
     </row>
     <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="4"/>
-      <c r="F502" s="4"/>
+      <c r="A502" s="17"/>
+      <c r="F502" s="17"/>
     </row>
     <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="4"/>
-      <c r="F503" s="4"/>
+      <c r="A503" s="17"/>
+      <c r="F503" s="17"/>
     </row>
     <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="4"/>
-      <c r="F504" s="4"/>
+      <c r="A504" s="17"/>
+      <c r="F504" s="17"/>
     </row>
     <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="4"/>
-      <c r="F505" s="4"/>
+      <c r="A505" s="17"/>
+      <c r="F505" s="17"/>
     </row>
     <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="4"/>
-      <c r="F506" s="4"/>
+      <c r="A506" s="17"/>
+      <c r="F506" s="17"/>
     </row>
     <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="4"/>
-      <c r="F507" s="4"/>
+      <c r="A507" s="17"/>
+      <c r="F507" s="17"/>
     </row>
     <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="4"/>
-      <c r="F508" s="4"/>
+      <c r="A508" s="17"/>
+      <c r="F508" s="17"/>
     </row>
     <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="4"/>
-      <c r="F509" s="4"/>
+      <c r="A509" s="17"/>
+      <c r="F509" s="17"/>
     </row>
     <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="4"/>
-      <c r="F510" s="4"/>
+      <c r="A510" s="17"/>
+      <c r="F510" s="17"/>
     </row>
     <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="4"/>
-      <c r="F511" s="4"/>
+      <c r="A511" s="17"/>
+      <c r="F511" s="17"/>
     </row>
     <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="4"/>
-      <c r="F512" s="4"/>
+      <c r="A512" s="17"/>
+      <c r="F512" s="17"/>
     </row>
     <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="4"/>
-      <c r="F513" s="4"/>
+      <c r="A513" s="17"/>
+      <c r="F513" s="17"/>
     </row>
     <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="4"/>
-      <c r="F514" s="4"/>
+      <c r="A514" s="17"/>
+      <c r="F514" s="17"/>
     </row>
     <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="4"/>
-      <c r="F515" s="4"/>
+      <c r="A515" s="17"/>
+      <c r="F515" s="17"/>
     </row>
     <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="4"/>
-      <c r="F516" s="4"/>
+      <c r="A516" s="17"/>
+      <c r="F516" s="17"/>
     </row>
     <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="4"/>
-      <c r="F517" s="4"/>
+      <c r="A517" s="17"/>
+      <c r="F517" s="17"/>
     </row>
     <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="4"/>
-      <c r="F518" s="4"/>
+      <c r="A518" s="17"/>
+      <c r="F518" s="17"/>
     </row>
     <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="4"/>
-      <c r="F519" s="4"/>
+      <c r="A519" s="17"/>
+      <c r="F519" s="17"/>
     </row>
     <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="4"/>
-      <c r="F520" s="4"/>
+      <c r="A520" s="17"/>
+      <c r="F520" s="17"/>
     </row>
     <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="4"/>
-      <c r="F521" s="4"/>
+      <c r="A521" s="17"/>
+      <c r="F521" s="17"/>
     </row>
     <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="4"/>
-      <c r="F522" s="4"/>
+      <c r="A522" s="17"/>
+      <c r="F522" s="17"/>
     </row>
     <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="4"/>
-      <c r="F523" s="4"/>
+      <c r="A523" s="17"/>
+      <c r="F523" s="17"/>
     </row>
     <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="4"/>
-      <c r="F524" s="4"/>
+      <c r="A524" s="17"/>
+      <c r="F524" s="17"/>
     </row>
     <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="4"/>
-      <c r="F525" s="4"/>
+      <c r="A525" s="17"/>
+      <c r="F525" s="17"/>
     </row>
     <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="4"/>
-      <c r="F526" s="4"/>
+      <c r="A526" s="17"/>
+      <c r="F526" s="17"/>
     </row>
     <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="4"/>
-      <c r="F527" s="4"/>
+      <c r="A527" s="17"/>
+      <c r="F527" s="17"/>
     </row>
     <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="4"/>
-      <c r="F528" s="4"/>
+      <c r="A528" s="17"/>
+      <c r="F528" s="17"/>
     </row>
     <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="4"/>
-      <c r="F529" s="4"/>
+      <c r="A529" s="17"/>
+      <c r="F529" s="17"/>
     </row>
     <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="4"/>
-      <c r="F530" s="4"/>
+      <c r="A530" s="17"/>
+      <c r="F530" s="17"/>
     </row>
     <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="4"/>
-      <c r="F531" s="4"/>
+      <c r="A531" s="17"/>
+      <c r="F531" s="17"/>
     </row>
     <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="4"/>
-      <c r="F532" s="4"/>
+      <c r="A532" s="17"/>
+      <c r="F532" s="17"/>
     </row>
     <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="4"/>
-      <c r="F533" s="4"/>
+      <c r="A533" s="17"/>
+      <c r="F533" s="17"/>
     </row>
     <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="4"/>
-      <c r="F534" s="4"/>
+      <c r="A534" s="17"/>
+      <c r="F534" s="17"/>
     </row>
     <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="4"/>
-      <c r="F535" s="4"/>
+      <c r="A535" s="17"/>
+      <c r="F535" s="17"/>
     </row>
     <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="4"/>
-      <c r="F536" s="4"/>
+      <c r="A536" s="17"/>
+      <c r="F536" s="17"/>
     </row>
     <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="4"/>
-      <c r="F537" s="4"/>
+      <c r="A537" s="17"/>
+      <c r="F537" s="17"/>
     </row>
     <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="4"/>
-      <c r="F538" s="4"/>
+      <c r="A538" s="17"/>
+      <c r="F538" s="17"/>
     </row>
     <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="4"/>
-      <c r="F539" s="4"/>
+      <c r="A539" s="17"/>
+      <c r="F539" s="17"/>
     </row>
     <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="4"/>
-      <c r="F540" s="4"/>
+      <c r="A540" s="17"/>
+      <c r="F540" s="17"/>
     </row>
     <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="4"/>
-      <c r="F541" s="4"/>
+      <c r="A541" s="17"/>
+      <c r="F541" s="17"/>
     </row>
     <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="4"/>
-      <c r="F542" s="4"/>
+      <c r="A542" s="17"/>
+      <c r="F542" s="17"/>
     </row>
     <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="4"/>
-      <c r="F543" s="4"/>
+      <c r="A543" s="17"/>
+      <c r="F543" s="17"/>
     </row>
     <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="4"/>
-      <c r="F544" s="4"/>
+      <c r="A544" s="17"/>
+      <c r="F544" s="17"/>
     </row>
     <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="4"/>
-      <c r="F545" s="4"/>
+      <c r="A545" s="17"/>
+      <c r="F545" s="17"/>
     </row>
     <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="4"/>
-      <c r="F546" s="4"/>
+      <c r="A546" s="17"/>
+      <c r="F546" s="17"/>
     </row>
     <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="4"/>
-      <c r="F547" s="4"/>
+      <c r="A547" s="17"/>
+      <c r="F547" s="17"/>
     </row>
     <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="4"/>
-      <c r="F548" s="4"/>
+      <c r="A548" s="17"/>
+      <c r="F548" s="17"/>
     </row>
     <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="4"/>
-      <c r="F549" s="4"/>
+      <c r="A549" s="17"/>
+      <c r="F549" s="17"/>
     </row>
     <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="4"/>
-      <c r="F550" s="4"/>
+      <c r="A550" s="17"/>
+      <c r="F550" s="17"/>
     </row>
     <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="4"/>
-      <c r="F551" s="4"/>
+      <c r="A551" s="17"/>
+      <c r="F551" s="17"/>
     </row>
     <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="4"/>
-      <c r="F552" s="4"/>
+      <c r="A552" s="17"/>
+      <c r="F552" s="17"/>
     </row>
     <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="4"/>
-      <c r="F553" s="4"/>
+      <c r="A553" s="17"/>
+      <c r="F553" s="17"/>
     </row>
     <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="4"/>
-      <c r="F554" s="4"/>
+      <c r="A554" s="17"/>
+      <c r="F554" s="17"/>
     </row>
     <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="4"/>
-      <c r="F555" s="4"/>
+      <c r="A555" s="17"/>
+      <c r="F555" s="17"/>
     </row>
     <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="4"/>
-      <c r="F556" s="4"/>
+      <c r="A556" s="17"/>
+      <c r="F556" s="17"/>
     </row>
     <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="4"/>
-      <c r="F557" s="4"/>
+      <c r="A557" s="17"/>
+      <c r="F557" s="17"/>
     </row>
     <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="4"/>
-      <c r="F558" s="4"/>
+      <c r="A558" s="17"/>
+      <c r="F558" s="17"/>
     </row>
     <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="4"/>
-      <c r="F559" s="4"/>
+      <c r="A559" s="17"/>
+      <c r="F559" s="17"/>
     </row>
     <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="4"/>
-      <c r="F560" s="4"/>
+      <c r="A560" s="17"/>
+      <c r="F560" s="17"/>
     </row>
     <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="4"/>
-      <c r="F561" s="4"/>
+      <c r="A561" s="17"/>
+      <c r="F561" s="17"/>
     </row>
     <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="4"/>
-      <c r="F562" s="4"/>
+      <c r="A562" s="17"/>
+      <c r="F562" s="17"/>
     </row>
     <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="4"/>
-      <c r="F563" s="4"/>
+      <c r="A563" s="17"/>
+      <c r="F563" s="17"/>
     </row>
     <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="4"/>
-      <c r="F564" s="4"/>
+      <c r="A564" s="17"/>
+      <c r="F564" s="17"/>
     </row>
     <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="4"/>
-      <c r="F565" s="4"/>
+      <c r="A565" s="17"/>
+      <c r="F565" s="17"/>
     </row>
     <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="4"/>
-      <c r="F566" s="4"/>
+      <c r="A566" s="17"/>
+      <c r="F566" s="17"/>
     </row>
     <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="4"/>
-      <c r="F567" s="4"/>
+      <c r="A567" s="17"/>
+      <c r="F567" s="17"/>
     </row>
     <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="4"/>
-      <c r="F568" s="4"/>
+      <c r="A568" s="17"/>
+      <c r="F568" s="17"/>
     </row>
     <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="4"/>
-      <c r="F569" s="4"/>
+      <c r="A569" s="17"/>
+      <c r="F569" s="17"/>
     </row>
     <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="4"/>
-      <c r="F570" s="4"/>
+      <c r="A570" s="17"/>
+      <c r="F570" s="17"/>
     </row>
     <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="4"/>
-      <c r="F571" s="4"/>
+      <c r="A571" s="17"/>
+      <c r="F571" s="17"/>
     </row>
     <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="4"/>
-      <c r="F572" s="4"/>
+      <c r="A572" s="17"/>
+      <c r="F572" s="17"/>
     </row>
     <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="4"/>
-      <c r="F573" s="4"/>
+      <c r="A573" s="17"/>
+      <c r="F573" s="17"/>
     </row>
     <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="4"/>
-      <c r="F574" s="4"/>
+      <c r="A574" s="17"/>
+      <c r="F574" s="17"/>
     </row>
     <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="4"/>
-      <c r="F575" s="4"/>
+      <c r="A575" s="17"/>
+      <c r="F575" s="17"/>
     </row>
     <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="4"/>
-      <c r="F576" s="4"/>
+      <c r="A576" s="17"/>
+      <c r="F576" s="17"/>
     </row>
     <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="4"/>
-      <c r="F577" s="4"/>
+      <c r="A577" s="17"/>
+      <c r="F577" s="17"/>
     </row>
     <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="4"/>
-      <c r="F578" s="4"/>
+      <c r="A578" s="17"/>
+      <c r="F578" s="17"/>
     </row>
     <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="4"/>
-      <c r="F579" s="4"/>
+      <c r="A579" s="17"/>
+      <c r="F579" s="17"/>
     </row>
     <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="4"/>
-      <c r="F580" s="4"/>
+      <c r="A580" s="17"/>
+      <c r="F580" s="17"/>
     </row>
     <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="4"/>
-      <c r="F581" s="4"/>
+      <c r="A581" s="17"/>
+      <c r="F581" s="17"/>
     </row>
     <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="4"/>
-      <c r="F582" s="4"/>
+      <c r="A582" s="17"/>
+      <c r="F582" s="17"/>
     </row>
     <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="4"/>
-      <c r="F583" s="4"/>
+      <c r="A583" s="17"/>
+      <c r="F583" s="17"/>
     </row>
     <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="4"/>
-      <c r="F584" s="4"/>
+      <c r="A584" s="17"/>
+      <c r="F584" s="17"/>
     </row>
     <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="4"/>
-      <c r="F585" s="4"/>
+      <c r="A585" s="17"/>
+      <c r="F585" s="17"/>
     </row>
     <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="4"/>
-      <c r="F586" s="4"/>
+      <c r="A586" s="17"/>
+      <c r="F586" s="17"/>
     </row>
     <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="4"/>
-      <c r="F587" s="4"/>
+      <c r="A587" s="17"/>
+      <c r="F587" s="17"/>
     </row>
     <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="4"/>
-      <c r="F588" s="4"/>
+      <c r="A588" s="17"/>
+      <c r="F588" s="17"/>
     </row>
     <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="4"/>
-      <c r="F589" s="4"/>
+      <c r="A589" s="17"/>
+      <c r="F589" s="17"/>
     </row>
     <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="4"/>
-      <c r="F590" s="4"/>
+      <c r="A590" s="17"/>
+      <c r="F590" s="17"/>
     </row>
     <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="4"/>
-      <c r="F591" s="4"/>
+      <c r="A591" s="17"/>
+      <c r="F591" s="17"/>
     </row>
     <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="4"/>
-      <c r="F592" s="4"/>
+      <c r="A592" s="17"/>
+      <c r="F592" s="17"/>
     </row>
     <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="4"/>
-      <c r="F593" s="4"/>
+      <c r="A593" s="17"/>
+      <c r="F593" s="17"/>
     </row>
     <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="4"/>
-      <c r="F594" s="4"/>
+      <c r="A594" s="17"/>
+      <c r="F594" s="17"/>
     </row>
     <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="4"/>
-      <c r="F595" s="4"/>
+      <c r="A595" s="17"/>
+      <c r="F595" s="17"/>
     </row>
     <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="4"/>
-      <c r="F596" s="4"/>
+      <c r="A596" s="17"/>
+      <c r="F596" s="17"/>
     </row>
     <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="4"/>
-      <c r="F597" s="4"/>
+      <c r="A597" s="17"/>
+      <c r="F597" s="17"/>
     </row>
     <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="4"/>
-      <c r="F598" s="4"/>
+      <c r="A598" s="17"/>
+      <c r="F598" s="17"/>
     </row>
     <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="4"/>
-      <c r="F599" s="4"/>
+      <c r="A599" s="17"/>
+      <c r="F599" s="17"/>
     </row>
     <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="4"/>
-      <c r="F600" s="4"/>
+      <c r="A600" s="17"/>
+      <c r="F600" s="17"/>
     </row>
     <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="4"/>
-      <c r="F601" s="4"/>
+      <c r="A601" s="17"/>
+      <c r="F601" s="17"/>
     </row>
     <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="4"/>
-      <c r="F602" s="4"/>
+      <c r="A602" s="17"/>
+      <c r="F602" s="17"/>
     </row>
     <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="4"/>
-      <c r="F603" s="4"/>
+      <c r="A603" s="17"/>
+      <c r="F603" s="17"/>
     </row>
     <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="4"/>
-      <c r="F604" s="4"/>
+      <c r="A604" s="17"/>
+      <c r="F604" s="17"/>
     </row>
     <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="4"/>
-      <c r="F605" s="4"/>
+      <c r="A605" s="17"/>
+      <c r="F605" s="17"/>
     </row>
     <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="4"/>
-      <c r="F606" s="4"/>
+      <c r="A606" s="17"/>
+      <c r="F606" s="17"/>
     </row>
     <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="4"/>
-      <c r="F607" s="4"/>
+      <c r="A607" s="17"/>
+      <c r="F607" s="17"/>
     </row>
     <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="4"/>
-      <c r="F608" s="4"/>
+      <c r="A608" s="17"/>
+      <c r="F608" s="17"/>
     </row>
     <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="4"/>
-      <c r="F609" s="4"/>
+      <c r="A609" s="17"/>
+      <c r="F609" s="17"/>
     </row>
     <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="4"/>
-      <c r="F610" s="4"/>
+      <c r="A610" s="17"/>
+      <c r="F610" s="17"/>
     </row>
     <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="4"/>
-      <c r="F611" s="4"/>
+      <c r="A611" s="17"/>
+      <c r="F611" s="17"/>
     </row>
     <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="4"/>
-      <c r="F612" s="4"/>
+      <c r="A612" s="17"/>
+      <c r="F612" s="17"/>
     </row>
     <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="4"/>
-      <c r="F613" s="4"/>
+      <c r="A613" s="17"/>
+      <c r="F613" s="17"/>
     </row>
     <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="4"/>
-      <c r="F614" s="4"/>
+      <c r="A614" s="17"/>
+      <c r="F614" s="17"/>
     </row>
     <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="4"/>
-      <c r="F615" s="4"/>
+      <c r="A615" s="17"/>
+      <c r="F615" s="17"/>
     </row>
     <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="4"/>
-      <c r="F616" s="4"/>
+      <c r="A616" s="17"/>
+      <c r="F616" s="17"/>
     </row>
     <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="4"/>
-      <c r="F617" s="4"/>
+      <c r="A617" s="17"/>
+      <c r="F617" s="17"/>
     </row>
     <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="4"/>
-      <c r="F618" s="4"/>
+      <c r="A618" s="17"/>
+      <c r="F618" s="17"/>
     </row>
     <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="4"/>
-      <c r="F619" s="4"/>
+      <c r="A619" s="17"/>
+      <c r="F619" s="17"/>
     </row>
     <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="4"/>
-      <c r="F620" s="4"/>
+      <c r="A620" s="17"/>
+      <c r="F620" s="17"/>
     </row>
     <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="4"/>
-      <c r="F621" s="4"/>
+      <c r="A621" s="17"/>
+      <c r="F621" s="17"/>
     </row>
     <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="4"/>
-      <c r="F622" s="4"/>
+      <c r="A622" s="17"/>
+      <c r="F622" s="17"/>
     </row>
     <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="4"/>
-      <c r="F623" s="4"/>
+      <c r="A623" s="17"/>
+      <c r="F623" s="17"/>
     </row>
     <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="4"/>
-      <c r="F624" s="4"/>
+      <c r="A624" s="17"/>
+      <c r="F624" s="17"/>
     </row>
     <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="4"/>
-      <c r="F625" s="4"/>
+      <c r="A625" s="17"/>
+      <c r="F625" s="17"/>
     </row>
     <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="4"/>
-      <c r="F626" s="4"/>
+      <c r="A626" s="17"/>
+      <c r="F626" s="17"/>
     </row>
     <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="4"/>
-      <c r="F627" s="4"/>
+      <c r="A627" s="17"/>
+      <c r="F627" s="17"/>
     </row>
     <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="4"/>
-      <c r="F628" s="4"/>
+      <c r="A628" s="17"/>
+      <c r="F628" s="17"/>
     </row>
     <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="4"/>
-      <c r="F629" s="4"/>
+      <c r="A629" s="17"/>
+      <c r="F629" s="17"/>
     </row>
     <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="4"/>
-      <c r="F630" s="4"/>
+      <c r="A630" s="17"/>
+      <c r="F630" s="17"/>
     </row>
     <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="4"/>
-      <c r="F631" s="4"/>
+      <c r="A631" s="17"/>
+      <c r="F631" s="17"/>
     </row>
     <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="4"/>
-      <c r="F632" s="4"/>
+      <c r="A632" s="17"/>
+      <c r="F632" s="17"/>
     </row>
     <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="4"/>
-      <c r="F633" s="4"/>
+      <c r="A633" s="17"/>
+      <c r="F633" s="17"/>
     </row>
     <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="4"/>
-      <c r="F634" s="4"/>
+      <c r="A634" s="17"/>
+      <c r="F634" s="17"/>
     </row>
     <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="4"/>
-      <c r="F635" s="4"/>
+      <c r="A635" s="17"/>
+      <c r="F635" s="17"/>
     </row>
     <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="4"/>
-      <c r="F636" s="4"/>
+      <c r="A636" s="17"/>
+      <c r="F636" s="17"/>
     </row>
     <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="4"/>
-      <c r="F637" s="4"/>
+      <c r="A637" s="17"/>
+      <c r="F637" s="17"/>
     </row>
     <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="4"/>
-      <c r="F638" s="4"/>
+      <c r="A638" s="17"/>
+      <c r="F638" s="17"/>
     </row>
     <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="4"/>
-      <c r="F639" s="4"/>
+      <c r="A639" s="17"/>
+      <c r="F639" s="17"/>
     </row>
     <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="4"/>
-      <c r="F640" s="4"/>
+      <c r="A640" s="17"/>
+      <c r="F640" s="17"/>
     </row>
     <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="4"/>
-      <c r="F641" s="4"/>
+      <c r="A641" s="17"/>
+      <c r="F641" s="17"/>
     </row>
     <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="4"/>
-      <c r="F642" s="4"/>
+      <c r="A642" s="17"/>
+      <c r="F642" s="17"/>
     </row>
     <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="4"/>
-      <c r="F643" s="4"/>
+      <c r="A643" s="17"/>
+      <c r="F643" s="17"/>
     </row>
     <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="4"/>
-      <c r="F644" s="4"/>
+      <c r="A644" s="17"/>
+      <c r="F644" s="17"/>
     </row>
     <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="4"/>
-      <c r="F645" s="4"/>
+      <c r="A645" s="17"/>
+      <c r="F645" s="17"/>
     </row>
     <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="4"/>
-      <c r="F646" s="4"/>
+      <c r="A646" s="17"/>
+      <c r="F646" s="17"/>
     </row>
     <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="4"/>
-      <c r="F647" s="4"/>
+      <c r="A647" s="17"/>
+      <c r="F647" s="17"/>
     </row>
     <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="4"/>
-      <c r="F648" s="4"/>
+      <c r="A648" s="17"/>
+      <c r="F648" s="17"/>
     </row>
     <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="4"/>
-      <c r="F649" s="4"/>
+      <c r="A649" s="17"/>
+      <c r="F649" s="17"/>
     </row>
     <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="4"/>
-      <c r="F650" s="4"/>
+      <c r="A650" s="17"/>
+      <c r="F650" s="17"/>
     </row>
     <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="4"/>
-      <c r="F651" s="4"/>
+      <c r="A651" s="17"/>
+      <c r="F651" s="17"/>
     </row>
     <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="4"/>
-      <c r="F652" s="4"/>
+      <c r="A652" s="17"/>
+      <c r="F652" s="17"/>
     </row>
     <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="4"/>
-      <c r="F653" s="4"/>
+      <c r="A653" s="17"/>
+      <c r="F653" s="17"/>
     </row>
     <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="4"/>
-      <c r="F654" s="4"/>
+      <c r="A654" s="17"/>
+      <c r="F654" s="17"/>
     </row>
     <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="4"/>
-      <c r="F655" s="4"/>
+      <c r="A655" s="17"/>
+      <c r="F655" s="17"/>
     </row>
     <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="4"/>
-      <c r="F656" s="4"/>
+      <c r="A656" s="17"/>
+      <c r="F656" s="17"/>
     </row>
     <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="4"/>
-      <c r="F657" s="4"/>
+      <c r="A657" s="17"/>
+      <c r="F657" s="17"/>
     </row>
     <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="4"/>
-      <c r="F658" s="4"/>
+      <c r="A658" s="17"/>
+      <c r="F658" s="17"/>
     </row>
     <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="4"/>
-      <c r="F659" s="4"/>
+      <c r="A659" s="17"/>
+      <c r="F659" s="17"/>
     </row>
     <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="4"/>
-      <c r="F660" s="4"/>
+      <c r="A660" s="17"/>
+      <c r="F660" s="17"/>
     </row>
     <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="4"/>
-      <c r="F661" s="4"/>
+      <c r="A661" s="17"/>
+      <c r="F661" s="17"/>
     </row>
     <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="4"/>
-      <c r="F662" s="4"/>
+      <c r="A662" s="17"/>
+      <c r="F662" s="17"/>
     </row>
     <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="4"/>
-      <c r="F663" s="4"/>
+      <c r="A663" s="17"/>
+      <c r="F663" s="17"/>
     </row>
     <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="4"/>
-      <c r="F664" s="4"/>
+      <c r="A664" s="17"/>
+      <c r="F664" s="17"/>
     </row>
     <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="4"/>
-      <c r="F665" s="4"/>
+      <c r="A665" s="17"/>
+      <c r="F665" s="17"/>
     </row>
     <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="4"/>
-      <c r="F666" s="4"/>
+      <c r="A666" s="17"/>
+      <c r="F666" s="17"/>
     </row>
     <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="4"/>
-      <c r="F667" s="4"/>
+      <c r="A667" s="17"/>
+      <c r="F667" s="17"/>
     </row>
     <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="4"/>
-      <c r="F668" s="4"/>
+      <c r="A668" s="17"/>
+      <c r="F668" s="17"/>
     </row>
     <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="4"/>
-      <c r="F669" s="4"/>
+      <c r="A669" s="17"/>
+      <c r="F669" s="17"/>
     </row>
     <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="4"/>
-      <c r="F670" s="4"/>
+      <c r="A670" s="17"/>
+      <c r="F670" s="17"/>
     </row>
     <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="4"/>
-      <c r="F671" s="4"/>
+      <c r="A671" s="17"/>
+      <c r="F671" s="17"/>
     </row>
     <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="4"/>
-      <c r="F672" s="4"/>
+      <c r="A672" s="17"/>
+      <c r="F672" s="17"/>
     </row>
     <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="4"/>
-      <c r="F673" s="4"/>
+      <c r="A673" s="17"/>
+      <c r="F673" s="17"/>
     </row>
     <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="4"/>
-      <c r="F674" s="4"/>
+      <c r="A674" s="17"/>
+      <c r="F674" s="17"/>
     </row>
     <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="4"/>
-      <c r="F675" s="4"/>
+      <c r="A675" s="17"/>
+      <c r="F675" s="17"/>
     </row>
     <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="4"/>
-      <c r="F676" s="4"/>
+      <c r="A676" s="17"/>
+      <c r="F676" s="17"/>
     </row>
     <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="4"/>
-      <c r="F677" s="4"/>
+      <c r="A677" s="17"/>
+      <c r="F677" s="17"/>
     </row>
     <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="4"/>
-      <c r="F678" s="4"/>
+      <c r="A678" s="17"/>
+      <c r="F678" s="17"/>
     </row>
     <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="4"/>
-      <c r="F679" s="4"/>
+      <c r="A679" s="17"/>
+      <c r="F679" s="17"/>
     </row>
     <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="4"/>
-      <c r="F680" s="4"/>
+      <c r="A680" s="17"/>
+      <c r="F680" s="17"/>
     </row>
     <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="4"/>
-      <c r="F681" s="4"/>
+      <c r="A681" s="17"/>
+      <c r="F681" s="17"/>
     </row>
     <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="4"/>
-      <c r="F682" s="4"/>
+      <c r="A682" s="17"/>
+      <c r="F682" s="17"/>
     </row>
     <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="4"/>
-      <c r="F683" s="4"/>
+      <c r="A683" s="17"/>
+      <c r="F683" s="17"/>
     </row>
     <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="4"/>
-      <c r="F684" s="4"/>
+      <c r="A684" s="17"/>
+      <c r="F684" s="17"/>
     </row>
     <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="4"/>
-      <c r="F685" s="4"/>
+      <c r="A685" s="17"/>
+      <c r="F685" s="17"/>
     </row>
     <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="4"/>
-      <c r="F686" s="4"/>
+      <c r="A686" s="17"/>
+      <c r="F686" s="17"/>
     </row>
     <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="4"/>
-      <c r="F687" s="4"/>
+      <c r="A687" s="17"/>
+      <c r="F687" s="17"/>
     </row>
     <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="4"/>
-      <c r="F688" s="4"/>
+      <c r="A688" s="17"/>
+      <c r="F688" s="17"/>
     </row>
     <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="4"/>
-      <c r="F689" s="4"/>
+      <c r="A689" s="17"/>
+      <c r="F689" s="17"/>
     </row>
     <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="4"/>
-      <c r="F690" s="4"/>
+      <c r="A690" s="17"/>
+      <c r="F690" s="17"/>
     </row>
     <row r="691" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="4"/>
-      <c r="F691" s="4"/>
+      <c r="A691" s="17"/>
+      <c r="F691" s="17"/>
     </row>
     <row r="692" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="4"/>
-      <c r="F692" s="4"/>
+      <c r="A692" s="17"/>
+      <c r="F692" s="17"/>
     </row>
     <row r="693" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="4"/>
-      <c r="F693" s="4"/>
+      <c r="A693" s="17"/>
+      <c r="F693" s="17"/>
     </row>
     <row r="694" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="4"/>
-      <c r="F694" s="4"/>
+      <c r="A694" s="17"/>
+      <c r="F694" s="17"/>
     </row>
     <row r="695" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="4"/>
-      <c r="F695" s="4"/>
+      <c r="A695" s="17"/>
+      <c r="F695" s="17"/>
     </row>
     <row r="696" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="4"/>
-      <c r="F696" s="4"/>
+      <c r="A696" s="17"/>
+      <c r="F696" s="17"/>
     </row>
     <row r="697" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="4"/>
-      <c r="F697" s="4"/>
+      <c r="A697" s="17"/>
+      <c r="F697" s="17"/>
     </row>
     <row r="698" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="4"/>
-      <c r="F698" s="4"/>
+      <c r="A698" s="17"/>
+      <c r="F698" s="17"/>
     </row>
     <row r="699" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="4"/>
-      <c r="F699" s="4"/>
+      <c r="A699" s="17"/>
+      <c r="F699" s="17"/>
     </row>
     <row r="700" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="4"/>
-      <c r="F700" s="4"/>
+      <c r="A700" s="17"/>
+      <c r="F700" s="17"/>
     </row>
     <row r="701" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="4"/>
-      <c r="F701" s="4"/>
+      <c r="A701" s="17"/>
+      <c r="F701" s="17"/>
     </row>
     <row r="702" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="4"/>
-      <c r="F702" s="4"/>
+      <c r="A702" s="17"/>
+      <c r="F702" s="17"/>
     </row>
     <row r="703" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="4"/>
-      <c r="F703" s="4"/>
+      <c r="A703" s="17"/>
+      <c r="F703" s="17"/>
     </row>
     <row r="704" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="4"/>
-      <c r="F704" s="4"/>
+      <c r="A704" s="17"/>
+      <c r="F704" s="17"/>
     </row>
     <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="4"/>
-      <c r="F705" s="4"/>
+      <c r="A705" s="17"/>
+      <c r="F705" s="17"/>
     </row>
     <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="4"/>
-      <c r="F706" s="4"/>
+      <c r="A706" s="17"/>
+      <c r="F706" s="17"/>
     </row>
     <row r="707" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="4"/>
-      <c r="F707" s="4"/>
+      <c r="A707" s="17"/>
+      <c r="F707" s="17"/>
     </row>
     <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="4"/>
-      <c r="F708" s="4"/>
+      <c r="A708" s="17"/>
+      <c r="F708" s="17"/>
     </row>
     <row r="709" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="4"/>
-      <c r="F709" s="4"/>
+      <c r="A709" s="17"/>
+      <c r="F709" s="17"/>
     </row>
     <row r="710" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="4"/>
-      <c r="F710" s="4"/>
+      <c r="A710" s="17"/>
+      <c r="F710" s="17"/>
     </row>
     <row r="711" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="4"/>
-      <c r="F711" s="4"/>
+      <c r="A711" s="17"/>
+      <c r="F711" s="17"/>
     </row>
     <row r="712" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="4"/>
-      <c r="F712" s="4"/>
+      <c r="A712" s="17"/>
+      <c r="F712" s="17"/>
     </row>
     <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="4"/>
-      <c r="F713" s="4"/>
+      <c r="A713" s="17"/>
+      <c r="F713" s="17"/>
     </row>
     <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="4"/>
-      <c r="F714" s="4"/>
+      <c r="A714" s="17"/>
+      <c r="F714" s="17"/>
     </row>
     <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="4"/>
-      <c r="F715" s="4"/>
+      <c r="A715" s="17"/>
+      <c r="F715" s="17"/>
     </row>
     <row r="716" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="4"/>
-      <c r="F716" s="4"/>
+      <c r="A716" s="17"/>
+      <c r="F716" s="17"/>
     </row>
     <row r="717" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="4"/>
-      <c r="F717" s="4"/>
+      <c r="A717" s="17"/>
+      <c r="F717" s="17"/>
     </row>
     <row r="718" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="4"/>
-      <c r="F718" s="4"/>
+      <c r="A718" s="17"/>
+      <c r="F718" s="17"/>
     </row>
     <row r="719" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="4"/>
-      <c r="F719" s="4"/>
+      <c r="A719" s="17"/>
+      <c r="F719" s="17"/>
     </row>
     <row r="720" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="4"/>
-      <c r="F720" s="4"/>
+      <c r="A720" s="17"/>
+      <c r="F720" s="17"/>
     </row>
     <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="4"/>
-      <c r="F721" s="4"/>
+      <c r="A721" s="17"/>
+      <c r="F721" s="17"/>
     </row>
     <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="4"/>
-      <c r="F722" s="4"/>
+      <c r="A722" s="17"/>
+      <c r="F722" s="17"/>
     </row>
     <row r="723" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="4"/>
-      <c r="F723" s="4"/>
+      <c r="A723" s="17"/>
+      <c r="F723" s="17"/>
     </row>
     <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A724" s="4"/>
-      <c r="F724" s="4"/>
+      <c r="A724" s="17"/>
+      <c r="F724" s="17"/>
     </row>
     <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="4"/>
-      <c r="F725" s="4"/>
+      <c r="A725" s="17"/>
+      <c r="F725" s="17"/>
     </row>
     <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="4"/>
-      <c r="F726" s="4"/>
+      <c r="A726" s="17"/>
+      <c r="F726" s="17"/>
     </row>
     <row r="727" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="4"/>
-      <c r="F727" s="4"/>
+      <c r="A727" s="17"/>
+      <c r="F727" s="17"/>
     </row>
     <row r="728" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="4"/>
-      <c r="F728" s="4"/>
+      <c r="A728" s="17"/>
+      <c r="F728" s="17"/>
     </row>
     <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="4"/>
-      <c r="F729" s="4"/>
+      <c r="A729" s="17"/>
+      <c r="F729" s="17"/>
     </row>
     <row r="730" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="4"/>
-      <c r="F730" s="4"/>
+      <c r="A730" s="17"/>
+      <c r="F730" s="17"/>
     </row>
     <row r="731" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="4"/>
-      <c r="F731" s="4"/>
+      <c r="A731" s="17"/>
+      <c r="F731" s="17"/>
     </row>
     <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="4"/>
-      <c r="F732" s="4"/>
+      <c r="A732" s="17"/>
+      <c r="F732" s="17"/>
     </row>
     <row r="733" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="4"/>
-      <c r="F733" s="4"/>
+      <c r="A733" s="17"/>
+      <c r="F733" s="17"/>
     </row>
     <row r="734" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="4"/>
-      <c r="F734" s="4"/>
+      <c r="A734" s="17"/>
+      <c r="F734" s="17"/>
     </row>
     <row r="735" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="4"/>
-      <c r="F735" s="4"/>
+      <c r="A735" s="17"/>
+      <c r="F735" s="17"/>
     </row>
     <row r="736" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A736" s="4"/>
-      <c r="F736" s="4"/>
+      <c r="A736" s="17"/>
+      <c r="F736" s="17"/>
     </row>
     <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A737" s="4"/>
-      <c r="F737" s="4"/>
+      <c r="A737" s="17"/>
+      <c r="F737" s="17"/>
     </row>
     <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="4"/>
-      <c r="F738" s="4"/>
+      <c r="A738" s="17"/>
+      <c r="F738" s="17"/>
     </row>
     <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="4"/>
-      <c r="F739" s="4"/>
+      <c r="A739" s="17"/>
+      <c r="F739" s="17"/>
     </row>
     <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="4"/>
-      <c r="F740" s="4"/>
+      <c r="A740" s="17"/>
+      <c r="F740" s="17"/>
     </row>
     <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="4"/>
-      <c r="F741" s="4"/>
+      <c r="A741" s="17"/>
+      <c r="F741" s="17"/>
     </row>
     <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="4"/>
-      <c r="F742" s="4"/>
+      <c r="A742" s="17"/>
+      <c r="F742" s="17"/>
     </row>
     <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="4"/>
-      <c r="F743" s="4"/>
+      <c r="A743" s="17"/>
+      <c r="F743" s="17"/>
     </row>
     <row r="744" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="4"/>
-      <c r="F744" s="4"/>
+      <c r="A744" s="17"/>
+      <c r="F744" s="17"/>
     </row>
     <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="4"/>
-      <c r="F745" s="4"/>
+      <c r="A745" s="17"/>
+      <c r="F745" s="17"/>
     </row>
     <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="4"/>
-      <c r="F746" s="4"/>
+      <c r="A746" s="17"/>
+      <c r="F746" s="17"/>
     </row>
     <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="4"/>
-      <c r="F747" s="4"/>
+      <c r="A747" s="17"/>
+      <c r="F747" s="17"/>
     </row>
     <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="4"/>
-      <c r="F748" s="4"/>
+      <c r="A748" s="17"/>
+      <c r="F748" s="17"/>
     </row>
     <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="4"/>
-      <c r="F749" s="4"/>
+      <c r="A749" s="17"/>
+      <c r="F749" s="17"/>
     </row>
     <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="4"/>
-      <c r="F750" s="4"/>
+      <c r="A750" s="17"/>
+      <c r="F750" s="17"/>
     </row>
     <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="4"/>
-      <c r="F751" s="4"/>
+      <c r="A751" s="17"/>
+      <c r="F751" s="17"/>
     </row>
     <row r="752" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="4"/>
-      <c r="F752" s="4"/>
+      <c r="A752" s="17"/>
+      <c r="F752" s="17"/>
     </row>
     <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="4"/>
-      <c r="F753" s="4"/>
+      <c r="A753" s="17"/>
+      <c r="F753" s="17"/>
     </row>
     <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="4"/>
-      <c r="F754" s="4"/>
+      <c r="A754" s="17"/>
+      <c r="F754" s="17"/>
     </row>
     <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="4"/>
-      <c r="F755" s="4"/>
+      <c r="A755" s="17"/>
+      <c r="F755" s="17"/>
     </row>
     <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="4"/>
-      <c r="F756" s="4"/>
+      <c r="A756" s="17"/>
+      <c r="F756" s="17"/>
     </row>
     <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A757" s="4"/>
-      <c r="F757" s="4"/>
+      <c r="A757" s="17"/>
+      <c r="F757" s="17"/>
     </row>
     <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="4"/>
-      <c r="F758" s="4"/>
+      <c r="A758" s="17"/>
+      <c r="F758" s="17"/>
     </row>
     <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="4"/>
-      <c r="F759" s="4"/>
+      <c r="A759" s="17"/>
+      <c r="F759" s="17"/>
     </row>
     <row r="760" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A760" s="4"/>
-      <c r="F760" s="4"/>
+      <c r="A760" s="17"/>
+      <c r="F760" s="17"/>
     </row>
     <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="4"/>
-      <c r="F761" s="4"/>
+      <c r="A761" s="17"/>
+      <c r="F761" s="17"/>
     </row>
     <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A762" s="4"/>
-      <c r="F762" s="4"/>
+      <c r="A762" s="17"/>
+      <c r="F762" s="17"/>
     </row>
     <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="4"/>
-      <c r="F763" s="4"/>
+      <c r="A763" s="17"/>
+      <c r="F763" s="17"/>
     </row>
     <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="4"/>
-      <c r="F764" s="4"/>
+      <c r="A764" s="17"/>
+      <c r="F764" s="17"/>
     </row>
     <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="4"/>
-      <c r="F765" s="4"/>
+      <c r="A765" s="17"/>
+      <c r="F765" s="17"/>
     </row>
     <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="4"/>
-      <c r="F766" s="4"/>
+      <c r="A766" s="17"/>
+      <c r="F766" s="17"/>
     </row>
     <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="4"/>
-      <c r="F767" s="4"/>
+      <c r="A767" s="17"/>
+      <c r="F767" s="17"/>
     </row>
     <row r="768" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="4"/>
-      <c r="F768" s="4"/>
+      <c r="A768" s="17"/>
+      <c r="F768" s="17"/>
     </row>
     <row r="769" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="4"/>
-      <c r="F769" s="4"/>
+      <c r="A769" s="17"/>
+      <c r="F769" s="17"/>
     </row>
     <row r="770" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="4"/>
-      <c r="F770" s="4"/>
+      <c r="A770" s="17"/>
+      <c r="F770" s="17"/>
     </row>
     <row r="771" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="4"/>
-      <c r="F771" s="4"/>
+      <c r="A771" s="17"/>
+      <c r="F771" s="17"/>
     </row>
     <row r="772" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A772" s="4"/>
-      <c r="F772" s="4"/>
+      <c r="A772" s="17"/>
+      <c r="F772" s="17"/>
     </row>
     <row r="773" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="4"/>
-      <c r="F773" s="4"/>
+      <c r="A773" s="17"/>
+      <c r="F773" s="17"/>
     </row>
     <row r="774" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A774" s="4"/>
-      <c r="F774" s="4"/>
+      <c r="A774" s="17"/>
+      <c r="F774" s="17"/>
     </row>
     <row r="775" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="4"/>
-      <c r="F775" s="4"/>
+      <c r="A775" s="17"/>
+      <c r="F775" s="17"/>
     </row>
     <row r="776" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A776" s="4"/>
-      <c r="F776" s="4"/>
+      <c r="A776" s="17"/>
+      <c r="F776" s="17"/>
     </row>
     <row r="777" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A777" s="4"/>
-      <c r="F777" s="4"/>
+      <c r="A777" s="17"/>
+      <c r="F777" s="17"/>
     </row>
     <row r="778" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A778" s="4"/>
-      <c r="F778" s="4"/>
+      <c r="A778" s="17"/>
+      <c r="F778" s="17"/>
     </row>
     <row r="779" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="4"/>
-      <c r="F779" s="4"/>
+      <c r="A779" s="17"/>
+      <c r="F779" s="17"/>
     </row>
     <row r="780" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A780" s="4"/>
-      <c r="F780" s="4"/>
+      <c r="A780" s="17"/>
+      <c r="F780" s="17"/>
     </row>
     <row r="781" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A781" s="4"/>
-      <c r="F781" s="4"/>
+      <c r="A781" s="17"/>
+      <c r="F781" s="17"/>
     </row>
     <row r="782" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A782" s="4"/>
-      <c r="F782" s="4"/>
+      <c r="A782" s="17"/>
+      <c r="F782" s="17"/>
     </row>
     <row r="783" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A783" s="4"/>
-      <c r="F783" s="4"/>
+      <c r="A783" s="17"/>
+      <c r="F783" s="17"/>
     </row>
     <row r="784" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A784" s="4"/>
-      <c r="F784" s="4"/>
+      <c r="A784" s="17"/>
+      <c r="F784" s="17"/>
     </row>
     <row r="785" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A785" s="4"/>
-      <c r="F785" s="4"/>
+      <c r="A785" s="17"/>
+      <c r="F785" s="17"/>
     </row>
     <row r="786" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A786" s="4"/>
-      <c r="F786" s="4"/>
+      <c r="A786" s="17"/>
+      <c r="F786" s="17"/>
     </row>
     <row r="787" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A787" s="4"/>
-      <c r="F787" s="4"/>
+      <c r="A787" s="17"/>
+      <c r="F787" s="17"/>
     </row>
     <row r="788" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A788" s="4"/>
-      <c r="F788" s="4"/>
+      <c r="A788" s="17"/>
+      <c r="F788" s="17"/>
     </row>
     <row r="789" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="4"/>
-      <c r="F789" s="4"/>
+      <c r="A789" s="17"/>
+      <c r="F789" s="17"/>
     </row>
     <row r="790" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A790" s="4"/>
-      <c r="F790" s="4"/>
+      <c r="A790" s="17"/>
+      <c r="F790" s="17"/>
     </row>
     <row r="791" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="4"/>
-      <c r="F791" s="4"/>
+      <c r="A791" s="17"/>
+      <c r="F791" s="17"/>
     </row>
     <row r="792" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A792" s="4"/>
-      <c r="F792" s="4"/>
+      <c r="A792" s="17"/>
+      <c r="F792" s="17"/>
     </row>
     <row r="793" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A793" s="4"/>
-      <c r="F793" s="4"/>
+      <c r="A793" s="17"/>
+      <c r="F793" s="17"/>
     </row>
     <row r="794" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A794" s="4"/>
-      <c r="F794" s="4"/>
+      <c r="A794" s="17"/>
+      <c r="F794" s="17"/>
     </row>
     <row r="795" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A795" s="4"/>
-      <c r="F795" s="4"/>
+      <c r="A795" s="17"/>
+      <c r="F795" s="17"/>
     </row>
     <row r="796" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A796" s="4"/>
-      <c r="F796" s="4"/>
+      <c r="A796" s="17"/>
+      <c r="F796" s="17"/>
     </row>
     <row r="797" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A797" s="4"/>
-      <c r="F797" s="4"/>
+      <c r="A797" s="17"/>
+      <c r="F797" s="17"/>
     </row>
     <row r="798" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A798" s="4"/>
-      <c r="F798" s="4"/>
+      <c r="A798" s="17"/>
+      <c r="F798" s="17"/>
     </row>
     <row r="799" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A799" s="4"/>
-      <c r="F799" s="4"/>
+      <c r="A799" s="17"/>
+      <c r="F799" s="17"/>
     </row>
     <row r="800" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A800" s="4"/>
-      <c r="F800" s="4"/>
+      <c r="A800" s="17"/>
+      <c r="F800" s="17"/>
     </row>
     <row r="801" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="4"/>
-      <c r="F801" s="4"/>
+      <c r="A801" s="17"/>
+      <c r="F801" s="17"/>
     </row>
     <row r="802" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A802" s="4"/>
-      <c r="F802" s="4"/>
+      <c r="A802" s="17"/>
+      <c r="F802" s="17"/>
     </row>
     <row r="803" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A803" s="4"/>
-      <c r="F803" s="4"/>
+      <c r="A803" s="17"/>
+      <c r="F803" s="17"/>
     </row>
     <row r="804" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="4"/>
-      <c r="F804" s="4"/>
+      <c r="A804" s="17"/>
+      <c r="F804" s="17"/>
     </row>
     <row r="805" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A805" s="4"/>
-      <c r="F805" s="4"/>
+      <c r="A805" s="17"/>
+      <c r="F805" s="17"/>
     </row>
     <row r="806" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="4"/>
-      <c r="F806" s="4"/>
+      <c r="A806" s="17"/>
+      <c r="F806" s="17"/>
     </row>
     <row r="807" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A807" s="4"/>
-      <c r="F807" s="4"/>
+      <c r="A807" s="17"/>
+      <c r="F807" s="17"/>
     </row>
     <row r="808" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A808" s="4"/>
-      <c r="F808" s="4"/>
+      <c r="A808" s="17"/>
+      <c r="F808" s="17"/>
     </row>
     <row r="809" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A809" s="4"/>
-      <c r="F809" s="4"/>
+      <c r="A809" s="17"/>
+      <c r="F809" s="17"/>
     </row>
     <row r="810" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A810" s="4"/>
-      <c r="F810" s="4"/>
+      <c r="A810" s="17"/>
+      <c r="F810" s="17"/>
     </row>
     <row r="811" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A811" s="4"/>
-      <c r="F811" s="4"/>
+      <c r="A811" s="17"/>
+      <c r="F811" s="17"/>
     </row>
     <row r="812" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="4"/>
-      <c r="F812" s="4"/>
+      <c r="A812" s="17"/>
+      <c r="F812" s="17"/>
     </row>
     <row r="813" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="4"/>
-      <c r="F813" s="4"/>
+      <c r="A813" s="17"/>
+      <c r="F813" s="17"/>
     </row>
     <row r="814" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="4"/>
-      <c r="F814" s="4"/>
+      <c r="A814" s="17"/>
+      <c r="F814" s="17"/>
     </row>
     <row r="815" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A815" s="4"/>
-      <c r="F815" s="4"/>
+      <c r="A815" s="17"/>
+      <c r="F815" s="17"/>
     </row>
     <row r="816" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A816" s="4"/>
-      <c r="F816" s="4"/>
+      <c r="A816" s="17"/>
+      <c r="F816" s="17"/>
     </row>
     <row r="817" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="4"/>
-      <c r="F817" s="4"/>
+      <c r="A817" s="17"/>
+      <c r="F817" s="17"/>
     </row>
     <row r="818" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="4"/>
-      <c r="F818" s="4"/>
+      <c r="A818" s="17"/>
+      <c r="F818" s="17"/>
     </row>
     <row r="819" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="4"/>
-      <c r="F819" s="4"/>
+      <c r="A819" s="17"/>
+      <c r="F819" s="17"/>
     </row>
     <row r="820" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="4"/>
-      <c r="F820" s="4"/>
+      <c r="A820" s="17"/>
+      <c r="F820" s="17"/>
     </row>
     <row r="821" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="4"/>
-      <c r="F821" s="4"/>
+      <c r="A821" s="17"/>
+      <c r="F821" s="17"/>
     </row>
     <row r="822" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="4"/>
-      <c r="F822" s="4"/>
+      <c r="A822" s="17"/>
+      <c r="F822" s="17"/>
     </row>
     <row r="823" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="4"/>
-      <c r="F823" s="4"/>
+      <c r="A823" s="17"/>
+      <c r="F823" s="17"/>
     </row>
     <row r="824" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="4"/>
-      <c r="F824" s="4"/>
+      <c r="A824" s="17"/>
+      <c r="F824" s="17"/>
     </row>
     <row r="825" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="4"/>
-      <c r="F825" s="4"/>
+      <c r="A825" s="17"/>
+      <c r="F825" s="17"/>
     </row>
     <row r="826" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="4"/>
-      <c r="F826" s="4"/>
+      <c r="A826" s="17"/>
+      <c r="F826" s="17"/>
     </row>
     <row r="827" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="4"/>
-      <c r="F827" s="4"/>
+      <c r="A827" s="17"/>
+      <c r="F827" s="17"/>
     </row>
     <row r="828" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="4"/>
-      <c r="F828" s="4"/>
+      <c r="A828" s="17"/>
+      <c r="F828" s="17"/>
     </row>
     <row r="829" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="4"/>
-      <c r="F829" s="4"/>
+      <c r="A829" s="17"/>
+      <c r="F829" s="17"/>
     </row>
     <row r="830" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="4"/>
-      <c r="F830" s="4"/>
+      <c r="A830" s="17"/>
+      <c r="F830" s="17"/>
     </row>
     <row r="831" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="4"/>
-      <c r="F831" s="4"/>
+      <c r="A831" s="17"/>
+      <c r="F831" s="17"/>
     </row>
     <row r="832" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="4"/>
-      <c r="F832" s="4"/>
+      <c r="A832" s="17"/>
+      <c r="F832" s="17"/>
     </row>
     <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="4"/>
-      <c r="F833" s="4"/>
+      <c r="A833" s="17"/>
+      <c r="F833" s="17"/>
     </row>
     <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="4"/>
-      <c r="F834" s="4"/>
+      <c r="A834" s="17"/>
+      <c r="F834" s="17"/>
     </row>
     <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="4"/>
-      <c r="F835" s="4"/>
+      <c r="A835" s="17"/>
+      <c r="F835" s="17"/>
     </row>
     <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A836" s="4"/>
-      <c r="F836" s="4"/>
+      <c r="A836" s="17"/>
+      <c r="F836" s="17"/>
     </row>
     <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A837" s="4"/>
-      <c r="F837" s="4"/>
+      <c r="A837" s="17"/>
+      <c r="F837" s="17"/>
     </row>
     <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A838" s="4"/>
-      <c r="F838" s="4"/>
+      <c r="A838" s="17"/>
+      <c r="F838" s="17"/>
     </row>
     <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A839" s="4"/>
-      <c r="F839" s="4"/>
+      <c r="A839" s="17"/>
+      <c r="F839" s="17"/>
     </row>
     <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A840" s="4"/>
-      <c r="F840" s="4"/>
+      <c r="A840" s="17"/>
+      <c r="F840" s="17"/>
     </row>
     <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A841" s="4"/>
-      <c r="F841" s="4"/>
+      <c r="A841" s="17"/>
+      <c r="F841" s="17"/>
     </row>
     <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A842" s="4"/>
-      <c r="F842" s="4"/>
+      <c r="A842" s="17"/>
+      <c r="F842" s="17"/>
     </row>
     <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="4"/>
-      <c r="F843" s="4"/>
+      <c r="A843" s="17"/>
+      <c r="F843" s="17"/>
     </row>
     <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A844" s="4"/>
-      <c r="F844" s="4"/>
+      <c r="A844" s="17"/>
+      <c r="F844" s="17"/>
     </row>
     <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A845" s="4"/>
-      <c r="F845" s="4"/>
+      <c r="A845" s="17"/>
+      <c r="F845" s="17"/>
     </row>
     <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A846" s="4"/>
-      <c r="F846" s="4"/>
+      <c r="A846" s="17"/>
+      <c r="F846" s="17"/>
     </row>
     <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A847" s="4"/>
-      <c r="F847" s="4"/>
+      <c r="A847" s="17"/>
+      <c r="F847" s="17"/>
     </row>
     <row r="848" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A848" s="4"/>
-      <c r="F848" s="4"/>
+      <c r="A848" s="17"/>
+      <c r="F848" s="17"/>
     </row>
     <row r="849" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A849" s="4"/>
-      <c r="F849" s="4"/>
+      <c r="A849" s="17"/>
+      <c r="F849" s="17"/>
     </row>
     <row r="850" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="4"/>
-      <c r="F850" s="4"/>
+      <c r="A850" s="17"/>
+      <c r="F850" s="17"/>
     </row>
     <row r="851" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A851" s="4"/>
-      <c r="F851" s="4"/>
+      <c r="A851" s="17"/>
+      <c r="F851" s="17"/>
     </row>
     <row r="852" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="4"/>
-      <c r="F852" s="4"/>
+      <c r="A852" s="17"/>
+      <c r="F852" s="17"/>
     </row>
     <row r="853" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="4"/>
-      <c r="F853" s="4"/>
+      <c r="A853" s="17"/>
+      <c r="F853" s="17"/>
     </row>
     <row r="854" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="4"/>
-      <c r="F854" s="4"/>
+      <c r="A854" s="17"/>
+      <c r="F854" s="17"/>
     </row>
     <row r="855" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="4"/>
-      <c r="F855" s="4"/>
+      <c r="A855" s="17"/>
+      <c r="F855" s="17"/>
     </row>
     <row r="856" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A856" s="4"/>
-      <c r="F856" s="4"/>
+      <c r="A856" s="17"/>
+      <c r="F856" s="17"/>
     </row>
     <row r="857" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="4"/>
-      <c r="F857" s="4"/>
+      <c r="A857" s="17"/>
+      <c r="F857" s="17"/>
     </row>
     <row r="858" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="4"/>
-      <c r="F858" s="4"/>
+      <c r="A858" s="17"/>
+      <c r="F858" s="17"/>
     </row>
     <row r="859" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A859" s="4"/>
-      <c r="F859" s="4"/>
+      <c r="A859" s="17"/>
+      <c r="F859" s="17"/>
     </row>
     <row r="860" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="4"/>
-      <c r="F860" s="4"/>
+      <c r="A860" s="17"/>
+      <c r="F860" s="17"/>
     </row>
     <row r="861" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="4"/>
-      <c r="F861" s="4"/>
+      <c r="A861" s="17"/>
+      <c r="F861" s="17"/>
     </row>
     <row r="862" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="4"/>
-      <c r="F862" s="4"/>
+      <c r="A862" s="17"/>
+      <c r="F862" s="17"/>
     </row>
     <row r="863" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A863" s="4"/>
-      <c r="F863" s="4"/>
+      <c r="A863" s="17"/>
+      <c r="F863" s="17"/>
     </row>
     <row r="864" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A864" s="4"/>
-      <c r="F864" s="4"/>
+      <c r="A864" s="17"/>
+      <c r="F864" s="17"/>
     </row>
     <row r="865" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A865" s="4"/>
-      <c r="F865" s="4"/>
+      <c r="A865" s="17"/>
+      <c r="F865" s="17"/>
     </row>
     <row r="866" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A866" s="4"/>
-      <c r="F866" s="4"/>
+      <c r="A866" s="17"/>
+      <c r="F866" s="17"/>
     </row>
     <row r="867" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A867" s="4"/>
-      <c r="F867" s="4"/>
+      <c r="A867" s="17"/>
+      <c r="F867" s="17"/>
     </row>
     <row r="868" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A868" s="4"/>
-      <c r="F868" s="4"/>
+      <c r="A868" s="17"/>
+      <c r="F868" s="17"/>
     </row>
     <row r="869" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A869" s="4"/>
-      <c r="F869" s="4"/>
+      <c r="A869" s="17"/>
+      <c r="F869" s="17"/>
     </row>
     <row r="870" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="4"/>
-      <c r="F870" s="4"/>
+      <c r="A870" s="17"/>
+      <c r="F870" s="17"/>
     </row>
     <row r="871" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A871" s="4"/>
-      <c r="F871" s="4"/>
+      <c r="A871" s="17"/>
+      <c r="F871" s="17"/>
     </row>
     <row r="872" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="4"/>
-      <c r="F872" s="4"/>
+      <c r="A872" s="17"/>
+      <c r="F872" s="17"/>
     </row>
     <row r="873" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="4"/>
-      <c r="F873" s="4"/>
+      <c r="A873" s="17"/>
+      <c r="F873" s="17"/>
     </row>
     <row r="874" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="4"/>
-      <c r="F874" s="4"/>
+      <c r="A874" s="17"/>
+      <c r="F874" s="17"/>
     </row>
     <row r="875" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="4"/>
-      <c r="F875" s="4"/>
+      <c r="A875" s="17"/>
+      <c r="F875" s="17"/>
     </row>
     <row r="876" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="4"/>
-      <c r="F876" s="4"/>
+      <c r="A876" s="17"/>
+      <c r="F876" s="17"/>
     </row>
     <row r="877" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="4"/>
-      <c r="F877" s="4"/>
+      <c r="A877" s="17"/>
+      <c r="F877" s="17"/>
     </row>
     <row r="878" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="4"/>
-      <c r="F878" s="4"/>
+      <c r="A878" s="17"/>
+      <c r="F878" s="17"/>
     </row>
     <row r="879" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="4"/>
-      <c r="F879" s="4"/>
+      <c r="A879" s="17"/>
+      <c r="F879" s="17"/>
     </row>
     <row r="880" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="4"/>
-      <c r="F880" s="4"/>
+      <c r="A880" s="17"/>
+      <c r="F880" s="17"/>
     </row>
     <row r="881" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="4"/>
-      <c r="F881" s="4"/>
+      <c r="A881" s="17"/>
+      <c r="F881" s="17"/>
     </row>
     <row r="882" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A882" s="4"/>
-      <c r="F882" s="4"/>
+      <c r="A882" s="17"/>
+      <c r="F882" s="17"/>
     </row>
     <row r="883" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="4"/>
-      <c r="F883" s="4"/>
+      <c r="A883" s="17"/>
+      <c r="F883" s="17"/>
     </row>
     <row r="884" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="4"/>
-      <c r="F884" s="4"/>
+      <c r="A884" s="17"/>
+      <c r="F884" s="17"/>
     </row>
     <row r="885" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="4"/>
-      <c r="F885" s="4"/>
+      <c r="A885" s="17"/>
+      <c r="F885" s="17"/>
     </row>
     <row r="886" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="4"/>
-      <c r="F886" s="4"/>
+      <c r="A886" s="17"/>
+      <c r="F886" s="17"/>
     </row>
     <row r="887" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="4"/>
-      <c r="F887" s="4"/>
+      <c r="A887" s="17"/>
+      <c r="F887" s="17"/>
     </row>
     <row r="888" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="4"/>
-      <c r="F888" s="4"/>
+      <c r="A888" s="17"/>
+      <c r="F888" s="17"/>
     </row>
     <row r="889" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="4"/>
-      <c r="F889" s="4"/>
+      <c r="A889" s="17"/>
+      <c r="F889" s="17"/>
     </row>
     <row r="890" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="4"/>
-      <c r="F890" s="4"/>
+      <c r="A890" s="17"/>
+      <c r="F890" s="17"/>
     </row>
     <row r="891" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="4"/>
-      <c r="F891" s="4"/>
+      <c r="A891" s="17"/>
+      <c r="F891" s="17"/>
     </row>
     <row r="892" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="4"/>
-      <c r="F892" s="4"/>
+      <c r="A892" s="17"/>
+      <c r="F892" s="17"/>
     </row>
     <row r="893" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="4"/>
-      <c r="F893" s="4"/>
+      <c r="A893" s="17"/>
+      <c r="F893" s="17"/>
     </row>
     <row r="894" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="4"/>
-      <c r="F894" s="4"/>
+      <c r="A894" s="17"/>
+      <c r="F894" s="17"/>
     </row>
     <row r="895" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="4"/>
-      <c r="F895" s="4"/>
+      <c r="A895" s="17"/>
+      <c r="F895" s="17"/>
     </row>
     <row r="896" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="4"/>
-      <c r="F896" s="4"/>
+      <c r="A896" s="17"/>
+      <c r="F896" s="17"/>
     </row>
     <row r="897" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="4"/>
-      <c r="F897" s="4"/>
+      <c r="A897" s="17"/>
+      <c r="F897" s="17"/>
     </row>
     <row r="898" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="4"/>
-      <c r="F898" s="4"/>
+      <c r="A898" s="17"/>
+      <c r="F898" s="17"/>
     </row>
     <row r="899" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="4"/>
-      <c r="F899" s="4"/>
+      <c r="A899" s="17"/>
+      <c r="F899" s="17"/>
     </row>
     <row r="900" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="4"/>
-      <c r="F900" s="4"/>
+      <c r="A900" s="17"/>
+      <c r="F900" s="17"/>
     </row>
     <row r="901" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="4"/>
-      <c r="F901" s="4"/>
+      <c r="A901" s="17"/>
+      <c r="F901" s="17"/>
     </row>
     <row r="902" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="4"/>
-      <c r="F902" s="4"/>
+      <c r="A902" s="17"/>
+      <c r="F902" s="17"/>
     </row>
     <row r="903" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="4"/>
-      <c r="F903" s="4"/>
+      <c r="A903" s="17"/>
+      <c r="F903" s="17"/>
     </row>
     <row r="904" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A904" s="4"/>
-      <c r="F904" s="4"/>
+      <c r="A904" s="17"/>
+      <c r="F904" s="17"/>
     </row>
     <row r="905" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="4"/>
-      <c r="F905" s="4"/>
+      <c r="A905" s="17"/>
+      <c r="F905" s="17"/>
     </row>
     <row r="906" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="4"/>
-      <c r="F906" s="4"/>
+      <c r="A906" s="17"/>
+      <c r="F906" s="17"/>
     </row>
     <row r="907" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="4"/>
-      <c r="F907" s="4"/>
+      <c r="A907" s="17"/>
+      <c r="F907" s="17"/>
     </row>
     <row r="908" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="4"/>
-      <c r="F908" s="4"/>
+      <c r="A908" s="17"/>
+      <c r="F908" s="17"/>
     </row>
     <row r="909" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="4"/>
-      <c r="F909" s="4"/>
+      <c r="A909" s="17"/>
+      <c r="F909" s="17"/>
     </row>
     <row r="910" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="4"/>
-      <c r="F910" s="4"/>
+      <c r="A910" s="17"/>
+      <c r="F910" s="17"/>
     </row>
     <row r="911" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="4"/>
-      <c r="F911" s="4"/>
+      <c r="A911" s="17"/>
+      <c r="F911" s="17"/>
     </row>
     <row r="912" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="4"/>
-      <c r="F912" s="4"/>
+      <c r="A912" s="17"/>
+      <c r="F912" s="17"/>
     </row>
     <row r="913" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A913" s="4"/>
-      <c r="F913" s="4"/>
+      <c r="A913" s="17"/>
+      <c r="F913" s="17"/>
     </row>
     <row r="914" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="4"/>
-      <c r="F914" s="4"/>
+      <c r="A914" s="17"/>
+      <c r="F914" s="17"/>
     </row>
     <row r="915" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="4"/>
-      <c r="F915" s="4"/>
+      <c r="A915" s="17"/>
+      <c r="F915" s="17"/>
     </row>
     <row r="916" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="4"/>
-      <c r="F916" s="4"/>
+      <c r="A916" s="17"/>
+      <c r="F916" s="17"/>
     </row>
     <row r="917" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="4"/>
-      <c r="F917" s="4"/>
+      <c r="A917" s="17"/>
+      <c r="F917" s="17"/>
     </row>
     <row r="918" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="4"/>
-      <c r="F918" s="4"/>
+      <c r="A918" s="17"/>
+      <c r="F918" s="17"/>
     </row>
     <row r="919" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="4"/>
-      <c r="F919" s="4"/>
+      <c r="A919" s="17"/>
+      <c r="F919" s="17"/>
     </row>
     <row r="920" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A920" s="4"/>
-      <c r="F920" s="4"/>
+      <c r="A920" s="17"/>
+      <c r="F920" s="17"/>
     </row>
     <row r="921" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="4"/>
-      <c r="F921" s="4"/>
+      <c r="A921" s="17"/>
+      <c r="F921" s="17"/>
     </row>
     <row r="922" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="4"/>
-      <c r="F922" s="4"/>
+      <c r="A922" s="17"/>
+      <c r="F922" s="17"/>
     </row>
     <row r="923" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="4"/>
-      <c r="F923" s="4"/>
+      <c r="A923" s="17"/>
+      <c r="F923" s="17"/>
     </row>
     <row r="924" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="4"/>
-      <c r="F924" s="4"/>
+      <c r="A924" s="17"/>
+      <c r="F924" s="17"/>
     </row>
     <row r="925" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="4"/>
-      <c r="F925" s="4"/>
+      <c r="A925" s="17"/>
+      <c r="F925" s="17"/>
     </row>
     <row r="926" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="4"/>
-      <c r="F926" s="4"/>
+      <c r="A926" s="17"/>
+      <c r="F926" s="17"/>
     </row>
     <row r="927" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="4"/>
-      <c r="F927" s="4"/>
+      <c r="A927" s="17"/>
+      <c r="F927" s="17"/>
     </row>
     <row r="928" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="4"/>
-      <c r="F928" s="4"/>
+      <c r="A928" s="17"/>
+      <c r="F928" s="17"/>
     </row>
     <row r="929" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="4"/>
-      <c r="F929" s="4"/>
+      <c r="A929" s="17"/>
+      <c r="F929" s="17"/>
     </row>
     <row r="930" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="4"/>
-      <c r="F930" s="4"/>
+      <c r="A930" s="17"/>
+      <c r="F930" s="17"/>
     </row>
     <row r="931" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A931" s="4"/>
-      <c r="F931" s="4"/>
+      <c r="A931" s="17"/>
+      <c r="F931" s="17"/>
     </row>
     <row r="932" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="4"/>
-      <c r="F932" s="4"/>
+      <c r="A932" s="17"/>
+      <c r="F932" s="17"/>
     </row>
     <row r="933" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="4"/>
-      <c r="F933" s="4"/>
+      <c r="A933" s="17"/>
+      <c r="F933" s="17"/>
     </row>
     <row r="934" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="4"/>
-      <c r="F934" s="4"/>
+      <c r="A934" s="17"/>
+      <c r="F934" s="17"/>
     </row>
     <row r="935" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="4"/>
-      <c r="F935" s="4"/>
+      <c r="A935" s="17"/>
+      <c r="F935" s="17"/>
     </row>
     <row r="936" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="4"/>
-      <c r="F936" s="4"/>
+      <c r="A936" s="17"/>
+      <c r="F936" s="17"/>
     </row>
     <row r="937" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A937" s="4"/>
-      <c r="F937" s="4"/>
+      <c r="A937" s="17"/>
+      <c r="F937" s="17"/>
     </row>
     <row r="938" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A938" s="4"/>
-      <c r="F938" s="4"/>
+      <c r="A938" s="17"/>
+      <c r="F938" s="17"/>
     </row>
     <row r="939" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="4"/>
-      <c r="F939" s="4"/>
+      <c r="A939" s="17"/>
+      <c r="F939" s="17"/>
     </row>
     <row r="940" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="4"/>
-      <c r="F940" s="4"/>
+      <c r="A940" s="17"/>
+      <c r="F940" s="17"/>
     </row>
     <row r="941" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="4"/>
-      <c r="F941" s="4"/>
+      <c r="A941" s="17"/>
+      <c r="F941" s="17"/>
     </row>
     <row r="942" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="4"/>
-      <c r="F942" s="4"/>
+      <c r="A942" s="17"/>
+      <c r="F942" s="17"/>
     </row>
     <row r="943" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="4"/>
-      <c r="F943" s="4"/>
+      <c r="A943" s="17"/>
+      <c r="F943" s="17"/>
     </row>
     <row r="944" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="4"/>
-      <c r="F944" s="4"/>
+      <c r="A944" s="17"/>
+      <c r="F944" s="17"/>
     </row>
     <row r="945" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="4"/>
-      <c r="F945" s="4"/>
+      <c r="A945" s="17"/>
+      <c r="F945" s="17"/>
     </row>
     <row r="946" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="4"/>
-      <c r="F946" s="4"/>
+      <c r="A946" s="17"/>
+      <c r="F946" s="17"/>
     </row>
     <row r="947" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="4"/>
-      <c r="F947" s="4"/>
+      <c r="A947" s="17"/>
+      <c r="F947" s="17"/>
     </row>
     <row r="948" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="4"/>
-      <c r="F948" s="4"/>
+      <c r="A948" s="17"/>
+      <c r="F948" s="17"/>
     </row>
     <row r="949" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="4"/>
-      <c r="F949" s="4"/>
+      <c r="A949" s="17"/>
+      <c r="F949" s="17"/>
     </row>
     <row r="950" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="4"/>
-      <c r="F950" s="4"/>
+      <c r="A950" s="17"/>
+      <c r="F950" s="17"/>
     </row>
     <row r="951" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="4"/>
-      <c r="F951" s="4"/>
+      <c r="A951" s="17"/>
+      <c r="F951" s="17"/>
     </row>
     <row r="952" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="4"/>
-      <c r="F952" s="4"/>
+      <c r="A952" s="17"/>
+      <c r="F952" s="17"/>
     </row>
     <row r="953" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="4"/>
-      <c r="F953" s="4"/>
+      <c r="A953" s="17"/>
+      <c r="F953" s="17"/>
     </row>
     <row r="954" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="4"/>
-      <c r="F954" s="4"/>
+      <c r="A954" s="17"/>
+      <c r="F954" s="17"/>
     </row>
     <row r="955" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="4"/>
-      <c r="F955" s="4"/>
+      <c r="A955" s="17"/>
+      <c r="F955" s="17"/>
     </row>
     <row r="956" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="4"/>
-      <c r="F956" s="4"/>
+      <c r="A956" s="17"/>
+      <c r="F956" s="17"/>
     </row>
     <row r="957" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="4"/>
-      <c r="F957" s="4"/>
+      <c r="A957" s="17"/>
+      <c r="F957" s="17"/>
     </row>
     <row r="958" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="4"/>
-      <c r="F958" s="4"/>
+      <c r="A958" s="17"/>
+      <c r="F958" s="17"/>
     </row>
     <row r="959" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="4"/>
-      <c r="F959" s="4"/>
+      <c r="A959" s="17"/>
+      <c r="F959" s="17"/>
     </row>
     <row r="960" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A960" s="4"/>
-      <c r="F960" s="4"/>
+      <c r="A960" s="17"/>
+      <c r="F960" s="17"/>
     </row>
     <row r="961" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="4"/>
-      <c r="F961" s="4"/>
+      <c r="A961" s="17"/>
+      <c r="F961" s="17"/>
     </row>
     <row r="962" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="4"/>
-      <c r="F962" s="4"/>
+      <c r="A962" s="17"/>
+      <c r="F962" s="17"/>
     </row>
     <row r="963" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="4"/>
-      <c r="F963" s="4"/>
+      <c r="A963" s="17"/>
+      <c r="F963" s="17"/>
     </row>
     <row r="964" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A964" s="4"/>
-      <c r="F964" s="4"/>
+      <c r="A964" s="17"/>
+      <c r="F964" s="17"/>
     </row>
     <row r="965" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A965" s="4"/>
-      <c r="F965" s="4"/>
+      <c r="A965" s="17"/>
+      <c r="F965" s="17"/>
     </row>
     <row r="966" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="4"/>
-      <c r="F966" s="4"/>
+      <c r="A966" s="17"/>
+      <c r="F966" s="17"/>
     </row>
     <row r="967" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A967" s="4"/>
-      <c r="F967" s="4"/>
+      <c r="A967" s="17"/>
+      <c r="F967" s="17"/>
     </row>
     <row r="968" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="4"/>
-      <c r="F968" s="4"/>
+      <c r="A968" s="17"/>
+      <c r="F968" s="17"/>
     </row>
     <row r="969" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="4"/>
-      <c r="F969" s="4"/>
+      <c r="A969" s="17"/>
+      <c r="F969" s="17"/>
     </row>
     <row r="970" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="4"/>
-      <c r="F970" s="4"/>
+      <c r="A970" s="17"/>
+      <c r="F970" s="17"/>
     </row>
     <row r="971" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="4"/>
-      <c r="F971" s="4"/>
+      <c r="A971" s="17"/>
+      <c r="F971" s="17"/>
     </row>
     <row r="972" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="4"/>
-      <c r="F972" s="4"/>
+      <c r="A972" s="17"/>
+      <c r="F972" s="17"/>
     </row>
     <row r="973" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="4"/>
-      <c r="F973" s="4"/>
+      <c r="A973" s="17"/>
+      <c r="F973" s="17"/>
     </row>
     <row r="974" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A974" s="4"/>
-      <c r="F974" s="4"/>
+      <c r="A974" s="17"/>
+      <c r="F974" s="17"/>
     </row>
     <row r="975" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A975" s="4"/>
-      <c r="F975" s="4"/>
+      <c r="A975" s="17"/>
+      <c r="F975" s="17"/>
     </row>
     <row r="976" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A976" s="4"/>
-      <c r="F976" s="4"/>
+      <c r="A976" s="17"/>
+      <c r="F976" s="17"/>
     </row>
     <row r="977" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A977" s="4"/>
-      <c r="F977" s="4"/>
+      <c r="A977" s="17"/>
+      <c r="F977" s="17"/>
     </row>
     <row r="978" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A978" s="4"/>
-      <c r="F978" s="4"/>
+      <c r="A978" s="17"/>
+      <c r="F978" s="17"/>
     </row>
     <row r="979" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A979" s="4"/>
-      <c r="F979" s="4"/>
+      <c r="A979" s="17"/>
+      <c r="F979" s="17"/>
     </row>
     <row r="980" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A980" s="4"/>
-      <c r="F980" s="4"/>
+      <c r="A980" s="17"/>
+      <c r="F980" s="17"/>
     </row>
     <row r="981" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A981" s="4"/>
-      <c r="F981" s="4"/>
+      <c r="A981" s="17"/>
+      <c r="F981" s="17"/>
     </row>
     <row r="982" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A982" s="4"/>
-      <c r="F982" s="4"/>
+      <c r="A982" s="17"/>
+      <c r="F982" s="17"/>
     </row>
     <row r="983" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A983" s="4"/>
-      <c r="F983" s="4"/>
+      <c r="A983" s="17"/>
+      <c r="F983" s="17"/>
     </row>
     <row r="984" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="4"/>
-      <c r="F984" s="4"/>
+      <c r="A984" s="17"/>
+      <c r="F984" s="17"/>
     </row>
     <row r="985" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="4"/>
-      <c r="F985" s="4"/>
+      <c r="A985" s="17"/>
+      <c r="F985" s="17"/>
     </row>
     <row r="986" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="4"/>
-      <c r="F986" s="4"/>
+      <c r="A986" s="17"/>
+      <c r="F986" s="17"/>
     </row>
     <row r="987" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="4"/>
-      <c r="F987" s="4"/>
+      <c r="A987" s="17"/>
+      <c r="F987" s="17"/>
     </row>
     <row r="988" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="4"/>
-      <c r="F988" s="4"/>
+      <c r="A988" s="17"/>
+      <c r="F988" s="17"/>
     </row>
     <row r="989" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="4"/>
-      <c r="F989" s="4"/>
+      <c r="A989" s="17"/>
+      <c r="F989" s="17"/>
     </row>
     <row r="990" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="4"/>
-      <c r="F990" s="4"/>
+      <c r="A990" s="17"/>
+      <c r="F990" s="17"/>
     </row>
     <row r="991" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="4"/>
-      <c r="F991" s="4"/>
+      <c r="A991" s="17"/>
+      <c r="F991" s="17"/>
     </row>
     <row r="992" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="4"/>
-      <c r="F992" s="4"/>
+      <c r="A992" s="17"/>
+      <c r="F992" s="17"/>
     </row>
     <row r="993" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="4"/>
-      <c r="F993" s="4"/>
+      <c r="A993" s="17"/>
+      <c r="F993" s="17"/>
     </row>
     <row r="994" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="4"/>
-      <c r="F994" s="4"/>
+      <c r="A994" s="17"/>
+      <c r="F994" s="17"/>
     </row>
     <row r="995" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="4"/>
-      <c r="F995" s="4"/>
+      <c r="A995" s="17"/>
+      <c r="F995" s="17"/>
     </row>
     <row r="996" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="4"/>
-      <c r="F996" s="4"/>
+      <c r="A996" s="17"/>
+      <c r="F996" s="17"/>
     </row>
     <row r="997" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="4"/>
-      <c r="F997" s="4"/>
+      <c r="A997" s="17"/>
+      <c r="F997" s="17"/>
     </row>
     <row r="998" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="4"/>
-      <c r="F998" s="4"/>
+      <c r="A998" s="17"/>
+      <c r="F998" s="17"/>
     </row>
     <row r="999" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="4"/>
-      <c r="F999" s="4"/>
+      <c r="A999" s="17"/>
+      <c r="F999" s="17"/>
     </row>
     <row r="1000" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="4"/>
-      <c r="F1000" s="4"/>
+      <c r="A1000" s="17"/>
+      <c r="F1000" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9148,7 +9164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9164,9 +9182,9 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -9208,12 +9226,12 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="D2" s="21" t="s">
-        <v>60</v>
+      <c r="B2" s="7"/>
+      <c r="D2" s="16" t="s">
+        <v>62</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>63</v>
+      <c r="E2" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -9223,9 +9241,9 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="B3" s="7"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B406646-3E46-489B-91E9-767F72034E68}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826490C-2880-4812-93D0-ECB7EA808A4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>STestProperty</t>
+  </si>
+  <si>
+    <t>spaceInfo</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -710,18 +713,19 @@
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="21.28515625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="6" customWidth="1"/>
-    <col min="14" max="26" width="8.7109375" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="14.42578125" style="6"/>
+    <col min="5" max="5" width="31.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
+    <col min="9" max="10" width="21.28515625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="6" customWidth="1"/>
+    <col min="15" max="27" width="8.7109375" style="6" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>61</v>
       </c>
@@ -734,34 +738,36 @@
       <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -774,8 +780,9 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -785,37 +792,41 @@
         <v>62</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTAutomatedTesting\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826490C-2880-4812-93D0-ECB7EA808A4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C540373-E0C5-4102-87D0-C201F0352132}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -217,20 +217,32 @@
     <t>Test_Property_Lease_01</t>
   </si>
   <si>
-    <t>Test_Property_Lease-01_space_01</t>
-  </si>
-  <si>
     <t>STestProperty</t>
   </si>
   <si>
     <t>spaceInfo</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>JE Lease 555</t>
+  </si>
+  <si>
+    <t>W_Test_Property_10_Lease_Space_20</t>
+  </si>
+  <si>
+    <t>W_Test_Property_10_Lease_Space_21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -261,6 +273,12 @@
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -325,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +404,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -713,7 +734,7 @@
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41" style="6" customWidth="1"/>
     <col min="6" max="6" width="40.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
@@ -739,7 +760,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>51</v>
@@ -788,11 +809,11 @@
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="16" t="s">
-        <v>62</v>
+      <c r="D2" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>45</v>
@@ -819,15 +840,50 @@
         <v>50</v>
       </c>
       <c r="N2" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="D3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1806,8 +1862,6 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4981,8 +5035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5048,7 +5102,7 @@
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>62</v>
@@ -9176,7 +9230,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9238,11 +9292,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="D2" s="16" t="s">
-        <v>62</v>
+      <c r="D2" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -9251,10 +9305,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
       <c r="B3" s="7"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C540373-E0C5-4102-87D0-C201F0352132}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B52DB0-9727-47B0-AB3F-97E9D2DD3FF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>ExecutionFlag</t>
-  </si>
-  <si>
-    <t>001</t>
   </si>
   <si>
     <t>dbaName</t>
@@ -217,32 +214,23 @@
     <t>Test_Property_Lease_01</t>
   </si>
   <si>
-    <t>STestProperty</t>
-  </si>
-  <si>
     <t>spaceInfo</t>
   </si>
   <si>
     <t>1251</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Test_Property_Auto_10_Lease_Space_30</t>
   </si>
   <si>
-    <t>JE Lease 555</t>
-  </si>
-  <si>
-    <t>W_Test_Property_10_Lease_Space_20</t>
-  </si>
-  <si>
-    <t>W_Test_Property_10_Lease_Space_21</t>
+    <t>Test_Property_Auto_10_Lease_Space_31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -268,18 +256,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -400,13 +376,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +696,7 @@
   <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -748,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -757,34 +728,34 @@
         <v>1</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>17</v>
@@ -809,77 +780,77 @@
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="27" t="s">
-        <v>68</v>
+      <c r="D2" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="I2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="N2" s="16" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="D3" s="27" t="s">
-        <v>68</v>
+      <c r="D3" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="J3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="K3" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1872,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1902,7 +1873,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1967,56 +1938,56 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
+      <c r="A2" s="14">
+        <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5">
         <v>124564125</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2">
+        <v>12229</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I2">
-        <v>1229</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="N2">
         <v>100000000</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -5035,8 +5006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5058,7 +5029,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -5070,66 +5041,68 @@
         <v>2</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="18" t="s">
         <v>25</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>26</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="25" t="s">
-        <v>64</v>
+      <c r="D2" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>30</v>
-      </c>
       <c r="K2" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="19"/>
     </row>
@@ -5140,9 +5113,9 @@
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
@@ -5155,9 +5128,9 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
@@ -5170,9 +5143,9 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
@@ -5185,9 +5158,9 @@
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
@@ -5200,9 +5173,9 @@
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
@@ -5214,9 +5187,9 @@
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
@@ -5228,9 +5201,9 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
@@ -5242,9 +5215,9 @@
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
@@ -5256,9 +5229,9 @@
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
@@ -9247,7 +9220,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -9256,13 +9229,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>17</v>
@@ -9292,17 +9265,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="D2" s="27" t="s">
-        <v>68</v>
+      <c r="D2" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -9310,17 +9283,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="D3" s="27" t="s">
-        <v>68</v>
+      <c r="D3" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10305,6 +10278,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B52DB0-9727-47B0-AB3F-97E9D2DD3FF8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E5E68E-1C4F-48E3-B0FB-D1AA44AA7E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -199,31 +199,34 @@
     <t>amount</t>
   </si>
   <si>
-    <t>Test_Property_Auto</t>
-  </si>
-  <si>
     <t>12/31/2021</t>
   </si>
   <si>
     <t>TC_ID</t>
   </si>
   <si>
-    <t>Test_Property_Lease-01</t>
-  </si>
-  <si>
-    <t>Test_Property_Lease_01</t>
-  </si>
-  <si>
     <t>spaceInfo</t>
   </si>
   <si>
-    <t>1251</t>
+    <t>666677777</t>
   </si>
   <si>
-    <t>Test_Property_Auto_10_Lease_Space_30</t>
+    <t>01/01/2021</t>
   </si>
   <si>
-    <t>Test_Property_Auto_10_Lease_Space_31</t>
+    <t>Test_Property_Auto_Final</t>
+  </si>
+  <si>
+    <t>666677773</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final-01</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final_10_Lease_Space_30</t>
+  </si>
+  <si>
+    <t>Ac</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,6 +381,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
-  <dimension ref="A1:AA998"/>
+  <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -705,7 +711,7 @@
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="40.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="6" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
@@ -719,7 +725,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>0</v>
@@ -731,7 +737,7 @@
         <v>30</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>50</v>
@@ -775,16 +781,16 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
+      <c r="A2" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>44</v>
@@ -805,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="17" t="s">
         <v>49</v>
@@ -814,45 +820,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1800,6 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1843,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1873,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1938,14 +1905,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
+      <c r="A2" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
-      <c r="E2" s="5">
-        <v>124564125</v>
+      <c r="E2" s="25" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>33</v>
@@ -5006,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5015,7 +4982,7 @@
     <col min="1" max="1" width="10.42578125" style="23" customWidth="1"/>
     <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19" style="23" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="23" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="23" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="23" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="23" customWidth="1"/>
@@ -5029,7 +4996,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -5069,22 +5036,22 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>1</v>
+      <c r="A2" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>27</v>
@@ -5096,7 +5063,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>43</v>
@@ -9200,10 +9167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9211,7 +9178,7 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
@@ -9220,7 +9187,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -9261,15 +9228,15 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="7"/>
       <c r="D2" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -9278,24 +9245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="D3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10275,7 +10225,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E5E68E-1C4F-48E3-B0FB-D1AA44AA7E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5A0B7-3DEB-424D-939A-2A6465266188}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -208,16 +208,10 @@
     <t>spaceInfo</t>
   </si>
   <si>
-    <t>666677777</t>
-  </si>
-  <si>
     <t>01/01/2021</t>
   </si>
   <si>
     <t>Test_Property_Auto_Final</t>
-  </si>
-  <si>
-    <t>666677773</t>
   </si>
   <si>
     <t>Test_Property_Auto_Final-01</t>
@@ -226,14 +220,14 @@
     <t>Test_Property_Auto_Final_10_Lease_Space_30</t>
   </si>
   <si>
-    <t>Ac</t>
+    <t>Test_Property_Auto Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +250,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +386,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +704,7 @@
   <dimension ref="A1:AA997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -781,16 +783,14 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="A2" s="25"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>44</v>
@@ -1810,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1819,7 +1819,7 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
@@ -1905,14 +1905,12 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
+      <c r="A2" s="25"/>
+      <c r="D2" s="26" t="s">
+        <v>65</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>64</v>
+      <c r="E2" s="26">
+        <v>12456412523</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>33</v>
@@ -4965,13 +4963,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -4983,18 +4981,18 @@
     <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="23" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="23" customWidth="1"/>
-    <col min="14" max="16384" width="14.42578125" style="23"/>
+    <col min="6" max="6" width="29.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="23" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="23" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="23" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" style="23" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="14.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -5007,4157 +5005,4161 @@
       <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
-      </c>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="26">
+        <v>666677773</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>67</v>
+      <c r="G2" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="H2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>62</v>
+      <c r="L2" s="19" t="s">
+        <v>61</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
       <c r="F3" s="16"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="19"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="19"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
       <c r="F4" s="16"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
-      <c r="J4" s="19"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="19"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
       <c r="F5" s="16"/>
-      <c r="G5" s="24"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M5" s="19"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
       <c r="F6" s="16"/>
-      <c r="G6" s="24"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
-      <c r="J6" s="19"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M6" s="19"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
       <c r="F7" s="16"/>
-      <c r="G7" s="24"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="19"/>
+      <c r="J7" s="24"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
-      <c r="J8" s="19"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
       <c r="F9" s="16"/>
-      <c r="G9" s="24"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="19"/>
+      <c r="J9" s="24"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="19"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
-      <c r="F40" s="17"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
-      <c r="F42" s="17"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
-      <c r="F45" s="17"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
-      <c r="F46" s="17"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
-      <c r="F47" s="17"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
-      <c r="F48" s="17"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
-      <c r="F49" s="17"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
-      <c r="F50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
-      <c r="F51" s="17"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="F52" s="17"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
-      <c r="F54" s="17"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
-      <c r="F55" s="17"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
-      <c r="F56" s="17"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
-      <c r="F57" s="17"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
-      <c r="F58" s="17"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
-      <c r="F60" s="17"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
-      <c r="F61" s="17"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
-      <c r="F62" s="17"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
-      <c r="F63" s="17"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
-      <c r="F64" s="17"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
-      <c r="F65" s="17"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
-      <c r="F66" s="17"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
-      <c r="F68" s="17"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
-      <c r="F69" s="17"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
-      <c r="F70" s="17"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
-      <c r="F71" s="17"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
-      <c r="F72" s="17"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
-      <c r="F74" s="17"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
-      <c r="F75" s="17"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
-      <c r="F76" s="17"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
-      <c r="F77" s="17"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
-      <c r="F78" s="17"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="17"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="17"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
-      <c r="F80" s="17"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="17"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
-      <c r="F81" s="17"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="17"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
-      <c r="F82" s="17"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
-      <c r="F83" s="17"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
-      <c r="F84" s="17"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
-      <c r="F85" s="17"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="17"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
-      <c r="F86" s="17"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="17"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
-      <c r="F87" s="17"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
-      <c r="F88" s="17"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
-      <c r="F89" s="17"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
-      <c r="F90" s="17"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
-      <c r="F91" s="17"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="17"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
-      <c r="F92" s="17"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="17"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
-      <c r="F93" s="17"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="17"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
-      <c r="F94" s="17"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="17"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
-      <c r="F95" s="17"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
-      <c r="F96" s="17"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="17"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
-      <c r="F97" s="17"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="17"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
-      <c r="F98" s="17"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="17"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
-      <c r="F99" s="17"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="17"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
-      <c r="F100" s="17"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="17"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
-      <c r="F101" s="17"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="17"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
-      <c r="F102" s="17"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="17"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
-      <c r="F103" s="17"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="17"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
-      <c r="F104" s="17"/>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="17"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
-      <c r="F105" s="17"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="17"/>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
-      <c r="F106" s="17"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="17"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
-      <c r="F107" s="17"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="17"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
-      <c r="F108" s="17"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="17"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
-      <c r="F109" s="17"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="17"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
-      <c r="F110" s="17"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="17"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
-      <c r="F111" s="17"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="17"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
-      <c r="F112" s="17"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="17"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
-      <c r="F113" s="17"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="17"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
-      <c r="F114" s="17"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="17"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17"/>
-      <c r="F115" s="17"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="17"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
-      <c r="F116" s="17"/>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="17"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
-      <c r="F117" s="17"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="17"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
-      <c r="F118" s="17"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="17"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
-      <c r="F119" s="17"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="17"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
-      <c r="F120" s="17"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="17"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
-      <c r="F121" s="17"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="17"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
-      <c r="F122" s="17"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="17"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
-      <c r="F123" s="17"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="17"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
-      <c r="F124" s="17"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="17"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
-      <c r="F125" s="17"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G125" s="17"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
-      <c r="F126" s="17"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="17"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
-      <c r="F127" s="17"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="17"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
-      <c r="F128" s="17"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="17"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
-      <c r="F129" s="17"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G129" s="17"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
-      <c r="F130" s="17"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="17"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
-      <c r="F131" s="17"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="17"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
-      <c r="F132" s="17"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="17"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
-      <c r="F133" s="17"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="17"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
-      <c r="F134" s="17"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="17"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
-      <c r="F135" s="17"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="17"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
-      <c r="F136" s="17"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="17"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
-      <c r="F137" s="17"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="17"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
-      <c r="F138" s="17"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G138" s="17"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
-      <c r="F139" s="17"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="17"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
-      <c r="F140" s="17"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="17"/>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
-      <c r="F141" s="17"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="17"/>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
-      <c r="F142" s="17"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="17"/>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
-      <c r="F143" s="17"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G143" s="17"/>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
-      <c r="F144" s="17"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="17"/>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
-      <c r="F145" s="17"/>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="17"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
-      <c r="F146" s="17"/>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G146" s="17"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
-      <c r="F147" s="17"/>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="17"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
-      <c r="F148" s="17"/>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="17"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
-      <c r="F149" s="17"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="17"/>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
-      <c r="F150" s="17"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="17"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
-      <c r="F151" s="17"/>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="17"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
-      <c r="F152" s="17"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="17"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
-      <c r="F153" s="17"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="17"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
-      <c r="F154" s="17"/>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="17"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
-      <c r="F155" s="17"/>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="17"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
-      <c r="F156" s="17"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="17"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
-      <c r="F157" s="17"/>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="17"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
-      <c r="F158" s="17"/>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="17"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
-      <c r="F159" s="17"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="17"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
-      <c r="F160" s="17"/>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="17"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
-      <c r="F161" s="17"/>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="17"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
-      <c r="F162" s="17"/>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="17"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
-      <c r="F163" s="17"/>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="17"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
-      <c r="F164" s="17"/>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="17"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
-      <c r="F165" s="17"/>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="17"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
-      <c r="F166" s="17"/>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G166" s="17"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="17"/>
-      <c r="F167" s="17"/>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="17"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
-      <c r="F168" s="17"/>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G168" s="17"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
-      <c r="F169" s="17"/>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="17"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
-      <c r="F170" s="17"/>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G170" s="17"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
-      <c r="F171" s="17"/>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="17"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
-      <c r="F172" s="17"/>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G172" s="17"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
-      <c r="F173" s="17"/>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G173" s="17"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
-      <c r="F174" s="17"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="17"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
-      <c r="F175" s="17"/>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="17"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
-      <c r="F176" s="17"/>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G176" s="17"/>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
-      <c r="F177" s="17"/>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G177" s="17"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
-      <c r="F178" s="17"/>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="17"/>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
-      <c r="F179" s="17"/>
-    </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="17"/>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
-      <c r="F180" s="17"/>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="17"/>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
-      <c r="F181" s="17"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G181" s="17"/>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
-      <c r="F182" s="17"/>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="17"/>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
-      <c r="F183" s="17"/>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G183" s="17"/>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
-      <c r="F184" s="17"/>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G184" s="17"/>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
-      <c r="F185" s="17"/>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G185" s="17"/>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
-      <c r="F186" s="17"/>
-    </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G186" s="17"/>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
-      <c r="F187" s="17"/>
-    </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G187" s="17"/>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="17"/>
-      <c r="F188" s="17"/>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G188" s="17"/>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
-      <c r="F189" s="17"/>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G189" s="17"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
-      <c r="F190" s="17"/>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G190" s="17"/>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="17"/>
-      <c r="F191" s="17"/>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G191" s="17"/>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
-      <c r="F192" s="17"/>
-    </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G192" s="17"/>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
-      <c r="F193" s="17"/>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G193" s="17"/>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
-      <c r="F194" s="17"/>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="17"/>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
-      <c r="F195" s="17"/>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="17"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
-      <c r="F196" s="17"/>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G196" s="17"/>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="17"/>
-      <c r="F197" s="17"/>
-    </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G197" s="17"/>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
-      <c r="F198" s="17"/>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G198" s="17"/>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
-      <c r="F199" s="17"/>
-    </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G199" s="17"/>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
-      <c r="F200" s="17"/>
-    </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G200" s="17"/>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
-      <c r="F201" s="17"/>
-    </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G201" s="17"/>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
-      <c r="F202" s="17"/>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G202" s="17"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
-      <c r="F203" s="17"/>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G203" s="17"/>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
-      <c r="F204" s="17"/>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G204" s="17"/>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
-      <c r="F205" s="17"/>
-    </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G205" s="17"/>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
-      <c r="F206" s="17"/>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G206" s="17"/>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
-      <c r="F207" s="17"/>
-    </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G207" s="17"/>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
-      <c r="F208" s="17"/>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G208" s="17"/>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
-      <c r="F209" s="17"/>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G209" s="17"/>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
-      <c r="F210" s="17"/>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G210" s="17"/>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
-      <c r="F211" s="17"/>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G211" s="17"/>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
-      <c r="F212" s="17"/>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G212" s="17"/>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
-      <c r="F213" s="17"/>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G213" s="17"/>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
-      <c r="F214" s="17"/>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G214" s="17"/>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
-      <c r="F215" s="17"/>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G215" s="17"/>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
-      <c r="F216" s="17"/>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G216" s="17"/>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="17"/>
-      <c r="F217" s="17"/>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G217" s="17"/>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
-      <c r="F218" s="17"/>
-    </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G218" s="17"/>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
-      <c r="F219" s="17"/>
-    </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G219" s="17"/>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
-      <c r="F220" s="17"/>
-    </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G220" s="17"/>
+    </row>
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
-      <c r="F221" s="17"/>
-    </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G221" s="17"/>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
-      <c r="F222" s="17"/>
-    </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G222" s="17"/>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
-      <c r="F223" s="17"/>
-    </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G223" s="17"/>
+    </row>
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
-      <c r="F224" s="17"/>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G224" s="17"/>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
-      <c r="F225" s="17"/>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G225" s="17"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
-      <c r="F226" s="17"/>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G226" s="17"/>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
-      <c r="F227" s="17"/>
-    </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G227" s="17"/>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
-      <c r="F228" s="17"/>
-    </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G228" s="17"/>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
-      <c r="F229" s="17"/>
-    </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G229" s="17"/>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
-      <c r="F230" s="17"/>
-    </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G230" s="17"/>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
-      <c r="F231" s="17"/>
-    </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G231" s="17"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
-      <c r="F232" s="17"/>
-    </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G232" s="17"/>
+    </row>
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
-      <c r="F233" s="17"/>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G233" s="17"/>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="17"/>
-      <c r="F234" s="17"/>
-    </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G234" s="17"/>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
-      <c r="F235" s="17"/>
-    </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G235" s="17"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
-      <c r="F236" s="17"/>
-    </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G236" s="17"/>
+    </row>
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
-      <c r="F237" s="17"/>
-    </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G237" s="17"/>
+    </row>
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
-      <c r="F238" s="17"/>
-    </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G238" s="17"/>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
-      <c r="F239" s="17"/>
-    </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G239" s="17"/>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
-      <c r="F240" s="17"/>
-    </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G240" s="17"/>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
-      <c r="F241" s="17"/>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G241" s="17"/>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
-      <c r="F242" s="17"/>
-    </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G242" s="17"/>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
-      <c r="F243" s="17"/>
-    </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G243" s="17"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
-      <c r="F244" s="17"/>
-    </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G244" s="17"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
-      <c r="F245" s="17"/>
-    </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G245" s="17"/>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
-      <c r="F246" s="17"/>
-    </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G246" s="17"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
-      <c r="F247" s="17"/>
-    </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G247" s="17"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
-      <c r="F248" s="17"/>
-    </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G248" s="17"/>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
-      <c r="F249" s="17"/>
-    </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G249" s="17"/>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
-      <c r="F250" s="17"/>
-    </row>
-    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G250" s="17"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="17"/>
-      <c r="F251" s="17"/>
-    </row>
-    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G251" s="17"/>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
-      <c r="F252" s="17"/>
-    </row>
-    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G252" s="17"/>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
-      <c r="F253" s="17"/>
-    </row>
-    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G253" s="17"/>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
-      <c r="F254" s="17"/>
-    </row>
-    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G254" s="17"/>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
-      <c r="F255" s="17"/>
-    </row>
-    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G255" s="17"/>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
-      <c r="F256" s="17"/>
-    </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G256" s="17"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="17"/>
-      <c r="F257" s="17"/>
-    </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G257" s="17"/>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
-      <c r="F258" s="17"/>
-    </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G258" s="17"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
-      <c r="F259" s="17"/>
-    </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G259" s="17"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="17"/>
-      <c r="F260" s="17"/>
-    </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G260" s="17"/>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="17"/>
-      <c r="F261" s="17"/>
-    </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G261" s="17"/>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="17"/>
-      <c r="F262" s="17"/>
-    </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G262" s="17"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
-      <c r="F263" s="17"/>
-    </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G263" s="17"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
-      <c r="F264" s="17"/>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G264" s="17"/>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
-      <c r="F265" s="17"/>
-    </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G265" s="17"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
-      <c r="F266" s="17"/>
-    </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G266" s="17"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
-      <c r="F267" s="17"/>
-    </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G267" s="17"/>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
-      <c r="F268" s="17"/>
-    </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G268" s="17"/>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
-      <c r="F269" s="17"/>
-    </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G269" s="17"/>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
-      <c r="F270" s="17"/>
-    </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G270" s="17"/>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
-      <c r="F271" s="17"/>
-    </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G271" s="17"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
-      <c r="F272" s="17"/>
-    </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G272" s="17"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="17"/>
-      <c r="F273" s="17"/>
-    </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G273" s="17"/>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="17"/>
-      <c r="F274" s="17"/>
-    </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G274" s="17"/>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
-      <c r="F275" s="17"/>
-    </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G275" s="17"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="17"/>
-      <c r="F276" s="17"/>
-    </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G276" s="17"/>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
-      <c r="F277" s="17"/>
-    </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G277" s="17"/>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
-      <c r="F278" s="17"/>
-    </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G278" s="17"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
-      <c r="F279" s="17"/>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G279" s="17"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
-      <c r="F280" s="17"/>
-    </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G280" s="17"/>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
-      <c r="F281" s="17"/>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G281" s="17"/>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
-      <c r="F282" s="17"/>
-    </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G282" s="17"/>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
-      <c r="F283" s="17"/>
-    </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G283" s="17"/>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
-      <c r="F284" s="17"/>
-    </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G284" s="17"/>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
-      <c r="F285" s="17"/>
-    </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G285" s="17"/>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
-      <c r="F286" s="17"/>
-    </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G286" s="17"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="17"/>
-      <c r="F287" s="17"/>
-    </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G287" s="17"/>
+    </row>
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="17"/>
-      <c r="F288" s="17"/>
-    </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G288" s="17"/>
+    </row>
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="17"/>
-      <c r="F289" s="17"/>
-    </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G289" s="17"/>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="17"/>
-      <c r="F290" s="17"/>
-    </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G290" s="17"/>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
-      <c r="F291" s="17"/>
-    </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G291" s="17"/>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="17"/>
-      <c r="F292" s="17"/>
-    </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G292" s="17"/>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
-      <c r="F293" s="17"/>
-    </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G293" s="17"/>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="17"/>
-      <c r="F294" s="17"/>
-    </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G294" s="17"/>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="17"/>
-      <c r="F295" s="17"/>
-    </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G295" s="17"/>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="17"/>
-      <c r="F296" s="17"/>
-    </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G296" s="17"/>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="17"/>
-      <c r="F297" s="17"/>
-    </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G297" s="17"/>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="17"/>
-      <c r="F298" s="17"/>
-    </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G298" s="17"/>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
-      <c r="F299" s="17"/>
-    </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G299" s="17"/>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
-      <c r="F300" s="17"/>
-    </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G300" s="17"/>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
-      <c r="F301" s="17"/>
-    </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G301" s="17"/>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
-      <c r="F302" s="17"/>
-    </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G302" s="17"/>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
-      <c r="F303" s="17"/>
-    </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G303" s="17"/>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
-      <c r="F304" s="17"/>
-    </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G304" s="17"/>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
-      <c r="F305" s="17"/>
-    </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G305" s="17"/>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
-      <c r="F306" s="17"/>
-    </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G306" s="17"/>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
-      <c r="F307" s="17"/>
-    </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G307" s="17"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="17"/>
-      <c r="F308" s="17"/>
-    </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G308" s="17"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="17"/>
-      <c r="F309" s="17"/>
-    </row>
-    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G309" s="17"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="17"/>
-      <c r="F310" s="17"/>
-    </row>
-    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G310" s="17"/>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="17"/>
-      <c r="F311" s="17"/>
-    </row>
-    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G311" s="17"/>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="17"/>
-      <c r="F312" s="17"/>
-    </row>
-    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G312" s="17"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="17"/>
-      <c r="F313" s="17"/>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G313" s="17"/>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="17"/>
-      <c r="F314" s="17"/>
-    </row>
-    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G314" s="17"/>
+    </row>
+    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="17"/>
-      <c r="F315" s="17"/>
-    </row>
-    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G315" s="17"/>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="17"/>
-      <c r="F316" s="17"/>
-    </row>
-    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G316" s="17"/>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="17"/>
-      <c r="F317" s="17"/>
-    </row>
-    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G317" s="17"/>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="17"/>
-      <c r="F318" s="17"/>
-    </row>
-    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G318" s="17"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
-      <c r="F319" s="17"/>
-    </row>
-    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G319" s="17"/>
+    </row>
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="17"/>
-      <c r="F320" s="17"/>
-    </row>
-    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G320" s="17"/>
+    </row>
+    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
-      <c r="F321" s="17"/>
-    </row>
-    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G321" s="17"/>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
-      <c r="F322" s="17"/>
-    </row>
-    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G322" s="17"/>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="17"/>
-      <c r="F323" s="17"/>
-    </row>
-    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G323" s="17"/>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="17"/>
-      <c r="F324" s="17"/>
-    </row>
-    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G324" s="17"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="17"/>
-      <c r="F325" s="17"/>
-    </row>
-    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G325" s="17"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="17"/>
-      <c r="F326" s="17"/>
-    </row>
-    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G326" s="17"/>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="17"/>
-      <c r="F327" s="17"/>
-    </row>
-    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G327" s="17"/>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="17"/>
-      <c r="F328" s="17"/>
-    </row>
-    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G328" s="17"/>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="17"/>
-      <c r="F329" s="17"/>
-    </row>
-    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G329" s="17"/>
+    </row>
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="17"/>
-      <c r="F330" s="17"/>
-    </row>
-    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G330" s="17"/>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="17"/>
-      <c r="F331" s="17"/>
-    </row>
-    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G331" s="17"/>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="17"/>
-      <c r="F332" s="17"/>
-    </row>
-    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G332" s="17"/>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="17"/>
-      <c r="F333" s="17"/>
-    </row>
-    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G333" s="17"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="17"/>
-      <c r="F334" s="17"/>
-    </row>
-    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G334" s="17"/>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="17"/>
-      <c r="F335" s="17"/>
-    </row>
-    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G335" s="17"/>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="17"/>
-      <c r="F336" s="17"/>
-    </row>
-    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G336" s="17"/>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="17"/>
-      <c r="F337" s="17"/>
-    </row>
-    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G337" s="17"/>
+    </row>
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="17"/>
-      <c r="F338" s="17"/>
-    </row>
-    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G338" s="17"/>
+    </row>
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="17"/>
-      <c r="F339" s="17"/>
-    </row>
-    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G339" s="17"/>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="17"/>
-      <c r="F340" s="17"/>
-    </row>
-    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G340" s="17"/>
+    </row>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="17"/>
-      <c r="F341" s="17"/>
-    </row>
-    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G341" s="17"/>
+    </row>
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="17"/>
-      <c r="F342" s="17"/>
-    </row>
-    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G342" s="17"/>
+    </row>
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="17"/>
-      <c r="F343" s="17"/>
-    </row>
-    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G343" s="17"/>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="17"/>
-      <c r="F344" s="17"/>
-    </row>
-    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G344" s="17"/>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="17"/>
-      <c r="F345" s="17"/>
-    </row>
-    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G345" s="17"/>
+    </row>
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="17"/>
-      <c r="F346" s="17"/>
-    </row>
-    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G346" s="17"/>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="17"/>
-      <c r="F347" s="17"/>
-    </row>
-    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G347" s="17"/>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="17"/>
-      <c r="F348" s="17"/>
-    </row>
-    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G348" s="17"/>
+    </row>
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="17"/>
-      <c r="F349" s="17"/>
-    </row>
-    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G349" s="17"/>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="17"/>
-      <c r="F350" s="17"/>
-    </row>
-    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G350" s="17"/>
+    </row>
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="17"/>
-      <c r="F351" s="17"/>
-    </row>
-    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G351" s="17"/>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="17"/>
-      <c r="F352" s="17"/>
-    </row>
-    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G352" s="17"/>
+    </row>
+    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="17"/>
-      <c r="F353" s="17"/>
-    </row>
-    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G353" s="17"/>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="17"/>
-      <c r="F354" s="17"/>
-    </row>
-    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G354" s="17"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="17"/>
-      <c r="F355" s="17"/>
-    </row>
-    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G355" s="17"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="17"/>
-      <c r="F356" s="17"/>
-    </row>
-    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G356" s="17"/>
+    </row>
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="17"/>
-      <c r="F357" s="17"/>
-    </row>
-    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G357" s="17"/>
+    </row>
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="17"/>
-      <c r="F358" s="17"/>
-    </row>
-    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G358" s="17"/>
+    </row>
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="17"/>
-      <c r="F359" s="17"/>
-    </row>
-    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G359" s="17"/>
+    </row>
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="17"/>
-      <c r="F360" s="17"/>
-    </row>
-    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G360" s="17"/>
+    </row>
+    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="17"/>
-      <c r="F361" s="17"/>
-    </row>
-    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G361" s="17"/>
+    </row>
+    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="17"/>
-      <c r="F362" s="17"/>
-    </row>
-    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G362" s="17"/>
+    </row>
+    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="17"/>
-      <c r="F363" s="17"/>
-    </row>
-    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G363" s="17"/>
+    </row>
+    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="17"/>
-      <c r="F364" s="17"/>
-    </row>
-    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G364" s="17"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="17"/>
-      <c r="F365" s="17"/>
-    </row>
-    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G365" s="17"/>
+    </row>
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="17"/>
-      <c r="F366" s="17"/>
-    </row>
-    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G366" s="17"/>
+    </row>
+    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="17"/>
-      <c r="F367" s="17"/>
-    </row>
-    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G367" s="17"/>
+    </row>
+    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="17"/>
-      <c r="F368" s="17"/>
-    </row>
-    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G368" s="17"/>
+    </row>
+    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="17"/>
-      <c r="F369" s="17"/>
-    </row>
-    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G369" s="17"/>
+    </row>
+    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="17"/>
-      <c r="F370" s="17"/>
-    </row>
-    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G370" s="17"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="17"/>
-      <c r="F371" s="17"/>
-    </row>
-    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G371" s="17"/>
+    </row>
+    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="17"/>
-      <c r="F372" s="17"/>
-    </row>
-    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G372" s="17"/>
+    </row>
+    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="17"/>
-      <c r="F373" s="17"/>
-    </row>
-    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G373" s="17"/>
+    </row>
+    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="17"/>
-      <c r="F374" s="17"/>
-    </row>
-    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G374" s="17"/>
+    </row>
+    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="17"/>
-      <c r="F375" s="17"/>
-    </row>
-    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G375" s="17"/>
+    </row>
+    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="17"/>
-      <c r="F376" s="17"/>
-    </row>
-    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G376" s="17"/>
+    </row>
+    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="17"/>
-      <c r="F377" s="17"/>
-    </row>
-    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G377" s="17"/>
+    </row>
+    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="17"/>
-      <c r="F378" s="17"/>
-    </row>
-    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G378" s="17"/>
+    </row>
+    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="17"/>
-      <c r="F379" s="17"/>
-    </row>
-    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G379" s="17"/>
+    </row>
+    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="17"/>
-      <c r="F380" s="17"/>
-    </row>
-    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G380" s="17"/>
+    </row>
+    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="17"/>
-      <c r="F381" s="17"/>
-    </row>
-    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G381" s="17"/>
+    </row>
+    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="17"/>
-      <c r="F382" s="17"/>
-    </row>
-    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G382" s="17"/>
+    </row>
+    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="17"/>
-      <c r="F383" s="17"/>
-    </row>
-    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G383" s="17"/>
+    </row>
+    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="17"/>
-      <c r="F384" s="17"/>
-    </row>
-    <row r="385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G384" s="17"/>
+    </row>
+    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="17"/>
-      <c r="F385" s="17"/>
-    </row>
-    <row r="386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G385" s="17"/>
+    </row>
+    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="17"/>
-      <c r="F386" s="17"/>
-    </row>
-    <row r="387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G386" s="17"/>
+    </row>
+    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="17"/>
-      <c r="F387" s="17"/>
-    </row>
-    <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G387" s="17"/>
+    </row>
+    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="17"/>
-      <c r="F388" s="17"/>
-    </row>
-    <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G388" s="17"/>
+    </row>
+    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="17"/>
-      <c r="F389" s="17"/>
-    </row>
-    <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G389" s="17"/>
+    </row>
+    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="17"/>
-      <c r="F390" s="17"/>
-    </row>
-    <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G390" s="17"/>
+    </row>
+    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="17"/>
-      <c r="F391" s="17"/>
-    </row>
-    <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G391" s="17"/>
+    </row>
+    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="17"/>
-      <c r="F392" s="17"/>
-    </row>
-    <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G392" s="17"/>
+    </row>
+    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="17"/>
-      <c r="F393" s="17"/>
-    </row>
-    <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G393" s="17"/>
+    </row>
+    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="17"/>
-      <c r="F394" s="17"/>
-    </row>
-    <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G394" s="17"/>
+    </row>
+    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="17"/>
-      <c r="F395" s="17"/>
-    </row>
-    <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G395" s="17"/>
+    </row>
+    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="17"/>
-      <c r="F396" s="17"/>
-    </row>
-    <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G396" s="17"/>
+    </row>
+    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="17"/>
-      <c r="F397" s="17"/>
-    </row>
-    <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G397" s="17"/>
+    </row>
+    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="17"/>
-      <c r="F398" s="17"/>
-    </row>
-    <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G398" s="17"/>
+    </row>
+    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="17"/>
-      <c r="F399" s="17"/>
-    </row>
-    <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G399" s="17"/>
+    </row>
+    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="17"/>
-      <c r="F400" s="17"/>
-    </row>
-    <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G400" s="17"/>
+    </row>
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="17"/>
-      <c r="F401" s="17"/>
-    </row>
-    <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G401" s="17"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="17"/>
-      <c r="F402" s="17"/>
-    </row>
-    <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G402" s="17"/>
+    </row>
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="17"/>
-      <c r="F403" s="17"/>
-    </row>
-    <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G403" s="17"/>
+    </row>
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="17"/>
-      <c r="F404" s="17"/>
-    </row>
-    <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G404" s="17"/>
+    </row>
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="17"/>
-      <c r="F405" s="17"/>
-    </row>
-    <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G405" s="17"/>
+    </row>
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="17"/>
-      <c r="F406" s="17"/>
-    </row>
-    <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G406" s="17"/>
+    </row>
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="17"/>
-      <c r="F407" s="17"/>
-    </row>
-    <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G407" s="17"/>
+    </row>
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="17"/>
-      <c r="F408" s="17"/>
-    </row>
-    <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G408" s="17"/>
+    </row>
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="17"/>
-      <c r="F409" s="17"/>
-    </row>
-    <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G409" s="17"/>
+    </row>
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="17"/>
-      <c r="F410" s="17"/>
-    </row>
-    <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G410" s="17"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="17"/>
-      <c r="F411" s="17"/>
-    </row>
-    <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G411" s="17"/>
+    </row>
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="17"/>
-      <c r="F412" s="17"/>
-    </row>
-    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G412" s="17"/>
+    </row>
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="17"/>
-      <c r="F413" s="17"/>
-    </row>
-    <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G413" s="17"/>
+    </row>
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="17"/>
-      <c r="F414" s="17"/>
-    </row>
-    <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G414" s="17"/>
+    </row>
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="17"/>
-      <c r="F415" s="17"/>
-    </row>
-    <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G415" s="17"/>
+    </row>
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="17"/>
-      <c r="F416" s="17"/>
-    </row>
-    <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G416" s="17"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="17"/>
-      <c r="F417" s="17"/>
-    </row>
-    <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G417" s="17"/>
+    </row>
+    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="17"/>
-      <c r="F418" s="17"/>
-    </row>
-    <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G418" s="17"/>
+    </row>
+    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="17"/>
-      <c r="F419" s="17"/>
-    </row>
-    <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G419" s="17"/>
+    </row>
+    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="17"/>
-      <c r="F420" s="17"/>
-    </row>
-    <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G420" s="17"/>
+    </row>
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="17"/>
-      <c r="F421" s="17"/>
-    </row>
-    <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G421" s="17"/>
+    </row>
+    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="17"/>
-      <c r="F422" s="17"/>
-    </row>
-    <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G422" s="17"/>
+    </row>
+    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="17"/>
-      <c r="F423" s="17"/>
-    </row>
-    <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G423" s="17"/>
+    </row>
+    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="17"/>
-      <c r="F424" s="17"/>
-    </row>
-    <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G424" s="17"/>
+    </row>
+    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="17"/>
-      <c r="F425" s="17"/>
-    </row>
-    <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G425" s="17"/>
+    </row>
+    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="17"/>
-      <c r="F426" s="17"/>
-    </row>
-    <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G426" s="17"/>
+    </row>
+    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="17"/>
-      <c r="F427" s="17"/>
-    </row>
-    <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G427" s="17"/>
+    </row>
+    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="17"/>
-      <c r="F428" s="17"/>
-    </row>
-    <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G428" s="17"/>
+    </row>
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="17"/>
-      <c r="F429" s="17"/>
-    </row>
-    <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G429" s="17"/>
+    </row>
+    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="17"/>
-      <c r="F430" s="17"/>
-    </row>
-    <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G430" s="17"/>
+    </row>
+    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="17"/>
-      <c r="F431" s="17"/>
-    </row>
-    <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G431" s="17"/>
+    </row>
+    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="17"/>
-      <c r="F432" s="17"/>
-    </row>
-    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G432" s="17"/>
+    </row>
+    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="17"/>
-      <c r="F433" s="17"/>
-    </row>
-    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G433" s="17"/>
+    </row>
+    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="17"/>
-      <c r="F434" s="17"/>
-    </row>
-    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G434" s="17"/>
+    </row>
+    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="17"/>
-      <c r="F435" s="17"/>
-    </row>
-    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G435" s="17"/>
+    </row>
+    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="17"/>
-      <c r="F436" s="17"/>
-    </row>
-    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G436" s="17"/>
+    </row>
+    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="17"/>
-      <c r="F437" s="17"/>
-    </row>
-    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G437" s="17"/>
+    </row>
+    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="17"/>
-      <c r="F438" s="17"/>
-    </row>
-    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G438" s="17"/>
+    </row>
+    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="17"/>
-      <c r="F439" s="17"/>
-    </row>
-    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G439" s="17"/>
+    </row>
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="17"/>
-      <c r="F440" s="17"/>
-    </row>
-    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G440" s="17"/>
+    </row>
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="17"/>
-      <c r="F441" s="17"/>
-    </row>
-    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G441" s="17"/>
+    </row>
+    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="17"/>
-      <c r="F442" s="17"/>
-    </row>
-    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G442" s="17"/>
+    </row>
+    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="17"/>
-      <c r="F443" s="17"/>
-    </row>
-    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G443" s="17"/>
+    </row>
+    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="17"/>
-      <c r="F444" s="17"/>
-    </row>
-    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G444" s="17"/>
+    </row>
+    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="17"/>
-      <c r="F445" s="17"/>
-    </row>
-    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G445" s="17"/>
+    </row>
+    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="17"/>
-      <c r="F446" s="17"/>
-    </row>
-    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G446" s="17"/>
+    </row>
+    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="17"/>
-      <c r="F447" s="17"/>
-    </row>
-    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G447" s="17"/>
+    </row>
+    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="17"/>
-      <c r="F448" s="17"/>
-    </row>
-    <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G448" s="17"/>
+    </row>
+    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="17"/>
-      <c r="F449" s="17"/>
-    </row>
-    <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G449" s="17"/>
+    </row>
+    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="17"/>
-      <c r="F450" s="17"/>
-    </row>
-    <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G450" s="17"/>
+    </row>
+    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="17"/>
-      <c r="F451" s="17"/>
-    </row>
-    <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G451" s="17"/>
+    </row>
+    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="17"/>
-      <c r="F452" s="17"/>
-    </row>
-    <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G452" s="17"/>
+    </row>
+    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="17"/>
-      <c r="F453" s="17"/>
-    </row>
-    <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G453" s="17"/>
+    </row>
+    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="17"/>
-      <c r="F454" s="17"/>
-    </row>
-    <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G454" s="17"/>
+    </row>
+    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="17"/>
-      <c r="F455" s="17"/>
-    </row>
-    <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G455" s="17"/>
+    </row>
+    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="17"/>
-      <c r="F456" s="17"/>
-    </row>
-    <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G456" s="17"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="17"/>
-      <c r="F457" s="17"/>
-    </row>
-    <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G457" s="17"/>
+    </row>
+    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="17"/>
-      <c r="F458" s="17"/>
-    </row>
-    <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G458" s="17"/>
+    </row>
+    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="17"/>
-      <c r="F459" s="17"/>
-    </row>
-    <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G459" s="17"/>
+    </row>
+    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="17"/>
-      <c r="F460" s="17"/>
-    </row>
-    <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G460" s="17"/>
+    </row>
+    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="17"/>
-      <c r="F461" s="17"/>
-    </row>
-    <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G461" s="17"/>
+    </row>
+    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="17"/>
-      <c r="F462" s="17"/>
-    </row>
-    <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G462" s="17"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="17"/>
-      <c r="F463" s="17"/>
-    </row>
-    <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G463" s="17"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="17"/>
-      <c r="F464" s="17"/>
-    </row>
-    <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G464" s="17"/>
+    </row>
+    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="17"/>
-      <c r="F465" s="17"/>
-    </row>
-    <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G465" s="17"/>
+    </row>
+    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="17"/>
-      <c r="F466" s="17"/>
-    </row>
-    <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G466" s="17"/>
+    </row>
+    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="17"/>
-      <c r="F467" s="17"/>
-    </row>
-    <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G467" s="17"/>
+    </row>
+    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="17"/>
-      <c r="F468" s="17"/>
-    </row>
-    <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G468" s="17"/>
+    </row>
+    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="17"/>
-      <c r="F469" s="17"/>
-    </row>
-    <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G469" s="17"/>
+    </row>
+    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="17"/>
-      <c r="F470" s="17"/>
-    </row>
-    <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G470" s="17"/>
+    </row>
+    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="17"/>
-      <c r="F471" s="17"/>
-    </row>
-    <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G471" s="17"/>
+    </row>
+    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="17"/>
-      <c r="F472" s="17"/>
-    </row>
-    <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G472" s="17"/>
+    </row>
+    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="17"/>
-      <c r="F473" s="17"/>
-    </row>
-    <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G473" s="17"/>
+    </row>
+    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="17"/>
-      <c r="F474" s="17"/>
-    </row>
-    <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G474" s="17"/>
+    </row>
+    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="17"/>
-      <c r="F475" s="17"/>
-    </row>
-    <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G475" s="17"/>
+    </row>
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="17"/>
-      <c r="F476" s="17"/>
-    </row>
-    <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G476" s="17"/>
+    </row>
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="17"/>
-      <c r="F477" s="17"/>
-    </row>
-    <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G477" s="17"/>
+    </row>
+    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="17"/>
-      <c r="F478" s="17"/>
-    </row>
-    <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G478" s="17"/>
+    </row>
+    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="17"/>
-      <c r="F479" s="17"/>
-    </row>
-    <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G479" s="17"/>
+    </row>
+    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="17"/>
-      <c r="F480" s="17"/>
-    </row>
-    <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G480" s="17"/>
+    </row>
+    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="17"/>
-      <c r="F481" s="17"/>
-    </row>
-    <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G481" s="17"/>
+    </row>
+    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="17"/>
-      <c r="F482" s="17"/>
-    </row>
-    <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G482" s="17"/>
+    </row>
+    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="17"/>
-      <c r="F483" s="17"/>
-    </row>
-    <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G483" s="17"/>
+    </row>
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="17"/>
-      <c r="F484" s="17"/>
-    </row>
-    <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G484" s="17"/>
+    </row>
+    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="17"/>
-      <c r="F485" s="17"/>
-    </row>
-    <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G485" s="17"/>
+    </row>
+    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="17"/>
-      <c r="F486" s="17"/>
-    </row>
-    <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G486" s="17"/>
+    </row>
+    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="17"/>
-      <c r="F487" s="17"/>
-    </row>
-    <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G487" s="17"/>
+    </row>
+    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="17"/>
-      <c r="F488" s="17"/>
-    </row>
-    <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G488" s="17"/>
+    </row>
+    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="17"/>
-      <c r="F489" s="17"/>
-    </row>
-    <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G489" s="17"/>
+    </row>
+    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="17"/>
-      <c r="F490" s="17"/>
-    </row>
-    <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G490" s="17"/>
+    </row>
+    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="17"/>
-      <c r="F491" s="17"/>
-    </row>
-    <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G491" s="17"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="17"/>
-      <c r="F492" s="17"/>
-    </row>
-    <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G492" s="17"/>
+    </row>
+    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="17"/>
-      <c r="F493" s="17"/>
-    </row>
-    <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G493" s="17"/>
+    </row>
+    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="17"/>
-      <c r="F494" s="17"/>
-    </row>
-    <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G494" s="17"/>
+    </row>
+    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="17"/>
-      <c r="F495" s="17"/>
-    </row>
-    <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G495" s="17"/>
+    </row>
+    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="17"/>
-      <c r="F496" s="17"/>
-    </row>
-    <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G496" s="17"/>
+    </row>
+    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="17"/>
-      <c r="F497" s="17"/>
-    </row>
-    <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G497" s="17"/>
+    </row>
+    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="17"/>
-      <c r="F498" s="17"/>
-    </row>
-    <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G498" s="17"/>
+    </row>
+    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="17"/>
-      <c r="F499" s="17"/>
-    </row>
-    <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G499" s="17"/>
+    </row>
+    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="17"/>
-      <c r="F500" s="17"/>
-    </row>
-    <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G500" s="17"/>
+    </row>
+    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="17"/>
-      <c r="F501" s="17"/>
-    </row>
-    <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G501" s="17"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="17"/>
-      <c r="F502" s="17"/>
-    </row>
-    <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G502" s="17"/>
+    </row>
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="17"/>
-      <c r="F503" s="17"/>
-    </row>
-    <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G503" s="17"/>
+    </row>
+    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="17"/>
-      <c r="F504" s="17"/>
-    </row>
-    <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G504" s="17"/>
+    </row>
+    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="17"/>
-      <c r="F505" s="17"/>
-    </row>
-    <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G505" s="17"/>
+    </row>
+    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="17"/>
-      <c r="F506" s="17"/>
-    </row>
-    <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G506" s="17"/>
+    </row>
+    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="17"/>
-      <c r="F507" s="17"/>
-    </row>
-    <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G507" s="17"/>
+    </row>
+    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="17"/>
-      <c r="F508" s="17"/>
-    </row>
-    <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G508" s="17"/>
+    </row>
+    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="17"/>
-      <c r="F509" s="17"/>
-    </row>
-    <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G509" s="17"/>
+    </row>
+    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="17"/>
-      <c r="F510" s="17"/>
-    </row>
-    <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G510" s="17"/>
+    </row>
+    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="17"/>
-      <c r="F511" s="17"/>
-    </row>
-    <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G511" s="17"/>
+    </row>
+    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="17"/>
-      <c r="F512" s="17"/>
-    </row>
-    <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G512" s="17"/>
+    </row>
+    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="17"/>
-      <c r="F513" s="17"/>
-    </row>
-    <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G513" s="17"/>
+    </row>
+    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="17"/>
-      <c r="F514" s="17"/>
-    </row>
-    <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G514" s="17"/>
+    </row>
+    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="17"/>
-      <c r="F515" s="17"/>
-    </row>
-    <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G515" s="17"/>
+    </row>
+    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="17"/>
-      <c r="F516" s="17"/>
-    </row>
-    <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G516" s="17"/>
+    </row>
+    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="17"/>
-      <c r="F517" s="17"/>
-    </row>
-    <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G517" s="17"/>
+    </row>
+    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="17"/>
-      <c r="F518" s="17"/>
-    </row>
-    <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G518" s="17"/>
+    </row>
+    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="17"/>
-      <c r="F519" s="17"/>
-    </row>
-    <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G519" s="17"/>
+    </row>
+    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="17"/>
-      <c r="F520" s="17"/>
-    </row>
-    <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G520" s="17"/>
+    </row>
+    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="17"/>
-      <c r="F521" s="17"/>
-    </row>
-    <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G521" s="17"/>
+    </row>
+    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="17"/>
-      <c r="F522" s="17"/>
-    </row>
-    <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G522" s="17"/>
+    </row>
+    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="17"/>
-      <c r="F523" s="17"/>
-    </row>
-    <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G523" s="17"/>
+    </row>
+    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="17"/>
-      <c r="F524" s="17"/>
-    </row>
-    <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G524" s="17"/>
+    </row>
+    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="17"/>
-      <c r="F525" s="17"/>
-    </row>
-    <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G525" s="17"/>
+    </row>
+    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="17"/>
-      <c r="F526" s="17"/>
-    </row>
-    <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G526" s="17"/>
+    </row>
+    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="17"/>
-      <c r="F527" s="17"/>
-    </row>
-    <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G527" s="17"/>
+    </row>
+    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="17"/>
-      <c r="F528" s="17"/>
-    </row>
-    <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G528" s="17"/>
+    </row>
+    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="17"/>
-      <c r="F529" s="17"/>
-    </row>
-    <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G529" s="17"/>
+    </row>
+    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="17"/>
-      <c r="F530" s="17"/>
-    </row>
-    <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G530" s="17"/>
+    </row>
+    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="17"/>
-      <c r="F531" s="17"/>
-    </row>
-    <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G531" s="17"/>
+    </row>
+    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="17"/>
-      <c r="F532" s="17"/>
-    </row>
-    <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G532" s="17"/>
+    </row>
+    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="17"/>
-      <c r="F533" s="17"/>
-    </row>
-    <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G533" s="17"/>
+    </row>
+    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="17"/>
-      <c r="F534" s="17"/>
-    </row>
-    <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G534" s="17"/>
+    </row>
+    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="17"/>
-      <c r="F535" s="17"/>
-    </row>
-    <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G535" s="17"/>
+    </row>
+    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="17"/>
-      <c r="F536" s="17"/>
-    </row>
-    <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G536" s="17"/>
+    </row>
+    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="17"/>
-      <c r="F537" s="17"/>
-    </row>
-    <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G537" s="17"/>
+    </row>
+    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="17"/>
-      <c r="F538" s="17"/>
-    </row>
-    <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G538" s="17"/>
+    </row>
+    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="17"/>
-      <c r="F539" s="17"/>
-    </row>
-    <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G539" s="17"/>
+    </row>
+    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="17"/>
-      <c r="F540" s="17"/>
-    </row>
-    <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G540" s="17"/>
+    </row>
+    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="17"/>
-      <c r="F541" s="17"/>
-    </row>
-    <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G541" s="17"/>
+    </row>
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="17"/>
-      <c r="F542" s="17"/>
-    </row>
-    <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G542" s="17"/>
+    </row>
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="17"/>
-      <c r="F543" s="17"/>
-    </row>
-    <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G543" s="17"/>
+    </row>
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="17"/>
-      <c r="F544" s="17"/>
-    </row>
-    <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G544" s="17"/>
+    </row>
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="17"/>
-      <c r="F545" s="17"/>
-    </row>
-    <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G545" s="17"/>
+    </row>
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="17"/>
-      <c r="F546" s="17"/>
-    </row>
-    <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G546" s="17"/>
+    </row>
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="17"/>
-      <c r="F547" s="17"/>
-    </row>
-    <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G547" s="17"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="17"/>
-      <c r="F548" s="17"/>
-    </row>
-    <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G548" s="17"/>
+    </row>
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="17"/>
-      <c r="F549" s="17"/>
-    </row>
-    <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G549" s="17"/>
+    </row>
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="17"/>
-      <c r="F550" s="17"/>
-    </row>
-    <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G550" s="17"/>
+    </row>
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="17"/>
-      <c r="F551" s="17"/>
-    </row>
-    <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G551" s="17"/>
+    </row>
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="17"/>
-      <c r="F552" s="17"/>
-    </row>
-    <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G552" s="17"/>
+    </row>
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="17"/>
-      <c r="F553" s="17"/>
-    </row>
-    <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G553" s="17"/>
+    </row>
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="17"/>
-      <c r="F554" s="17"/>
-    </row>
-    <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G554" s="17"/>
+    </row>
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="17"/>
-      <c r="F555" s="17"/>
-    </row>
-    <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G555" s="17"/>
+    </row>
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="17"/>
-      <c r="F556" s="17"/>
-    </row>
-    <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G556" s="17"/>
+    </row>
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="17"/>
-      <c r="F557" s="17"/>
-    </row>
-    <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G557" s="17"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="17"/>
-      <c r="F558" s="17"/>
-    </row>
-    <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G558" s="17"/>
+    </row>
+    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="17"/>
-      <c r="F559" s="17"/>
-    </row>
-    <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G559" s="17"/>
+    </row>
+    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="17"/>
-      <c r="F560" s="17"/>
-    </row>
-    <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G560" s="17"/>
+    </row>
+    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="17"/>
-      <c r="F561" s="17"/>
-    </row>
-    <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G561" s="17"/>
+    </row>
+    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="17"/>
-      <c r="F562" s="17"/>
-    </row>
-    <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G562" s="17"/>
+    </row>
+    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="17"/>
-      <c r="F563" s="17"/>
-    </row>
-    <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G563" s="17"/>
+    </row>
+    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="17"/>
-      <c r="F564" s="17"/>
-    </row>
-    <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G564" s="17"/>
+    </row>
+    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="17"/>
-      <c r="F565" s="17"/>
-    </row>
-    <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G565" s="17"/>
+    </row>
+    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="17"/>
-      <c r="F566" s="17"/>
-    </row>
-    <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G566" s="17"/>
+    </row>
+    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="17"/>
-      <c r="F567" s="17"/>
-    </row>
-    <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G567" s="17"/>
+    </row>
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="17"/>
-      <c r="F568" s="17"/>
-    </row>
-    <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G568" s="17"/>
+    </row>
+    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="17"/>
-      <c r="F569" s="17"/>
-    </row>
-    <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G569" s="17"/>
+    </row>
+    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="17"/>
-      <c r="F570" s="17"/>
-    </row>
-    <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G570" s="17"/>
+    </row>
+    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="17"/>
-      <c r="F571" s="17"/>
-    </row>
-    <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G571" s="17"/>
+    </row>
+    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="17"/>
-      <c r="F572" s="17"/>
-    </row>
-    <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G572" s="17"/>
+    </row>
+    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="17"/>
-      <c r="F573" s="17"/>
-    </row>
-    <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G573" s="17"/>
+    </row>
+    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="17"/>
-      <c r="F574" s="17"/>
-    </row>
-    <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G574" s="17"/>
+    </row>
+    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="17"/>
-      <c r="F575" s="17"/>
-    </row>
-    <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G575" s="17"/>
+    </row>
+    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="17"/>
-      <c r="F576" s="17"/>
-    </row>
-    <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G576" s="17"/>
+    </row>
+    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="17"/>
-      <c r="F577" s="17"/>
-    </row>
-    <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G577" s="17"/>
+    </row>
+    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="17"/>
-      <c r="F578" s="17"/>
-    </row>
-    <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G578" s="17"/>
+    </row>
+    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="17"/>
-      <c r="F579" s="17"/>
-    </row>
-    <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G579" s="17"/>
+    </row>
+    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="17"/>
-      <c r="F580" s="17"/>
-    </row>
-    <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G580" s="17"/>
+    </row>
+    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="17"/>
-      <c r="F581" s="17"/>
-    </row>
-    <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G581" s="17"/>
+    </row>
+    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="17"/>
-      <c r="F582" s="17"/>
-    </row>
-    <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G582" s="17"/>
+    </row>
+    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="17"/>
-      <c r="F583" s="17"/>
-    </row>
-    <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G583" s="17"/>
+    </row>
+    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="17"/>
-      <c r="F584" s="17"/>
-    </row>
-    <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G584" s="17"/>
+    </row>
+    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="17"/>
-      <c r="F585" s="17"/>
-    </row>
-    <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G585" s="17"/>
+    </row>
+    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="17"/>
-      <c r="F586" s="17"/>
-    </row>
-    <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G586" s="17"/>
+    </row>
+    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="17"/>
-      <c r="F587" s="17"/>
-    </row>
-    <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G587" s="17"/>
+    </row>
+    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="17"/>
-      <c r="F588" s="17"/>
-    </row>
-    <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G588" s="17"/>
+    </row>
+    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="17"/>
-      <c r="F589" s="17"/>
-    </row>
-    <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G589" s="17"/>
+    </row>
+    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="17"/>
-      <c r="F590" s="17"/>
-    </row>
-    <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G590" s="17"/>
+    </row>
+    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="17"/>
-      <c r="F591" s="17"/>
-    </row>
-    <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G591" s="17"/>
+    </row>
+    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="17"/>
-      <c r="F592" s="17"/>
-    </row>
-    <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G592" s="17"/>
+    </row>
+    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="17"/>
-      <c r="F593" s="17"/>
-    </row>
-    <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G593" s="17"/>
+    </row>
+    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="17"/>
-      <c r="F594" s="17"/>
-    </row>
-    <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G594" s="17"/>
+    </row>
+    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="17"/>
-      <c r="F595" s="17"/>
-    </row>
-    <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G595" s="17"/>
+    </row>
+    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="17"/>
-      <c r="F596" s="17"/>
-    </row>
-    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G596" s="17"/>
+    </row>
+    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="17"/>
-      <c r="F597" s="17"/>
-    </row>
-    <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G597" s="17"/>
+    </row>
+    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="17"/>
-      <c r="F598" s="17"/>
-    </row>
-    <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G598" s="17"/>
+    </row>
+    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="17"/>
-      <c r="F599" s="17"/>
-    </row>
-    <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G599" s="17"/>
+    </row>
+    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="17"/>
-      <c r="F600" s="17"/>
-    </row>
-    <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G600" s="17"/>
+    </row>
+    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="17"/>
-      <c r="F601" s="17"/>
-    </row>
-    <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G601" s="17"/>
+    </row>
+    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="17"/>
-      <c r="F602" s="17"/>
-    </row>
-    <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G602" s="17"/>
+    </row>
+    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="17"/>
-      <c r="F603" s="17"/>
-    </row>
-    <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G603" s="17"/>
+    </row>
+    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="17"/>
-      <c r="F604" s="17"/>
-    </row>
-    <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G604" s="17"/>
+    </row>
+    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="17"/>
-      <c r="F605" s="17"/>
-    </row>
-    <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G605" s="17"/>
+    </row>
+    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="17"/>
-      <c r="F606" s="17"/>
-    </row>
-    <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G606" s="17"/>
+    </row>
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="17"/>
-      <c r="F607" s="17"/>
-    </row>
-    <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G607" s="17"/>
+    </row>
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="17"/>
-      <c r="F608" s="17"/>
-    </row>
-    <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G608" s="17"/>
+    </row>
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="17"/>
-      <c r="F609" s="17"/>
-    </row>
-    <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G609" s="17"/>
+    </row>
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="17"/>
-      <c r="F610" s="17"/>
-    </row>
-    <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G610" s="17"/>
+    </row>
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="17"/>
-      <c r="F611" s="17"/>
-    </row>
-    <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G611" s="17"/>
+    </row>
+    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="17"/>
-      <c r="F612" s="17"/>
-    </row>
-    <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G612" s="17"/>
+    </row>
+    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="17"/>
-      <c r="F613" s="17"/>
-    </row>
-    <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G613" s="17"/>
+    </row>
+    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="17"/>
-      <c r="F614" s="17"/>
-    </row>
-    <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G614" s="17"/>
+    </row>
+    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="17"/>
-      <c r="F615" s="17"/>
-    </row>
-    <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G615" s="17"/>
+    </row>
+    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="17"/>
-      <c r="F616" s="17"/>
-    </row>
-    <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G616" s="17"/>
+    </row>
+    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="17"/>
-      <c r="F617" s="17"/>
-    </row>
-    <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G617" s="17"/>
+    </row>
+    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="17"/>
-      <c r="F618" s="17"/>
-    </row>
-    <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G618" s="17"/>
+    </row>
+    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="17"/>
-      <c r="F619" s="17"/>
-    </row>
-    <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G619" s="17"/>
+    </row>
+    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="17"/>
-      <c r="F620" s="17"/>
-    </row>
-    <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G620" s="17"/>
+    </row>
+    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="17"/>
-      <c r="F621" s="17"/>
-    </row>
-    <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G621" s="17"/>
+    </row>
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="17"/>
-      <c r="F622" s="17"/>
-    </row>
-    <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G622" s="17"/>
+    </row>
+    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="17"/>
-      <c r="F623" s="17"/>
-    </row>
-    <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G623" s="17"/>
+    </row>
+    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="17"/>
-      <c r="F624" s="17"/>
-    </row>
-    <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G624" s="17"/>
+    </row>
+    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="17"/>
-      <c r="F625" s="17"/>
-    </row>
-    <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G625" s="17"/>
+    </row>
+    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="17"/>
-      <c r="F626" s="17"/>
-    </row>
-    <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G626" s="17"/>
+    </row>
+    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="17"/>
-      <c r="F627" s="17"/>
-    </row>
-    <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G627" s="17"/>
+    </row>
+    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="17"/>
-      <c r="F628" s="17"/>
-    </row>
-    <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G628" s="17"/>
+    </row>
+    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="17"/>
-      <c r="F629" s="17"/>
-    </row>
-    <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G629" s="17"/>
+    </row>
+    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="17"/>
-      <c r="F630" s="17"/>
-    </row>
-    <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G630" s="17"/>
+    </row>
+    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="17"/>
-      <c r="F631" s="17"/>
-    </row>
-    <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G631" s="17"/>
+    </row>
+    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="17"/>
-      <c r="F632" s="17"/>
-    </row>
-    <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G632" s="17"/>
+    </row>
+    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="17"/>
-      <c r="F633" s="17"/>
-    </row>
-    <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G633" s="17"/>
+    </row>
+    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="17"/>
-      <c r="F634" s="17"/>
-    </row>
-    <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G634" s="17"/>
+    </row>
+    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="17"/>
-      <c r="F635" s="17"/>
-    </row>
-    <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G635" s="17"/>
+    </row>
+    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="17"/>
-      <c r="F636" s="17"/>
-    </row>
-    <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G636" s="17"/>
+    </row>
+    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="17"/>
-      <c r="F637" s="17"/>
-    </row>
-    <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G637" s="17"/>
+    </row>
+    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="17"/>
-      <c r="F638" s="17"/>
-    </row>
-    <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G638" s="17"/>
+    </row>
+    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="17"/>
-      <c r="F639" s="17"/>
-    </row>
-    <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G639" s="17"/>
+    </row>
+    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="17"/>
-      <c r="F640" s="17"/>
-    </row>
-    <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G640" s="17"/>
+    </row>
+    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="17"/>
-      <c r="F641" s="17"/>
-    </row>
-    <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G641" s="17"/>
+    </row>
+    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="17"/>
-      <c r="F642" s="17"/>
-    </row>
-    <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G642" s="17"/>
+    </row>
+    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="17"/>
-      <c r="F643" s="17"/>
-    </row>
-    <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G643" s="17"/>
+    </row>
+    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="17"/>
-      <c r="F644" s="17"/>
-    </row>
-    <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G644" s="17"/>
+    </row>
+    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="17"/>
-      <c r="F645" s="17"/>
-    </row>
-    <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G645" s="17"/>
+    </row>
+    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="17"/>
-      <c r="F646" s="17"/>
-    </row>
-    <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G646" s="17"/>
+    </row>
+    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="17"/>
-      <c r="F647" s="17"/>
-    </row>
-    <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G647" s="17"/>
+    </row>
+    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="17"/>
-      <c r="F648" s="17"/>
-    </row>
-    <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G648" s="17"/>
+    </row>
+    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="17"/>
-      <c r="F649" s="17"/>
-    </row>
-    <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G649" s="17"/>
+    </row>
+    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="17"/>
-      <c r="F650" s="17"/>
-    </row>
-    <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G650" s="17"/>
+    </row>
+    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="17"/>
-      <c r="F651" s="17"/>
-    </row>
-    <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G651" s="17"/>
+    </row>
+    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="17"/>
-      <c r="F652" s="17"/>
-    </row>
-    <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G652" s="17"/>
+    </row>
+    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="17"/>
-      <c r="F653" s="17"/>
-    </row>
-    <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G653" s="17"/>
+    </row>
+    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="17"/>
-      <c r="F654" s="17"/>
-    </row>
-    <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G654" s="17"/>
+    </row>
+    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="17"/>
-      <c r="F655" s="17"/>
-    </row>
-    <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G655" s="17"/>
+    </row>
+    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="17"/>
-      <c r="F656" s="17"/>
-    </row>
-    <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G656" s="17"/>
+    </row>
+    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="17"/>
-      <c r="F657" s="17"/>
-    </row>
-    <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G657" s="17"/>
+    </row>
+    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="17"/>
-      <c r="F658" s="17"/>
-    </row>
-    <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G658" s="17"/>
+    </row>
+    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="17"/>
-      <c r="F659" s="17"/>
-    </row>
-    <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G659" s="17"/>
+    </row>
+    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="17"/>
-      <c r="F660" s="17"/>
-    </row>
-    <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G660" s="17"/>
+    </row>
+    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="17"/>
-      <c r="F661" s="17"/>
-    </row>
-    <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G661" s="17"/>
+    </row>
+    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="17"/>
-      <c r="F662" s="17"/>
-    </row>
-    <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G662" s="17"/>
+    </row>
+    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="17"/>
-      <c r="F663" s="17"/>
-    </row>
-    <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G663" s="17"/>
+    </row>
+    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="17"/>
-      <c r="F664" s="17"/>
-    </row>
-    <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G664" s="17"/>
+    </row>
+    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="17"/>
-      <c r="F665" s="17"/>
-    </row>
-    <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G665" s="17"/>
+    </row>
+    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="17"/>
-      <c r="F666" s="17"/>
-    </row>
-    <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G666" s="17"/>
+    </row>
+    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="17"/>
-      <c r="F667" s="17"/>
-    </row>
-    <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G667" s="17"/>
+    </row>
+    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="17"/>
-      <c r="F668" s="17"/>
-    </row>
-    <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G668" s="17"/>
+    </row>
+    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="17"/>
-      <c r="F669" s="17"/>
-    </row>
-    <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G669" s="17"/>
+    </row>
+    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="17"/>
-      <c r="F670" s="17"/>
-    </row>
-    <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G670" s="17"/>
+    </row>
+    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="17"/>
-      <c r="F671" s="17"/>
-    </row>
-    <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G671" s="17"/>
+    </row>
+    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="17"/>
-      <c r="F672" s="17"/>
-    </row>
-    <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G672" s="17"/>
+    </row>
+    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="17"/>
-      <c r="F673" s="17"/>
-    </row>
-    <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G673" s="17"/>
+    </row>
+    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="17"/>
-      <c r="F674" s="17"/>
-    </row>
-    <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G674" s="17"/>
+    </row>
+    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="17"/>
-      <c r="F675" s="17"/>
-    </row>
-    <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G675" s="17"/>
+    </row>
+    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="17"/>
-      <c r="F676" s="17"/>
-    </row>
-    <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G676" s="17"/>
+    </row>
+    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="17"/>
-      <c r="F677" s="17"/>
-    </row>
-    <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G677" s="17"/>
+    </row>
+    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="17"/>
-      <c r="F678" s="17"/>
-    </row>
-    <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G678" s="17"/>
+    </row>
+    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="17"/>
-      <c r="F679" s="17"/>
-    </row>
-    <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G679" s="17"/>
+    </row>
+    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="17"/>
-      <c r="F680" s="17"/>
-    </row>
-    <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G680" s="17"/>
+    </row>
+    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="17"/>
-      <c r="F681" s="17"/>
-    </row>
-    <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G681" s="17"/>
+    </row>
+    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="17"/>
-      <c r="F682" s="17"/>
-    </row>
-    <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G682" s="17"/>
+    </row>
+    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="17"/>
-      <c r="F683" s="17"/>
-    </row>
-    <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G683" s="17"/>
+    </row>
+    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="17"/>
-      <c r="F684" s="17"/>
-    </row>
-    <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G684" s="17"/>
+    </row>
+    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="17"/>
-      <c r="F685" s="17"/>
-    </row>
-    <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G685" s="17"/>
+    </row>
+    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="17"/>
-      <c r="F686" s="17"/>
-    </row>
-    <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G686" s="17"/>
+    </row>
+    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="17"/>
-      <c r="F687" s="17"/>
-    </row>
-    <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G687" s="17"/>
+    </row>
+    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="17"/>
-      <c r="F688" s="17"/>
-    </row>
-    <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G688" s="17"/>
+    </row>
+    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="17"/>
-      <c r="F689" s="17"/>
-    </row>
-    <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G689" s="17"/>
+    </row>
+    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="17"/>
-      <c r="F690" s="17"/>
-    </row>
-    <row r="691" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G690" s="17"/>
+    </row>
+    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="17"/>
-      <c r="F691" s="17"/>
-    </row>
-    <row r="692" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G691" s="17"/>
+    </row>
+    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="17"/>
-      <c r="F692" s="17"/>
-    </row>
-    <row r="693" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G692" s="17"/>
+    </row>
+    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="17"/>
-      <c r="F693" s="17"/>
-    </row>
-    <row r="694" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G693" s="17"/>
+    </row>
+    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="17"/>
-      <c r="F694" s="17"/>
-    </row>
-    <row r="695" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G694" s="17"/>
+    </row>
+    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="17"/>
-      <c r="F695" s="17"/>
-    </row>
-    <row r="696" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G695" s="17"/>
+    </row>
+    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="17"/>
-      <c r="F696" s="17"/>
-    </row>
-    <row r="697" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G696" s="17"/>
+    </row>
+    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="17"/>
-      <c r="F697" s="17"/>
-    </row>
-    <row r="698" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G697" s="17"/>
+    </row>
+    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="17"/>
-      <c r="F698" s="17"/>
-    </row>
-    <row r="699" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G698" s="17"/>
+    </row>
+    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="17"/>
-      <c r="F699" s="17"/>
-    </row>
-    <row r="700" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G699" s="17"/>
+    </row>
+    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="17"/>
-      <c r="F700" s="17"/>
-    </row>
-    <row r="701" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G700" s="17"/>
+    </row>
+    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="17"/>
-      <c r="F701" s="17"/>
-    </row>
-    <row r="702" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G701" s="17"/>
+    </row>
+    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="17"/>
-      <c r="F702" s="17"/>
-    </row>
-    <row r="703" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G702" s="17"/>
+    </row>
+    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="17"/>
-      <c r="F703" s="17"/>
-    </row>
-    <row r="704" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G703" s="17"/>
+    </row>
+    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="17"/>
-      <c r="F704" s="17"/>
-    </row>
-    <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G704" s="17"/>
+    </row>
+    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="17"/>
-      <c r="F705" s="17"/>
-    </row>
-    <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G705" s="17"/>
+    </row>
+    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="17"/>
-      <c r="F706" s="17"/>
-    </row>
-    <row r="707" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G706" s="17"/>
+    </row>
+    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="17"/>
-      <c r="F707" s="17"/>
-    </row>
-    <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G707" s="17"/>
+    </row>
+    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="17"/>
-      <c r="F708" s="17"/>
-    </row>
-    <row r="709" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G708" s="17"/>
+    </row>
+    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="17"/>
-      <c r="F709" s="17"/>
-    </row>
-    <row r="710" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G709" s="17"/>
+    </row>
+    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="17"/>
-      <c r="F710" s="17"/>
-    </row>
-    <row r="711" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G710" s="17"/>
+    </row>
+    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="17"/>
-      <c r="F711" s="17"/>
-    </row>
-    <row r="712" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G711" s="17"/>
+    </row>
+    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="17"/>
-      <c r="F712" s="17"/>
-    </row>
-    <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G712" s="17"/>
+    </row>
+    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="17"/>
-      <c r="F713" s="17"/>
-    </row>
-    <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G713" s="17"/>
+    </row>
+    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="17"/>
-      <c r="F714" s="17"/>
-    </row>
-    <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G714" s="17"/>
+    </row>
+    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="17"/>
-      <c r="F715" s="17"/>
-    </row>
-    <row r="716" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G715" s="17"/>
+    </row>
+    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="17"/>
-      <c r="F716" s="17"/>
-    </row>
-    <row r="717" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G716" s="17"/>
+    </row>
+    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="17"/>
-      <c r="F717" s="17"/>
-    </row>
-    <row r="718" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G717" s="17"/>
+    </row>
+    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="17"/>
-      <c r="F718" s="17"/>
-    </row>
-    <row r="719" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G718" s="17"/>
+    </row>
+    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="17"/>
-      <c r="F719" s="17"/>
-    </row>
-    <row r="720" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G719" s="17"/>
+    </row>
+    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="17"/>
-      <c r="F720" s="17"/>
-    </row>
-    <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G720" s="17"/>
+    </row>
+    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="17"/>
-      <c r="F721" s="17"/>
-    </row>
-    <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G721" s="17"/>
+    </row>
+    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="17"/>
-      <c r="F722" s="17"/>
-    </row>
-    <row r="723" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G722" s="17"/>
+    </row>
+    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="17"/>
-      <c r="F723" s="17"/>
-    </row>
-    <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G723" s="17"/>
+    </row>
+    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="17"/>
-      <c r="F724" s="17"/>
-    </row>
-    <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G724" s="17"/>
+    </row>
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="17"/>
-      <c r="F725" s="17"/>
-    </row>
-    <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G725" s="17"/>
+    </row>
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="17"/>
-      <c r="F726" s="17"/>
-    </row>
-    <row r="727" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G726" s="17"/>
+    </row>
+    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="17"/>
-      <c r="F727" s="17"/>
-    </row>
-    <row r="728" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G727" s="17"/>
+    </row>
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="17"/>
-      <c r="F728" s="17"/>
-    </row>
-    <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G728" s="17"/>
+    </row>
+    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="17"/>
-      <c r="F729" s="17"/>
-    </row>
-    <row r="730" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G729" s="17"/>
+    </row>
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="17"/>
-      <c r="F730" s="17"/>
-    </row>
-    <row r="731" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G730" s="17"/>
+    </row>
+    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="17"/>
-      <c r="F731" s="17"/>
-    </row>
-    <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G731" s="17"/>
+    </row>
+    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="17"/>
-      <c r="F732" s="17"/>
-    </row>
-    <row r="733" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G732" s="17"/>
+    </row>
+    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="17"/>
-      <c r="F733" s="17"/>
-    </row>
-    <row r="734" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G733" s="17"/>
+    </row>
+    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="17"/>
-      <c r="F734" s="17"/>
-    </row>
-    <row r="735" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G734" s="17"/>
+    </row>
+    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="17"/>
-      <c r="F735" s="17"/>
-    </row>
-    <row r="736" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G735" s="17"/>
+    </row>
+    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="17"/>
-      <c r="F736" s="17"/>
-    </row>
-    <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G736" s="17"/>
+    </row>
+    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="17"/>
-      <c r="F737" s="17"/>
-    </row>
-    <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G737" s="17"/>
+    </row>
+    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="17"/>
-      <c r="F738" s="17"/>
-    </row>
-    <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G738" s="17"/>
+    </row>
+    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="17"/>
-      <c r="F739" s="17"/>
-    </row>
-    <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G739" s="17"/>
+    </row>
+    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="17"/>
-      <c r="F740" s="17"/>
-    </row>
-    <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G740" s="17"/>
+    </row>
+    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="17"/>
-      <c r="F741" s="17"/>
-    </row>
-    <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G741" s="17"/>
+    </row>
+    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="17"/>
-      <c r="F742" s="17"/>
-    </row>
-    <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G742" s="17"/>
+    </row>
+    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="17"/>
-      <c r="F743" s="17"/>
-    </row>
-    <row r="744" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G743" s="17"/>
+    </row>
+    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="17"/>
-      <c r="F744" s="17"/>
-    </row>
-    <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G744" s="17"/>
+    </row>
+    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="17"/>
-      <c r="F745" s="17"/>
-    </row>
-    <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G745" s="17"/>
+    </row>
+    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="17"/>
-      <c r="F746" s="17"/>
-    </row>
-    <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G746" s="17"/>
+    </row>
+    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="17"/>
-      <c r="F747" s="17"/>
-    </row>
-    <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G747" s="17"/>
+    </row>
+    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="17"/>
-      <c r="F748" s="17"/>
-    </row>
-    <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G748" s="17"/>
+    </row>
+    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="17"/>
-      <c r="F749" s="17"/>
-    </row>
-    <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G749" s="17"/>
+    </row>
+    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="17"/>
-      <c r="F750" s="17"/>
-    </row>
-    <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G750" s="17"/>
+    </row>
+    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="17"/>
-      <c r="F751" s="17"/>
-    </row>
-    <row r="752" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G751" s="17"/>
+    </row>
+    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="17"/>
-      <c r="F752" s="17"/>
-    </row>
-    <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G752" s="17"/>
+    </row>
+    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="17"/>
-      <c r="F753" s="17"/>
-    </row>
-    <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G753" s="17"/>
+    </row>
+    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="17"/>
-      <c r="F754" s="17"/>
-    </row>
-    <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G754" s="17"/>
+    </row>
+    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="17"/>
-      <c r="F755" s="17"/>
-    </row>
-    <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G755" s="17"/>
+    </row>
+    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="17"/>
-      <c r="F756" s="17"/>
-    </row>
-    <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G756" s="17"/>
+    </row>
+    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="17"/>
-      <c r="F757" s="17"/>
-    </row>
-    <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G757" s="17"/>
+    </row>
+    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="17"/>
-      <c r="F758" s="17"/>
-    </row>
-    <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G758" s="17"/>
+    </row>
+    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="17"/>
-      <c r="F759" s="17"/>
-    </row>
-    <row r="760" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G759" s="17"/>
+    </row>
+    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="17"/>
-      <c r="F760" s="17"/>
-    </row>
-    <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G760" s="17"/>
+    </row>
+    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="17"/>
-      <c r="F761" s="17"/>
-    </row>
-    <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G761" s="17"/>
+    </row>
+    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="17"/>
-      <c r="F762" s="17"/>
-    </row>
-    <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G762" s="17"/>
+    </row>
+    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="17"/>
-      <c r="F763" s="17"/>
-    </row>
-    <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G763" s="17"/>
+    </row>
+    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="17"/>
-      <c r="F764" s="17"/>
-    </row>
-    <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G764" s="17"/>
+    </row>
+    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="17"/>
-      <c r="F765" s="17"/>
-    </row>
-    <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G765" s="17"/>
+    </row>
+    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="17"/>
-      <c r="F766" s="17"/>
-    </row>
-    <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G766" s="17"/>
+    </row>
+    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="17"/>
-      <c r="F767" s="17"/>
-    </row>
-    <row r="768" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G767" s="17"/>
+    </row>
+    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="17"/>
-      <c r="F768" s="17"/>
-    </row>
-    <row r="769" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G768" s="17"/>
+    </row>
+    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="17"/>
-      <c r="F769" s="17"/>
-    </row>
-    <row r="770" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G769" s="17"/>
+    </row>
+    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="17"/>
-      <c r="F770" s="17"/>
-    </row>
-    <row r="771" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G770" s="17"/>
+    </row>
+    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="17"/>
-      <c r="F771" s="17"/>
-    </row>
-    <row r="772" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G771" s="17"/>
+    </row>
+    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="17"/>
-      <c r="F772" s="17"/>
-    </row>
-    <row r="773" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G772" s="17"/>
+    </row>
+    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="17"/>
-      <c r="F773" s="17"/>
-    </row>
-    <row r="774" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G773" s="17"/>
+    </row>
+    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="17"/>
-      <c r="F774" s="17"/>
-    </row>
-    <row r="775" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G774" s="17"/>
+    </row>
+    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="17"/>
-      <c r="F775" s="17"/>
-    </row>
-    <row r="776" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G775" s="17"/>
+    </row>
+    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="17"/>
-      <c r="F776" s="17"/>
-    </row>
-    <row r="777" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G776" s="17"/>
+    </row>
+    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="17"/>
-      <c r="F777" s="17"/>
-    </row>
-    <row r="778" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G777" s="17"/>
+    </row>
+    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="17"/>
-      <c r="F778" s="17"/>
-    </row>
-    <row r="779" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G778" s="17"/>
+    </row>
+    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="17"/>
-      <c r="F779" s="17"/>
-    </row>
-    <row r="780" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G779" s="17"/>
+    </row>
+    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="17"/>
-      <c r="F780" s="17"/>
-    </row>
-    <row r="781" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G780" s="17"/>
+    </row>
+    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="17"/>
-      <c r="F781" s="17"/>
-    </row>
-    <row r="782" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G781" s="17"/>
+    </row>
+    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="17"/>
-      <c r="F782" s="17"/>
-    </row>
-    <row r="783" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G782" s="17"/>
+    </row>
+    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="17"/>
-      <c r="F783" s="17"/>
-    </row>
-    <row r="784" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G783" s="17"/>
+    </row>
+    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="17"/>
-      <c r="F784" s="17"/>
-    </row>
-    <row r="785" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G784" s="17"/>
+    </row>
+    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="17"/>
-      <c r="F785" s="17"/>
-    </row>
-    <row r="786" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G785" s="17"/>
+    </row>
+    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="17"/>
-      <c r="F786" s="17"/>
-    </row>
-    <row r="787" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G786" s="17"/>
+    </row>
+    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="17"/>
-      <c r="F787" s="17"/>
-    </row>
-    <row r="788" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G787" s="17"/>
+    </row>
+    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="17"/>
-      <c r="F788" s="17"/>
-    </row>
-    <row r="789" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G788" s="17"/>
+    </row>
+    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="17"/>
-      <c r="F789" s="17"/>
-    </row>
-    <row r="790" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G789" s="17"/>
+    </row>
+    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="17"/>
-      <c r="F790" s="17"/>
-    </row>
-    <row r="791" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G790" s="17"/>
+    </row>
+    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="17"/>
-      <c r="F791" s="17"/>
-    </row>
-    <row r="792" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G791" s="17"/>
+    </row>
+    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="17"/>
-      <c r="F792" s="17"/>
-    </row>
-    <row r="793" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G792" s="17"/>
+    </row>
+    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="17"/>
-      <c r="F793" s="17"/>
-    </row>
-    <row r="794" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G793" s="17"/>
+    </row>
+    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="17"/>
-      <c r="F794" s="17"/>
-    </row>
-    <row r="795" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G794" s="17"/>
+    </row>
+    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="17"/>
-      <c r="F795" s="17"/>
-    </row>
-    <row r="796" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G795" s="17"/>
+    </row>
+    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="17"/>
-      <c r="F796" s="17"/>
-    </row>
-    <row r="797" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G796" s="17"/>
+    </row>
+    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="17"/>
-      <c r="F797" s="17"/>
-    </row>
-    <row r="798" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G797" s="17"/>
+    </row>
+    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="17"/>
-      <c r="F798" s="17"/>
-    </row>
-    <row r="799" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G798" s="17"/>
+    </row>
+    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="17"/>
-      <c r="F799" s="17"/>
-    </row>
-    <row r="800" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G799" s="17"/>
+    </row>
+    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="17"/>
-      <c r="F800" s="17"/>
-    </row>
-    <row r="801" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G800" s="17"/>
+    </row>
+    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="17"/>
-      <c r="F801" s="17"/>
-    </row>
-    <row r="802" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G801" s="17"/>
+    </row>
+    <row r="802" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="17"/>
-      <c r="F802" s="17"/>
-    </row>
-    <row r="803" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G802" s="17"/>
+    </row>
+    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="17"/>
-      <c r="F803" s="17"/>
-    </row>
-    <row r="804" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G803" s="17"/>
+    </row>
+    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="17"/>
-      <c r="F804" s="17"/>
-    </row>
-    <row r="805" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G804" s="17"/>
+    </row>
+    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="17"/>
-      <c r="F805" s="17"/>
-    </row>
-    <row r="806" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G805" s="17"/>
+    </row>
+    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="17"/>
-      <c r="F806" s="17"/>
-    </row>
-    <row r="807" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G806" s="17"/>
+    </row>
+    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="17"/>
-      <c r="F807" s="17"/>
-    </row>
-    <row r="808" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G807" s="17"/>
+    </row>
+    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="17"/>
-      <c r="F808" s="17"/>
-    </row>
-    <row r="809" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G808" s="17"/>
+    </row>
+    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="17"/>
-      <c r="F809" s="17"/>
-    </row>
-    <row r="810" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G809" s="17"/>
+    </row>
+    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="17"/>
-      <c r="F810" s="17"/>
-    </row>
-    <row r="811" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G810" s="17"/>
+    </row>
+    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="17"/>
-      <c r="F811" s="17"/>
-    </row>
-    <row r="812" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G811" s="17"/>
+    </row>
+    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="17"/>
-      <c r="F812" s="17"/>
-    </row>
-    <row r="813" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G812" s="17"/>
+    </row>
+    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="17"/>
-      <c r="F813" s="17"/>
-    </row>
-    <row r="814" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G813" s="17"/>
+    </row>
+    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="17"/>
-      <c r="F814" s="17"/>
-    </row>
-    <row r="815" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G814" s="17"/>
+    </row>
+    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="17"/>
-      <c r="F815" s="17"/>
-    </row>
-    <row r="816" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G815" s="17"/>
+    </row>
+    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="17"/>
-      <c r="F816" s="17"/>
-    </row>
-    <row r="817" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G816" s="17"/>
+    </row>
+    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="17"/>
-      <c r="F817" s="17"/>
-    </row>
-    <row r="818" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G817" s="17"/>
+    </row>
+    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="17"/>
-      <c r="F818" s="17"/>
-    </row>
-    <row r="819" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G818" s="17"/>
+    </row>
+    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="17"/>
-      <c r="F819" s="17"/>
-    </row>
-    <row r="820" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G819" s="17"/>
+    </row>
+    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="17"/>
-      <c r="F820" s="17"/>
-    </row>
-    <row r="821" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G820" s="17"/>
+    </row>
+    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="17"/>
-      <c r="F821" s="17"/>
-    </row>
-    <row r="822" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G821" s="17"/>
+    </row>
+    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="17"/>
-      <c r="F822" s="17"/>
-    </row>
-    <row r="823" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G822" s="17"/>
+    </row>
+    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="17"/>
-      <c r="F823" s="17"/>
-    </row>
-    <row r="824" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G823" s="17"/>
+    </row>
+    <row r="824" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="17"/>
-      <c r="F824" s="17"/>
-    </row>
-    <row r="825" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G824" s="17"/>
+    </row>
+    <row r="825" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="17"/>
-      <c r="F825" s="17"/>
-    </row>
-    <row r="826" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G825" s="17"/>
+    </row>
+    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="17"/>
-      <c r="F826" s="17"/>
-    </row>
-    <row r="827" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G826" s="17"/>
+    </row>
+    <row r="827" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="17"/>
-      <c r="F827" s="17"/>
-    </row>
-    <row r="828" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G827" s="17"/>
+    </row>
+    <row r="828" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="17"/>
-      <c r="F828" s="17"/>
-    </row>
-    <row r="829" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G828" s="17"/>
+    </row>
+    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="17"/>
-      <c r="F829" s="17"/>
-    </row>
-    <row r="830" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G829" s="17"/>
+    </row>
+    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="17"/>
-      <c r="F830" s="17"/>
-    </row>
-    <row r="831" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G830" s="17"/>
+    </row>
+    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="17"/>
-      <c r="F831" s="17"/>
-    </row>
-    <row r="832" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G831" s="17"/>
+    </row>
+    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="17"/>
-      <c r="F832" s="17"/>
-    </row>
-    <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G832" s="17"/>
+    </row>
+    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="17"/>
-      <c r="F833" s="17"/>
-    </row>
-    <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G833" s="17"/>
+    </row>
+    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="17"/>
-      <c r="F834" s="17"/>
-    </row>
-    <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G834" s="17"/>
+    </row>
+    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="17"/>
-      <c r="F835" s="17"/>
-    </row>
-    <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G835" s="17"/>
+    </row>
+    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="17"/>
-      <c r="F836" s="17"/>
-    </row>
-    <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G836" s="17"/>
+    </row>
+    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="17"/>
-      <c r="F837" s="17"/>
-    </row>
-    <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G837" s="17"/>
+    </row>
+    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="17"/>
-      <c r="F838" s="17"/>
-    </row>
-    <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G838" s="17"/>
+    </row>
+    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="17"/>
-      <c r="F839" s="17"/>
-    </row>
-    <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G839" s="17"/>
+    </row>
+    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="17"/>
-      <c r="F840" s="17"/>
-    </row>
-    <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G840" s="17"/>
+    </row>
+    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="17"/>
-      <c r="F841" s="17"/>
-    </row>
-    <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G841" s="17"/>
+    </row>
+    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="17"/>
-      <c r="F842" s="17"/>
-    </row>
-    <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G842" s="17"/>
+    </row>
+    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="17"/>
-      <c r="F843" s="17"/>
-    </row>
-    <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G843" s="17"/>
+    </row>
+    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="17"/>
-      <c r="F844" s="17"/>
-    </row>
-    <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G844" s="17"/>
+    </row>
+    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="17"/>
-      <c r="F845" s="17"/>
-    </row>
-    <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G845" s="17"/>
+    </row>
+    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="17"/>
-      <c r="F846" s="17"/>
-    </row>
-    <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G846" s="17"/>
+    </row>
+    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="17"/>
-      <c r="F847" s="17"/>
-    </row>
-    <row r="848" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G847" s="17"/>
+    </row>
+    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="17"/>
-      <c r="F848" s="17"/>
-    </row>
-    <row r="849" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G848" s="17"/>
+    </row>
+    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="17"/>
-      <c r="F849" s="17"/>
-    </row>
-    <row r="850" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G849" s="17"/>
+    </row>
+    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="17"/>
-      <c r="F850" s="17"/>
-    </row>
-    <row r="851" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G850" s="17"/>
+    </row>
+    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="17"/>
-      <c r="F851" s="17"/>
-    </row>
-    <row r="852" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G851" s="17"/>
+    </row>
+    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="17"/>
-      <c r="F852" s="17"/>
-    </row>
-    <row r="853" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G852" s="17"/>
+    </row>
+    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="17"/>
-      <c r="F853" s="17"/>
-    </row>
-    <row r="854" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G853" s="17"/>
+    </row>
+    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="17"/>
-      <c r="F854" s="17"/>
-    </row>
-    <row r="855" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G854" s="17"/>
+    </row>
+    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="17"/>
-      <c r="F855" s="17"/>
-    </row>
-    <row r="856" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G855" s="17"/>
+    </row>
+    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="17"/>
-      <c r="F856" s="17"/>
-    </row>
-    <row r="857" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G856" s="17"/>
+    </row>
+    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="17"/>
-      <c r="F857" s="17"/>
-    </row>
-    <row r="858" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G857" s="17"/>
+    </row>
+    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="17"/>
-      <c r="F858" s="17"/>
-    </row>
-    <row r="859" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G858" s="17"/>
+    </row>
+    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="17"/>
-      <c r="F859" s="17"/>
-    </row>
-    <row r="860" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G859" s="17"/>
+    </row>
+    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="17"/>
-      <c r="F860" s="17"/>
-    </row>
-    <row r="861" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G860" s="17"/>
+    </row>
+    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="17"/>
-      <c r="F861" s="17"/>
-    </row>
-    <row r="862" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G861" s="17"/>
+    </row>
+    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="17"/>
-      <c r="F862" s="17"/>
-    </row>
-    <row r="863" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G862" s="17"/>
+    </row>
+    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="17"/>
-      <c r="F863" s="17"/>
-    </row>
-    <row r="864" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G863" s="17"/>
+    </row>
+    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="17"/>
-      <c r="F864" s="17"/>
-    </row>
-    <row r="865" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G864" s="17"/>
+    </row>
+    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="17"/>
-      <c r="F865" s="17"/>
-    </row>
-    <row r="866" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G865" s="17"/>
+    </row>
+    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="17"/>
-      <c r="F866" s="17"/>
-    </row>
-    <row r="867" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G866" s="17"/>
+    </row>
+    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="17"/>
-      <c r="F867" s="17"/>
-    </row>
-    <row r="868" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G867" s="17"/>
+    </row>
+    <row r="868" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="17"/>
-      <c r="F868" s="17"/>
-    </row>
-    <row r="869" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G868" s="17"/>
+    </row>
+    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="17"/>
-      <c r="F869" s="17"/>
-    </row>
-    <row r="870" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G869" s="17"/>
+    </row>
+    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="17"/>
-      <c r="F870" s="17"/>
-    </row>
-    <row r="871" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G870" s="17"/>
+    </row>
+    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="17"/>
-      <c r="F871" s="17"/>
-    </row>
-    <row r="872" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G871" s="17"/>
+    </row>
+    <row r="872" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="17"/>
-      <c r="F872" s="17"/>
-    </row>
-    <row r="873" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G872" s="17"/>
+    </row>
+    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="17"/>
-      <c r="F873" s="17"/>
-    </row>
-    <row r="874" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G873" s="17"/>
+    </row>
+    <row r="874" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="17"/>
-      <c r="F874" s="17"/>
-    </row>
-    <row r="875" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G874" s="17"/>
+    </row>
+    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="17"/>
-      <c r="F875" s="17"/>
-    </row>
-    <row r="876" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G875" s="17"/>
+    </row>
+    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="17"/>
-      <c r="F876" s="17"/>
-    </row>
-    <row r="877" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G876" s="17"/>
+    </row>
+    <row r="877" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="17"/>
-      <c r="F877" s="17"/>
-    </row>
-    <row r="878" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G877" s="17"/>
+    </row>
+    <row r="878" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="17"/>
-      <c r="F878" s="17"/>
-    </row>
-    <row r="879" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G878" s="17"/>
+    </row>
+    <row r="879" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="17"/>
-      <c r="F879" s="17"/>
-    </row>
-    <row r="880" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G879" s="17"/>
+    </row>
+    <row r="880" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="17"/>
-      <c r="F880" s="17"/>
-    </row>
-    <row r="881" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G880" s="17"/>
+    </row>
+    <row r="881" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="17"/>
-      <c r="F881" s="17"/>
-    </row>
-    <row r="882" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G881" s="17"/>
+    </row>
+    <row r="882" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="17"/>
-      <c r="F882" s="17"/>
-    </row>
-    <row r="883" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G882" s="17"/>
+    </row>
+    <row r="883" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="17"/>
-      <c r="F883" s="17"/>
-    </row>
-    <row r="884" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G883" s="17"/>
+    </row>
+    <row r="884" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="17"/>
-      <c r="F884" s="17"/>
-    </row>
-    <row r="885" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G884" s="17"/>
+    </row>
+    <row r="885" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="17"/>
-      <c r="F885" s="17"/>
-    </row>
-    <row r="886" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G885" s="17"/>
+    </row>
+    <row r="886" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="17"/>
-      <c r="F886" s="17"/>
-    </row>
-    <row r="887" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G886" s="17"/>
+    </row>
+    <row r="887" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="17"/>
-      <c r="F887" s="17"/>
-    </row>
-    <row r="888" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G887" s="17"/>
+    </row>
+    <row r="888" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="17"/>
-      <c r="F888" s="17"/>
-    </row>
-    <row r="889" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G888" s="17"/>
+    </row>
+    <row r="889" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="17"/>
-      <c r="F889" s="17"/>
-    </row>
-    <row r="890" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G889" s="17"/>
+    </row>
+    <row r="890" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="17"/>
-      <c r="F890" s="17"/>
-    </row>
-    <row r="891" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G890" s="17"/>
+    </row>
+    <row r="891" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="17"/>
-      <c r="F891" s="17"/>
-    </row>
-    <row r="892" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G891" s="17"/>
+    </row>
+    <row r="892" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="17"/>
-      <c r="F892" s="17"/>
-    </row>
-    <row r="893" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G892" s="17"/>
+    </row>
+    <row r="893" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="17"/>
-      <c r="F893" s="17"/>
-    </row>
-    <row r="894" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G893" s="17"/>
+    </row>
+    <row r="894" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="17"/>
-      <c r="F894" s="17"/>
-    </row>
-    <row r="895" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G894" s="17"/>
+    </row>
+    <row r="895" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="17"/>
-      <c r="F895" s="17"/>
-    </row>
-    <row r="896" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G895" s="17"/>
+    </row>
+    <row r="896" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="17"/>
-      <c r="F896" s="17"/>
-    </row>
-    <row r="897" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G896" s="17"/>
+    </row>
+    <row r="897" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="17"/>
-      <c r="F897" s="17"/>
-    </row>
-    <row r="898" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G897" s="17"/>
+    </row>
+    <row r="898" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="17"/>
-      <c r="F898" s="17"/>
-    </row>
-    <row r="899" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G898" s="17"/>
+    </row>
+    <row r="899" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="17"/>
-      <c r="F899" s="17"/>
-    </row>
-    <row r="900" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G899" s="17"/>
+    </row>
+    <row r="900" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="17"/>
-      <c r="F900" s="17"/>
-    </row>
-    <row r="901" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G900" s="17"/>
+    </row>
+    <row r="901" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="17"/>
-      <c r="F901" s="17"/>
-    </row>
-    <row r="902" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G901" s="17"/>
+    </row>
+    <row r="902" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="17"/>
-      <c r="F902" s="17"/>
-    </row>
-    <row r="903" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G902" s="17"/>
+    </row>
+    <row r="903" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="17"/>
-      <c r="F903" s="17"/>
-    </row>
-    <row r="904" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G903" s="17"/>
+    </row>
+    <row r="904" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="17"/>
-      <c r="F904" s="17"/>
-    </row>
-    <row r="905" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G904" s="17"/>
+    </row>
+    <row r="905" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="17"/>
-      <c r="F905" s="17"/>
-    </row>
-    <row r="906" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G905" s="17"/>
+    </row>
+    <row r="906" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="17"/>
-      <c r="F906" s="17"/>
-    </row>
-    <row r="907" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G906" s="17"/>
+    </row>
+    <row r="907" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="17"/>
-      <c r="F907" s="17"/>
-    </row>
-    <row r="908" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G907" s="17"/>
+    </row>
+    <row r="908" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="17"/>
-      <c r="F908" s="17"/>
-    </row>
-    <row r="909" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G908" s="17"/>
+    </row>
+    <row r="909" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="17"/>
-      <c r="F909" s="17"/>
-    </row>
-    <row r="910" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G909" s="17"/>
+    </row>
+    <row r="910" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="17"/>
-      <c r="F910" s="17"/>
-    </row>
-    <row r="911" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G910" s="17"/>
+    </row>
+    <row r="911" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="17"/>
-      <c r="F911" s="17"/>
-    </row>
-    <row r="912" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G911" s="17"/>
+    </row>
+    <row r="912" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="17"/>
-      <c r="F912" s="17"/>
-    </row>
-    <row r="913" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G912" s="17"/>
+    </row>
+    <row r="913" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="17"/>
-      <c r="F913" s="17"/>
-    </row>
-    <row r="914" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G913" s="17"/>
+    </row>
+    <row r="914" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="17"/>
-      <c r="F914" s="17"/>
-    </row>
-    <row r="915" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G914" s="17"/>
+    </row>
+    <row r="915" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="17"/>
-      <c r="F915" s="17"/>
-    </row>
-    <row r="916" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G915" s="17"/>
+    </row>
+    <row r="916" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="17"/>
-      <c r="F916" s="17"/>
-    </row>
-    <row r="917" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G916" s="17"/>
+    </row>
+    <row r="917" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="17"/>
-      <c r="F917" s="17"/>
-    </row>
-    <row r="918" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G917" s="17"/>
+    </row>
+    <row r="918" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="17"/>
-      <c r="F918" s="17"/>
-    </row>
-    <row r="919" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G918" s="17"/>
+    </row>
+    <row r="919" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="17"/>
-      <c r="F919" s="17"/>
-    </row>
-    <row r="920" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G919" s="17"/>
+    </row>
+    <row r="920" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="17"/>
-      <c r="F920" s="17"/>
-    </row>
-    <row r="921" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G920" s="17"/>
+    </row>
+    <row r="921" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="17"/>
-      <c r="F921" s="17"/>
-    </row>
-    <row r="922" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G921" s="17"/>
+    </row>
+    <row r="922" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="17"/>
-      <c r="F922" s="17"/>
-    </row>
-    <row r="923" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G922" s="17"/>
+    </row>
+    <row r="923" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="17"/>
-      <c r="F923" s="17"/>
-    </row>
-    <row r="924" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G923" s="17"/>
+    </row>
+    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="17"/>
-      <c r="F924" s="17"/>
-    </row>
-    <row r="925" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G924" s="17"/>
+    </row>
+    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="17"/>
-      <c r="F925" s="17"/>
-    </row>
-    <row r="926" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G925" s="17"/>
+    </row>
+    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="17"/>
-      <c r="F926" s="17"/>
-    </row>
-    <row r="927" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G926" s="17"/>
+    </row>
+    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="17"/>
-      <c r="F927" s="17"/>
-    </row>
-    <row r="928" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G927" s="17"/>
+    </row>
+    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="17"/>
-      <c r="F928" s="17"/>
-    </row>
-    <row r="929" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G928" s="17"/>
+    </row>
+    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="17"/>
-      <c r="F929" s="17"/>
-    </row>
-    <row r="930" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G929" s="17"/>
+    </row>
+    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="17"/>
-      <c r="F930" s="17"/>
-    </row>
-    <row r="931" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G930" s="17"/>
+    </row>
+    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="17"/>
-      <c r="F931" s="17"/>
-    </row>
-    <row r="932" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G931" s="17"/>
+    </row>
+    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="17"/>
-      <c r="F932" s="17"/>
-    </row>
-    <row r="933" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G932" s="17"/>
+    </row>
+    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="17"/>
-      <c r="F933" s="17"/>
-    </row>
-    <row r="934" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G933" s="17"/>
+    </row>
+    <row r="934" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="17"/>
-      <c r="F934" s="17"/>
-    </row>
-    <row r="935" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G934" s="17"/>
+    </row>
+    <row r="935" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="17"/>
-      <c r="F935" s="17"/>
-    </row>
-    <row r="936" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G935" s="17"/>
+    </row>
+    <row r="936" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="17"/>
-      <c r="F936" s="17"/>
-    </row>
-    <row r="937" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G936" s="17"/>
+    </row>
+    <row r="937" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="17"/>
-      <c r="F937" s="17"/>
-    </row>
-    <row r="938" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G937" s="17"/>
+    </row>
+    <row r="938" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="17"/>
-      <c r="F938" s="17"/>
-    </row>
-    <row r="939" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G938" s="17"/>
+    </row>
+    <row r="939" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="17"/>
-      <c r="F939" s="17"/>
-    </row>
-    <row r="940" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G939" s="17"/>
+    </row>
+    <row r="940" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="17"/>
-      <c r="F940" s="17"/>
-    </row>
-    <row r="941" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G940" s="17"/>
+    </row>
+    <row r="941" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="17"/>
-      <c r="F941" s="17"/>
-    </row>
-    <row r="942" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G941" s="17"/>
+    </row>
+    <row r="942" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="17"/>
-      <c r="F942" s="17"/>
-    </row>
-    <row r="943" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G942" s="17"/>
+    </row>
+    <row r="943" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="17"/>
-      <c r="F943" s="17"/>
-    </row>
-    <row r="944" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G943" s="17"/>
+    </row>
+    <row r="944" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="17"/>
-      <c r="F944" s="17"/>
-    </row>
-    <row r="945" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G944" s="17"/>
+    </row>
+    <row r="945" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="17"/>
-      <c r="F945" s="17"/>
-    </row>
-    <row r="946" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G945" s="17"/>
+    </row>
+    <row r="946" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="17"/>
-      <c r="F946" s="17"/>
-    </row>
-    <row r="947" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G946" s="17"/>
+    </row>
+    <row r="947" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="17"/>
-      <c r="F947" s="17"/>
-    </row>
-    <row r="948" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G947" s="17"/>
+    </row>
+    <row r="948" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="17"/>
-      <c r="F948" s="17"/>
-    </row>
-    <row r="949" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G948" s="17"/>
+    </row>
+    <row r="949" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="17"/>
-      <c r="F949" s="17"/>
-    </row>
-    <row r="950" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G949" s="17"/>
+    </row>
+    <row r="950" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="17"/>
-      <c r="F950" s="17"/>
-    </row>
-    <row r="951" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G950" s="17"/>
+    </row>
+    <row r="951" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="17"/>
-      <c r="F951" s="17"/>
-    </row>
-    <row r="952" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G951" s="17"/>
+    </row>
+    <row r="952" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="17"/>
-      <c r="F952" s="17"/>
-    </row>
-    <row r="953" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G952" s="17"/>
+    </row>
+    <row r="953" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="17"/>
-      <c r="F953" s="17"/>
-    </row>
-    <row r="954" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G953" s="17"/>
+    </row>
+    <row r="954" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="17"/>
-      <c r="F954" s="17"/>
-    </row>
-    <row r="955" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G954" s="17"/>
+    </row>
+    <row r="955" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="17"/>
-      <c r="F955" s="17"/>
-    </row>
-    <row r="956" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G955" s="17"/>
+    </row>
+    <row r="956" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="17"/>
-      <c r="F956" s="17"/>
-    </row>
-    <row r="957" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G956" s="17"/>
+    </row>
+    <row r="957" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="17"/>
-      <c r="F957" s="17"/>
-    </row>
-    <row r="958" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G957" s="17"/>
+    </row>
+    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="17"/>
-      <c r="F958" s="17"/>
-    </row>
-    <row r="959" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G958" s="17"/>
+    </row>
+    <row r="959" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="17"/>
-      <c r="F959" s="17"/>
-    </row>
-    <row r="960" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G959" s="17"/>
+    </row>
+    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="17"/>
-      <c r="F960" s="17"/>
-    </row>
-    <row r="961" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G960" s="17"/>
+    </row>
+    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="17"/>
-      <c r="F961" s="17"/>
-    </row>
-    <row r="962" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G961" s="17"/>
+    </row>
+    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="17"/>
-      <c r="F962" s="17"/>
-    </row>
-    <row r="963" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G962" s="17"/>
+    </row>
+    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="17"/>
-      <c r="F963" s="17"/>
-    </row>
-    <row r="964" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G963" s="17"/>
+    </row>
+    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="17"/>
-      <c r="F964" s="17"/>
-    </row>
-    <row r="965" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G964" s="17"/>
+    </row>
+    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="17"/>
-      <c r="F965" s="17"/>
-    </row>
-    <row r="966" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G965" s="17"/>
+    </row>
+    <row r="966" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="17"/>
-      <c r="F966" s="17"/>
-    </row>
-    <row r="967" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G966" s="17"/>
+    </row>
+    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="17"/>
-      <c r="F967" s="17"/>
-    </row>
-    <row r="968" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G967" s="17"/>
+    </row>
+    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="17"/>
-      <c r="F968" s="17"/>
-    </row>
-    <row r="969" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G968" s="17"/>
+    </row>
+    <row r="969" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="17"/>
-      <c r="F969" s="17"/>
-    </row>
-    <row r="970" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G969" s="17"/>
+    </row>
+    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="17"/>
-      <c r="F970" s="17"/>
-    </row>
-    <row r="971" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G970" s="17"/>
+    </row>
+    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="17"/>
-      <c r="F971" s="17"/>
-    </row>
-    <row r="972" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G971" s="17"/>
+    </row>
+    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="17"/>
-      <c r="F972" s="17"/>
-    </row>
-    <row r="973" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G972" s="17"/>
+    </row>
+    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="17"/>
-      <c r="F973" s="17"/>
-    </row>
-    <row r="974" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G973" s="17"/>
+    </row>
+    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="17"/>
-      <c r="F974" s="17"/>
-    </row>
-    <row r="975" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G974" s="17"/>
+    </row>
+    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="17"/>
-      <c r="F975" s="17"/>
-    </row>
-    <row r="976" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G975" s="17"/>
+    </row>
+    <row r="976" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="17"/>
-      <c r="F976" s="17"/>
-    </row>
-    <row r="977" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G976" s="17"/>
+    </row>
+    <row r="977" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="17"/>
-      <c r="F977" s="17"/>
-    </row>
-    <row r="978" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G977" s="17"/>
+    </row>
+    <row r="978" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="17"/>
-      <c r="F978" s="17"/>
-    </row>
-    <row r="979" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G978" s="17"/>
+    </row>
+    <row r="979" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="17"/>
-      <c r="F979" s="17"/>
-    </row>
-    <row r="980" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G979" s="17"/>
+    </row>
+    <row r="980" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="17"/>
-      <c r="F980" s="17"/>
-    </row>
-    <row r="981" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G980" s="17"/>
+    </row>
+    <row r="981" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="17"/>
-      <c r="F981" s="17"/>
-    </row>
-    <row r="982" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G981" s="17"/>
+    </row>
+    <row r="982" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="17"/>
-      <c r="F982" s="17"/>
-    </row>
-    <row r="983" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G982" s="17"/>
+    </row>
+    <row r="983" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="17"/>
-      <c r="F983" s="17"/>
-    </row>
-    <row r="984" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G983" s="17"/>
+    </row>
+    <row r="984" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="17"/>
-      <c r="F984" s="17"/>
-    </row>
-    <row r="985" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G984" s="17"/>
+    </row>
+    <row r="985" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="17"/>
-      <c r="F985" s="17"/>
-    </row>
-    <row r="986" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G985" s="17"/>
+    </row>
+    <row r="986" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="17"/>
-      <c r="F986" s="17"/>
-    </row>
-    <row r="987" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G986" s="17"/>
+    </row>
+    <row r="987" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="17"/>
-      <c r="F987" s="17"/>
-    </row>
-    <row r="988" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G987" s="17"/>
+    </row>
+    <row r="988" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="17"/>
-      <c r="F988" s="17"/>
-    </row>
-    <row r="989" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G988" s="17"/>
+    </row>
+    <row r="989" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="17"/>
-      <c r="F989" s="17"/>
-    </row>
-    <row r="990" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G989" s="17"/>
+    </row>
+    <row r="990" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="17"/>
-      <c r="F990" s="17"/>
-    </row>
-    <row r="991" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G990" s="17"/>
+    </row>
+    <row r="991" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="17"/>
-      <c r="F991" s="17"/>
-    </row>
-    <row r="992" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G991" s="17"/>
+    </row>
+    <row r="992" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="17"/>
-      <c r="F992" s="17"/>
-    </row>
-    <row r="993" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G992" s="17"/>
+    </row>
+    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="17"/>
-      <c r="F993" s="17"/>
-    </row>
-    <row r="994" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G993" s="17"/>
+    </row>
+    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="17"/>
-      <c r="F994" s="17"/>
-    </row>
-    <row r="995" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G994" s="17"/>
+    </row>
+    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="17"/>
-      <c r="F995" s="17"/>
-    </row>
-    <row r="996" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G995" s="17"/>
+    </row>
+    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="17"/>
-      <c r="F996" s="17"/>
-    </row>
-    <row r="997" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G996" s="17"/>
+    </row>
+    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="17"/>
-      <c r="F997" s="17"/>
-    </row>
-    <row r="998" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G997" s="17"/>
+    </row>
+    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="17"/>
-      <c r="F998" s="17"/>
-    </row>
-    <row r="999" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G998" s="17"/>
+    </row>
+    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="17"/>
-      <c r="F999" s="17"/>
-    </row>
-    <row r="1000" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G999" s="17"/>
+    </row>
+    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="17"/>
-      <c r="F1000" s="17"/>
+      <c r="G1000" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9170,7 +9172,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9179,7 +9181,7 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="26" width="8.7109375" customWidth="1"/>
@@ -9228,15 +9230,13 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
-      </c>
+      <c r="A2" s="25"/>
       <c r="B2" s="7"/>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>1</v>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E5E68E-1C4F-48E3-B0FB-D1AA44AA7E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF48ED-8574-4070-8E34-8378A2DC63A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -64,15 +64,6 @@
     <t>sqFtRentable</t>
   </si>
   <si>
-    <t>buildingList</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>assetType</t>
-  </si>
-  <si>
     <t>autoManage</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
   </si>
   <si>
     <t>expirationDate</t>
-  </si>
-  <si>
-    <t>contractTerm</t>
   </si>
   <si>
     <t>Active</t>
@@ -136,28 +124,13 @@
     <t>test</t>
   </si>
   <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>Building List</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>Leased</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
     <t>01</t>
-  </si>
-  <si>
-    <t>FASB - Charge</t>
   </si>
   <si>
     <t>Monthly</t>
@@ -226,7 +199,31 @@
     <t>Test_Property_Auto_Final_10_Lease_Space_30</t>
   </si>
   <si>
-    <t>Ac</t>
+    <t>contractType</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>leaseGroup1-contractTerm</t>
+  </si>
+  <si>
+    <t>propertyGroup1-buildingList</t>
+  </si>
+  <si>
+    <t>propertyGroup2-region</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>propertyGroup3-assetType</t>
+  </si>
+  <si>
+    <t>Real Estate Contract</t>
+  </si>
+  <si>
+    <t>BRN - BRN</t>
   </si>
 </sst>
 </file>
@@ -322,27 +319,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,10 +348,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -378,7 +366,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -701,70 +688,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20" style="6" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="6" customWidth="1"/>
-    <col min="9" max="10" width="21.28515625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="6" customWidth="1"/>
-    <col min="15" max="27" width="8.7109375" style="6" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="6"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>59</v>
+      <c r="A1" s="2" t="s">
+        <v>50</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>30</v>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>52</v>
+      <c r="F1" s="9" t="s">
+        <v>41</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>53</v>
+      <c r="G1" s="8" t="s">
+        <v>42</v>
       </c>
-      <c r="J1" s="12" t="s">
-        <v>54</v>
+      <c r="H1" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>55</v>
+      <c r="I1" s="9" t="s">
+        <v>44</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>56</v>
+      <c r="J1" s="9" t="s">
+        <v>45</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>57</v>
+      <c r="K1" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>17</v>
+      <c r="L1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -781,43 +767,42 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
+      <c r="A2" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16" t="s">
-        <v>65</v>
+      <c r="B2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>56</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>44</v>
+      <c r="G2" t="s">
+        <v>36</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>45</v>
+      <c r="H2" s="11" t="s">
+        <v>37</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>46</v>
+      <c r="I2" s="11" t="s">
+        <v>38</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>47</v>
+      <c r="J2" t="s">
+        <v>39</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>48</v>
+      <c r="K2" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>42</v>
+      <c r="M2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1810,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1830,9 +1815,9 @@
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" customWidth="1"/>
     <col min="14" max="14" width="25.140625" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="32.7109375" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="26" width="8.7109375" customWidth="1"/>
@@ -1840,7 +1825,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1882,19 +1867,19 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
@@ -1905,72 +1890,60 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
+      <c r="A2" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>63</v>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>64</v>
+      <c r="E2" s="19" t="s">
+        <v>55</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>34</v>
+      <c r="G2" t="s">
+        <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>35</v>
+      <c r="H2" t="s">
+        <v>31</v>
       </c>
       <c r="I2">
         <v>12229</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>36</v>
+      <c r="J2" t="s">
+        <v>32</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>37</v>
+      <c r="K2" t="s">
+        <v>59</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
+      <c r="L2" t="s">
+        <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>38</v>
+      <c r="M2" t="s">
+        <v>33</v>
       </c>
       <c r="N2">
         <v>100000000</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>39</v>
+      <c r="O2">
+        <v>1000</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>40</v>
+      <c r="P2" t="s">
+        <v>63</v>
       </c>
-      <c r="Q2" s="5" t="s">
-        <v>41</v>
+      <c r="Q2" t="s">
+        <v>59</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -4971,4193 +4944,4155 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="23" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="23" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="23" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="23" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="23" customWidth="1"/>
-    <col min="14" max="16384" width="14.42578125" style="23"/>
+    <col min="1" max="1" width="10.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="11"/>
+    <col min="15" max="15" width="20.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="14.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="O2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="16"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="16"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="F16" s="17"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="A17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="12"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="12"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="12"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="12"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="12"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="12"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="A48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="12"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="A51" s="12"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="A52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="A53" s="12"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="A54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="A55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="A56" s="12"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="A57" s="12"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="A58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="A59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="A60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="A61" s="12"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="A62" s="12"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="A63" s="12"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="A64" s="12"/>
+      <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="A65" s="12"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="A66" s="12"/>
+      <c r="F66" s="12"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="A67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="A68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="A69" s="12"/>
+      <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="A70" s="12"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="A71" s="12"/>
+      <c r="F71" s="12"/>
     </row>
     <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="A72" s="12"/>
+      <c r="F72" s="12"/>
     </row>
     <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="F73" s="17"/>
+      <c r="A73" s="12"/>
+      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="A74" s="12"/>
+      <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="A75" s="12"/>
+      <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="A76" s="12"/>
+      <c r="F76" s="12"/>
     </row>
     <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="F77" s="17"/>
+      <c r="A77" s="12"/>
+      <c r="F77" s="12"/>
     </row>
     <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="A78" s="12"/>
+      <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="F79" s="17"/>
+      <c r="A79" s="12"/>
+      <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
-      <c r="F80" s="17"/>
+      <c r="A80" s="12"/>
+      <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
-      <c r="F81" s="17"/>
+      <c r="A81" s="12"/>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="A82" s="12"/>
+      <c r="F82" s="12"/>
     </row>
     <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17"/>
-      <c r="F83" s="17"/>
+      <c r="A83" s="12"/>
+      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17"/>
-      <c r="F84" s="17"/>
+      <c r="A84" s="12"/>
+      <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="A85" s="12"/>
+      <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="A86" s="12"/>
+      <c r="F86" s="12"/>
     </row>
     <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17"/>
-      <c r="F87" s="17"/>
+      <c r="A87" s="12"/>
+      <c r="F87" s="12"/>
     </row>
     <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="F88" s="17"/>
+      <c r="A88" s="12"/>
+      <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="A89" s="12"/>
+      <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="F90" s="17"/>
+      <c r="A90" s="12"/>
+      <c r="F90" s="12"/>
     </row>
     <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="F91" s="17"/>
+      <c r="A91" s="12"/>
+      <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="F92" s="17"/>
+      <c r="A92" s="12"/>
+      <c r="F92" s="12"/>
     </row>
     <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
-      <c r="F93" s="17"/>
+      <c r="A93" s="12"/>
+      <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17"/>
-      <c r="F94" s="17"/>
+      <c r="A94" s="12"/>
+      <c r="F94" s="12"/>
     </row>
     <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17"/>
-      <c r="F95" s="17"/>
+      <c r="A95" s="12"/>
+      <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17"/>
-      <c r="F96" s="17"/>
+      <c r="A96" s="12"/>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="F97" s="17"/>
+      <c r="A97" s="12"/>
+      <c r="F97" s="12"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17"/>
-      <c r="F98" s="17"/>
+      <c r="A98" s="12"/>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="17"/>
-      <c r="F99" s="17"/>
+      <c r="A99" s="12"/>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="17"/>
-      <c r="F100" s="17"/>
+      <c r="A100" s="12"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="17"/>
-      <c r="F101" s="17"/>
+      <c r="A101" s="12"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="17"/>
-      <c r="F102" s="17"/>
+      <c r="A102" s="12"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
-      <c r="F103" s="17"/>
+      <c r="A103" s="12"/>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17"/>
-      <c r="F104" s="17"/>
+      <c r="A104" s="12"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="F105" s="17"/>
+      <c r="A105" s="12"/>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17"/>
-      <c r="F106" s="17"/>
+      <c r="A106" s="12"/>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="A107" s="12"/>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="F108" s="17"/>
+      <c r="A108" s="12"/>
+      <c r="F108" s="12"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="F109" s="17"/>
+      <c r="A109" s="12"/>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="F110" s="17"/>
+      <c r="A110" s="12"/>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="F111" s="17"/>
+      <c r="A111" s="12"/>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="17"/>
-      <c r="F112" s="17"/>
+      <c r="A112" s="12"/>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="17"/>
-      <c r="F113" s="17"/>
+      <c r="A113" s="12"/>
+      <c r="F113" s="12"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="17"/>
-      <c r="F114" s="17"/>
+      <c r="A114" s="12"/>
+      <c r="F114" s="12"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="17"/>
-      <c r="F115" s="17"/>
+      <c r="A115" s="12"/>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17"/>
-      <c r="F116" s="17"/>
+      <c r="A116" s="12"/>
+      <c r="F116" s="12"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="17"/>
-      <c r="F117" s="17"/>
+      <c r="A117" s="12"/>
+      <c r="F117" s="12"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="17"/>
-      <c r="F118" s="17"/>
+      <c r="A118" s="12"/>
+      <c r="F118" s="12"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="17"/>
-      <c r="F119" s="17"/>
+      <c r="A119" s="12"/>
+      <c r="F119" s="12"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
-      <c r="F120" s="17"/>
+      <c r="A120" s="12"/>
+      <c r="F120" s="12"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
-      <c r="F121" s="17"/>
+      <c r="A121" s="12"/>
+      <c r="F121" s="12"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="F122" s="17"/>
+      <c r="A122" s="12"/>
+      <c r="F122" s="12"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="17"/>
-      <c r="F123" s="17"/>
+      <c r="A123" s="12"/>
+      <c r="F123" s="12"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
-      <c r="F124" s="17"/>
+      <c r="A124" s="12"/>
+      <c r="F124" s="12"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="17"/>
-      <c r="F125" s="17"/>
+      <c r="A125" s="12"/>
+      <c r="F125" s="12"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="17"/>
-      <c r="F126" s="17"/>
+      <c r="A126" s="12"/>
+      <c r="F126" s="12"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="17"/>
-      <c r="F127" s="17"/>
+      <c r="A127" s="12"/>
+      <c r="F127" s="12"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="17"/>
-      <c r="F128" s="17"/>
+      <c r="A128" s="12"/>
+      <c r="F128" s="12"/>
     </row>
     <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="17"/>
-      <c r="F129" s="17"/>
+      <c r="A129" s="12"/>
+      <c r="F129" s="12"/>
     </row>
     <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="17"/>
-      <c r="F130" s="17"/>
+      <c r="A130" s="12"/>
+      <c r="F130" s="12"/>
     </row>
     <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
-      <c r="F131" s="17"/>
+      <c r="A131" s="12"/>
+      <c r="F131" s="12"/>
     </row>
     <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="17"/>
-      <c r="F132" s="17"/>
+      <c r="A132" s="12"/>
+      <c r="F132" s="12"/>
     </row>
     <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="17"/>
-      <c r="F133" s="17"/>
+      <c r="A133" s="12"/>
+      <c r="F133" s="12"/>
     </row>
     <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="17"/>
-      <c r="F134" s="17"/>
+      <c r="A134" s="12"/>
+      <c r="F134" s="12"/>
     </row>
     <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="17"/>
-      <c r="F135" s="17"/>
+      <c r="A135" s="12"/>
+      <c r="F135" s="12"/>
     </row>
     <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
-      <c r="F136" s="17"/>
+      <c r="A136" s="12"/>
+      <c r="F136" s="12"/>
     </row>
     <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
-      <c r="F137" s="17"/>
+      <c r="A137" s="12"/>
+      <c r="F137" s="12"/>
     </row>
     <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="17"/>
-      <c r="F138" s="17"/>
+      <c r="A138" s="12"/>
+      <c r="F138" s="12"/>
     </row>
     <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="17"/>
-      <c r="F139" s="17"/>
+      <c r="A139" s="12"/>
+      <c r="F139" s="12"/>
     </row>
     <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="17"/>
-      <c r="F140" s="17"/>
+      <c r="A140" s="12"/>
+      <c r="F140" s="12"/>
     </row>
     <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="17"/>
-      <c r="F141" s="17"/>
+      <c r="A141" s="12"/>
+      <c r="F141" s="12"/>
     </row>
     <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="17"/>
-      <c r="F142" s="17"/>
+      <c r="A142" s="12"/>
+      <c r="F142" s="12"/>
     </row>
     <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="17"/>
-      <c r="F143" s="17"/>
+      <c r="A143" s="12"/>
+      <c r="F143" s="12"/>
     </row>
     <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="17"/>
-      <c r="F144" s="17"/>
+      <c r="A144" s="12"/>
+      <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="17"/>
-      <c r="F145" s="17"/>
+      <c r="A145" s="12"/>
+      <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="17"/>
-      <c r="F146" s="17"/>
+      <c r="A146" s="12"/>
+      <c r="F146" s="12"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
-      <c r="F147" s="17"/>
+      <c r="A147" s="12"/>
+      <c r="F147" s="12"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
-      <c r="F148" s="17"/>
+      <c r="A148" s="12"/>
+      <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="17"/>
-      <c r="F149" s="17"/>
+      <c r="A149" s="12"/>
+      <c r="F149" s="12"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="17"/>
-      <c r="F150" s="17"/>
+      <c r="A150" s="12"/>
+      <c r="F150" s="12"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
-      <c r="F151" s="17"/>
+      <c r="A151" s="12"/>
+      <c r="F151" s="12"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="17"/>
-      <c r="F152" s="17"/>
+      <c r="A152" s="12"/>
+      <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="17"/>
-      <c r="F153" s="17"/>
+      <c r="A153" s="12"/>
+      <c r="F153" s="12"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="17"/>
-      <c r="F154" s="17"/>
+      <c r="A154" s="12"/>
+      <c r="F154" s="12"/>
     </row>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="17"/>
-      <c r="F155" s="17"/>
+      <c r="A155" s="12"/>
+      <c r="F155" s="12"/>
     </row>
     <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="17"/>
-      <c r="F156" s="17"/>
+      <c r="A156" s="12"/>
+      <c r="F156" s="12"/>
     </row>
     <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="17"/>
-      <c r="F157" s="17"/>
+      <c r="A157" s="12"/>
+      <c r="F157" s="12"/>
     </row>
     <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="17"/>
-      <c r="F158" s="17"/>
+      <c r="A158" s="12"/>
+      <c r="F158" s="12"/>
     </row>
     <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="17"/>
-      <c r="F159" s="17"/>
+      <c r="A159" s="12"/>
+      <c r="F159" s="12"/>
     </row>
     <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="17"/>
-      <c r="F160" s="17"/>
+      <c r="A160" s="12"/>
+      <c r="F160" s="12"/>
     </row>
     <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="17"/>
-      <c r="F161" s="17"/>
+      <c r="A161" s="12"/>
+      <c r="F161" s="12"/>
     </row>
     <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="17"/>
-      <c r="F162" s="17"/>
+      <c r="A162" s="12"/>
+      <c r="F162" s="12"/>
     </row>
     <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="17"/>
-      <c r="F163" s="17"/>
+      <c r="A163" s="12"/>
+      <c r="F163" s="12"/>
     </row>
     <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="17"/>
-      <c r="F164" s="17"/>
+      <c r="A164" s="12"/>
+      <c r="F164" s="12"/>
     </row>
     <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="17"/>
-      <c r="F165" s="17"/>
+      <c r="A165" s="12"/>
+      <c r="F165" s="12"/>
     </row>
     <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="17"/>
-      <c r="F166" s="17"/>
+      <c r="A166" s="12"/>
+      <c r="F166" s="12"/>
     </row>
     <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="17"/>
-      <c r="F167" s="17"/>
+      <c r="A167" s="12"/>
+      <c r="F167" s="12"/>
     </row>
     <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="17"/>
-      <c r="F168" s="17"/>
+      <c r="A168" s="12"/>
+      <c r="F168" s="12"/>
     </row>
     <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="17"/>
-      <c r="F169" s="17"/>
+      <c r="A169" s="12"/>
+      <c r="F169" s="12"/>
     </row>
     <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="17"/>
-      <c r="F170" s="17"/>
+      <c r="A170" s="12"/>
+      <c r="F170" s="12"/>
     </row>
     <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="17"/>
-      <c r="F171" s="17"/>
+      <c r="A171" s="12"/>
+      <c r="F171" s="12"/>
     </row>
     <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="17"/>
-      <c r="F172" s="17"/>
+      <c r="A172" s="12"/>
+      <c r="F172" s="12"/>
     </row>
     <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="17"/>
-      <c r="F173" s="17"/>
+      <c r="A173" s="12"/>
+      <c r="F173" s="12"/>
     </row>
     <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="17"/>
-      <c r="F174" s="17"/>
+      <c r="A174" s="12"/>
+      <c r="F174" s="12"/>
     </row>
     <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="17"/>
-      <c r="F175" s="17"/>
+      <c r="A175" s="12"/>
+      <c r="F175" s="12"/>
     </row>
     <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="17"/>
-      <c r="F176" s="17"/>
+      <c r="A176" s="12"/>
+      <c r="F176" s="12"/>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="17"/>
-      <c r="F177" s="17"/>
+      <c r="A177" s="12"/>
+      <c r="F177" s="12"/>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="17"/>
-      <c r="F178" s="17"/>
+      <c r="A178" s="12"/>
+      <c r="F178" s="12"/>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="17"/>
-      <c r="F179" s="17"/>
+      <c r="A179" s="12"/>
+      <c r="F179" s="12"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="17"/>
-      <c r="F180" s="17"/>
+      <c r="A180" s="12"/>
+      <c r="F180" s="12"/>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="17"/>
-      <c r="F181" s="17"/>
+      <c r="A181" s="12"/>
+      <c r="F181" s="12"/>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="17"/>
-      <c r="F182" s="17"/>
+      <c r="A182" s="12"/>
+      <c r="F182" s="12"/>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="17"/>
-      <c r="F183" s="17"/>
+      <c r="A183" s="12"/>
+      <c r="F183" s="12"/>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="17"/>
-      <c r="F184" s="17"/>
+      <c r="A184" s="12"/>
+      <c r="F184" s="12"/>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="17"/>
-      <c r="F185" s="17"/>
+      <c r="A185" s="12"/>
+      <c r="F185" s="12"/>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="17"/>
-      <c r="F186" s="17"/>
+      <c r="A186" s="12"/>
+      <c r="F186" s="12"/>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="17"/>
-      <c r="F187" s="17"/>
+      <c r="A187" s="12"/>
+      <c r="F187" s="12"/>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="17"/>
-      <c r="F188" s="17"/>
+      <c r="A188" s="12"/>
+      <c r="F188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="17"/>
-      <c r="F189" s="17"/>
+      <c r="A189" s="12"/>
+      <c r="F189" s="12"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="17"/>
-      <c r="F190" s="17"/>
+      <c r="A190" s="12"/>
+      <c r="F190" s="12"/>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="17"/>
-      <c r="F191" s="17"/>
+      <c r="A191" s="12"/>
+      <c r="F191" s="12"/>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="17"/>
-      <c r="F192" s="17"/>
+      <c r="A192" s="12"/>
+      <c r="F192" s="12"/>
     </row>
     <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="17"/>
-      <c r="F193" s="17"/>
+      <c r="A193" s="12"/>
+      <c r="F193" s="12"/>
     </row>
     <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="17"/>
-      <c r="F194" s="17"/>
+      <c r="A194" s="12"/>
+      <c r="F194" s="12"/>
     </row>
     <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="17"/>
-      <c r="F195" s="17"/>
+      <c r="A195" s="12"/>
+      <c r="F195" s="12"/>
     </row>
     <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="17"/>
-      <c r="F196" s="17"/>
+      <c r="A196" s="12"/>
+      <c r="F196" s="12"/>
     </row>
     <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="17"/>
-      <c r="F197" s="17"/>
+      <c r="A197" s="12"/>
+      <c r="F197" s="12"/>
     </row>
     <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="17"/>
-      <c r="F198" s="17"/>
+      <c r="A198" s="12"/>
+      <c r="F198" s="12"/>
     </row>
     <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="17"/>
-      <c r="F199" s="17"/>
+      <c r="A199" s="12"/>
+      <c r="F199" s="12"/>
     </row>
     <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="17"/>
-      <c r="F200" s="17"/>
+      <c r="A200" s="12"/>
+      <c r="F200" s="12"/>
     </row>
     <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="17"/>
-      <c r="F201" s="17"/>
+      <c r="A201" s="12"/>
+      <c r="F201" s="12"/>
     </row>
     <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="17"/>
-      <c r="F202" s="17"/>
+      <c r="A202" s="12"/>
+      <c r="F202" s="12"/>
     </row>
     <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="17"/>
-      <c r="F203" s="17"/>
+      <c r="A203" s="12"/>
+      <c r="F203" s="12"/>
     </row>
     <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="17"/>
-      <c r="F204" s="17"/>
+      <c r="A204" s="12"/>
+      <c r="F204" s="12"/>
     </row>
     <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="17"/>
-      <c r="F205" s="17"/>
+      <c r="A205" s="12"/>
+      <c r="F205" s="12"/>
     </row>
     <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="17"/>
-      <c r="F206" s="17"/>
+      <c r="A206" s="12"/>
+      <c r="F206" s="12"/>
     </row>
     <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="17"/>
-      <c r="F207" s="17"/>
+      <c r="A207" s="12"/>
+      <c r="F207" s="12"/>
     </row>
     <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="17"/>
-      <c r="F208" s="17"/>
+      <c r="A208" s="12"/>
+      <c r="F208" s="12"/>
     </row>
     <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="17"/>
-      <c r="F209" s="17"/>
+      <c r="A209" s="12"/>
+      <c r="F209" s="12"/>
     </row>
     <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="17"/>
-      <c r="F210" s="17"/>
+      <c r="A210" s="12"/>
+      <c r="F210" s="12"/>
     </row>
     <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="17"/>
-      <c r="F211" s="17"/>
+      <c r="A211" s="12"/>
+      <c r="F211" s="12"/>
     </row>
     <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="17"/>
-      <c r="F212" s="17"/>
+      <c r="A212" s="12"/>
+      <c r="F212" s="12"/>
     </row>
     <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="17"/>
-      <c r="F213" s="17"/>
+      <c r="A213" s="12"/>
+      <c r="F213" s="12"/>
     </row>
     <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="17"/>
-      <c r="F214" s="17"/>
+      <c r="A214" s="12"/>
+      <c r="F214" s="12"/>
     </row>
     <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="17"/>
-      <c r="F215" s="17"/>
+      <c r="A215" s="12"/>
+      <c r="F215" s="12"/>
     </row>
     <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="17"/>
-      <c r="F216" s="17"/>
+      <c r="A216" s="12"/>
+      <c r="F216" s="12"/>
     </row>
     <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="17"/>
-      <c r="F217" s="17"/>
+      <c r="A217" s="12"/>
+      <c r="F217" s="12"/>
     </row>
     <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="17"/>
-      <c r="F218" s="17"/>
+      <c r="A218" s="12"/>
+      <c r="F218" s="12"/>
     </row>
     <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="17"/>
-      <c r="F219" s="17"/>
+      <c r="A219" s="12"/>
+      <c r="F219" s="12"/>
     </row>
     <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="17"/>
-      <c r="F220" s="17"/>
+      <c r="A220" s="12"/>
+      <c r="F220" s="12"/>
     </row>
     <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="17"/>
-      <c r="F221" s="17"/>
+      <c r="A221" s="12"/>
+      <c r="F221" s="12"/>
     </row>
     <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="17"/>
-      <c r="F222" s="17"/>
+      <c r="A222" s="12"/>
+      <c r="F222" s="12"/>
     </row>
     <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="17"/>
-      <c r="F223" s="17"/>
+      <c r="A223" s="12"/>
+      <c r="F223" s="12"/>
     </row>
     <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="17"/>
-      <c r="F224" s="17"/>
+      <c r="A224" s="12"/>
+      <c r="F224" s="12"/>
     </row>
     <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="17"/>
-      <c r="F225" s="17"/>
+      <c r="A225" s="12"/>
+      <c r="F225" s="12"/>
     </row>
     <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="17"/>
-      <c r="F226" s="17"/>
+      <c r="A226" s="12"/>
+      <c r="F226" s="12"/>
     </row>
     <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="17"/>
-      <c r="F227" s="17"/>
+      <c r="A227" s="12"/>
+      <c r="F227" s="12"/>
     </row>
     <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="17"/>
-      <c r="F228" s="17"/>
+      <c r="A228" s="12"/>
+      <c r="F228" s="12"/>
     </row>
     <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="17"/>
-      <c r="F229" s="17"/>
+      <c r="A229" s="12"/>
+      <c r="F229" s="12"/>
     </row>
     <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="17"/>
-      <c r="F230" s="17"/>
+      <c r="A230" s="12"/>
+      <c r="F230" s="12"/>
     </row>
     <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="17"/>
-      <c r="F231" s="17"/>
+      <c r="A231" s="12"/>
+      <c r="F231" s="12"/>
     </row>
     <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="17"/>
-      <c r="F232" s="17"/>
+      <c r="A232" s="12"/>
+      <c r="F232" s="12"/>
     </row>
     <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="17"/>
-      <c r="F233" s="17"/>
+      <c r="A233" s="12"/>
+      <c r="F233" s="12"/>
     </row>
     <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="17"/>
-      <c r="F234" s="17"/>
+      <c r="A234" s="12"/>
+      <c r="F234" s="12"/>
     </row>
     <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="17"/>
-      <c r="F235" s="17"/>
+      <c r="A235" s="12"/>
+      <c r="F235" s="12"/>
     </row>
     <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="17"/>
-      <c r="F236" s="17"/>
+      <c r="A236" s="12"/>
+      <c r="F236" s="12"/>
     </row>
     <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="17"/>
-      <c r="F237" s="17"/>
+      <c r="A237" s="12"/>
+      <c r="F237" s="12"/>
     </row>
     <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="17"/>
-      <c r="F238" s="17"/>
+      <c r="A238" s="12"/>
+      <c r="F238" s="12"/>
     </row>
     <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="17"/>
-      <c r="F239" s="17"/>
+      <c r="A239" s="12"/>
+      <c r="F239" s="12"/>
     </row>
     <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="17"/>
-      <c r="F240" s="17"/>
+      <c r="A240" s="12"/>
+      <c r="F240" s="12"/>
     </row>
     <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="17"/>
-      <c r="F241" s="17"/>
+      <c r="A241" s="12"/>
+      <c r="F241" s="12"/>
     </row>
     <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="17"/>
-      <c r="F242" s="17"/>
+      <c r="A242" s="12"/>
+      <c r="F242" s="12"/>
     </row>
     <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="17"/>
-      <c r="F243" s="17"/>
+      <c r="A243" s="12"/>
+      <c r="F243" s="12"/>
     </row>
     <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="17"/>
-      <c r="F244" s="17"/>
+      <c r="A244" s="12"/>
+      <c r="F244" s="12"/>
     </row>
     <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="17"/>
-      <c r="F245" s="17"/>
+      <c r="A245" s="12"/>
+      <c r="F245" s="12"/>
     </row>
     <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="17"/>
-      <c r="F246" s="17"/>
+      <c r="A246" s="12"/>
+      <c r="F246" s="12"/>
     </row>
     <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="17"/>
-      <c r="F247" s="17"/>
+      <c r="A247" s="12"/>
+      <c r="F247" s="12"/>
     </row>
     <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="17"/>
-      <c r="F248" s="17"/>
+      <c r="A248" s="12"/>
+      <c r="F248" s="12"/>
     </row>
     <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="17"/>
-      <c r="F249" s="17"/>
+      <c r="A249" s="12"/>
+      <c r="F249" s="12"/>
     </row>
     <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="17"/>
-      <c r="F250" s="17"/>
+      <c r="A250" s="12"/>
+      <c r="F250" s="12"/>
     </row>
     <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="17"/>
-      <c r="F251" s="17"/>
+      <c r="A251" s="12"/>
+      <c r="F251" s="12"/>
     </row>
     <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="17"/>
-      <c r="F252" s="17"/>
+      <c r="A252" s="12"/>
+      <c r="F252" s="12"/>
     </row>
     <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="17"/>
-      <c r="F253" s="17"/>
+      <c r="A253" s="12"/>
+      <c r="F253" s="12"/>
     </row>
     <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="17"/>
-      <c r="F254" s="17"/>
+      <c r="A254" s="12"/>
+      <c r="F254" s="12"/>
     </row>
     <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="17"/>
-      <c r="F255" s="17"/>
+      <c r="A255" s="12"/>
+      <c r="F255" s="12"/>
     </row>
     <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="17"/>
-      <c r="F256" s="17"/>
+      <c r="A256" s="12"/>
+      <c r="F256" s="12"/>
     </row>
     <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="17"/>
-      <c r="F257" s="17"/>
+      <c r="A257" s="12"/>
+      <c r="F257" s="12"/>
     </row>
     <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="17"/>
-      <c r="F258" s="17"/>
+      <c r="A258" s="12"/>
+      <c r="F258" s="12"/>
     </row>
     <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="17"/>
-      <c r="F259" s="17"/>
+      <c r="A259" s="12"/>
+      <c r="F259" s="12"/>
     </row>
     <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="17"/>
-      <c r="F260" s="17"/>
+      <c r="A260" s="12"/>
+      <c r="F260" s="12"/>
     </row>
     <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="17"/>
-      <c r="F261" s="17"/>
+      <c r="A261" s="12"/>
+      <c r="F261" s="12"/>
     </row>
     <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="17"/>
-      <c r="F262" s="17"/>
+      <c r="A262" s="12"/>
+      <c r="F262" s="12"/>
     </row>
     <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="17"/>
-      <c r="F263" s="17"/>
+      <c r="A263" s="12"/>
+      <c r="F263" s="12"/>
     </row>
     <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="17"/>
-      <c r="F264" s="17"/>
+      <c r="A264" s="12"/>
+      <c r="F264" s="12"/>
     </row>
     <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="17"/>
-      <c r="F265" s="17"/>
+      <c r="A265" s="12"/>
+      <c r="F265" s="12"/>
     </row>
     <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="17"/>
-      <c r="F266" s="17"/>
+      <c r="A266" s="12"/>
+      <c r="F266" s="12"/>
     </row>
     <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="17"/>
-      <c r="F267" s="17"/>
+      <c r="A267" s="12"/>
+      <c r="F267" s="12"/>
     </row>
     <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="17"/>
-      <c r="F268" s="17"/>
+      <c r="A268" s="12"/>
+      <c r="F268" s="12"/>
     </row>
     <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="17"/>
-      <c r="F269" s="17"/>
+      <c r="A269" s="12"/>
+      <c r="F269" s="12"/>
     </row>
     <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="17"/>
-      <c r="F270" s="17"/>
+      <c r="A270" s="12"/>
+      <c r="F270" s="12"/>
     </row>
     <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="17"/>
-      <c r="F271" s="17"/>
+      <c r="A271" s="12"/>
+      <c r="F271" s="12"/>
     </row>
     <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="17"/>
-      <c r="F272" s="17"/>
+      <c r="A272" s="12"/>
+      <c r="F272" s="12"/>
     </row>
     <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="17"/>
-      <c r="F273" s="17"/>
+      <c r="A273" s="12"/>
+      <c r="F273" s="12"/>
     </row>
     <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="17"/>
-      <c r="F274" s="17"/>
+      <c r="A274" s="12"/>
+      <c r="F274" s="12"/>
     </row>
     <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="17"/>
-      <c r="F275" s="17"/>
+      <c r="A275" s="12"/>
+      <c r="F275" s="12"/>
     </row>
     <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="17"/>
-      <c r="F276" s="17"/>
+      <c r="A276" s="12"/>
+      <c r="F276" s="12"/>
     </row>
     <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="17"/>
-      <c r="F277" s="17"/>
+      <c r="A277" s="12"/>
+      <c r="F277" s="12"/>
     </row>
     <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="17"/>
-      <c r="F278" s="17"/>
+      <c r="A278" s="12"/>
+      <c r="F278" s="12"/>
     </row>
     <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="17"/>
-      <c r="F279" s="17"/>
+      <c r="A279" s="12"/>
+      <c r="F279" s="12"/>
     </row>
     <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="17"/>
-      <c r="F280" s="17"/>
+      <c r="A280" s="12"/>
+      <c r="F280" s="12"/>
     </row>
     <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="17"/>
-      <c r="F281" s="17"/>
+      <c r="A281" s="12"/>
+      <c r="F281" s="12"/>
     </row>
     <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="17"/>
-      <c r="F282" s="17"/>
+      <c r="A282" s="12"/>
+      <c r="F282" s="12"/>
     </row>
     <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="17"/>
-      <c r="F283" s="17"/>
+      <c r="A283" s="12"/>
+      <c r="F283" s="12"/>
     </row>
     <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="17"/>
-      <c r="F284" s="17"/>
+      <c r="A284" s="12"/>
+      <c r="F284" s="12"/>
     </row>
     <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="17"/>
-      <c r="F285" s="17"/>
+      <c r="A285" s="12"/>
+      <c r="F285" s="12"/>
     </row>
     <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="17"/>
-      <c r="F286" s="17"/>
+      <c r="A286" s="12"/>
+      <c r="F286" s="12"/>
     </row>
     <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="17"/>
-      <c r="F287" s="17"/>
+      <c r="A287" s="12"/>
+      <c r="F287" s="12"/>
     </row>
     <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="17"/>
-      <c r="F288" s="17"/>
+      <c r="A288" s="12"/>
+      <c r="F288" s="12"/>
     </row>
     <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="17"/>
-      <c r="F289" s="17"/>
+      <c r="A289" s="12"/>
+      <c r="F289" s="12"/>
     </row>
     <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="17"/>
-      <c r="F290" s="17"/>
+      <c r="A290" s="12"/>
+      <c r="F290" s="12"/>
     </row>
     <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="17"/>
-      <c r="F291" s="17"/>
+      <c r="A291" s="12"/>
+      <c r="F291" s="12"/>
     </row>
     <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="17"/>
-      <c r="F292" s="17"/>
+      <c r="A292" s="12"/>
+      <c r="F292" s="12"/>
     </row>
     <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="17"/>
-      <c r="F293" s="17"/>
+      <c r="A293" s="12"/>
+      <c r="F293" s="12"/>
     </row>
     <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="17"/>
-      <c r="F294" s="17"/>
+      <c r="A294" s="12"/>
+      <c r="F294" s="12"/>
     </row>
     <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="17"/>
-      <c r="F295" s="17"/>
+      <c r="A295" s="12"/>
+      <c r="F295" s="12"/>
     </row>
     <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="17"/>
-      <c r="F296" s="17"/>
+      <c r="A296" s="12"/>
+      <c r="F296" s="12"/>
     </row>
     <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="17"/>
-      <c r="F297" s="17"/>
+      <c r="A297" s="12"/>
+      <c r="F297" s="12"/>
     </row>
     <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="17"/>
-      <c r="F298" s="17"/>
+      <c r="A298" s="12"/>
+      <c r="F298" s="12"/>
     </row>
     <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="17"/>
-      <c r="F299" s="17"/>
+      <c r="A299" s="12"/>
+      <c r="F299" s="12"/>
     </row>
     <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="17"/>
-      <c r="F300" s="17"/>
+      <c r="A300" s="12"/>
+      <c r="F300" s="12"/>
     </row>
     <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="17"/>
-      <c r="F301" s="17"/>
+      <c r="A301" s="12"/>
+      <c r="F301" s="12"/>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="17"/>
-      <c r="F302" s="17"/>
+      <c r="A302" s="12"/>
+      <c r="F302" s="12"/>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="17"/>
-      <c r="F303" s="17"/>
+      <c r="A303" s="12"/>
+      <c r="F303" s="12"/>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="17"/>
-      <c r="F304" s="17"/>
+      <c r="A304" s="12"/>
+      <c r="F304" s="12"/>
     </row>
     <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="17"/>
-      <c r="F305" s="17"/>
+      <c r="A305" s="12"/>
+      <c r="F305" s="12"/>
     </row>
     <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="17"/>
-      <c r="F306" s="17"/>
+      <c r="A306" s="12"/>
+      <c r="F306" s="12"/>
     </row>
     <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="17"/>
-      <c r="F307" s="17"/>
+      <c r="A307" s="12"/>
+      <c r="F307" s="12"/>
     </row>
     <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="17"/>
-      <c r="F308" s="17"/>
+      <c r="A308" s="12"/>
+      <c r="F308" s="12"/>
     </row>
     <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="17"/>
-      <c r="F309" s="17"/>
+      <c r="A309" s="12"/>
+      <c r="F309" s="12"/>
     </row>
     <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="17"/>
-      <c r="F310" s="17"/>
+      <c r="A310" s="12"/>
+      <c r="F310" s="12"/>
     </row>
     <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="17"/>
-      <c r="F311" s="17"/>
+      <c r="A311" s="12"/>
+      <c r="F311" s="12"/>
     </row>
     <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="17"/>
-      <c r="F312" s="17"/>
+      <c r="A312" s="12"/>
+      <c r="F312" s="12"/>
     </row>
     <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="17"/>
-      <c r="F313" s="17"/>
+      <c r="A313" s="12"/>
+      <c r="F313" s="12"/>
     </row>
     <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="17"/>
-      <c r="F314" s="17"/>
+      <c r="A314" s="12"/>
+      <c r="F314" s="12"/>
     </row>
     <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="17"/>
-      <c r="F315" s="17"/>
+      <c r="A315" s="12"/>
+      <c r="F315" s="12"/>
     </row>
     <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="17"/>
-      <c r="F316" s="17"/>
+      <c r="A316" s="12"/>
+      <c r="F316" s="12"/>
     </row>
     <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="17"/>
-      <c r="F317" s="17"/>
+      <c r="A317" s="12"/>
+      <c r="F317" s="12"/>
     </row>
     <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="17"/>
-      <c r="F318" s="17"/>
+      <c r="A318" s="12"/>
+      <c r="F318" s="12"/>
     </row>
     <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="17"/>
-      <c r="F319" s="17"/>
+      <c r="A319" s="12"/>
+      <c r="F319" s="12"/>
     </row>
     <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="17"/>
-      <c r="F320" s="17"/>
+      <c r="A320" s="12"/>
+      <c r="F320" s="12"/>
     </row>
     <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="17"/>
-      <c r="F321" s="17"/>
+      <c r="A321" s="12"/>
+      <c r="F321" s="12"/>
     </row>
     <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="17"/>
-      <c r="F322" s="17"/>
+      <c r="A322" s="12"/>
+      <c r="F322" s="12"/>
     </row>
     <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="17"/>
-      <c r="F323" s="17"/>
+      <c r="A323" s="12"/>
+      <c r="F323" s="12"/>
     </row>
     <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="17"/>
-      <c r="F324" s="17"/>
+      <c r="A324" s="12"/>
+      <c r="F324" s="12"/>
     </row>
     <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="17"/>
-      <c r="F325" s="17"/>
+      <c r="A325" s="12"/>
+      <c r="F325" s="12"/>
     </row>
     <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="17"/>
-      <c r="F326" s="17"/>
+      <c r="A326" s="12"/>
+      <c r="F326" s="12"/>
     </row>
     <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="17"/>
-      <c r="F327" s="17"/>
+      <c r="A327" s="12"/>
+      <c r="F327" s="12"/>
     </row>
     <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="17"/>
-      <c r="F328" s="17"/>
+      <c r="A328" s="12"/>
+      <c r="F328" s="12"/>
     </row>
     <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="17"/>
-      <c r="F329" s="17"/>
+      <c r="A329" s="12"/>
+      <c r="F329" s="12"/>
     </row>
     <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="17"/>
-      <c r="F330" s="17"/>
+      <c r="A330" s="12"/>
+      <c r="F330" s="12"/>
     </row>
     <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="17"/>
-      <c r="F331" s="17"/>
+      <c r="A331" s="12"/>
+      <c r="F331" s="12"/>
     </row>
     <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="17"/>
-      <c r="F332" s="17"/>
+      <c r="A332" s="12"/>
+      <c r="F332" s="12"/>
     </row>
     <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="17"/>
-      <c r="F333" s="17"/>
+      <c r="A333" s="12"/>
+      <c r="F333" s="12"/>
     </row>
     <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="17"/>
-      <c r="F334" s="17"/>
+      <c r="A334" s="12"/>
+      <c r="F334" s="12"/>
     </row>
     <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="17"/>
-      <c r="F335" s="17"/>
+      <c r="A335" s="12"/>
+      <c r="F335" s="12"/>
     </row>
     <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="17"/>
-      <c r="F336" s="17"/>
+      <c r="A336" s="12"/>
+      <c r="F336" s="12"/>
     </row>
     <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="17"/>
-      <c r="F337" s="17"/>
+      <c r="A337" s="12"/>
+      <c r="F337" s="12"/>
     </row>
     <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="17"/>
-      <c r="F338" s="17"/>
+      <c r="A338" s="12"/>
+      <c r="F338" s="12"/>
     </row>
     <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="17"/>
-      <c r="F339" s="17"/>
+      <c r="A339" s="12"/>
+      <c r="F339" s="12"/>
     </row>
     <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="17"/>
-      <c r="F340" s="17"/>
+      <c r="A340" s="12"/>
+      <c r="F340" s="12"/>
     </row>
     <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="17"/>
-      <c r="F341" s="17"/>
+      <c r="A341" s="12"/>
+      <c r="F341" s="12"/>
     </row>
     <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="17"/>
-      <c r="F342" s="17"/>
+      <c r="A342" s="12"/>
+      <c r="F342" s="12"/>
     </row>
     <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="17"/>
-      <c r="F343" s="17"/>
+      <c r="A343" s="12"/>
+      <c r="F343" s="12"/>
     </row>
     <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="17"/>
-      <c r="F344" s="17"/>
+      <c r="A344" s="12"/>
+      <c r="F344" s="12"/>
     </row>
     <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="17"/>
-      <c r="F345" s="17"/>
+      <c r="A345" s="12"/>
+      <c r="F345" s="12"/>
     </row>
     <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="17"/>
-      <c r="F346" s="17"/>
+      <c r="A346" s="12"/>
+      <c r="F346" s="12"/>
     </row>
     <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="17"/>
-      <c r="F347" s="17"/>
+      <c r="A347" s="12"/>
+      <c r="F347" s="12"/>
     </row>
     <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="17"/>
-      <c r="F348" s="17"/>
+      <c r="A348" s="12"/>
+      <c r="F348" s="12"/>
     </row>
     <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="17"/>
-      <c r="F349" s="17"/>
+      <c r="A349" s="12"/>
+      <c r="F349" s="12"/>
     </row>
     <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="17"/>
-      <c r="F350" s="17"/>
+      <c r="A350" s="12"/>
+      <c r="F350" s="12"/>
     </row>
     <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="17"/>
-      <c r="F351" s="17"/>
+      <c r="A351" s="12"/>
+      <c r="F351" s="12"/>
     </row>
     <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="17"/>
-      <c r="F352" s="17"/>
+      <c r="A352" s="12"/>
+      <c r="F352" s="12"/>
     </row>
     <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="17"/>
-      <c r="F353" s="17"/>
+      <c r="A353" s="12"/>
+      <c r="F353" s="12"/>
     </row>
     <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="17"/>
-      <c r="F354" s="17"/>
+      <c r="A354" s="12"/>
+      <c r="F354" s="12"/>
     </row>
     <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="17"/>
-      <c r="F355" s="17"/>
+      <c r="A355" s="12"/>
+      <c r="F355" s="12"/>
     </row>
     <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="17"/>
-      <c r="F356" s="17"/>
+      <c r="A356" s="12"/>
+      <c r="F356" s="12"/>
     </row>
     <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="17"/>
-      <c r="F357" s="17"/>
+      <c r="A357" s="12"/>
+      <c r="F357" s="12"/>
     </row>
     <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="17"/>
-      <c r="F358" s="17"/>
+      <c r="A358" s="12"/>
+      <c r="F358" s="12"/>
     </row>
     <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="17"/>
-      <c r="F359" s="17"/>
+      <c r="A359" s="12"/>
+      <c r="F359" s="12"/>
     </row>
     <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="17"/>
-      <c r="F360" s="17"/>
+      <c r="A360" s="12"/>
+      <c r="F360" s="12"/>
     </row>
     <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="17"/>
-      <c r="F361" s="17"/>
+      <c r="A361" s="12"/>
+      <c r="F361" s="12"/>
     </row>
     <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="17"/>
-      <c r="F362" s="17"/>
+      <c r="A362" s="12"/>
+      <c r="F362" s="12"/>
     </row>
     <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="17"/>
-      <c r="F363" s="17"/>
+      <c r="A363" s="12"/>
+      <c r="F363" s="12"/>
     </row>
     <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="17"/>
-      <c r="F364" s="17"/>
+      <c r="A364" s="12"/>
+      <c r="F364" s="12"/>
     </row>
     <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="17"/>
-      <c r="F365" s="17"/>
+      <c r="A365" s="12"/>
+      <c r="F365" s="12"/>
     </row>
     <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="17"/>
-      <c r="F366" s="17"/>
+      <c r="A366" s="12"/>
+      <c r="F366" s="12"/>
     </row>
     <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="17"/>
-      <c r="F367" s="17"/>
+      <c r="A367" s="12"/>
+      <c r="F367" s="12"/>
     </row>
     <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="17"/>
-      <c r="F368" s="17"/>
+      <c r="A368" s="12"/>
+      <c r="F368" s="12"/>
     </row>
     <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="17"/>
-      <c r="F369" s="17"/>
+      <c r="A369" s="12"/>
+      <c r="F369" s="12"/>
     </row>
     <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="17"/>
-      <c r="F370" s="17"/>
+      <c r="A370" s="12"/>
+      <c r="F370" s="12"/>
     </row>
     <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="17"/>
-      <c r="F371" s="17"/>
+      <c r="A371" s="12"/>
+      <c r="F371" s="12"/>
     </row>
     <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="17"/>
-      <c r="F372" s="17"/>
+      <c r="A372" s="12"/>
+      <c r="F372" s="12"/>
     </row>
     <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="17"/>
-      <c r="F373" s="17"/>
+      <c r="A373" s="12"/>
+      <c r="F373" s="12"/>
     </row>
     <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="17"/>
-      <c r="F374" s="17"/>
+      <c r="A374" s="12"/>
+      <c r="F374" s="12"/>
     </row>
     <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="17"/>
-      <c r="F375" s="17"/>
+      <c r="A375" s="12"/>
+      <c r="F375" s="12"/>
     </row>
     <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="17"/>
-      <c r="F376" s="17"/>
+      <c r="A376" s="12"/>
+      <c r="F376" s="12"/>
     </row>
     <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="17"/>
-      <c r="F377" s="17"/>
+      <c r="A377" s="12"/>
+      <c r="F377" s="12"/>
     </row>
     <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="17"/>
-      <c r="F378" s="17"/>
+      <c r="A378" s="12"/>
+      <c r="F378" s="12"/>
     </row>
     <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="17"/>
-      <c r="F379" s="17"/>
+      <c r="A379" s="12"/>
+      <c r="F379" s="12"/>
     </row>
     <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="17"/>
-      <c r="F380" s="17"/>
+      <c r="A380" s="12"/>
+      <c r="F380" s="12"/>
     </row>
     <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="17"/>
-      <c r="F381" s="17"/>
+      <c r="A381" s="12"/>
+      <c r="F381" s="12"/>
     </row>
     <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="17"/>
-      <c r="F382" s="17"/>
+      <c r="A382" s="12"/>
+      <c r="F382" s="12"/>
     </row>
     <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="17"/>
-      <c r="F383" s="17"/>
+      <c r="A383" s="12"/>
+      <c r="F383" s="12"/>
     </row>
     <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="17"/>
-      <c r="F384" s="17"/>
+      <c r="A384" s="12"/>
+      <c r="F384" s="12"/>
     </row>
     <row r="385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="17"/>
-      <c r="F385" s="17"/>
+      <c r="A385" s="12"/>
+      <c r="F385" s="12"/>
     </row>
     <row r="386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="17"/>
-      <c r="F386" s="17"/>
+      <c r="A386" s="12"/>
+      <c r="F386" s="12"/>
     </row>
     <row r="387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="17"/>
-      <c r="F387" s="17"/>
+      <c r="A387" s="12"/>
+      <c r="F387" s="12"/>
     </row>
     <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="17"/>
-      <c r="F388" s="17"/>
+      <c r="A388" s="12"/>
+      <c r="F388" s="12"/>
     </row>
     <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="17"/>
-      <c r="F389" s="17"/>
+      <c r="A389" s="12"/>
+      <c r="F389" s="12"/>
     </row>
     <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="17"/>
-      <c r="F390" s="17"/>
+      <c r="A390" s="12"/>
+      <c r="F390" s="12"/>
     </row>
     <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="17"/>
-      <c r="F391" s="17"/>
+      <c r="A391" s="12"/>
+      <c r="F391" s="12"/>
     </row>
     <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="17"/>
-      <c r="F392" s="17"/>
+      <c r="A392" s="12"/>
+      <c r="F392" s="12"/>
     </row>
     <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="17"/>
-      <c r="F393" s="17"/>
+      <c r="A393" s="12"/>
+      <c r="F393" s="12"/>
     </row>
     <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="17"/>
-      <c r="F394" s="17"/>
+      <c r="A394" s="12"/>
+      <c r="F394" s="12"/>
     </row>
     <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="17"/>
-      <c r="F395" s="17"/>
+      <c r="A395" s="12"/>
+      <c r="F395" s="12"/>
     </row>
     <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="17"/>
-      <c r="F396" s="17"/>
+      <c r="A396" s="12"/>
+      <c r="F396" s="12"/>
     </row>
     <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="17"/>
-      <c r="F397" s="17"/>
+      <c r="A397" s="12"/>
+      <c r="F397" s="12"/>
     </row>
     <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="17"/>
-      <c r="F398" s="17"/>
+      <c r="A398" s="12"/>
+      <c r="F398" s="12"/>
     </row>
     <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="17"/>
-      <c r="F399" s="17"/>
+      <c r="A399" s="12"/>
+      <c r="F399" s="12"/>
     </row>
     <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="17"/>
-      <c r="F400" s="17"/>
+      <c r="A400" s="12"/>
+      <c r="F400" s="12"/>
     </row>
     <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="17"/>
-      <c r="F401" s="17"/>
+      <c r="A401" s="12"/>
+      <c r="F401" s="12"/>
     </row>
     <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="17"/>
-      <c r="F402" s="17"/>
+      <c r="A402" s="12"/>
+      <c r="F402" s="12"/>
     </row>
     <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="17"/>
-      <c r="F403" s="17"/>
+      <c r="A403" s="12"/>
+      <c r="F403" s="12"/>
     </row>
     <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="17"/>
-      <c r="F404" s="17"/>
+      <c r="A404" s="12"/>
+      <c r="F404" s="12"/>
     </row>
     <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="17"/>
-      <c r="F405" s="17"/>
+      <c r="A405" s="12"/>
+      <c r="F405" s="12"/>
     </row>
     <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="17"/>
-      <c r="F406" s="17"/>
+      <c r="A406" s="12"/>
+      <c r="F406" s="12"/>
     </row>
     <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="17"/>
-      <c r="F407" s="17"/>
+      <c r="A407" s="12"/>
+      <c r="F407" s="12"/>
     </row>
     <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="17"/>
-      <c r="F408" s="17"/>
+      <c r="A408" s="12"/>
+      <c r="F408" s="12"/>
     </row>
     <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="17"/>
-      <c r="F409" s="17"/>
+      <c r="A409" s="12"/>
+      <c r="F409" s="12"/>
     </row>
     <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="17"/>
-      <c r="F410" s="17"/>
+      <c r="A410" s="12"/>
+      <c r="F410" s="12"/>
     </row>
     <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="17"/>
-      <c r="F411" s="17"/>
+      <c r="A411" s="12"/>
+      <c r="F411" s="12"/>
     </row>
     <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="17"/>
-      <c r="F412" s="17"/>
+      <c r="A412" s="12"/>
+      <c r="F412" s="12"/>
     </row>
     <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="17"/>
-      <c r="F413" s="17"/>
+      <c r="A413" s="12"/>
+      <c r="F413" s="12"/>
     </row>
     <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="17"/>
-      <c r="F414" s="17"/>
+      <c r="A414" s="12"/>
+      <c r="F414" s="12"/>
     </row>
     <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="17"/>
-      <c r="F415" s="17"/>
+      <c r="A415" s="12"/>
+      <c r="F415" s="12"/>
     </row>
     <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="17"/>
-      <c r="F416" s="17"/>
+      <c r="A416" s="12"/>
+      <c r="F416" s="12"/>
     </row>
     <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="17"/>
-      <c r="F417" s="17"/>
+      <c r="A417" s="12"/>
+      <c r="F417" s="12"/>
     </row>
     <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="17"/>
-      <c r="F418" s="17"/>
+      <c r="A418" s="12"/>
+      <c r="F418" s="12"/>
     </row>
     <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="17"/>
-      <c r="F419" s="17"/>
+      <c r="A419" s="12"/>
+      <c r="F419" s="12"/>
     </row>
     <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="17"/>
-      <c r="F420" s="17"/>
+      <c r="A420" s="12"/>
+      <c r="F420" s="12"/>
     </row>
     <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="17"/>
-      <c r="F421" s="17"/>
+      <c r="A421" s="12"/>
+      <c r="F421" s="12"/>
     </row>
     <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="17"/>
-      <c r="F422" s="17"/>
+      <c r="A422" s="12"/>
+      <c r="F422" s="12"/>
     </row>
     <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="17"/>
-      <c r="F423" s="17"/>
+      <c r="A423" s="12"/>
+      <c r="F423" s="12"/>
     </row>
     <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="17"/>
-      <c r="F424" s="17"/>
+      <c r="A424" s="12"/>
+      <c r="F424" s="12"/>
     </row>
     <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="17"/>
-      <c r="F425" s="17"/>
+      <c r="A425" s="12"/>
+      <c r="F425" s="12"/>
     </row>
     <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="17"/>
-      <c r="F426" s="17"/>
+      <c r="A426" s="12"/>
+      <c r="F426" s="12"/>
     </row>
     <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="17"/>
-      <c r="F427" s="17"/>
+      <c r="A427" s="12"/>
+      <c r="F427" s="12"/>
     </row>
     <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="17"/>
-      <c r="F428" s="17"/>
+      <c r="A428" s="12"/>
+      <c r="F428" s="12"/>
     </row>
     <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="17"/>
-      <c r="F429" s="17"/>
+      <c r="A429" s="12"/>
+      <c r="F429" s="12"/>
     </row>
     <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="17"/>
-      <c r="F430" s="17"/>
+      <c r="A430" s="12"/>
+      <c r="F430" s="12"/>
     </row>
     <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="17"/>
-      <c r="F431" s="17"/>
+      <c r="A431" s="12"/>
+      <c r="F431" s="12"/>
     </row>
     <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="17"/>
-      <c r="F432" s="17"/>
+      <c r="A432" s="12"/>
+      <c r="F432" s="12"/>
     </row>
     <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="17"/>
-      <c r="F433" s="17"/>
+      <c r="A433" s="12"/>
+      <c r="F433" s="12"/>
     </row>
     <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="17"/>
-      <c r="F434" s="17"/>
+      <c r="A434" s="12"/>
+      <c r="F434" s="12"/>
     </row>
     <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="17"/>
-      <c r="F435" s="17"/>
+      <c r="A435" s="12"/>
+      <c r="F435" s="12"/>
     </row>
     <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="17"/>
-      <c r="F436" s="17"/>
+      <c r="A436" s="12"/>
+      <c r="F436" s="12"/>
     </row>
     <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="17"/>
-      <c r="F437" s="17"/>
+      <c r="A437" s="12"/>
+      <c r="F437" s="12"/>
     </row>
     <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="17"/>
-      <c r="F438" s="17"/>
+      <c r="A438" s="12"/>
+      <c r="F438" s="12"/>
     </row>
     <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="17"/>
-      <c r="F439" s="17"/>
+      <c r="A439" s="12"/>
+      <c r="F439" s="12"/>
     </row>
     <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="17"/>
-      <c r="F440" s="17"/>
+      <c r="A440" s="12"/>
+      <c r="F440" s="12"/>
     </row>
     <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="17"/>
-      <c r="F441" s="17"/>
+      <c r="A441" s="12"/>
+      <c r="F441" s="12"/>
     </row>
     <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="17"/>
-      <c r="F442" s="17"/>
+      <c r="A442" s="12"/>
+      <c r="F442" s="12"/>
     </row>
     <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="17"/>
-      <c r="F443" s="17"/>
+      <c r="A443" s="12"/>
+      <c r="F443" s="12"/>
     </row>
     <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="17"/>
-      <c r="F444" s="17"/>
+      <c r="A444" s="12"/>
+      <c r="F444" s="12"/>
     </row>
     <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="17"/>
-      <c r="F445" s="17"/>
+      <c r="A445" s="12"/>
+      <c r="F445" s="12"/>
     </row>
     <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="17"/>
-      <c r="F446" s="17"/>
+      <c r="A446" s="12"/>
+      <c r="F446" s="12"/>
     </row>
     <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="17"/>
-      <c r="F447" s="17"/>
+      <c r="A447" s="12"/>
+      <c r="F447" s="12"/>
     </row>
     <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="17"/>
-      <c r="F448" s="17"/>
+      <c r="A448" s="12"/>
+      <c r="F448" s="12"/>
     </row>
     <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="17"/>
-      <c r="F449" s="17"/>
+      <c r="A449" s="12"/>
+      <c r="F449" s="12"/>
     </row>
     <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="17"/>
-      <c r="F450" s="17"/>
+      <c r="A450" s="12"/>
+      <c r="F450" s="12"/>
     </row>
     <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="17"/>
-      <c r="F451" s="17"/>
+      <c r="A451" s="12"/>
+      <c r="F451" s="12"/>
     </row>
     <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="17"/>
-      <c r="F452" s="17"/>
+      <c r="A452" s="12"/>
+      <c r="F452" s="12"/>
     </row>
     <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="17"/>
-      <c r="F453" s="17"/>
+      <c r="A453" s="12"/>
+      <c r="F453" s="12"/>
     </row>
     <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="17"/>
-      <c r="F454" s="17"/>
+      <c r="A454" s="12"/>
+      <c r="F454" s="12"/>
     </row>
     <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="17"/>
-      <c r="F455" s="17"/>
+      <c r="A455" s="12"/>
+      <c r="F455" s="12"/>
     </row>
     <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="17"/>
-      <c r="F456" s="17"/>
+      <c r="A456" s="12"/>
+      <c r="F456" s="12"/>
     </row>
     <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="17"/>
-      <c r="F457" s="17"/>
+      <c r="A457" s="12"/>
+      <c r="F457" s="12"/>
     </row>
     <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="17"/>
-      <c r="F458" s="17"/>
+      <c r="A458" s="12"/>
+      <c r="F458" s="12"/>
     </row>
     <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="17"/>
-      <c r="F459" s="17"/>
+      <c r="A459" s="12"/>
+      <c r="F459" s="12"/>
     </row>
     <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="17"/>
-      <c r="F460" s="17"/>
+      <c r="A460" s="12"/>
+      <c r="F460" s="12"/>
     </row>
     <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="17"/>
-      <c r="F461" s="17"/>
+      <c r="A461" s="12"/>
+      <c r="F461" s="12"/>
     </row>
     <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="17"/>
-      <c r="F462" s="17"/>
+      <c r="A462" s="12"/>
+      <c r="F462" s="12"/>
     </row>
     <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="17"/>
-      <c r="F463" s="17"/>
+      <c r="A463" s="12"/>
+      <c r="F463" s="12"/>
     </row>
     <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="17"/>
-      <c r="F464" s="17"/>
+      <c r="A464" s="12"/>
+      <c r="F464" s="12"/>
     </row>
     <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="17"/>
-      <c r="F465" s="17"/>
+      <c r="A465" s="12"/>
+      <c r="F465" s="12"/>
     </row>
     <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="17"/>
-      <c r="F466" s="17"/>
+      <c r="A466" s="12"/>
+      <c r="F466" s="12"/>
     </row>
     <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="17"/>
-      <c r="F467" s="17"/>
+      <c r="A467" s="12"/>
+      <c r="F467" s="12"/>
     </row>
     <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="17"/>
-      <c r="F468" s="17"/>
+      <c r="A468" s="12"/>
+      <c r="F468" s="12"/>
     </row>
     <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="17"/>
-      <c r="F469" s="17"/>
+      <c r="A469" s="12"/>
+      <c r="F469" s="12"/>
     </row>
     <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="17"/>
-      <c r="F470" s="17"/>
+      <c r="A470" s="12"/>
+      <c r="F470" s="12"/>
     </row>
     <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="17"/>
-      <c r="F471" s="17"/>
+      <c r="A471" s="12"/>
+      <c r="F471" s="12"/>
     </row>
     <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="17"/>
-      <c r="F472" s="17"/>
+      <c r="A472" s="12"/>
+      <c r="F472" s="12"/>
     </row>
     <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="17"/>
-      <c r="F473" s="17"/>
+      <c r="A473" s="12"/>
+      <c r="F473" s="12"/>
     </row>
     <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="17"/>
-      <c r="F474" s="17"/>
+      <c r="A474" s="12"/>
+      <c r="F474" s="12"/>
     </row>
     <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="17"/>
-      <c r="F475" s="17"/>
+      <c r="A475" s="12"/>
+      <c r="F475" s="12"/>
     </row>
     <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="17"/>
-      <c r="F476" s="17"/>
+      <c r="A476" s="12"/>
+      <c r="F476" s="12"/>
     </row>
     <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="17"/>
-      <c r="F477" s="17"/>
+      <c r="A477" s="12"/>
+      <c r="F477" s="12"/>
     </row>
     <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="17"/>
-      <c r="F478" s="17"/>
+      <c r="A478" s="12"/>
+      <c r="F478" s="12"/>
     </row>
     <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="17"/>
-      <c r="F479" s="17"/>
+      <c r="A479" s="12"/>
+      <c r="F479" s="12"/>
     </row>
     <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="17"/>
-      <c r="F480" s="17"/>
+      <c r="A480" s="12"/>
+      <c r="F480" s="12"/>
     </row>
     <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="17"/>
-      <c r="F481" s="17"/>
+      <c r="A481" s="12"/>
+      <c r="F481" s="12"/>
     </row>
     <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="17"/>
-      <c r="F482" s="17"/>
+      <c r="A482" s="12"/>
+      <c r="F482" s="12"/>
     </row>
     <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="17"/>
-      <c r="F483" s="17"/>
+      <c r="A483" s="12"/>
+      <c r="F483" s="12"/>
     </row>
     <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="17"/>
-      <c r="F484" s="17"/>
+      <c r="A484" s="12"/>
+      <c r="F484" s="12"/>
     </row>
     <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="17"/>
-      <c r="F485" s="17"/>
+      <c r="A485" s="12"/>
+      <c r="F485" s="12"/>
     </row>
     <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="17"/>
-      <c r="F486" s="17"/>
+      <c r="A486" s="12"/>
+      <c r="F486" s="12"/>
     </row>
     <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="17"/>
-      <c r="F487" s="17"/>
+      <c r="A487" s="12"/>
+      <c r="F487" s="12"/>
     </row>
     <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="17"/>
-      <c r="F488" s="17"/>
+      <c r="A488" s="12"/>
+      <c r="F488" s="12"/>
     </row>
     <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="17"/>
-      <c r="F489" s="17"/>
+      <c r="A489" s="12"/>
+      <c r="F489" s="12"/>
     </row>
     <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="17"/>
-      <c r="F490" s="17"/>
+      <c r="A490" s="12"/>
+      <c r="F490" s="12"/>
     </row>
     <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="17"/>
-      <c r="F491" s="17"/>
+      <c r="A491" s="12"/>
+      <c r="F491" s="12"/>
     </row>
     <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="17"/>
-      <c r="F492" s="17"/>
+      <c r="A492" s="12"/>
+      <c r="F492" s="12"/>
     </row>
     <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="17"/>
-      <c r="F493" s="17"/>
+      <c r="A493" s="12"/>
+      <c r="F493" s="12"/>
     </row>
     <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="17"/>
-      <c r="F494" s="17"/>
+      <c r="A494" s="12"/>
+      <c r="F494" s="12"/>
     </row>
     <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="17"/>
-      <c r="F495" s="17"/>
+      <c r="A495" s="12"/>
+      <c r="F495" s="12"/>
     </row>
     <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="17"/>
-      <c r="F496" s="17"/>
+      <c r="A496" s="12"/>
+      <c r="F496" s="12"/>
     </row>
     <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="17"/>
-      <c r="F497" s="17"/>
+      <c r="A497" s="12"/>
+      <c r="F497" s="12"/>
     </row>
     <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="17"/>
-      <c r="F498" s="17"/>
+      <c r="A498" s="12"/>
+      <c r="F498" s="12"/>
     </row>
     <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="17"/>
-      <c r="F499" s="17"/>
+      <c r="A499" s="12"/>
+      <c r="F499" s="12"/>
     </row>
     <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="17"/>
-      <c r="F500" s="17"/>
+      <c r="A500" s="12"/>
+      <c r="F500" s="12"/>
     </row>
     <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="17"/>
-      <c r="F501" s="17"/>
+      <c r="A501" s="12"/>
+      <c r="F501" s="12"/>
     </row>
     <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="17"/>
-      <c r="F502" s="17"/>
+      <c r="A502" s="12"/>
+      <c r="F502" s="12"/>
     </row>
     <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="17"/>
-      <c r="F503" s="17"/>
+      <c r="A503" s="12"/>
+      <c r="F503" s="12"/>
     </row>
     <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="17"/>
-      <c r="F504" s="17"/>
+      <c r="A504" s="12"/>
+      <c r="F504" s="12"/>
     </row>
     <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="17"/>
-      <c r="F505" s="17"/>
+      <c r="A505" s="12"/>
+      <c r="F505" s="12"/>
     </row>
     <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="17"/>
-      <c r="F506" s="17"/>
+      <c r="A506" s="12"/>
+      <c r="F506" s="12"/>
     </row>
     <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="17"/>
-      <c r="F507" s="17"/>
+      <c r="A507" s="12"/>
+      <c r="F507" s="12"/>
     </row>
     <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="17"/>
-      <c r="F508" s="17"/>
+      <c r="A508" s="12"/>
+      <c r="F508" s="12"/>
     </row>
     <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="17"/>
-      <c r="F509" s="17"/>
+      <c r="A509" s="12"/>
+      <c r="F509" s="12"/>
     </row>
     <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="17"/>
-      <c r="F510" s="17"/>
+      <c r="A510" s="12"/>
+      <c r="F510" s="12"/>
     </row>
     <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="17"/>
-      <c r="F511" s="17"/>
+      <c r="A511" s="12"/>
+      <c r="F511" s="12"/>
     </row>
     <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="17"/>
-      <c r="F512" s="17"/>
+      <c r="A512" s="12"/>
+      <c r="F512" s="12"/>
     </row>
     <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="17"/>
-      <c r="F513" s="17"/>
+      <c r="A513" s="12"/>
+      <c r="F513" s="12"/>
     </row>
     <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="17"/>
-      <c r="F514" s="17"/>
+      <c r="A514" s="12"/>
+      <c r="F514" s="12"/>
     </row>
     <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="17"/>
-      <c r="F515" s="17"/>
+      <c r="A515" s="12"/>
+      <c r="F515" s="12"/>
     </row>
     <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="17"/>
-      <c r="F516" s="17"/>
+      <c r="A516" s="12"/>
+      <c r="F516" s="12"/>
     </row>
     <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="17"/>
-      <c r="F517" s="17"/>
+      <c r="A517" s="12"/>
+      <c r="F517" s="12"/>
     </row>
     <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="17"/>
-      <c r="F518" s="17"/>
+      <c r="A518" s="12"/>
+      <c r="F518" s="12"/>
     </row>
     <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="17"/>
-      <c r="F519" s="17"/>
+      <c r="A519" s="12"/>
+      <c r="F519" s="12"/>
     </row>
     <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="17"/>
-      <c r="F520" s="17"/>
+      <c r="A520" s="12"/>
+      <c r="F520" s="12"/>
     </row>
     <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="17"/>
-      <c r="F521" s="17"/>
+      <c r="A521" s="12"/>
+      <c r="F521" s="12"/>
     </row>
     <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="17"/>
-      <c r="F522" s="17"/>
+      <c r="A522" s="12"/>
+      <c r="F522" s="12"/>
     </row>
     <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="17"/>
-      <c r="F523" s="17"/>
+      <c r="A523" s="12"/>
+      <c r="F523" s="12"/>
     </row>
     <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="17"/>
-      <c r="F524" s="17"/>
+      <c r="A524" s="12"/>
+      <c r="F524" s="12"/>
     </row>
     <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="17"/>
-      <c r="F525" s="17"/>
+      <c r="A525" s="12"/>
+      <c r="F525" s="12"/>
     </row>
     <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="17"/>
-      <c r="F526" s="17"/>
+      <c r="A526" s="12"/>
+      <c r="F526" s="12"/>
     </row>
     <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="17"/>
-      <c r="F527" s="17"/>
+      <c r="A527" s="12"/>
+      <c r="F527" s="12"/>
     </row>
     <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="17"/>
-      <c r="F528" s="17"/>
+      <c r="A528" s="12"/>
+      <c r="F528" s="12"/>
     </row>
     <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="17"/>
-      <c r="F529" s="17"/>
+      <c r="A529" s="12"/>
+      <c r="F529" s="12"/>
     </row>
     <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="17"/>
-      <c r="F530" s="17"/>
+      <c r="A530" s="12"/>
+      <c r="F530" s="12"/>
     </row>
     <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="17"/>
-      <c r="F531" s="17"/>
+      <c r="A531" s="12"/>
+      <c r="F531" s="12"/>
     </row>
     <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="17"/>
-      <c r="F532" s="17"/>
+      <c r="A532" s="12"/>
+      <c r="F532" s="12"/>
     </row>
     <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="17"/>
-      <c r="F533" s="17"/>
+      <c r="A533" s="12"/>
+      <c r="F533" s="12"/>
     </row>
     <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="17"/>
-      <c r="F534" s="17"/>
+      <c r="A534" s="12"/>
+      <c r="F534" s="12"/>
     </row>
     <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="17"/>
-      <c r="F535" s="17"/>
+      <c r="A535" s="12"/>
+      <c r="F535" s="12"/>
     </row>
     <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="17"/>
-      <c r="F536" s="17"/>
+      <c r="A536" s="12"/>
+      <c r="F536" s="12"/>
     </row>
     <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="17"/>
-      <c r="F537" s="17"/>
+      <c r="A537" s="12"/>
+      <c r="F537" s="12"/>
     </row>
     <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="17"/>
-      <c r="F538" s="17"/>
+      <c r="A538" s="12"/>
+      <c r="F538" s="12"/>
     </row>
     <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="17"/>
-      <c r="F539" s="17"/>
+      <c r="A539" s="12"/>
+      <c r="F539" s="12"/>
     </row>
     <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="17"/>
-      <c r="F540" s="17"/>
+      <c r="A540" s="12"/>
+      <c r="F540" s="12"/>
     </row>
     <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="17"/>
-      <c r="F541" s="17"/>
+      <c r="A541" s="12"/>
+      <c r="F541" s="12"/>
     </row>
     <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="17"/>
-      <c r="F542" s="17"/>
+      <c r="A542" s="12"/>
+      <c r="F542" s="12"/>
     </row>
     <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A543" s="17"/>
-      <c r="F543" s="17"/>
+      <c r="A543" s="12"/>
+      <c r="F543" s="12"/>
     </row>
     <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="17"/>
-      <c r="F544" s="17"/>
+      <c r="A544" s="12"/>
+      <c r="F544" s="12"/>
     </row>
     <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="17"/>
-      <c r="F545" s="17"/>
+      <c r="A545" s="12"/>
+      <c r="F545" s="12"/>
     </row>
     <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A546" s="17"/>
-      <c r="F546" s="17"/>
+      <c r="A546" s="12"/>
+      <c r="F546" s="12"/>
     </row>
     <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="17"/>
-      <c r="F547" s="17"/>
+      <c r="A547" s="12"/>
+      <c r="F547" s="12"/>
     </row>
     <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="17"/>
-      <c r="F548" s="17"/>
+      <c r="A548" s="12"/>
+      <c r="F548" s="12"/>
     </row>
     <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="17"/>
-      <c r="F549" s="17"/>
+      <c r="A549" s="12"/>
+      <c r="F549" s="12"/>
     </row>
     <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="17"/>
-      <c r="F550" s="17"/>
+      <c r="A550" s="12"/>
+      <c r="F550" s="12"/>
     </row>
     <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="17"/>
-      <c r="F551" s="17"/>
+      <c r="A551" s="12"/>
+      <c r="F551" s="12"/>
     </row>
     <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="17"/>
-      <c r="F552" s="17"/>
+      <c r="A552" s="12"/>
+      <c r="F552" s="12"/>
     </row>
     <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="17"/>
-      <c r="F553" s="17"/>
+      <c r="A553" s="12"/>
+      <c r="F553" s="12"/>
     </row>
     <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="17"/>
-      <c r="F554" s="17"/>
+      <c r="A554" s="12"/>
+      <c r="F554" s="12"/>
     </row>
     <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="17"/>
-      <c r="F555" s="17"/>
+      <c r="A555" s="12"/>
+      <c r="F555" s="12"/>
     </row>
     <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="17"/>
-      <c r="F556" s="17"/>
+      <c r="A556" s="12"/>
+      <c r="F556" s="12"/>
     </row>
     <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="17"/>
-      <c r="F557" s="17"/>
+      <c r="A557" s="12"/>
+      <c r="F557" s="12"/>
     </row>
     <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="17"/>
-      <c r="F558" s="17"/>
+      <c r="A558" s="12"/>
+      <c r="F558" s="12"/>
     </row>
     <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="17"/>
-      <c r="F559" s="17"/>
+      <c r="A559" s="12"/>
+      <c r="F559" s="12"/>
     </row>
     <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="17"/>
-      <c r="F560" s="17"/>
+      <c r="A560" s="12"/>
+      <c r="F560" s="12"/>
     </row>
     <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="17"/>
-      <c r="F561" s="17"/>
+      <c r="A561" s="12"/>
+      <c r="F561" s="12"/>
     </row>
     <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="17"/>
-      <c r="F562" s="17"/>
+      <c r="A562" s="12"/>
+      <c r="F562" s="12"/>
     </row>
     <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="17"/>
-      <c r="F563" s="17"/>
+      <c r="A563" s="12"/>
+      <c r="F563" s="12"/>
     </row>
     <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="17"/>
-      <c r="F564" s="17"/>
+      <c r="A564" s="12"/>
+      <c r="F564" s="12"/>
     </row>
     <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="17"/>
-      <c r="F565" s="17"/>
+      <c r="A565" s="12"/>
+      <c r="F565" s="12"/>
     </row>
     <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="17"/>
-      <c r="F566" s="17"/>
+      <c r="A566" s="12"/>
+      <c r="F566" s="12"/>
     </row>
     <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A567" s="17"/>
-      <c r="F567" s="17"/>
+      <c r="A567" s="12"/>
+      <c r="F567" s="12"/>
     </row>
     <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A568" s="17"/>
-      <c r="F568" s="17"/>
+      <c r="A568" s="12"/>
+      <c r="F568" s="12"/>
     </row>
     <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="17"/>
-      <c r="F569" s="17"/>
+      <c r="A569" s="12"/>
+      <c r="F569" s="12"/>
     </row>
     <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A570" s="17"/>
-      <c r="F570" s="17"/>
+      <c r="A570" s="12"/>
+      <c r="F570" s="12"/>
     </row>
     <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="17"/>
-      <c r="F571" s="17"/>
+      <c r="A571" s="12"/>
+      <c r="F571" s="12"/>
     </row>
     <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A572" s="17"/>
-      <c r="F572" s="17"/>
+      <c r="A572" s="12"/>
+      <c r="F572" s="12"/>
     </row>
     <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A573" s="17"/>
-      <c r="F573" s="17"/>
+      <c r="A573" s="12"/>
+      <c r="F573" s="12"/>
     </row>
     <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A574" s="17"/>
-      <c r="F574" s="17"/>
+      <c r="A574" s="12"/>
+      <c r="F574" s="12"/>
     </row>
     <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A575" s="17"/>
-      <c r="F575" s="17"/>
+      <c r="A575" s="12"/>
+      <c r="F575" s="12"/>
     </row>
     <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A576" s="17"/>
-      <c r="F576" s="17"/>
+      <c r="A576" s="12"/>
+      <c r="F576" s="12"/>
     </row>
     <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A577" s="17"/>
-      <c r="F577" s="17"/>
+      <c r="A577" s="12"/>
+      <c r="F577" s="12"/>
     </row>
     <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A578" s="17"/>
-      <c r="F578" s="17"/>
+      <c r="A578" s="12"/>
+      <c r="F578" s="12"/>
     </row>
     <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="17"/>
-      <c r="F579" s="17"/>
+      <c r="A579" s="12"/>
+      <c r="F579" s="12"/>
     </row>
     <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A580" s="17"/>
-      <c r="F580" s="17"/>
+      <c r="A580" s="12"/>
+      <c r="F580" s="12"/>
     </row>
     <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="17"/>
-      <c r="F581" s="17"/>
+      <c r="A581" s="12"/>
+      <c r="F581" s="12"/>
     </row>
     <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A582" s="17"/>
-      <c r="F582" s="17"/>
+      <c r="A582" s="12"/>
+      <c r="F582" s="12"/>
     </row>
     <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A583" s="17"/>
-      <c r="F583" s="17"/>
+      <c r="A583" s="12"/>
+      <c r="F583" s="12"/>
     </row>
     <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A584" s="17"/>
-      <c r="F584" s="17"/>
+      <c r="A584" s="12"/>
+      <c r="F584" s="12"/>
     </row>
     <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A585" s="17"/>
-      <c r="F585" s="17"/>
+      <c r="A585" s="12"/>
+      <c r="F585" s="12"/>
     </row>
     <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A586" s="17"/>
-      <c r="F586" s="17"/>
+      <c r="A586" s="12"/>
+      <c r="F586" s="12"/>
     </row>
     <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A587" s="17"/>
-      <c r="F587" s="17"/>
+      <c r="A587" s="12"/>
+      <c r="F587" s="12"/>
     </row>
     <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A588" s="17"/>
-      <c r="F588" s="17"/>
+      <c r="A588" s="12"/>
+      <c r="F588" s="12"/>
     </row>
     <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="17"/>
-      <c r="F589" s="17"/>
+      <c r="A589" s="12"/>
+      <c r="F589" s="12"/>
     </row>
     <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A590" s="17"/>
-      <c r="F590" s="17"/>
+      <c r="A590" s="12"/>
+      <c r="F590" s="12"/>
     </row>
     <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="17"/>
-      <c r="F591" s="17"/>
+      <c r="A591" s="12"/>
+      <c r="F591" s="12"/>
     </row>
     <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A592" s="17"/>
-      <c r="F592" s="17"/>
+      <c r="A592" s="12"/>
+      <c r="F592" s="12"/>
     </row>
     <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A593" s="17"/>
-      <c r="F593" s="17"/>
+      <c r="A593" s="12"/>
+      <c r="F593" s="12"/>
     </row>
     <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A594" s="17"/>
-      <c r="F594" s="17"/>
+      <c r="A594" s="12"/>
+      <c r="F594" s="12"/>
     </row>
     <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A595" s="17"/>
-      <c r="F595" s="17"/>
+      <c r="A595" s="12"/>
+      <c r="F595" s="12"/>
     </row>
     <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A596" s="17"/>
-      <c r="F596" s="17"/>
+      <c r="A596" s="12"/>
+      <c r="F596" s="12"/>
     </row>
     <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A597" s="17"/>
-      <c r="F597" s="17"/>
+      <c r="A597" s="12"/>
+      <c r="F597" s="12"/>
     </row>
     <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A598" s="17"/>
-      <c r="F598" s="17"/>
+      <c r="A598" s="12"/>
+      <c r="F598" s="12"/>
     </row>
     <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A599" s="17"/>
-      <c r="F599" s="17"/>
+      <c r="A599" s="12"/>
+      <c r="F599" s="12"/>
     </row>
     <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A600" s="17"/>
-      <c r="F600" s="17"/>
+      <c r="A600" s="12"/>
+      <c r="F600" s="12"/>
     </row>
     <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A601" s="17"/>
-      <c r="F601" s="17"/>
+      <c r="A601" s="12"/>
+      <c r="F601" s="12"/>
     </row>
     <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A602" s="17"/>
-      <c r="F602" s="17"/>
+      <c r="A602" s="12"/>
+      <c r="F602" s="12"/>
     </row>
     <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A603" s="17"/>
-      <c r="F603" s="17"/>
+      <c r="A603" s="12"/>
+      <c r="F603" s="12"/>
     </row>
     <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A604" s="17"/>
-      <c r="F604" s="17"/>
+      <c r="A604" s="12"/>
+      <c r="F604" s="12"/>
     </row>
     <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A605" s="17"/>
-      <c r="F605" s="17"/>
+      <c r="A605" s="12"/>
+      <c r="F605" s="12"/>
     </row>
     <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A606" s="17"/>
-      <c r="F606" s="17"/>
+      <c r="A606" s="12"/>
+      <c r="F606" s="12"/>
     </row>
     <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A607" s="17"/>
-      <c r="F607" s="17"/>
+      <c r="A607" s="12"/>
+      <c r="F607" s="12"/>
     </row>
     <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A608" s="17"/>
-      <c r="F608" s="17"/>
+      <c r="A608" s="12"/>
+      <c r="F608" s="12"/>
     </row>
     <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="17"/>
-      <c r="F609" s="17"/>
+      <c r="A609" s="12"/>
+      <c r="F609" s="12"/>
     </row>
     <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="17"/>
-      <c r="F610" s="17"/>
+      <c r="A610" s="12"/>
+      <c r="F610" s="12"/>
     </row>
     <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="17"/>
-      <c r="F611" s="17"/>
+      <c r="A611" s="12"/>
+      <c r="F611" s="12"/>
     </row>
     <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="17"/>
-      <c r="F612" s="17"/>
+      <c r="A612" s="12"/>
+      <c r="F612" s="12"/>
     </row>
     <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="17"/>
-      <c r="F613" s="17"/>
+      <c r="A613" s="12"/>
+      <c r="F613" s="12"/>
     </row>
     <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="17"/>
-      <c r="F614" s="17"/>
+      <c r="A614" s="12"/>
+      <c r="F614" s="12"/>
     </row>
     <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="17"/>
-      <c r="F615" s="17"/>
+      <c r="A615" s="12"/>
+      <c r="F615" s="12"/>
     </row>
     <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="17"/>
-      <c r="F616" s="17"/>
+      <c r="A616" s="12"/>
+      <c r="F616" s="12"/>
     </row>
     <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="17"/>
-      <c r="F617" s="17"/>
+      <c r="A617" s="12"/>
+      <c r="F617" s="12"/>
     </row>
     <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="17"/>
-      <c r="F618" s="17"/>
+      <c r="A618" s="12"/>
+      <c r="F618" s="12"/>
     </row>
     <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="17"/>
-      <c r="F619" s="17"/>
+      <c r="A619" s="12"/>
+      <c r="F619" s="12"/>
     </row>
     <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="17"/>
-      <c r="F620" s="17"/>
+      <c r="A620" s="12"/>
+      <c r="F620" s="12"/>
     </row>
     <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="17"/>
-      <c r="F621" s="17"/>
+      <c r="A621" s="12"/>
+      <c r="F621" s="12"/>
     </row>
     <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="17"/>
-      <c r="F622" s="17"/>
+      <c r="A622" s="12"/>
+      <c r="F622" s="12"/>
     </row>
     <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="17"/>
-      <c r="F623" s="17"/>
+      <c r="A623" s="12"/>
+      <c r="F623" s="12"/>
     </row>
     <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="17"/>
-      <c r="F624" s="17"/>
+      <c r="A624" s="12"/>
+      <c r="F624" s="12"/>
     </row>
     <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A625" s="17"/>
-      <c r="F625" s="17"/>
+      <c r="A625" s="12"/>
+      <c r="F625" s="12"/>
     </row>
     <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A626" s="17"/>
-      <c r="F626" s="17"/>
+      <c r="A626" s="12"/>
+      <c r="F626" s="12"/>
     </row>
     <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A627" s="17"/>
-      <c r="F627" s="17"/>
+      <c r="A627" s="12"/>
+      <c r="F627" s="12"/>
     </row>
     <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A628" s="17"/>
-      <c r="F628" s="17"/>
+      <c r="A628" s="12"/>
+      <c r="F628" s="12"/>
     </row>
     <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A629" s="17"/>
-      <c r="F629" s="17"/>
+      <c r="A629" s="12"/>
+      <c r="F629" s="12"/>
     </row>
     <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A630" s="17"/>
-      <c r="F630" s="17"/>
+      <c r="A630" s="12"/>
+      <c r="F630" s="12"/>
     </row>
     <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A631" s="17"/>
-      <c r="F631" s="17"/>
+      <c r="A631" s="12"/>
+      <c r="F631" s="12"/>
     </row>
     <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A632" s="17"/>
-      <c r="F632" s="17"/>
+      <c r="A632" s="12"/>
+      <c r="F632" s="12"/>
     </row>
     <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A633" s="17"/>
-      <c r="F633" s="17"/>
+      <c r="A633" s="12"/>
+      <c r="F633" s="12"/>
     </row>
     <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A634" s="17"/>
-      <c r="F634" s="17"/>
+      <c r="A634" s="12"/>
+      <c r="F634" s="12"/>
     </row>
     <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A635" s="17"/>
-      <c r="F635" s="17"/>
+      <c r="A635" s="12"/>
+      <c r="F635" s="12"/>
     </row>
     <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A636" s="17"/>
-      <c r="F636" s="17"/>
+      <c r="A636" s="12"/>
+      <c r="F636" s="12"/>
     </row>
     <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A637" s="17"/>
-      <c r="F637" s="17"/>
+      <c r="A637" s="12"/>
+      <c r="F637" s="12"/>
     </row>
     <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A638" s="17"/>
-      <c r="F638" s="17"/>
+      <c r="A638" s="12"/>
+      <c r="F638" s="12"/>
     </row>
     <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A639" s="17"/>
-      <c r="F639" s="17"/>
+      <c r="A639" s="12"/>
+      <c r="F639" s="12"/>
     </row>
     <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A640" s="17"/>
-      <c r="F640" s="17"/>
+      <c r="A640" s="12"/>
+      <c r="F640" s="12"/>
     </row>
     <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A641" s="17"/>
-      <c r="F641" s="17"/>
+      <c r="A641" s="12"/>
+      <c r="F641" s="12"/>
     </row>
     <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A642" s="17"/>
-      <c r="F642" s="17"/>
+      <c r="A642" s="12"/>
+      <c r="F642" s="12"/>
     </row>
     <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A643" s="17"/>
-      <c r="F643" s="17"/>
+      <c r="A643" s="12"/>
+      <c r="F643" s="12"/>
     </row>
     <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A644" s="17"/>
-      <c r="F644" s="17"/>
+      <c r="A644" s="12"/>
+      <c r="F644" s="12"/>
     </row>
     <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A645" s="17"/>
-      <c r="F645" s="17"/>
+      <c r="A645" s="12"/>
+      <c r="F645" s="12"/>
     </row>
     <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A646" s="17"/>
-      <c r="F646" s="17"/>
+      <c r="A646" s="12"/>
+      <c r="F646" s="12"/>
     </row>
     <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A647" s="17"/>
-      <c r="F647" s="17"/>
+      <c r="A647" s="12"/>
+      <c r="F647" s="12"/>
     </row>
     <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A648" s="17"/>
-      <c r="F648" s="17"/>
+      <c r="A648" s="12"/>
+      <c r="F648" s="12"/>
     </row>
     <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A649" s="17"/>
-      <c r="F649" s="17"/>
+      <c r="A649" s="12"/>
+      <c r="F649" s="12"/>
     </row>
     <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A650" s="17"/>
-      <c r="F650" s="17"/>
+      <c r="A650" s="12"/>
+      <c r="F650" s="12"/>
     </row>
     <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A651" s="17"/>
-      <c r="F651" s="17"/>
+      <c r="A651" s="12"/>
+      <c r="F651" s="12"/>
     </row>
     <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A652" s="17"/>
-      <c r="F652" s="17"/>
+      <c r="A652" s="12"/>
+      <c r="F652" s="12"/>
     </row>
     <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A653" s="17"/>
-      <c r="F653" s="17"/>
+      <c r="A653" s="12"/>
+      <c r="F653" s="12"/>
     </row>
     <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="17"/>
-      <c r="F654" s="17"/>
+      <c r="A654" s="12"/>
+      <c r="F654" s="12"/>
     </row>
     <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A655" s="17"/>
-      <c r="F655" s="17"/>
+      <c r="A655" s="12"/>
+      <c r="F655" s="12"/>
     </row>
     <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A656" s="17"/>
-      <c r="F656" s="17"/>
+      <c r="A656" s="12"/>
+      <c r="F656" s="12"/>
     </row>
     <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="17"/>
-      <c r="F657" s="17"/>
+      <c r="A657" s="12"/>
+      <c r="F657" s="12"/>
     </row>
     <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="17"/>
-      <c r="F658" s="17"/>
+      <c r="A658" s="12"/>
+      <c r="F658" s="12"/>
     </row>
     <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="17"/>
-      <c r="F659" s="17"/>
+      <c r="A659" s="12"/>
+      <c r="F659" s="12"/>
     </row>
     <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="17"/>
-      <c r="F660" s="17"/>
+      <c r="A660" s="12"/>
+      <c r="F660" s="12"/>
     </row>
     <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="17"/>
-      <c r="F661" s="17"/>
+      <c r="A661" s="12"/>
+      <c r="F661" s="12"/>
     </row>
     <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="17"/>
-      <c r="F662" s="17"/>
+      <c r="A662" s="12"/>
+      <c r="F662" s="12"/>
     </row>
     <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="17"/>
-      <c r="F663" s="17"/>
+      <c r="A663" s="12"/>
+      <c r="F663" s="12"/>
     </row>
     <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="17"/>
-      <c r="F664" s="17"/>
+      <c r="A664" s="12"/>
+      <c r="F664" s="12"/>
     </row>
     <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="17"/>
-      <c r="F665" s="17"/>
+      <c r="A665" s="12"/>
+      <c r="F665" s="12"/>
     </row>
     <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="17"/>
-      <c r="F666" s="17"/>
+      <c r="A666" s="12"/>
+      <c r="F666" s="12"/>
     </row>
     <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="17"/>
-      <c r="F667" s="17"/>
+      <c r="A667" s="12"/>
+      <c r="F667" s="12"/>
     </row>
     <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="17"/>
-      <c r="F668" s="17"/>
+      <c r="A668" s="12"/>
+      <c r="F668" s="12"/>
     </row>
     <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="17"/>
-      <c r="F669" s="17"/>
+      <c r="A669" s="12"/>
+      <c r="F669" s="12"/>
     </row>
     <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="17"/>
-      <c r="F670" s="17"/>
+      <c r="A670" s="12"/>
+      <c r="F670" s="12"/>
     </row>
     <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" s="17"/>
-      <c r="F671" s="17"/>
+      <c r="A671" s="12"/>
+      <c r="F671" s="12"/>
     </row>
     <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A672" s="17"/>
-      <c r="F672" s="17"/>
+      <c r="A672" s="12"/>
+      <c r="F672" s="12"/>
     </row>
     <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A673" s="17"/>
-      <c r="F673" s="17"/>
+      <c r="A673" s="12"/>
+      <c r="F673" s="12"/>
     </row>
     <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A674" s="17"/>
-      <c r="F674" s="17"/>
+      <c r="A674" s="12"/>
+      <c r="F674" s="12"/>
     </row>
     <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A675" s="17"/>
-      <c r="F675" s="17"/>
+      <c r="A675" s="12"/>
+      <c r="F675" s="12"/>
     </row>
     <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A676" s="17"/>
-      <c r="F676" s="17"/>
+      <c r="A676" s="12"/>
+      <c r="F676" s="12"/>
     </row>
     <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A677" s="17"/>
-      <c r="F677" s="17"/>
+      <c r="A677" s="12"/>
+      <c r="F677" s="12"/>
     </row>
     <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A678" s="17"/>
-      <c r="F678" s="17"/>
+      <c r="A678" s="12"/>
+      <c r="F678" s="12"/>
     </row>
     <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A679" s="17"/>
-      <c r="F679" s="17"/>
+      <c r="A679" s="12"/>
+      <c r="F679" s="12"/>
     </row>
     <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A680" s="17"/>
-      <c r="F680" s="17"/>
+      <c r="A680" s="12"/>
+      <c r="F680" s="12"/>
     </row>
     <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A681" s="17"/>
-      <c r="F681" s="17"/>
+      <c r="A681" s="12"/>
+      <c r="F681" s="12"/>
     </row>
     <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A682" s="17"/>
-      <c r="F682" s="17"/>
+      <c r="A682" s="12"/>
+      <c r="F682" s="12"/>
     </row>
     <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A683" s="17"/>
-      <c r="F683" s="17"/>
+      <c r="A683" s="12"/>
+      <c r="F683" s="12"/>
     </row>
     <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A684" s="17"/>
-      <c r="F684" s="17"/>
+      <c r="A684" s="12"/>
+      <c r="F684" s="12"/>
     </row>
     <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A685" s="17"/>
-      <c r="F685" s="17"/>
+      <c r="A685" s="12"/>
+      <c r="F685" s="12"/>
     </row>
     <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A686" s="17"/>
-      <c r="F686" s="17"/>
+      <c r="A686" s="12"/>
+      <c r="F686" s="12"/>
     </row>
     <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A687" s="17"/>
-      <c r="F687" s="17"/>
+      <c r="A687" s="12"/>
+      <c r="F687" s="12"/>
     </row>
     <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A688" s="17"/>
-      <c r="F688" s="17"/>
+      <c r="A688" s="12"/>
+      <c r="F688" s="12"/>
     </row>
     <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A689" s="17"/>
-      <c r="F689" s="17"/>
+      <c r="A689" s="12"/>
+      <c r="F689" s="12"/>
     </row>
     <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="17"/>
-      <c r="F690" s="17"/>
+      <c r="A690" s="12"/>
+      <c r="F690" s="12"/>
     </row>
     <row r="691" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A691" s="17"/>
-      <c r="F691" s="17"/>
+      <c r="A691" s="12"/>
+      <c r="F691" s="12"/>
     </row>
     <row r="692" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A692" s="17"/>
-      <c r="F692" s="17"/>
+      <c r="A692" s="12"/>
+      <c r="F692" s="12"/>
     </row>
     <row r="693" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A693" s="17"/>
-      <c r="F693" s="17"/>
+      <c r="A693" s="12"/>
+      <c r="F693" s="12"/>
     </row>
     <row r="694" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A694" s="17"/>
-      <c r="F694" s="17"/>
+      <c r="A694" s="12"/>
+      <c r="F694" s="12"/>
     </row>
     <row r="695" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A695" s="17"/>
-      <c r="F695" s="17"/>
+      <c r="A695" s="12"/>
+      <c r="F695" s="12"/>
     </row>
     <row r="696" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A696" s="17"/>
-      <c r="F696" s="17"/>
+      <c r="A696" s="12"/>
+      <c r="F696" s="12"/>
     </row>
     <row r="697" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A697" s="17"/>
-      <c r="F697" s="17"/>
+      <c r="A697" s="12"/>
+      <c r="F697" s="12"/>
     </row>
     <row r="698" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A698" s="17"/>
-      <c r="F698" s="17"/>
+      <c r="A698" s="12"/>
+      <c r="F698" s="12"/>
     </row>
     <row r="699" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A699" s="17"/>
-      <c r="F699" s="17"/>
+      <c r="A699" s="12"/>
+      <c r="F699" s="12"/>
     </row>
     <row r="700" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A700" s="17"/>
-      <c r="F700" s="17"/>
+      <c r="A700" s="12"/>
+      <c r="F700" s="12"/>
     </row>
     <row r="701" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A701" s="17"/>
-      <c r="F701" s="17"/>
+      <c r="A701" s="12"/>
+      <c r="F701" s="12"/>
     </row>
     <row r="702" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A702" s="17"/>
-      <c r="F702" s="17"/>
+      <c r="A702" s="12"/>
+      <c r="F702" s="12"/>
     </row>
     <row r="703" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A703" s="17"/>
-      <c r="F703" s="17"/>
+      <c r="A703" s="12"/>
+      <c r="F703" s="12"/>
     </row>
     <row r="704" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A704" s="17"/>
-      <c r="F704" s="17"/>
+      <c r="A704" s="12"/>
+      <c r="F704" s="12"/>
     </row>
     <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A705" s="17"/>
-      <c r="F705" s="17"/>
+      <c r="A705" s="12"/>
+      <c r="F705" s="12"/>
     </row>
     <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A706" s="17"/>
-      <c r="F706" s="17"/>
+      <c r="A706" s="12"/>
+      <c r="F706" s="12"/>
     </row>
     <row r="707" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A707" s="17"/>
-      <c r="F707" s="17"/>
+      <c r="A707" s="12"/>
+      <c r="F707" s="12"/>
     </row>
     <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A708" s="17"/>
-      <c r="F708" s="17"/>
+      <c r="A708" s="12"/>
+      <c r="F708" s="12"/>
     </row>
     <row r="709" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A709" s="17"/>
-      <c r="F709" s="17"/>
+      <c r="A709" s="12"/>
+      <c r="F709" s="12"/>
     </row>
     <row r="710" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A710" s="17"/>
-      <c r="F710" s="17"/>
+      <c r="A710" s="12"/>
+      <c r="F710" s="12"/>
     </row>
     <row r="711" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A711" s="17"/>
-      <c r="F711" s="17"/>
+      <c r="A711" s="12"/>
+      <c r="F711" s="12"/>
     </row>
     <row r="712" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A712" s="17"/>
-      <c r="F712" s="17"/>
+      <c r="A712" s="12"/>
+      <c r="F712" s="12"/>
     </row>
     <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A713" s="17"/>
-      <c r="F713" s="17"/>
+      <c r="A713" s="12"/>
+      <c r="F713" s="12"/>
     </row>
     <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A714" s="17"/>
-      <c r="F714" s="17"/>
+      <c r="A714" s="12"/>
+      <c r="F714" s="12"/>
     </row>
     <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A715" s="17"/>
-      <c r="F715" s="17"/>
+      <c r="A715" s="12"/>
+      <c r="F715" s="12"/>
     </row>
     <row r="716" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A716" s="17"/>
-      <c r="F716" s="17"/>
+      <c r="A716" s="12"/>
+      <c r="F716" s="12"/>
     </row>
     <row r="717" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A717" s="17"/>
-      <c r="F717" s="17"/>
+      <c r="A717" s="12"/>
+      <c r="F717" s="12"/>
     </row>
     <row r="718" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A718" s="17"/>
-      <c r="F718" s="17"/>
+      <c r="A718" s="12"/>
+      <c r="F718" s="12"/>
     </row>
     <row r="719" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A719" s="17"/>
-      <c r="F719" s="17"/>
+      <c r="A719" s="12"/>
+      <c r="F719" s="12"/>
     </row>
     <row r="720" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A720" s="17"/>
-      <c r="F720" s="17"/>
+      <c r="A720" s="12"/>
+      <c r="F720" s="12"/>
     </row>
     <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A721" s="17"/>
-      <c r="F721" s="17"/>
+      <c r="A721" s="12"/>
+      <c r="F721" s="12"/>
     </row>
     <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A722" s="17"/>
-      <c r="F722" s="17"/>
+      <c r="A722" s="12"/>
+      <c r="F722" s="12"/>
     </row>
     <row r="723" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A723" s="17"/>
-      <c r="F723" s="17"/>
+      <c r="A723" s="12"/>
+      <c r="F723" s="12"/>
     </row>
     <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A724" s="17"/>
-      <c r="F724" s="17"/>
+      <c r="A724" s="12"/>
+      <c r="F724" s="12"/>
     </row>
     <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A725" s="17"/>
-      <c r="F725" s="17"/>
+      <c r="A725" s="12"/>
+      <c r="F725" s="12"/>
     </row>
     <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A726" s="17"/>
-      <c r="F726" s="17"/>
+      <c r="A726" s="12"/>
+      <c r="F726" s="12"/>
     </row>
     <row r="727" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A727" s="17"/>
-      <c r="F727" s="17"/>
+      <c r="A727" s="12"/>
+      <c r="F727" s="12"/>
     </row>
     <row r="728" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A728" s="17"/>
-      <c r="F728" s="17"/>
+      <c r="A728" s="12"/>
+      <c r="F728" s="12"/>
     </row>
     <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A729" s="17"/>
-      <c r="F729" s="17"/>
+      <c r="A729" s="12"/>
+      <c r="F729" s="12"/>
     </row>
     <row r="730" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A730" s="17"/>
-      <c r="F730" s="17"/>
+      <c r="A730" s="12"/>
+      <c r="F730" s="12"/>
     </row>
     <row r="731" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A731" s="17"/>
-      <c r="F731" s="17"/>
+      <c r="A731" s="12"/>
+      <c r="F731" s="12"/>
     </row>
     <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A732" s="17"/>
-      <c r="F732" s="17"/>
+      <c r="A732" s="12"/>
+      <c r="F732" s="12"/>
     </row>
     <row r="733" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A733" s="17"/>
-      <c r="F733" s="17"/>
+      <c r="A733" s="12"/>
+      <c r="F733" s="12"/>
     </row>
     <row r="734" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A734" s="17"/>
-      <c r="F734" s="17"/>
+      <c r="A734" s="12"/>
+      <c r="F734" s="12"/>
     </row>
     <row r="735" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A735" s="17"/>
-      <c r="F735" s="17"/>
+      <c r="A735" s="12"/>
+      <c r="F735" s="12"/>
     </row>
     <row r="736" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A736" s="17"/>
-      <c r="F736" s="17"/>
+      <c r="A736" s="12"/>
+      <c r="F736" s="12"/>
     </row>
     <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A737" s="17"/>
-      <c r="F737" s="17"/>
+      <c r="A737" s="12"/>
+      <c r="F737" s="12"/>
     </row>
     <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A738" s="17"/>
-      <c r="F738" s="17"/>
+      <c r="A738" s="12"/>
+      <c r="F738" s="12"/>
     </row>
     <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A739" s="17"/>
-      <c r="F739" s="17"/>
+      <c r="A739" s="12"/>
+      <c r="F739" s="12"/>
     </row>
     <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A740" s="17"/>
-      <c r="F740" s="17"/>
+      <c r="A740" s="12"/>
+      <c r="F740" s="12"/>
     </row>
     <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A741" s="17"/>
-      <c r="F741" s="17"/>
+      <c r="A741" s="12"/>
+      <c r="F741" s="12"/>
     </row>
     <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A742" s="17"/>
-      <c r="F742" s="17"/>
+      <c r="A742" s="12"/>
+      <c r="F742" s="12"/>
     </row>
     <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A743" s="17"/>
-      <c r="F743" s="17"/>
+      <c r="A743" s="12"/>
+      <c r="F743" s="12"/>
     </row>
     <row r="744" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A744" s="17"/>
-      <c r="F744" s="17"/>
+      <c r="A744" s="12"/>
+      <c r="F744" s="12"/>
     </row>
     <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A745" s="17"/>
-      <c r="F745" s="17"/>
+      <c r="A745" s="12"/>
+      <c r="F745" s="12"/>
     </row>
     <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A746" s="17"/>
-      <c r="F746" s="17"/>
+      <c r="A746" s="12"/>
+      <c r="F746" s="12"/>
     </row>
     <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A747" s="17"/>
-      <c r="F747" s="17"/>
+      <c r="A747" s="12"/>
+      <c r="F747" s="12"/>
     </row>
     <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A748" s="17"/>
-      <c r="F748" s="17"/>
+      <c r="A748" s="12"/>
+      <c r="F748" s="12"/>
     </row>
     <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A749" s="17"/>
-      <c r="F749" s="17"/>
+      <c r="A749" s="12"/>
+      <c r="F749" s="12"/>
     </row>
     <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A750" s="17"/>
-      <c r="F750" s="17"/>
+      <c r="A750" s="12"/>
+      <c r="F750" s="12"/>
     </row>
     <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A751" s="17"/>
-      <c r="F751" s="17"/>
+      <c r="A751" s="12"/>
+      <c r="F751" s="12"/>
     </row>
     <row r="752" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A752" s="17"/>
-      <c r="F752" s="17"/>
+      <c r="A752" s="12"/>
+      <c r="F752" s="12"/>
     </row>
     <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A753" s="17"/>
-      <c r="F753" s="17"/>
+      <c r="A753" s="12"/>
+      <c r="F753" s="12"/>
     </row>
     <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A754" s="17"/>
-      <c r="F754" s="17"/>
+      <c r="A754" s="12"/>
+      <c r="F754" s="12"/>
     </row>
     <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A755" s="17"/>
-      <c r="F755" s="17"/>
+      <c r="A755" s="12"/>
+      <c r="F755" s="12"/>
     </row>
     <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A756" s="17"/>
-      <c r="F756" s="17"/>
+      <c r="A756" s="12"/>
+      <c r="F756" s="12"/>
     </row>
     <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A757" s="17"/>
-      <c r="F757" s="17"/>
+      <c r="A757" s="12"/>
+      <c r="F757" s="12"/>
     </row>
     <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A758" s="17"/>
-      <c r="F758" s="17"/>
+      <c r="A758" s="12"/>
+      <c r="F758" s="12"/>
     </row>
     <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A759" s="17"/>
-      <c r="F759" s="17"/>
+      <c r="A759" s="12"/>
+      <c r="F759" s="12"/>
     </row>
     <row r="760" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A760" s="17"/>
-      <c r="F760" s="17"/>
+      <c r="A760" s="12"/>
+      <c r="F760" s="12"/>
     </row>
     <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A761" s="17"/>
-      <c r="F761" s="17"/>
+      <c r="A761" s="12"/>
+      <c r="F761" s="12"/>
     </row>
     <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A762" s="17"/>
-      <c r="F762" s="17"/>
+      <c r="A762" s="12"/>
+      <c r="F762" s="12"/>
     </row>
     <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A763" s="17"/>
-      <c r="F763" s="17"/>
+      <c r="A763" s="12"/>
+      <c r="F763" s="12"/>
     </row>
     <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A764" s="17"/>
-      <c r="F764" s="17"/>
+      <c r="A764" s="12"/>
+      <c r="F764" s="12"/>
     </row>
     <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A765" s="17"/>
-      <c r="F765" s="17"/>
+      <c r="A765" s="12"/>
+      <c r="F765" s="12"/>
     </row>
     <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A766" s="17"/>
-      <c r="F766" s="17"/>
+      <c r="A766" s="12"/>
+      <c r="F766" s="12"/>
     </row>
     <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A767" s="17"/>
-      <c r="F767" s="17"/>
+      <c r="A767" s="12"/>
+      <c r="F767" s="12"/>
     </row>
     <row r="768" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A768" s="17"/>
-      <c r="F768" s="17"/>
+      <c r="A768" s="12"/>
+      <c r="F768" s="12"/>
     </row>
     <row r="769" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A769" s="17"/>
-      <c r="F769" s="17"/>
+      <c r="A769" s="12"/>
+      <c r="F769" s="12"/>
     </row>
     <row r="770" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A770" s="17"/>
-      <c r="F770" s="17"/>
+      <c r="A770" s="12"/>
+      <c r="F770" s="12"/>
     </row>
     <row r="771" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A771" s="17"/>
-      <c r="F771" s="17"/>
+      <c r="A771" s="12"/>
+      <c r="F771" s="12"/>
     </row>
     <row r="772" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A772" s="17"/>
-      <c r="F772" s="17"/>
+      <c r="A772" s="12"/>
+      <c r="F772" s="12"/>
     </row>
     <row r="773" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A773" s="17"/>
-      <c r="F773" s="17"/>
+      <c r="A773" s="12"/>
+      <c r="F773" s="12"/>
     </row>
     <row r="774" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A774" s="17"/>
-      <c r="F774" s="17"/>
+      <c r="A774" s="12"/>
+      <c r="F774" s="12"/>
     </row>
     <row r="775" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A775" s="17"/>
-      <c r="F775" s="17"/>
+      <c r="A775" s="12"/>
+      <c r="F775" s="12"/>
     </row>
     <row r="776" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A776" s="17"/>
-      <c r="F776" s="17"/>
+      <c r="A776" s="12"/>
+      <c r="F776" s="12"/>
     </row>
     <row r="777" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A777" s="17"/>
-      <c r="F777" s="17"/>
+      <c r="A777" s="12"/>
+      <c r="F777" s="12"/>
     </row>
     <row r="778" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A778" s="17"/>
-      <c r="F778" s="17"/>
+      <c r="A778" s="12"/>
+      <c r="F778" s="12"/>
     </row>
     <row r="779" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A779" s="17"/>
-      <c r="F779" s="17"/>
+      <c r="A779" s="12"/>
+      <c r="F779" s="12"/>
     </row>
     <row r="780" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A780" s="17"/>
-      <c r="F780" s="17"/>
+      <c r="A780" s="12"/>
+      <c r="F780" s="12"/>
     </row>
     <row r="781" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A781" s="17"/>
-      <c r="F781" s="17"/>
+      <c r="A781" s="12"/>
+      <c r="F781" s="12"/>
     </row>
     <row r="782" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A782" s="17"/>
-      <c r="F782" s="17"/>
+      <c r="A782" s="12"/>
+      <c r="F782" s="12"/>
     </row>
     <row r="783" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A783" s="17"/>
-      <c r="F783" s="17"/>
+      <c r="A783" s="12"/>
+      <c r="F783" s="12"/>
     </row>
     <row r="784" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A784" s="17"/>
-      <c r="F784" s="17"/>
+      <c r="A784" s="12"/>
+      <c r="F784" s="12"/>
     </row>
     <row r="785" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A785" s="17"/>
-      <c r="F785" s="17"/>
+      <c r="A785" s="12"/>
+      <c r="F785" s="12"/>
     </row>
     <row r="786" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A786" s="17"/>
-      <c r="F786" s="17"/>
+      <c r="A786" s="12"/>
+      <c r="F786" s="12"/>
     </row>
     <row r="787" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A787" s="17"/>
-      <c r="F787" s="17"/>
+      <c r="A787" s="12"/>
+      <c r="F787" s="12"/>
     </row>
     <row r="788" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A788" s="17"/>
-      <c r="F788" s="17"/>
+      <c r="A788" s="12"/>
+      <c r="F788" s="12"/>
     </row>
     <row r="789" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A789" s="17"/>
-      <c r="F789" s="17"/>
+      <c r="A789" s="12"/>
+      <c r="F789" s="12"/>
     </row>
     <row r="790" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A790" s="17"/>
-      <c r="F790" s="17"/>
+      <c r="A790" s="12"/>
+      <c r="F790" s="12"/>
     </row>
     <row r="791" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A791" s="17"/>
-      <c r="F791" s="17"/>
+      <c r="A791" s="12"/>
+      <c r="F791" s="12"/>
     </row>
     <row r="792" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A792" s="17"/>
-      <c r="F792" s="17"/>
+      <c r="A792" s="12"/>
+      <c r="F792" s="12"/>
     </row>
     <row r="793" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A793" s="17"/>
-      <c r="F793" s="17"/>
+      <c r="A793" s="12"/>
+      <c r="F793" s="12"/>
     </row>
     <row r="794" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A794" s="17"/>
-      <c r="F794" s="17"/>
+      <c r="A794" s="12"/>
+      <c r="F794" s="12"/>
     </row>
     <row r="795" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A795" s="17"/>
-      <c r="F795" s="17"/>
+      <c r="A795" s="12"/>
+      <c r="F795" s="12"/>
     </row>
     <row r="796" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A796" s="17"/>
-      <c r="F796" s="17"/>
+      <c r="A796" s="12"/>
+      <c r="F796" s="12"/>
     </row>
     <row r="797" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A797" s="17"/>
-      <c r="F797" s="17"/>
+      <c r="A797" s="12"/>
+      <c r="F797" s="12"/>
     </row>
     <row r="798" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A798" s="17"/>
-      <c r="F798" s="17"/>
+      <c r="A798" s="12"/>
+      <c r="F798" s="12"/>
     </row>
     <row r="799" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A799" s="17"/>
-      <c r="F799" s="17"/>
+      <c r="A799" s="12"/>
+      <c r="F799" s="12"/>
     </row>
     <row r="800" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A800" s="17"/>
-      <c r="F800" s="17"/>
+      <c r="A800" s="12"/>
+      <c r="F800" s="12"/>
     </row>
     <row r="801" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A801" s="17"/>
-      <c r="F801" s="17"/>
+      <c r="A801" s="12"/>
+      <c r="F801" s="12"/>
     </row>
     <row r="802" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A802" s="17"/>
-      <c r="F802" s="17"/>
+      <c r="A802" s="12"/>
+      <c r="F802" s="12"/>
     </row>
     <row r="803" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A803" s="17"/>
-      <c r="F803" s="17"/>
+      <c r="A803" s="12"/>
+      <c r="F803" s="12"/>
     </row>
     <row r="804" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A804" s="17"/>
-      <c r="F804" s="17"/>
+      <c r="A804" s="12"/>
+      <c r="F804" s="12"/>
     </row>
     <row r="805" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A805" s="17"/>
-      <c r="F805" s="17"/>
+      <c r="A805" s="12"/>
+      <c r="F805" s="12"/>
     </row>
     <row r="806" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A806" s="17"/>
-      <c r="F806" s="17"/>
+      <c r="A806" s="12"/>
+      <c r="F806" s="12"/>
     </row>
     <row r="807" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A807" s="17"/>
-      <c r="F807" s="17"/>
+      <c r="A807" s="12"/>
+      <c r="F807" s="12"/>
     </row>
     <row r="808" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A808" s="17"/>
-      <c r="F808" s="17"/>
+      <c r="A808" s="12"/>
+      <c r="F808" s="12"/>
     </row>
     <row r="809" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A809" s="17"/>
-      <c r="F809" s="17"/>
+      <c r="A809" s="12"/>
+      <c r="F809" s="12"/>
     </row>
     <row r="810" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A810" s="17"/>
-      <c r="F810" s="17"/>
+      <c r="A810" s="12"/>
+      <c r="F810" s="12"/>
     </row>
     <row r="811" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A811" s="17"/>
-      <c r="F811" s="17"/>
+      <c r="A811" s="12"/>
+      <c r="F811" s="12"/>
     </row>
     <row r="812" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A812" s="17"/>
-      <c r="F812" s="17"/>
+      <c r="A812" s="12"/>
+      <c r="F812" s="12"/>
     </row>
     <row r="813" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A813" s="17"/>
-      <c r="F813" s="17"/>
+      <c r="A813" s="12"/>
+      <c r="F813" s="12"/>
     </row>
     <row r="814" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A814" s="17"/>
-      <c r="F814" s="17"/>
+      <c r="A814" s="12"/>
+      <c r="F814" s="12"/>
     </row>
     <row r="815" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A815" s="17"/>
-      <c r="F815" s="17"/>
+      <c r="A815" s="12"/>
+      <c r="F815" s="12"/>
     </row>
     <row r="816" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A816" s="17"/>
-      <c r="F816" s="17"/>
+      <c r="A816" s="12"/>
+      <c r="F816" s="12"/>
     </row>
     <row r="817" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="17"/>
-      <c r="F817" s="17"/>
+      <c r="A817" s="12"/>
+      <c r="F817" s="12"/>
     </row>
     <row r="818" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A818" s="17"/>
-      <c r="F818" s="17"/>
+      <c r="A818" s="12"/>
+      <c r="F818" s="12"/>
     </row>
     <row r="819" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A819" s="17"/>
-      <c r="F819" s="17"/>
+      <c r="A819" s="12"/>
+      <c r="F819" s="12"/>
     </row>
     <row r="820" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A820" s="17"/>
-      <c r="F820" s="17"/>
+      <c r="A820" s="12"/>
+      <c r="F820" s="12"/>
     </row>
     <row r="821" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A821" s="17"/>
-      <c r="F821" s="17"/>
+      <c r="A821" s="12"/>
+      <c r="F821" s="12"/>
     </row>
     <row r="822" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A822" s="17"/>
-      <c r="F822" s="17"/>
+      <c r="A822" s="12"/>
+      <c r="F822" s="12"/>
     </row>
     <row r="823" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A823" s="17"/>
-      <c r="F823" s="17"/>
+      <c r="A823" s="12"/>
+      <c r="F823" s="12"/>
     </row>
     <row r="824" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A824" s="17"/>
-      <c r="F824" s="17"/>
+      <c r="A824" s="12"/>
+      <c r="F824" s="12"/>
     </row>
     <row r="825" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A825" s="17"/>
-      <c r="F825" s="17"/>
+      <c r="A825" s="12"/>
+      <c r="F825" s="12"/>
     </row>
     <row r="826" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A826" s="17"/>
-      <c r="F826" s="17"/>
+      <c r="A826" s="12"/>
+      <c r="F826" s="12"/>
     </row>
     <row r="827" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A827" s="17"/>
-      <c r="F827" s="17"/>
+      <c r="A827" s="12"/>
+      <c r="F827" s="12"/>
     </row>
     <row r="828" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="17"/>
-      <c r="F828" s="17"/>
+      <c r="A828" s="12"/>
+      <c r="F828" s="12"/>
     </row>
     <row r="829" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="17"/>
-      <c r="F829" s="17"/>
+      <c r="A829" s="12"/>
+      <c r="F829" s="12"/>
     </row>
     <row r="830" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="17"/>
-      <c r="F830" s="17"/>
+      <c r="A830" s="12"/>
+      <c r="F830" s="12"/>
     </row>
     <row r="831" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A831" s="17"/>
-      <c r="F831" s="17"/>
+      <c r="A831" s="12"/>
+      <c r="F831" s="12"/>
     </row>
     <row r="832" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A832" s="17"/>
-      <c r="F832" s="17"/>
+      <c r="A832" s="12"/>
+      <c r="F832" s="12"/>
     </row>
     <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A833" s="17"/>
-      <c r="F833" s="17"/>
+      <c r="A833" s="12"/>
+      <c r="F833" s="12"/>
     </row>
     <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A834" s="17"/>
-      <c r="F834" s="17"/>
+      <c r="A834" s="12"/>
+      <c r="F834" s="12"/>
     </row>
     <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A835" s="17"/>
-      <c r="F835" s="17"/>
+      <c r="A835" s="12"/>
+      <c r="F835" s="12"/>
     </row>
     <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A836" s="17"/>
-      <c r="F836" s="17"/>
+      <c r="A836" s="12"/>
+      <c r="F836" s="12"/>
     </row>
     <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A837" s="17"/>
-      <c r="F837" s="17"/>
+      <c r="A837" s="12"/>
+      <c r="F837" s="12"/>
     </row>
     <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A838" s="17"/>
-      <c r="F838" s="17"/>
+      <c r="A838" s="12"/>
+      <c r="F838" s="12"/>
     </row>
     <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A839" s="17"/>
-      <c r="F839" s="17"/>
+      <c r="A839" s="12"/>
+      <c r="F839" s="12"/>
     </row>
     <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A840" s="17"/>
-      <c r="F840" s="17"/>
+      <c r="A840" s="12"/>
+      <c r="F840" s="12"/>
     </row>
     <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A841" s="17"/>
-      <c r="F841" s="17"/>
+      <c r="A841" s="12"/>
+      <c r="F841" s="12"/>
     </row>
     <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A842" s="17"/>
-      <c r="F842" s="17"/>
+      <c r="A842" s="12"/>
+      <c r="F842" s="12"/>
     </row>
     <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A843" s="17"/>
-      <c r="F843" s="17"/>
+      <c r="A843" s="12"/>
+      <c r="F843" s="12"/>
     </row>
     <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A844" s="17"/>
-      <c r="F844" s="17"/>
+      <c r="A844" s="12"/>
+      <c r="F844" s="12"/>
     </row>
     <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A845" s="17"/>
-      <c r="F845" s="17"/>
+      <c r="A845" s="12"/>
+      <c r="F845" s="12"/>
     </row>
     <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A846" s="17"/>
-      <c r="F846" s="17"/>
+      <c r="A846" s="12"/>
+      <c r="F846" s="12"/>
     </row>
     <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A847" s="17"/>
-      <c r="F847" s="17"/>
+      <c r="A847" s="12"/>
+      <c r="F847" s="12"/>
     </row>
     <row r="848" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A848" s="17"/>
-      <c r="F848" s="17"/>
+      <c r="A848" s="12"/>
+      <c r="F848" s="12"/>
     </row>
     <row r="849" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A849" s="17"/>
-      <c r="F849" s="17"/>
+      <c r="A849" s="12"/>
+      <c r="F849" s="12"/>
     </row>
     <row r="850" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A850" s="17"/>
-      <c r="F850" s="17"/>
+      <c r="A850" s="12"/>
+      <c r="F850" s="12"/>
     </row>
     <row r="851" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A851" s="17"/>
-      <c r="F851" s="17"/>
+      <c r="A851" s="12"/>
+      <c r="F851" s="12"/>
     </row>
     <row r="852" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A852" s="17"/>
-      <c r="F852" s="17"/>
+      <c r="A852" s="12"/>
+      <c r="F852" s="12"/>
     </row>
     <row r="853" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A853" s="17"/>
-      <c r="F853" s="17"/>
+      <c r="A853" s="12"/>
+      <c r="F853" s="12"/>
     </row>
     <row r="854" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A854" s="17"/>
-      <c r="F854" s="17"/>
+      <c r="A854" s="12"/>
+      <c r="F854" s="12"/>
     </row>
     <row r="855" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A855" s="17"/>
-      <c r="F855" s="17"/>
+      <c r="A855" s="12"/>
+      <c r="F855" s="12"/>
     </row>
     <row r="856" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A856" s="17"/>
-      <c r="F856" s="17"/>
+      <c r="A856" s="12"/>
+      <c r="F856" s="12"/>
     </row>
     <row r="857" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A857" s="17"/>
-      <c r="F857" s="17"/>
+      <c r="A857" s="12"/>
+      <c r="F857" s="12"/>
     </row>
     <row r="858" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A858" s="17"/>
-      <c r="F858" s="17"/>
+      <c r="A858" s="12"/>
+      <c r="F858" s="12"/>
     </row>
     <row r="859" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A859" s="17"/>
-      <c r="F859" s="17"/>
+      <c r="A859" s="12"/>
+      <c r="F859" s="12"/>
     </row>
     <row r="860" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A860" s="17"/>
-      <c r="F860" s="17"/>
+      <c r="A860" s="12"/>
+      <c r="F860" s="12"/>
     </row>
     <row r="861" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A861" s="17"/>
-      <c r="F861" s="17"/>
+      <c r="A861" s="12"/>
+      <c r="F861" s="12"/>
     </row>
     <row r="862" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A862" s="17"/>
-      <c r="F862" s="17"/>
+      <c r="A862" s="12"/>
+      <c r="F862" s="12"/>
     </row>
     <row r="863" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A863" s="17"/>
-      <c r="F863" s="17"/>
+      <c r="A863" s="12"/>
+      <c r="F863" s="12"/>
     </row>
     <row r="864" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A864" s="17"/>
-      <c r="F864" s="17"/>
+      <c r="A864" s="12"/>
+      <c r="F864" s="12"/>
     </row>
     <row r="865" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A865" s="17"/>
-      <c r="F865" s="17"/>
+      <c r="A865" s="12"/>
+      <c r="F865" s="12"/>
     </row>
     <row r="866" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A866" s="17"/>
-      <c r="F866" s="17"/>
+      <c r="A866" s="12"/>
+      <c r="F866" s="12"/>
     </row>
     <row r="867" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A867" s="17"/>
-      <c r="F867" s="17"/>
+      <c r="A867" s="12"/>
+      <c r="F867" s="12"/>
     </row>
     <row r="868" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A868" s="17"/>
-      <c r="F868" s="17"/>
+      <c r="A868" s="12"/>
+      <c r="F868" s="12"/>
     </row>
     <row r="869" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A869" s="17"/>
-      <c r="F869" s="17"/>
+      <c r="A869" s="12"/>
+      <c r="F869" s="12"/>
     </row>
     <row r="870" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A870" s="17"/>
-      <c r="F870" s="17"/>
+      <c r="A870" s="12"/>
+      <c r="F870" s="12"/>
     </row>
     <row r="871" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A871" s="17"/>
-      <c r="F871" s="17"/>
+      <c r="A871" s="12"/>
+      <c r="F871" s="12"/>
     </row>
     <row r="872" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A872" s="17"/>
-      <c r="F872" s="17"/>
+      <c r="A872" s="12"/>
+      <c r="F872" s="12"/>
     </row>
     <row r="873" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A873" s="17"/>
-      <c r="F873" s="17"/>
+      <c r="A873" s="12"/>
+      <c r="F873" s="12"/>
     </row>
     <row r="874" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A874" s="17"/>
-      <c r="F874" s="17"/>
+      <c r="A874" s="12"/>
+      <c r="F874" s="12"/>
     </row>
     <row r="875" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A875" s="17"/>
-      <c r="F875" s="17"/>
+      <c r="A875" s="12"/>
+      <c r="F875" s="12"/>
     </row>
     <row r="876" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="17"/>
-      <c r="F876" s="17"/>
+      <c r="A876" s="12"/>
+      <c r="F876" s="12"/>
     </row>
     <row r="877" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="17"/>
-      <c r="F877" s="17"/>
+      <c r="A877" s="12"/>
+      <c r="F877" s="12"/>
     </row>
     <row r="878" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A878" s="17"/>
-      <c r="F878" s="17"/>
+      <c r="A878" s="12"/>
+      <c r="F878" s="12"/>
     </row>
     <row r="879" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A879" s="17"/>
-      <c r="F879" s="17"/>
+      <c r="A879" s="12"/>
+      <c r="F879" s="12"/>
     </row>
     <row r="880" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A880" s="17"/>
-      <c r="F880" s="17"/>
+      <c r="A880" s="12"/>
+      <c r="F880" s="12"/>
     </row>
     <row r="881" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A881" s="17"/>
-      <c r="F881" s="17"/>
+      <c r="A881" s="12"/>
+      <c r="F881" s="12"/>
     </row>
     <row r="882" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A882" s="17"/>
-      <c r="F882" s="17"/>
+      <c r="A882" s="12"/>
+      <c r="F882" s="12"/>
     </row>
     <row r="883" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A883" s="17"/>
-      <c r="F883" s="17"/>
+      <c r="A883" s="12"/>
+      <c r="F883" s="12"/>
     </row>
     <row r="884" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A884" s="17"/>
-      <c r="F884" s="17"/>
+      <c r="A884" s="12"/>
+      <c r="F884" s="12"/>
     </row>
     <row r="885" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A885" s="17"/>
-      <c r="F885" s="17"/>
+      <c r="A885" s="12"/>
+      <c r="F885" s="12"/>
     </row>
     <row r="886" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A886" s="17"/>
-      <c r="F886" s="17"/>
+      <c r="A886" s="12"/>
+      <c r="F886" s="12"/>
     </row>
     <row r="887" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A887" s="17"/>
-      <c r="F887" s="17"/>
+      <c r="A887" s="12"/>
+      <c r="F887" s="12"/>
     </row>
     <row r="888" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A888" s="17"/>
-      <c r="F888" s="17"/>
+      <c r="A888" s="12"/>
+      <c r="F888" s="12"/>
     </row>
     <row r="889" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A889" s="17"/>
-      <c r="F889" s="17"/>
+      <c r="A889" s="12"/>
+      <c r="F889" s="12"/>
     </row>
     <row r="890" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A890" s="17"/>
-      <c r="F890" s="17"/>
+      <c r="A890" s="12"/>
+      <c r="F890" s="12"/>
     </row>
     <row r="891" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A891" s="17"/>
-      <c r="F891" s="17"/>
+      <c r="A891" s="12"/>
+      <c r="F891" s="12"/>
     </row>
     <row r="892" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A892" s="17"/>
-      <c r="F892" s="17"/>
+      <c r="A892" s="12"/>
+      <c r="F892" s="12"/>
     </row>
     <row r="893" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A893" s="17"/>
-      <c r="F893" s="17"/>
+      <c r="A893" s="12"/>
+      <c r="F893" s="12"/>
     </row>
     <row r="894" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A894" s="17"/>
-      <c r="F894" s="17"/>
+      <c r="A894" s="12"/>
+      <c r="F894" s="12"/>
     </row>
     <row r="895" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A895" s="17"/>
-      <c r="F895" s="17"/>
+      <c r="A895" s="12"/>
+      <c r="F895" s="12"/>
     </row>
     <row r="896" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A896" s="17"/>
-      <c r="F896" s="17"/>
+      <c r="A896" s="12"/>
+      <c r="F896" s="12"/>
     </row>
     <row r="897" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A897" s="17"/>
-      <c r="F897" s="17"/>
+      <c r="A897" s="12"/>
+      <c r="F897" s="12"/>
     </row>
     <row r="898" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A898" s="17"/>
-      <c r="F898" s="17"/>
+      <c r="A898" s="12"/>
+      <c r="F898" s="12"/>
     </row>
     <row r="899" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A899" s="17"/>
-      <c r="F899" s="17"/>
+      <c r="A899" s="12"/>
+      <c r="F899" s="12"/>
     </row>
     <row r="900" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A900" s="17"/>
-      <c r="F900" s="17"/>
+      <c r="A900" s="12"/>
+      <c r="F900" s="12"/>
     </row>
     <row r="901" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A901" s="17"/>
-      <c r="F901" s="17"/>
+      <c r="A901" s="12"/>
+      <c r="F901" s="12"/>
     </row>
     <row r="902" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A902" s="17"/>
-      <c r="F902" s="17"/>
+      <c r="A902" s="12"/>
+      <c r="F902" s="12"/>
     </row>
     <row r="903" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A903" s="17"/>
-      <c r="F903" s="17"/>
+      <c r="A903" s="12"/>
+      <c r="F903" s="12"/>
     </row>
     <row r="904" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A904" s="17"/>
-      <c r="F904" s="17"/>
+      <c r="A904" s="12"/>
+      <c r="F904" s="12"/>
     </row>
     <row r="905" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A905" s="17"/>
-      <c r="F905" s="17"/>
+      <c r="A905" s="12"/>
+      <c r="F905" s="12"/>
     </row>
     <row r="906" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A906" s="17"/>
-      <c r="F906" s="17"/>
+      <c r="A906" s="12"/>
+      <c r="F906" s="12"/>
     </row>
     <row r="907" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A907" s="17"/>
-      <c r="F907" s="17"/>
+      <c r="A907" s="12"/>
+      <c r="F907" s="12"/>
     </row>
     <row r="908" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A908" s="17"/>
-      <c r="F908" s="17"/>
+      <c r="A908" s="12"/>
+      <c r="F908" s="12"/>
     </row>
     <row r="909" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A909" s="17"/>
-      <c r="F909" s="17"/>
+      <c r="A909" s="12"/>
+      <c r="F909" s="12"/>
     </row>
     <row r="910" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A910" s="17"/>
-      <c r="F910" s="17"/>
+      <c r="A910" s="12"/>
+      <c r="F910" s="12"/>
     </row>
     <row r="911" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A911" s="17"/>
-      <c r="F911" s="17"/>
+      <c r="A911" s="12"/>
+      <c r="F911" s="12"/>
     </row>
     <row r="912" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A912" s="17"/>
-      <c r="F912" s="17"/>
+      <c r="A912" s="12"/>
+      <c r="F912" s="12"/>
     </row>
     <row r="913" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A913" s="17"/>
-      <c r="F913" s="17"/>
+      <c r="A913" s="12"/>
+      <c r="F913" s="12"/>
     </row>
     <row r="914" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A914" s="17"/>
-      <c r="F914" s="17"/>
+      <c r="A914" s="12"/>
+      <c r="F914" s="12"/>
     </row>
     <row r="915" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A915" s="17"/>
-      <c r="F915" s="17"/>
+      <c r="A915" s="12"/>
+      <c r="F915" s="12"/>
     </row>
     <row r="916" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A916" s="17"/>
-      <c r="F916" s="17"/>
+      <c r="A916" s="12"/>
+      <c r="F916" s="12"/>
     </row>
     <row r="917" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A917" s="17"/>
-      <c r="F917" s="17"/>
+      <c r="A917" s="12"/>
+      <c r="F917" s="12"/>
     </row>
     <row r="918" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A918" s="17"/>
-      <c r="F918" s="17"/>
+      <c r="A918" s="12"/>
+      <c r="F918" s="12"/>
     </row>
     <row r="919" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A919" s="17"/>
-      <c r="F919" s="17"/>
+      <c r="A919" s="12"/>
+      <c r="F919" s="12"/>
     </row>
     <row r="920" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A920" s="17"/>
-      <c r="F920" s="17"/>
+      <c r="A920" s="12"/>
+      <c r="F920" s="12"/>
     </row>
     <row r="921" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A921" s="17"/>
-      <c r="F921" s="17"/>
+      <c r="A921" s="12"/>
+      <c r="F921" s="12"/>
     </row>
     <row r="922" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A922" s="17"/>
-      <c r="F922" s="17"/>
+      <c r="A922" s="12"/>
+      <c r="F922" s="12"/>
     </row>
     <row r="923" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A923" s="17"/>
-      <c r="F923" s="17"/>
+      <c r="A923" s="12"/>
+      <c r="F923" s="12"/>
     </row>
     <row r="924" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A924" s="17"/>
-      <c r="F924" s="17"/>
+      <c r="A924" s="12"/>
+      <c r="F924" s="12"/>
     </row>
     <row r="925" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A925" s="17"/>
-      <c r="F925" s="17"/>
+      <c r="A925" s="12"/>
+      <c r="F925" s="12"/>
     </row>
     <row r="926" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A926" s="17"/>
-      <c r="F926" s="17"/>
+      <c r="A926" s="12"/>
+      <c r="F926" s="12"/>
     </row>
     <row r="927" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A927" s="17"/>
-      <c r="F927" s="17"/>
+      <c r="A927" s="12"/>
+      <c r="F927" s="12"/>
     </row>
     <row r="928" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A928" s="17"/>
-      <c r="F928" s="17"/>
+      <c r="A928" s="12"/>
+      <c r="F928" s="12"/>
     </row>
     <row r="929" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A929" s="17"/>
-      <c r="F929" s="17"/>
+      <c r="A929" s="12"/>
+      <c r="F929" s="12"/>
     </row>
     <row r="930" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A930" s="17"/>
-      <c r="F930" s="17"/>
+      <c r="A930" s="12"/>
+      <c r="F930" s="12"/>
     </row>
     <row r="931" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A931" s="17"/>
-      <c r="F931" s="17"/>
+      <c r="A931" s="12"/>
+      <c r="F931" s="12"/>
     </row>
     <row r="932" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A932" s="17"/>
-      <c r="F932" s="17"/>
+      <c r="A932" s="12"/>
+      <c r="F932" s="12"/>
     </row>
     <row r="933" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A933" s="17"/>
-      <c r="F933" s="17"/>
+      <c r="A933" s="12"/>
+      <c r="F933" s="12"/>
     </row>
     <row r="934" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A934" s="17"/>
-      <c r="F934" s="17"/>
+      <c r="A934" s="12"/>
+      <c r="F934" s="12"/>
     </row>
     <row r="935" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A935" s="17"/>
-      <c r="F935" s="17"/>
+      <c r="A935" s="12"/>
+      <c r="F935" s="12"/>
     </row>
     <row r="936" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A936" s="17"/>
-      <c r="F936" s="17"/>
+      <c r="A936" s="12"/>
+      <c r="F936" s="12"/>
     </row>
     <row r="937" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A937" s="17"/>
-      <c r="F937" s="17"/>
+      <c r="A937" s="12"/>
+      <c r="F937" s="12"/>
     </row>
     <row r="938" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A938" s="17"/>
-      <c r="F938" s="17"/>
+      <c r="A938" s="12"/>
+      <c r="F938" s="12"/>
     </row>
     <row r="939" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A939" s="17"/>
-      <c r="F939" s="17"/>
+      <c r="A939" s="12"/>
+      <c r="F939" s="12"/>
     </row>
     <row r="940" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A940" s="17"/>
-      <c r="F940" s="17"/>
+      <c r="A940" s="12"/>
+      <c r="F940" s="12"/>
     </row>
     <row r="941" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A941" s="17"/>
-      <c r="F941" s="17"/>
+      <c r="A941" s="12"/>
+      <c r="F941" s="12"/>
     </row>
     <row r="942" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A942" s="17"/>
-      <c r="F942" s="17"/>
+      <c r="A942" s="12"/>
+      <c r="F942" s="12"/>
     </row>
     <row r="943" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A943" s="17"/>
-      <c r="F943" s="17"/>
+      <c r="A943" s="12"/>
+      <c r="F943" s="12"/>
     </row>
     <row r="944" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A944" s="17"/>
-      <c r="F944" s="17"/>
+      <c r="A944" s="12"/>
+      <c r="F944" s="12"/>
     </row>
     <row r="945" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A945" s="17"/>
-      <c r="F945" s="17"/>
+      <c r="A945" s="12"/>
+      <c r="F945" s="12"/>
     </row>
     <row r="946" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A946" s="17"/>
-      <c r="F946" s="17"/>
+      <c r="A946" s="12"/>
+      <c r="F946" s="12"/>
     </row>
     <row r="947" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A947" s="17"/>
-      <c r="F947" s="17"/>
+      <c r="A947" s="12"/>
+      <c r="F947" s="12"/>
     </row>
     <row r="948" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A948" s="17"/>
-      <c r="F948" s="17"/>
+      <c r="A948" s="12"/>
+      <c r="F948" s="12"/>
     </row>
     <row r="949" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A949" s="17"/>
-      <c r="F949" s="17"/>
+      <c r="A949" s="12"/>
+      <c r="F949" s="12"/>
     </row>
     <row r="950" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A950" s="17"/>
-      <c r="F950" s="17"/>
+      <c r="A950" s="12"/>
+      <c r="F950" s="12"/>
     </row>
     <row r="951" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A951" s="17"/>
-      <c r="F951" s="17"/>
+      <c r="A951" s="12"/>
+      <c r="F951" s="12"/>
     </row>
     <row r="952" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A952" s="17"/>
-      <c r="F952" s="17"/>
+      <c r="A952" s="12"/>
+      <c r="F952" s="12"/>
     </row>
     <row r="953" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A953" s="17"/>
-      <c r="F953" s="17"/>
+      <c r="A953" s="12"/>
+      <c r="F953" s="12"/>
     </row>
     <row r="954" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A954" s="17"/>
-      <c r="F954" s="17"/>
+      <c r="A954" s="12"/>
+      <c r="F954" s="12"/>
     </row>
     <row r="955" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A955" s="17"/>
-      <c r="F955" s="17"/>
+      <c r="A955" s="12"/>
+      <c r="F955" s="12"/>
     </row>
     <row r="956" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A956" s="17"/>
-      <c r="F956" s="17"/>
+      <c r="A956" s="12"/>
+      <c r="F956" s="12"/>
     </row>
     <row r="957" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A957" s="17"/>
-      <c r="F957" s="17"/>
+      <c r="A957" s="12"/>
+      <c r="F957" s="12"/>
     </row>
     <row r="958" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A958" s="17"/>
-      <c r="F958" s="17"/>
+      <c r="A958" s="12"/>
+      <c r="F958" s="12"/>
     </row>
     <row r="959" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A959" s="17"/>
-      <c r="F959" s="17"/>
+      <c r="A959" s="12"/>
+      <c r="F959" s="12"/>
     </row>
     <row r="960" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A960" s="17"/>
-      <c r="F960" s="17"/>
+      <c r="A960" s="12"/>
+      <c r="F960" s="12"/>
     </row>
     <row r="961" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A961" s="17"/>
-      <c r="F961" s="17"/>
+      <c r="A961" s="12"/>
+      <c r="F961" s="12"/>
     </row>
     <row r="962" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A962" s="17"/>
-      <c r="F962" s="17"/>
+      <c r="A962" s="12"/>
+      <c r="F962" s="12"/>
     </row>
     <row r="963" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A963" s="17"/>
-      <c r="F963" s="17"/>
+      <c r="A963" s="12"/>
+      <c r="F963" s="12"/>
     </row>
     <row r="964" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A964" s="17"/>
-      <c r="F964" s="17"/>
+      <c r="A964" s="12"/>
+      <c r="F964" s="12"/>
     </row>
     <row r="965" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A965" s="17"/>
-      <c r="F965" s="17"/>
+      <c r="A965" s="12"/>
+      <c r="F965" s="12"/>
     </row>
     <row r="966" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A966" s="17"/>
-      <c r="F966" s="17"/>
+      <c r="A966" s="12"/>
+      <c r="F966" s="12"/>
     </row>
     <row r="967" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A967" s="17"/>
-      <c r="F967" s="17"/>
+      <c r="A967" s="12"/>
+      <c r="F967" s="12"/>
     </row>
     <row r="968" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A968" s="17"/>
-      <c r="F968" s="17"/>
+      <c r="A968" s="12"/>
+      <c r="F968" s="12"/>
     </row>
     <row r="969" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A969" s="17"/>
-      <c r="F969" s="17"/>
+      <c r="A969" s="12"/>
+      <c r="F969" s="12"/>
     </row>
     <row r="970" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A970" s="17"/>
-      <c r="F970" s="17"/>
+      <c r="A970" s="12"/>
+      <c r="F970" s="12"/>
     </row>
     <row r="971" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A971" s="17"/>
-      <c r="F971" s="17"/>
+      <c r="A971" s="12"/>
+      <c r="F971" s="12"/>
     </row>
     <row r="972" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A972" s="17"/>
-      <c r="F972" s="17"/>
+      <c r="A972" s="12"/>
+      <c r="F972" s="12"/>
     </row>
     <row r="973" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A973" s="17"/>
-      <c r="F973" s="17"/>
+      <c r="A973" s="12"/>
+      <c r="F973" s="12"/>
     </row>
     <row r="974" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A974" s="17"/>
-      <c r="F974" s="17"/>
+      <c r="A974" s="12"/>
+      <c r="F974" s="12"/>
     </row>
     <row r="975" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A975" s="17"/>
-      <c r="F975" s="17"/>
+      <c r="A975" s="12"/>
+      <c r="F975" s="12"/>
     </row>
     <row r="976" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A976" s="17"/>
-      <c r="F976" s="17"/>
+      <c r="A976" s="12"/>
+      <c r="F976" s="12"/>
     </row>
     <row r="977" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A977" s="17"/>
-      <c r="F977" s="17"/>
+      <c r="A977" s="12"/>
+      <c r="F977" s="12"/>
     </row>
     <row r="978" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A978" s="17"/>
-      <c r="F978" s="17"/>
+      <c r="A978" s="12"/>
+      <c r="F978" s="12"/>
     </row>
     <row r="979" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A979" s="17"/>
-      <c r="F979" s="17"/>
+      <c r="A979" s="12"/>
+      <c r="F979" s="12"/>
     </row>
     <row r="980" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A980" s="17"/>
-      <c r="F980" s="17"/>
+      <c r="A980" s="12"/>
+      <c r="F980" s="12"/>
     </row>
     <row r="981" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A981" s="17"/>
-      <c r="F981" s="17"/>
+      <c r="A981" s="12"/>
+      <c r="F981" s="12"/>
     </row>
     <row r="982" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A982" s="17"/>
-      <c r="F982" s="17"/>
+      <c r="A982" s="12"/>
+      <c r="F982" s="12"/>
     </row>
     <row r="983" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A983" s="17"/>
-      <c r="F983" s="17"/>
+      <c r="A983" s="12"/>
+      <c r="F983" s="12"/>
     </row>
     <row r="984" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A984" s="17"/>
-      <c r="F984" s="17"/>
+      <c r="A984" s="12"/>
+      <c r="F984" s="12"/>
     </row>
     <row r="985" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A985" s="17"/>
-      <c r="F985" s="17"/>
+      <c r="A985" s="12"/>
+      <c r="F985" s="12"/>
     </row>
     <row r="986" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A986" s="17"/>
-      <c r="F986" s="17"/>
+      <c r="A986" s="12"/>
+      <c r="F986" s="12"/>
     </row>
     <row r="987" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A987" s="17"/>
-      <c r="F987" s="17"/>
+      <c r="A987" s="12"/>
+      <c r="F987" s="12"/>
     </row>
     <row r="988" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A988" s="17"/>
-      <c r="F988" s="17"/>
+      <c r="A988" s="12"/>
+      <c r="F988" s="12"/>
     </row>
     <row r="989" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A989" s="17"/>
-      <c r="F989" s="17"/>
+      <c r="A989" s="12"/>
+      <c r="F989" s="12"/>
     </row>
     <row r="990" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A990" s="17"/>
-      <c r="F990" s="17"/>
+      <c r="A990" s="12"/>
+      <c r="F990" s="12"/>
     </row>
     <row r="991" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A991" s="17"/>
-      <c r="F991" s="17"/>
+      <c r="A991" s="12"/>
+      <c r="F991" s="12"/>
     </row>
     <row r="992" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A992" s="17"/>
-      <c r="F992" s="17"/>
+      <c r="A992" s="12"/>
+      <c r="F992" s="12"/>
     </row>
     <row r="993" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A993" s="17"/>
-      <c r="F993" s="17"/>
+      <c r="A993" s="12"/>
+      <c r="F993" s="12"/>
     </row>
     <row r="994" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A994" s="17"/>
-      <c r="F994" s="17"/>
+      <c r="A994" s="12"/>
+      <c r="F994" s="12"/>
     </row>
     <row r="995" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="17"/>
-      <c r="F995" s="17"/>
+      <c r="A995" s="12"/>
+      <c r="F995" s="12"/>
     </row>
     <row r="996" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A996" s="17"/>
-      <c r="F996" s="17"/>
+      <c r="A996" s="12"/>
+      <c r="F996" s="12"/>
     </row>
     <row r="997" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="17"/>
-      <c r="F997" s="17"/>
+      <c r="A997" s="12"/>
+      <c r="F997" s="12"/>
     </row>
     <row r="998" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="17"/>
-      <c r="F998" s="17"/>
+      <c r="A998" s="12"/>
+      <c r="F998" s="12"/>
     </row>
     <row r="999" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="17"/>
-      <c r="F999" s="17"/>
+      <c r="A999" s="12"/>
+      <c r="F999" s="12"/>
     </row>
     <row r="1000" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="17"/>
-      <c r="F1000" s="17"/>
+      <c r="A1000" s="12"/>
+      <c r="F1000" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9187,25 +9122,25 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -9228,21 +9163,21 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>61</v>
+      <c r="A2" s="19" t="s">
+        <v>52</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="D2" s="16" t="s">
-        <v>65</v>
+      <c r="B2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>56</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>66</v>
+      <c r="E2" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CF48ED-8574-4070-8E34-8378A2DC63A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C4C027-0B2E-4182-B105-B9187673E82B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -253,6 +253,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -319,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -372,6 +379,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4944,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4956,20 +4964,21 @@
     <col min="2" max="2" width="22.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="29.140625" style="11" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" style="11" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="11"/>
-    <col min="15" max="15" width="20.7109375" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="14.42578125" style="11"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="11" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="11" customWidth="1"/>
+    <col min="13" max="13" width="27.7109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" style="11" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="11"/>
+    <col min="16" max="16" width="20.7109375" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="14.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>50</v>
       </c>
@@ -4982,4117 +4991,4123 @@
       <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>56</v>
+      <c r="E2" s="20">
+        <v>666677773</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="14"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="14"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="14"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="14"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
-      <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
-      <c r="F83" s="12"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
-      <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
-      <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
-      <c r="F92" s="12"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
-      <c r="F95" s="12"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
-      <c r="F96" s="12"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
-      <c r="F98" s="12"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
-      <c r="F101" s="12"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
-      <c r="F102" s="12"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
-      <c r="F103" s="12"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
-      <c r="F104" s="12"/>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
-      <c r="F105" s="12"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
-      <c r="F106" s="12"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
-      <c r="F107" s="12"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
-      <c r="F108" s="12"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
-      <c r="F109" s="12"/>
-    </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
-      <c r="F110" s="12"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
-      <c r="F111" s="12"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12"/>
-      <c r="F114" s="12"/>
-    </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G114" s="12"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12"/>
-      <c r="F115" s="12"/>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12"/>
-      <c r="F116" s="12"/>
-    </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12"/>
-      <c r="F117" s="12"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
-      <c r="F118" s="12"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
-      <c r="F119" s="12"/>
-    </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
-      <c r="F122" s="12"/>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G122" s="12"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="12"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="12"/>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
-      <c r="F125" s="12"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12"/>
-      <c r="F126" s="12"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12"/>
-      <c r="F127" s="12"/>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
-      <c r="F128" s="12"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12"/>
-      <c r="F130" s="12"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12"/>
-      <c r="F131" s="12"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12"/>
-      <c r="F132" s="12"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12"/>
-      <c r="F133" s="12"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12"/>
-      <c r="F134" s="12"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12"/>
-      <c r="F135" s="12"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12"/>
-      <c r="F136" s="12"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12"/>
-      <c r="F137" s="12"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
-      <c r="F138" s="12"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12"/>
-      <c r="F139" s="12"/>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12"/>
-      <c r="F140" s="12"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G140" s="12"/>
+    </row>
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12"/>
-      <c r="F141" s="12"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G141" s="12"/>
+    </row>
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="12"/>
-      <c r="F142" s="12"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G142" s="12"/>
+    </row>
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12"/>
-      <c r="F143" s="12"/>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12"/>
-      <c r="F144" s="12"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
-      <c r="F145" s="12"/>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12"/>
-      <c r="F146" s="12"/>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12"/>
-      <c r="F147" s="12"/>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12"/>
-      <c r="F148" s="12"/>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12"/>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="12"/>
-      <c r="F150" s="12"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12"/>
-      <c r="F151" s="12"/>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
-      <c r="F152" s="12"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="12"/>
-      <c r="F153" s="12"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
-      <c r="F154" s="12"/>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="12"/>
-      <c r="F155" s="12"/>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="12"/>
-      <c r="F156" s="12"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
-      <c r="F157" s="12"/>
-    </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="12"/>
-      <c r="F158" s="12"/>
-    </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
-      <c r="F159" s="12"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="12"/>
-      <c r="F160" s="12"/>
-    </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
-      <c r="F161" s="12"/>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="12"/>
-      <c r="F162" s="12"/>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="12"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
-      <c r="F163" s="12"/>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="12"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12"/>
-      <c r="F164" s="12"/>
-    </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="12"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
-      <c r="F165" s="12"/>
-    </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="12"/>
-      <c r="F166" s="12"/>
-    </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="12"/>
-      <c r="F167" s="12"/>
-    </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12"/>
-      <c r="F168" s="12"/>
-    </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
-      <c r="F169" s="12"/>
-    </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="12"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12"/>
-      <c r="F170" s="12"/>
-    </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G170" s="12"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12"/>
-      <c r="F171" s="12"/>
-    </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="12"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12"/>
-      <c r="F172" s="12"/>
-    </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12"/>
-      <c r="F173" s="12"/>
-    </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G173" s="12"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12"/>
-      <c r="F174" s="12"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="12"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12"/>
-      <c r="F175" s="12"/>
-    </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="12"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12"/>
-      <c r="F176" s="12"/>
-    </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G176" s="12"/>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12"/>
-      <c r="F177" s="12"/>
-    </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G177" s="12"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12"/>
-      <c r="F178" s="12"/>
-    </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="12"/>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12"/>
-      <c r="F179" s="12"/>
-    </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="12"/>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="12"/>
-      <c r="F180" s="12"/>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="12"/>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="12"/>
-      <c r="F181" s="12"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G181" s="12"/>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
-      <c r="F182" s="12"/>
-    </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="12"/>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12"/>
-      <c r="F183" s="12"/>
-    </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G183" s="12"/>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12"/>
-      <c r="F184" s="12"/>
-    </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G184" s="12"/>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12"/>
-      <c r="F185" s="12"/>
-    </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G185" s="12"/>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12"/>
-      <c r="F186" s="12"/>
-    </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G186" s="12"/>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12"/>
-      <c r="F187" s="12"/>
-    </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G187" s="12"/>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
-      <c r="F188" s="12"/>
-    </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G188" s="12"/>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12"/>
-      <c r="F189" s="12"/>
-    </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G189" s="12"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
-      <c r="F190" s="12"/>
-    </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G190" s="12"/>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="12"/>
-      <c r="F191" s="12"/>
-    </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G191" s="12"/>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12"/>
-      <c r="F192" s="12"/>
-    </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G192" s="12"/>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12"/>
-      <c r="F193" s="12"/>
-    </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G193" s="12"/>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12"/>
-      <c r="F194" s="12"/>
-    </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="12"/>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12"/>
-      <c r="F195" s="12"/>
-    </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="12"/>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12"/>
-      <c r="F196" s="12"/>
-    </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G196" s="12"/>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
-      <c r="F197" s="12"/>
-    </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G197" s="12"/>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12"/>
-      <c r="F198" s="12"/>
-    </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G198" s="12"/>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12"/>
-      <c r="F199" s="12"/>
-    </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G199" s="12"/>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12"/>
-      <c r="F200" s="12"/>
-    </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12"/>
-      <c r="F201" s="12"/>
-    </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G201" s="12"/>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
-      <c r="F202" s="12"/>
-    </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G202" s="12"/>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12"/>
-      <c r="F203" s="12"/>
-    </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
-      <c r="F204" s="12"/>
-    </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="12"/>
-      <c r="F205" s="12"/>
-    </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G205" s="12"/>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="12"/>
-      <c r="F206" s="12"/>
-    </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G206" s="12"/>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
-      <c r="F207" s="12"/>
-    </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="12"/>
-      <c r="F208" s="12"/>
-    </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
-      <c r="F209" s="12"/>
-    </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
-      <c r="F210" s="12"/>
-    </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G210" s="12"/>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
-      <c r="F211" s="12"/>
-    </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12"/>
-      <c r="F212" s="12"/>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G212" s="12"/>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12"/>
-      <c r="F213" s="12"/>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G213" s="12"/>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
-      <c r="F214" s="12"/>
-    </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12"/>
-      <c r="F215" s="12"/>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12"/>
-      <c r="F216" s="12"/>
-    </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G216" s="12"/>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12"/>
-      <c r="F217" s="12"/>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G217" s="12"/>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12"/>
-      <c r="F218" s="12"/>
-    </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G218" s="12"/>
+    </row>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
-      <c r="F219" s="12"/>
-    </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G219" s="12"/>
+    </row>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12"/>
-      <c r="F220" s="12"/>
-    </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G220" s="12"/>
+    </row>
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12"/>
-      <c r="F221" s="12"/>
-    </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G221" s="12"/>
+    </row>
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
-      <c r="F222" s="12"/>
-    </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G222" s="12"/>
+    </row>
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
-      <c r="F223" s="12"/>
-    </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G223" s="12"/>
+    </row>
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12"/>
-      <c r="F224" s="12"/>
-    </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G224" s="12"/>
+    </row>
+    <row r="225" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12"/>
-      <c r="F225" s="12"/>
-    </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G225" s="12"/>
+    </row>
+    <row r="226" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
-      <c r="F226" s="12"/>
-    </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G226" s="12"/>
+    </row>
+    <row r="227" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12"/>
-      <c r="F227" s="12"/>
-    </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G227" s="12"/>
+    </row>
+    <row r="228" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
-      <c r="F228" s="12"/>
-    </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G228" s="12"/>
+    </row>
+    <row r="229" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
-      <c r="F229" s="12"/>
-    </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G229" s="12"/>
+    </row>
+    <row r="230" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12"/>
-      <c r="F230" s="12"/>
-    </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G230" s="12"/>
+    </row>
+    <row r="231" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12"/>
-      <c r="F231" s="12"/>
-    </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G231" s="12"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12"/>
-      <c r="F232" s="12"/>
-    </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G232" s="12"/>
+    </row>
+    <row r="233" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12"/>
-      <c r="F233" s="12"/>
-    </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G233" s="12"/>
+    </row>
+    <row r="234" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12"/>
-      <c r="F234" s="12"/>
-    </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G234" s="12"/>
+    </row>
+    <row r="235" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12"/>
-      <c r="F235" s="12"/>
-    </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G235" s="12"/>
+    </row>
+    <row r="236" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12"/>
-      <c r="F236" s="12"/>
-    </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G236" s="12"/>
+    </row>
+    <row r="237" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12"/>
-      <c r="F237" s="12"/>
-    </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G237" s="12"/>
+    </row>
+    <row r="238" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12"/>
-      <c r="F238" s="12"/>
-    </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G238" s="12"/>
+    </row>
+    <row r="239" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12"/>
-      <c r="F239" s="12"/>
-    </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G239" s="12"/>
+    </row>
+    <row r="240" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12"/>
-      <c r="F240" s="12"/>
-    </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G240" s="12"/>
+    </row>
+    <row r="241" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12"/>
-      <c r="F241" s="12"/>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G241" s="12"/>
+    </row>
+    <row r="242" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12"/>
-      <c r="F242" s="12"/>
-    </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G242" s="12"/>
+    </row>
+    <row r="243" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12"/>
-      <c r="F243" s="12"/>
-    </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G243" s="12"/>
+    </row>
+    <row r="244" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12"/>
-      <c r="F244" s="12"/>
-    </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G244" s="12"/>
+    </row>
+    <row r="245" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
-      <c r="F245" s="12"/>
-    </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G245" s="12"/>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12"/>
-      <c r="F246" s="12"/>
-    </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G246" s="12"/>
+    </row>
+    <row r="247" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12"/>
-      <c r="F247" s="12"/>
-    </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G247" s="12"/>
+    </row>
+    <row r="248" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12"/>
-      <c r="F248" s="12"/>
-    </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G248" s="12"/>
+    </row>
+    <row r="249" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12"/>
-      <c r="F249" s="12"/>
-    </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G249" s="12"/>
+    </row>
+    <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12"/>
-      <c r="F250" s="12"/>
-    </row>
-    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G250" s="12"/>
+    </row>
+    <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12"/>
-      <c r="F251" s="12"/>
-    </row>
-    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G251" s="12"/>
+    </row>
+    <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12"/>
-      <c r="F252" s="12"/>
-    </row>
-    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G252" s="12"/>
+    </row>
+    <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12"/>
-      <c r="F253" s="12"/>
-    </row>
-    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G253" s="12"/>
+    </row>
+    <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12"/>
-      <c r="F254" s="12"/>
-    </row>
-    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G254" s="12"/>
+    </row>
+    <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12"/>
-      <c r="F255" s="12"/>
-    </row>
-    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G255" s="12"/>
+    </row>
+    <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12"/>
-      <c r="F256" s="12"/>
-    </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G256" s="12"/>
+    </row>
+    <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12"/>
-      <c r="F257" s="12"/>
-    </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G257" s="12"/>
+    </row>
+    <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12"/>
-      <c r="F258" s="12"/>
-    </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G258" s="12"/>
+    </row>
+    <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
-      <c r="F259" s="12"/>
-    </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G259" s="12"/>
+    </row>
+    <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12"/>
-      <c r="F260" s="12"/>
-    </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G260" s="12"/>
+    </row>
+    <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
-      <c r="F261" s="12"/>
-    </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G261" s="12"/>
+    </row>
+    <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12"/>
-      <c r="F262" s="12"/>
-    </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G262" s="12"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
-      <c r="F263" s="12"/>
-    </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G263" s="12"/>
+    </row>
+    <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12"/>
-      <c r="F264" s="12"/>
-    </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G264" s="12"/>
+    </row>
+    <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12"/>
-      <c r="F265" s="12"/>
-    </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G265" s="12"/>
+    </row>
+    <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12"/>
-      <c r="F266" s="12"/>
-    </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G266" s="12"/>
+    </row>
+    <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
-      <c r="F267" s="12"/>
-    </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G267" s="12"/>
+    </row>
+    <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="12"/>
-      <c r="F268" s="12"/>
-    </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G268" s="12"/>
+    </row>
+    <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="12"/>
-      <c r="F269" s="12"/>
-    </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G269" s="12"/>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
-      <c r="F270" s="12"/>
-    </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G270" s="12"/>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
-      <c r="F271" s="12"/>
-    </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G271" s="12"/>
+    </row>
+    <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
-      <c r="F272" s="12"/>
-    </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G272" s="12"/>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="12"/>
-      <c r="F273" s="12"/>
-    </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G273" s="12"/>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="12"/>
-      <c r="F274" s="12"/>
-    </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G274" s="12"/>
+    </row>
+    <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="12"/>
-      <c r="F275" s="12"/>
-    </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G275" s="12"/>
+    </row>
+    <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="12"/>
-      <c r="F276" s="12"/>
-    </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G276" s="12"/>
+    </row>
+    <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="12"/>
-      <c r="F277" s="12"/>
-    </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G277" s="12"/>
+    </row>
+    <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="12"/>
-      <c r="F278" s="12"/>
-    </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G278" s="12"/>
+    </row>
+    <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="12"/>
-      <c r="F279" s="12"/>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G279" s="12"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="12"/>
-      <c r="F280" s="12"/>
-    </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G280" s="12"/>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="12"/>
-      <c r="F281" s="12"/>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G281" s="12"/>
+    </row>
+    <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="12"/>
-      <c r="F282" s="12"/>
-    </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G282" s="12"/>
+    </row>
+    <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="12"/>
-      <c r="F283" s="12"/>
-    </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G283" s="12"/>
+    </row>
+    <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="12"/>
-      <c r="F284" s="12"/>
-    </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G284" s="12"/>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="12"/>
-      <c r="F285" s="12"/>
-    </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G285" s="12"/>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="12"/>
-      <c r="F286" s="12"/>
-    </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G286" s="12"/>
+    </row>
+    <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="12"/>
-      <c r="F287" s="12"/>
-    </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G287" s="12"/>
+    </row>
+    <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="12"/>
-      <c r="F288" s="12"/>
-    </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G288" s="12"/>
+    </row>
+    <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12"/>
-      <c r="F289" s="12"/>
-    </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G289" s="12"/>
+    </row>
+    <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="12"/>
-      <c r="F290" s="12"/>
-    </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G290" s="12"/>
+    </row>
+    <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="12"/>
-      <c r="F291" s="12"/>
-    </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G291" s="12"/>
+    </row>
+    <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="12"/>
-      <c r="F292" s="12"/>
-    </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G292" s="12"/>
+    </row>
+    <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="12"/>
-      <c r="F293" s="12"/>
-    </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G293" s="12"/>
+    </row>
+    <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="12"/>
-      <c r="F294" s="12"/>
-    </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G294" s="12"/>
+    </row>
+    <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
-      <c r="F295" s="12"/>
-    </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G295" s="12"/>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="12"/>
-      <c r="F296" s="12"/>
-    </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G296" s="12"/>
+    </row>
+    <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="12"/>
-      <c r="F297" s="12"/>
-    </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G297" s="12"/>
+    </row>
+    <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="12"/>
-      <c r="F298" s="12"/>
-    </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G298" s="12"/>
+    </row>
+    <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="12"/>
-      <c r="F299" s="12"/>
-    </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G299" s="12"/>
+    </row>
+    <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="12"/>
-      <c r="F300" s="12"/>
-    </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G300" s="12"/>
+    </row>
+    <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="12"/>
-      <c r="F301" s="12"/>
-    </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G301" s="12"/>
+    </row>
+    <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="12"/>
-      <c r="F302" s="12"/>
-    </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G302" s="12"/>
+    </row>
+    <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="12"/>
-      <c r="F303" s="12"/>
-    </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G303" s="12"/>
+    </row>
+    <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="12"/>
-      <c r="F304" s="12"/>
-    </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G304" s="12"/>
+    </row>
+    <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="12"/>
-      <c r="F305" s="12"/>
-    </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G305" s="12"/>
+    </row>
+    <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="12"/>
-      <c r="F306" s="12"/>
-    </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G306" s="12"/>
+    </row>
+    <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="12"/>
-      <c r="F307" s="12"/>
-    </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G307" s="12"/>
+    </row>
+    <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="12"/>
-      <c r="F308" s="12"/>
-    </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G308" s="12"/>
+    </row>
+    <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="12"/>
-      <c r="F309" s="12"/>
-    </row>
-    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G309" s="12"/>
+    </row>
+    <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>
-      <c r="F310" s="12"/>
-    </row>
-    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G310" s="12"/>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="12"/>
-      <c r="F311" s="12"/>
-    </row>
-    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G311" s="12"/>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="12"/>
-      <c r="F312" s="12"/>
-    </row>
-    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G312" s="12"/>
+    </row>
+    <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="12"/>
-      <c r="F313" s="12"/>
-    </row>
-    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G313" s="12"/>
+    </row>
+    <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="12"/>
-      <c r="F314" s="12"/>
-    </row>
-    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G314" s="12"/>
+    </row>
+    <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="12"/>
-      <c r="F315" s="12"/>
-    </row>
-    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G315" s="12"/>
+    </row>
+    <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="12"/>
-      <c r="F316" s="12"/>
-    </row>
-    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G316" s="12"/>
+    </row>
+    <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="12"/>
-      <c r="F317" s="12"/>
-    </row>
-    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G317" s="12"/>
+    </row>
+    <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="12"/>
-      <c r="F318" s="12"/>
-    </row>
-    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G318" s="12"/>
+    </row>
+    <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="12"/>
-      <c r="F319" s="12"/>
-    </row>
-    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G319" s="12"/>
+    </row>
+    <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="12"/>
-      <c r="F320" s="12"/>
-    </row>
-    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G320" s="12"/>
+    </row>
+    <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="12"/>
-      <c r="F321" s="12"/>
-    </row>
-    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G321" s="12"/>
+    </row>
+    <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="12"/>
-      <c r="F322" s="12"/>
-    </row>
-    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G322" s="12"/>
+    </row>
+    <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="12"/>
-      <c r="F323" s="12"/>
-    </row>
-    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G323" s="12"/>
+    </row>
+    <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="12"/>
-      <c r="F324" s="12"/>
-    </row>
-    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G324" s="12"/>
+    </row>
+    <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="12"/>
-      <c r="F325" s="12"/>
-    </row>
-    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G325" s="12"/>
+    </row>
+    <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="12"/>
-      <c r="F326" s="12"/>
-    </row>
-    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G326" s="12"/>
+    </row>
+    <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="12"/>
-      <c r="F327" s="12"/>
-    </row>
-    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G327" s="12"/>
+    </row>
+    <row r="328" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="12"/>
-      <c r="F328" s="12"/>
-    </row>
-    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G328" s="12"/>
+    </row>
+    <row r="329" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="12"/>
-      <c r="F329" s="12"/>
-    </row>
-    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G329" s="12"/>
+    </row>
+    <row r="330" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="12"/>
-      <c r="F330" s="12"/>
-    </row>
-    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G330" s="12"/>
+    </row>
+    <row r="331" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="12"/>
-      <c r="F331" s="12"/>
-    </row>
-    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G331" s="12"/>
+    </row>
+    <row r="332" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="12"/>
-      <c r="F332" s="12"/>
-    </row>
-    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G332" s="12"/>
+    </row>
+    <row r="333" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="12"/>
-      <c r="F333" s="12"/>
-    </row>
-    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G333" s="12"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="12"/>
-      <c r="F334" s="12"/>
-    </row>
-    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G334" s="12"/>
+    </row>
+    <row r="335" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="12"/>
-      <c r="F335" s="12"/>
-    </row>
-    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G335" s="12"/>
+    </row>
+    <row r="336" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="12"/>
-      <c r="F336" s="12"/>
-    </row>
-    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G336" s="12"/>
+    </row>
+    <row r="337" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="12"/>
-      <c r="F337" s="12"/>
-    </row>
-    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G337" s="12"/>
+    </row>
+    <row r="338" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12"/>
-      <c r="F338" s="12"/>
-    </row>
-    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G338" s="12"/>
+    </row>
+    <row r="339" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="12"/>
-      <c r="F339" s="12"/>
-    </row>
-    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G339" s="12"/>
+    </row>
+    <row r="340" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="12"/>
-      <c r="F340" s="12"/>
-    </row>
-    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G340" s="12"/>
+    </row>
+    <row r="341" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="12"/>
-      <c r="F341" s="12"/>
-    </row>
-    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G341" s="12"/>
+    </row>
+    <row r="342" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="12"/>
-      <c r="F342" s="12"/>
-    </row>
-    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G342" s="12"/>
+    </row>
+    <row r="343" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="12"/>
-      <c r="F343" s="12"/>
-    </row>
-    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G343" s="12"/>
+    </row>
+    <row r="344" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="12"/>
-      <c r="F344" s="12"/>
-    </row>
-    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G344" s="12"/>
+    </row>
+    <row r="345" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="12"/>
-      <c r="F345" s="12"/>
-    </row>
-    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G345" s="12"/>
+    </row>
+    <row r="346" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="12"/>
-      <c r="F346" s="12"/>
-    </row>
-    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G346" s="12"/>
+    </row>
+    <row r="347" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="12"/>
-      <c r="F347" s="12"/>
-    </row>
-    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G347" s="12"/>
+    </row>
+    <row r="348" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="12"/>
-      <c r="F348" s="12"/>
-    </row>
-    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G348" s="12"/>
+    </row>
+    <row r="349" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
-      <c r="F349" s="12"/>
-    </row>
-    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G349" s="12"/>
+    </row>
+    <row r="350" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="12"/>
-      <c r="F350" s="12"/>
-    </row>
-    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G350" s="12"/>
+    </row>
+    <row r="351" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="12"/>
-      <c r="F351" s="12"/>
-    </row>
-    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G351" s="12"/>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="12"/>
-      <c r="F352" s="12"/>
-    </row>
-    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G352" s="12"/>
+    </row>
+    <row r="353" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="12"/>
-      <c r="F353" s="12"/>
-    </row>
-    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G353" s="12"/>
+    </row>
+    <row r="354" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="12"/>
-      <c r="F354" s="12"/>
-    </row>
-    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G354" s="12"/>
+    </row>
+    <row r="355" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="12"/>
-      <c r="F355" s="12"/>
-    </row>
-    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G355" s="12"/>
+    </row>
+    <row r="356" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="12"/>
-      <c r="F356" s="12"/>
-    </row>
-    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G356" s="12"/>
+    </row>
+    <row r="357" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="12"/>
-      <c r="F357" s="12"/>
-    </row>
-    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G357" s="12"/>
+    </row>
+    <row r="358" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="12"/>
-      <c r="F358" s="12"/>
-    </row>
-    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G358" s="12"/>
+    </row>
+    <row r="359" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="12"/>
-      <c r="F359" s="12"/>
-    </row>
-    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G359" s="12"/>
+    </row>
+    <row r="360" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="12"/>
-      <c r="F360" s="12"/>
-    </row>
-    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G360" s="12"/>
+    </row>
+    <row r="361" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="12"/>
-      <c r="F361" s="12"/>
-    </row>
-    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G361" s="12"/>
+    </row>
+    <row r="362" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="12"/>
-      <c r="F362" s="12"/>
-    </row>
-    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G362" s="12"/>
+    </row>
+    <row r="363" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="12"/>
-      <c r="F363" s="12"/>
-    </row>
-    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G363" s="12"/>
+    </row>
+    <row r="364" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="12"/>
-      <c r="F364" s="12"/>
-    </row>
-    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G364" s="12"/>
+    </row>
+    <row r="365" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="12"/>
-      <c r="F365" s="12"/>
-    </row>
-    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G365" s="12"/>
+    </row>
+    <row r="366" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="12"/>
-      <c r="F366" s="12"/>
-    </row>
-    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G366" s="12"/>
+    </row>
+    <row r="367" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="12"/>
-      <c r="F367" s="12"/>
-    </row>
-    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G367" s="12"/>
+    </row>
+    <row r="368" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="12"/>
-      <c r="F368" s="12"/>
-    </row>
-    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G368" s="12"/>
+    </row>
+    <row r="369" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="12"/>
-      <c r="F369" s="12"/>
-    </row>
-    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G369" s="12"/>
+    </row>
+    <row r="370" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="12"/>
-      <c r="F370" s="12"/>
-    </row>
-    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G370" s="12"/>
+    </row>
+    <row r="371" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="12"/>
-      <c r="F371" s="12"/>
-    </row>
-    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G371" s="12"/>
+    </row>
+    <row r="372" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="12"/>
-      <c r="F372" s="12"/>
-    </row>
-    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G372" s="12"/>
+    </row>
+    <row r="373" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="12"/>
-      <c r="F373" s="12"/>
-    </row>
-    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G373" s="12"/>
+    </row>
+    <row r="374" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="12"/>
-      <c r="F374" s="12"/>
-    </row>
-    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G374" s="12"/>
+    </row>
+    <row r="375" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="12"/>
-      <c r="F375" s="12"/>
-    </row>
-    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G375" s="12"/>
+    </row>
+    <row r="376" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="12"/>
-      <c r="F376" s="12"/>
-    </row>
-    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G376" s="12"/>
+    </row>
+    <row r="377" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="12"/>
-      <c r="F377" s="12"/>
-    </row>
-    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G377" s="12"/>
+    </row>
+    <row r="378" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="12"/>
-      <c r="F378" s="12"/>
-    </row>
-    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G378" s="12"/>
+    </row>
+    <row r="379" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="12"/>
-      <c r="F379" s="12"/>
-    </row>
-    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G379" s="12"/>
+    </row>
+    <row r="380" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="12"/>
-      <c r="F380" s="12"/>
-    </row>
-    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G380" s="12"/>
+    </row>
+    <row r="381" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="12"/>
-      <c r="F381" s="12"/>
-    </row>
-    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G381" s="12"/>
+    </row>
+    <row r="382" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="12"/>
-      <c r="F382" s="12"/>
-    </row>
-    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G382" s="12"/>
+    </row>
+    <row r="383" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="12"/>
-      <c r="F383" s="12"/>
-    </row>
-    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G383" s="12"/>
+    </row>
+    <row r="384" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="12"/>
-      <c r="F384" s="12"/>
-    </row>
-    <row r="385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G384" s="12"/>
+    </row>
+    <row r="385" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="12"/>
-      <c r="F385" s="12"/>
-    </row>
-    <row r="386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G385" s="12"/>
+    </row>
+    <row r="386" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="12"/>
-      <c r="F386" s="12"/>
-    </row>
-    <row r="387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G386" s="12"/>
+    </row>
+    <row r="387" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="12"/>
-      <c r="F387" s="12"/>
-    </row>
-    <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G387" s="12"/>
+    </row>
+    <row r="388" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="12"/>
-      <c r="F388" s="12"/>
-    </row>
-    <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G388" s="12"/>
+    </row>
+    <row r="389" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="12"/>
-      <c r="F389" s="12"/>
-    </row>
-    <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G389" s="12"/>
+    </row>
+    <row r="390" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="12"/>
-      <c r="F390" s="12"/>
-    </row>
-    <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G390" s="12"/>
+    </row>
+    <row r="391" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="12"/>
-      <c r="F391" s="12"/>
-    </row>
-    <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G391" s="12"/>
+    </row>
+    <row r="392" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="12"/>
-      <c r="F392" s="12"/>
-    </row>
-    <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G392" s="12"/>
+    </row>
+    <row r="393" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="12"/>
-      <c r="F393" s="12"/>
-    </row>
-    <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G393" s="12"/>
+    </row>
+    <row r="394" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="12"/>
-      <c r="F394" s="12"/>
-    </row>
-    <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G394" s="12"/>
+    </row>
+    <row r="395" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="12"/>
-      <c r="F395" s="12"/>
-    </row>
-    <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G395" s="12"/>
+    </row>
+    <row r="396" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="12"/>
-      <c r="F396" s="12"/>
-    </row>
-    <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G396" s="12"/>
+    </row>
+    <row r="397" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="12"/>
-      <c r="F397" s="12"/>
-    </row>
-    <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G397" s="12"/>
+    </row>
+    <row r="398" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="12"/>
-      <c r="F398" s="12"/>
-    </row>
-    <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G398" s="12"/>
+    </row>
+    <row r="399" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="12"/>
-      <c r="F399" s="12"/>
-    </row>
-    <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G399" s="12"/>
+    </row>
+    <row r="400" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="12"/>
-      <c r="F400" s="12"/>
-    </row>
-    <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G400" s="12"/>
+    </row>
+    <row r="401" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="12"/>
-      <c r="F401" s="12"/>
-    </row>
-    <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G401" s="12"/>
+    </row>
+    <row r="402" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="12"/>
-      <c r="F402" s="12"/>
-    </row>
-    <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G402" s="12"/>
+    </row>
+    <row r="403" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="12"/>
-      <c r="F403" s="12"/>
-    </row>
-    <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G403" s="12"/>
+    </row>
+    <row r="404" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="12"/>
-      <c r="F404" s="12"/>
-    </row>
-    <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G404" s="12"/>
+    </row>
+    <row r="405" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="12"/>
-      <c r="F405" s="12"/>
-    </row>
-    <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G405" s="12"/>
+    </row>
+    <row r="406" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="12"/>
-      <c r="F406" s="12"/>
-    </row>
-    <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G406" s="12"/>
+    </row>
+    <row r="407" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="12"/>
-      <c r="F407" s="12"/>
-    </row>
-    <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G407" s="12"/>
+    </row>
+    <row r="408" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="12"/>
-      <c r="F408" s="12"/>
-    </row>
-    <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G408" s="12"/>
+    </row>
+    <row r="409" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="12"/>
-      <c r="F409" s="12"/>
-    </row>
-    <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G409" s="12"/>
+    </row>
+    <row r="410" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="12"/>
-      <c r="F410" s="12"/>
-    </row>
-    <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G410" s="12"/>
+    </row>
+    <row r="411" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="12"/>
-      <c r="F411" s="12"/>
-    </row>
-    <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G411" s="12"/>
+    </row>
+    <row r="412" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="12"/>
-      <c r="F412" s="12"/>
-    </row>
-    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G412" s="12"/>
+    </row>
+    <row r="413" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="12"/>
-      <c r="F413" s="12"/>
-    </row>
-    <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G413" s="12"/>
+    </row>
+    <row r="414" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="12"/>
-      <c r="F414" s="12"/>
-    </row>
-    <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G414" s="12"/>
+    </row>
+    <row r="415" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="12"/>
-      <c r="F415" s="12"/>
-    </row>
-    <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G415" s="12"/>
+    </row>
+    <row r="416" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="12"/>
-      <c r="F416" s="12"/>
-    </row>
-    <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G416" s="12"/>
+    </row>
+    <row r="417" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="12"/>
-      <c r="F417" s="12"/>
-    </row>
-    <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G417" s="12"/>
+    </row>
+    <row r="418" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="12"/>
-      <c r="F418" s="12"/>
-    </row>
-    <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G418" s="12"/>
+    </row>
+    <row r="419" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="12"/>
-      <c r="F419" s="12"/>
-    </row>
-    <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G419" s="12"/>
+    </row>
+    <row r="420" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="12"/>
-      <c r="F420" s="12"/>
-    </row>
-    <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G420" s="12"/>
+    </row>
+    <row r="421" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="12"/>
-      <c r="F421" s="12"/>
-    </row>
-    <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G421" s="12"/>
+    </row>
+    <row r="422" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="12"/>
-      <c r="F422" s="12"/>
-    </row>
-    <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G422" s="12"/>
+    </row>
+    <row r="423" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="12"/>
-      <c r="F423" s="12"/>
-    </row>
-    <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G423" s="12"/>
+    </row>
+    <row r="424" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="12"/>
-      <c r="F424" s="12"/>
-    </row>
-    <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G424" s="12"/>
+    </row>
+    <row r="425" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="12"/>
-      <c r="F425" s="12"/>
-    </row>
-    <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G425" s="12"/>
+    </row>
+    <row r="426" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="12"/>
-      <c r="F426" s="12"/>
-    </row>
-    <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G426" s="12"/>
+    </row>
+    <row r="427" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="12"/>
-      <c r="F427" s="12"/>
-    </row>
-    <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G427" s="12"/>
+    </row>
+    <row r="428" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="12"/>
-      <c r="F428" s="12"/>
-    </row>
-    <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G428" s="12"/>
+    </row>
+    <row r="429" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="12"/>
-      <c r="F429" s="12"/>
-    </row>
-    <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G429" s="12"/>
+    </row>
+    <row r="430" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="12"/>
-      <c r="F430" s="12"/>
-    </row>
-    <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G430" s="12"/>
+    </row>
+    <row r="431" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="12"/>
-      <c r="F431" s="12"/>
-    </row>
-    <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G431" s="12"/>
+    </row>
+    <row r="432" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="12"/>
-      <c r="F432" s="12"/>
-    </row>
-    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G432" s="12"/>
+    </row>
+    <row r="433" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="12"/>
-      <c r="F433" s="12"/>
-    </row>
-    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G433" s="12"/>
+    </row>
+    <row r="434" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="12"/>
-      <c r="F434" s="12"/>
-    </row>
-    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G434" s="12"/>
+    </row>
+    <row r="435" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="12"/>
-      <c r="F435" s="12"/>
-    </row>
-    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G435" s="12"/>
+    </row>
+    <row r="436" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="12"/>
-      <c r="F436" s="12"/>
-    </row>
-    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G436" s="12"/>
+    </row>
+    <row r="437" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="12"/>
-      <c r="F437" s="12"/>
-    </row>
-    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G437" s="12"/>
+    </row>
+    <row r="438" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="12"/>
-      <c r="F438" s="12"/>
-    </row>
-    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G438" s="12"/>
+    </row>
+    <row r="439" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="12"/>
-      <c r="F439" s="12"/>
-    </row>
-    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G439" s="12"/>
+    </row>
+    <row r="440" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="12"/>
-      <c r="F440" s="12"/>
-    </row>
-    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G440" s="12"/>
+    </row>
+    <row r="441" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="12"/>
-      <c r="F441" s="12"/>
-    </row>
-    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G441" s="12"/>
+    </row>
+    <row r="442" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="12"/>
-      <c r="F442" s="12"/>
-    </row>
-    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G442" s="12"/>
+    </row>
+    <row r="443" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="12"/>
-      <c r="F443" s="12"/>
-    </row>
-    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G443" s="12"/>
+    </row>
+    <row r="444" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="12"/>
-      <c r="F444" s="12"/>
-    </row>
-    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G444" s="12"/>
+    </row>
+    <row r="445" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="12"/>
-      <c r="F445" s="12"/>
-    </row>
-    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G445" s="12"/>
+    </row>
+    <row r="446" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="12"/>
-      <c r="F446" s="12"/>
-    </row>
-    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G446" s="12"/>
+    </row>
+    <row r="447" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="12"/>
-      <c r="F447" s="12"/>
-    </row>
-    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G447" s="12"/>
+    </row>
+    <row r="448" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="12"/>
-      <c r="F448" s="12"/>
-    </row>
-    <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G448" s="12"/>
+    </row>
+    <row r="449" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="12"/>
-      <c r="F449" s="12"/>
-    </row>
-    <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G449" s="12"/>
+    </row>
+    <row r="450" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="12"/>
-      <c r="F450" s="12"/>
-    </row>
-    <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G450" s="12"/>
+    </row>
+    <row r="451" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="12"/>
-      <c r="F451" s="12"/>
-    </row>
-    <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G451" s="12"/>
+    </row>
+    <row r="452" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="12"/>
-      <c r="F452" s="12"/>
-    </row>
-    <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G452" s="12"/>
+    </row>
+    <row r="453" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="12"/>
-      <c r="F453" s="12"/>
-    </row>
-    <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G453" s="12"/>
+    </row>
+    <row r="454" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="12"/>
-      <c r="F454" s="12"/>
-    </row>
-    <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G454" s="12"/>
+    </row>
+    <row r="455" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="12"/>
-      <c r="F455" s="12"/>
-    </row>
-    <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G455" s="12"/>
+    </row>
+    <row r="456" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="12"/>
-      <c r="F456" s="12"/>
-    </row>
-    <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G456" s="12"/>
+    </row>
+    <row r="457" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="12"/>
-      <c r="F457" s="12"/>
-    </row>
-    <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G457" s="12"/>
+    </row>
+    <row r="458" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="12"/>
-      <c r="F458" s="12"/>
-    </row>
-    <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G458" s="12"/>
+    </row>
+    <row r="459" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="12"/>
-      <c r="F459" s="12"/>
-    </row>
-    <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G459" s="12"/>
+    </row>
+    <row r="460" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="12"/>
-      <c r="F460" s="12"/>
-    </row>
-    <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G460" s="12"/>
+    </row>
+    <row r="461" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="12"/>
-      <c r="F461" s="12"/>
-    </row>
-    <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G461" s="12"/>
+    </row>
+    <row r="462" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="12"/>
-      <c r="F462" s="12"/>
-    </row>
-    <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G462" s="12"/>
+    </row>
+    <row r="463" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="12"/>
-      <c r="F463" s="12"/>
-    </row>
-    <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G463" s="12"/>
+    </row>
+    <row r="464" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="12"/>
-      <c r="F464" s="12"/>
-    </row>
-    <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G464" s="12"/>
+    </row>
+    <row r="465" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="12"/>
-      <c r="F465" s="12"/>
-    </row>
-    <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G465" s="12"/>
+    </row>
+    <row r="466" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="12"/>
-      <c r="F466" s="12"/>
-    </row>
-    <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G466" s="12"/>
+    </row>
+    <row r="467" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="12"/>
-      <c r="F467" s="12"/>
-    </row>
-    <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G467" s="12"/>
+    </row>
+    <row r="468" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="12"/>
-      <c r="F468" s="12"/>
-    </row>
-    <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G468" s="12"/>
+    </row>
+    <row r="469" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="12"/>
-      <c r="F469" s="12"/>
-    </row>
-    <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G469" s="12"/>
+    </row>
+    <row r="470" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="12"/>
-      <c r="F470" s="12"/>
-    </row>
-    <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G470" s="12"/>
+    </row>
+    <row r="471" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="12"/>
-      <c r="F471" s="12"/>
-    </row>
-    <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G471" s="12"/>
+    </row>
+    <row r="472" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="12"/>
-      <c r="F472" s="12"/>
-    </row>
-    <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G472" s="12"/>
+    </row>
+    <row r="473" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="12"/>
-      <c r="F473" s="12"/>
-    </row>
-    <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G473" s="12"/>
+    </row>
+    <row r="474" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="12"/>
-      <c r="F474" s="12"/>
-    </row>
-    <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G474" s="12"/>
+    </row>
+    <row r="475" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="12"/>
-      <c r="F475" s="12"/>
-    </row>
-    <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G475" s="12"/>
+    </row>
+    <row r="476" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="12"/>
-      <c r="F476" s="12"/>
-    </row>
-    <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G476" s="12"/>
+    </row>
+    <row r="477" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="12"/>
-      <c r="F477" s="12"/>
-    </row>
-    <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G477" s="12"/>
+    </row>
+    <row r="478" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="12"/>
-      <c r="F478" s="12"/>
-    </row>
-    <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G478" s="12"/>
+    </row>
+    <row r="479" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="12"/>
-      <c r="F479" s="12"/>
-    </row>
-    <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G479" s="12"/>
+    </row>
+    <row r="480" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="12"/>
-      <c r="F480" s="12"/>
-    </row>
-    <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G480" s="12"/>
+    </row>
+    <row r="481" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="12"/>
-      <c r="F481" s="12"/>
-    </row>
-    <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G481" s="12"/>
+    </row>
+    <row r="482" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="12"/>
-      <c r="F482" s="12"/>
-    </row>
-    <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G482" s="12"/>
+    </row>
+    <row r="483" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="12"/>
-      <c r="F483" s="12"/>
-    </row>
-    <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G483" s="12"/>
+    </row>
+    <row r="484" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="12"/>
-      <c r="F484" s="12"/>
-    </row>
-    <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G484" s="12"/>
+    </row>
+    <row r="485" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="12"/>
-      <c r="F485" s="12"/>
-    </row>
-    <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G485" s="12"/>
+    </row>
+    <row r="486" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="12"/>
-      <c r="F486" s="12"/>
-    </row>
-    <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G486" s="12"/>
+    </row>
+    <row r="487" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="12"/>
-      <c r="F487" s="12"/>
-    </row>
-    <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G487" s="12"/>
+    </row>
+    <row r="488" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="12"/>
-      <c r="F488" s="12"/>
-    </row>
-    <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G488" s="12"/>
+    </row>
+    <row r="489" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="12"/>
-      <c r="F489" s="12"/>
-    </row>
-    <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G489" s="12"/>
+    </row>
+    <row r="490" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="12"/>
-      <c r="F490" s="12"/>
-    </row>
-    <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G490" s="12"/>
+    </row>
+    <row r="491" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="12"/>
-      <c r="F491" s="12"/>
-    </row>
-    <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G491" s="12"/>
+    </row>
+    <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="12"/>
-      <c r="F492" s="12"/>
-    </row>
-    <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G492" s="12"/>
+    </row>
+    <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="12"/>
-      <c r="F493" s="12"/>
-    </row>
-    <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G493" s="12"/>
+    </row>
+    <row r="494" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="12"/>
-      <c r="F494" s="12"/>
-    </row>
-    <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G494" s="12"/>
+    </row>
+    <row r="495" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="12"/>
-      <c r="F495" s="12"/>
-    </row>
-    <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G495" s="12"/>
+    </row>
+    <row r="496" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="12"/>
-      <c r="F496" s="12"/>
-    </row>
-    <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G496" s="12"/>
+    </row>
+    <row r="497" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="12"/>
-      <c r="F497" s="12"/>
-    </row>
-    <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G497" s="12"/>
+    </row>
+    <row r="498" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="12"/>
-      <c r="F498" s="12"/>
-    </row>
-    <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G498" s="12"/>
+    </row>
+    <row r="499" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="12"/>
-      <c r="F499" s="12"/>
-    </row>
-    <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G499" s="12"/>
+    </row>
+    <row r="500" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="12"/>
-      <c r="F500" s="12"/>
-    </row>
-    <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G500" s="12"/>
+    </row>
+    <row r="501" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="12"/>
-      <c r="F501" s="12"/>
-    </row>
-    <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G501" s="12"/>
+    </row>
+    <row r="502" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="12"/>
-      <c r="F502" s="12"/>
-    </row>
-    <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G502" s="12"/>
+    </row>
+    <row r="503" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="12"/>
-      <c r="F503" s="12"/>
-    </row>
-    <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G503" s="12"/>
+    </row>
+    <row r="504" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="12"/>
-      <c r="F504" s="12"/>
-    </row>
-    <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G504" s="12"/>
+    </row>
+    <row r="505" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="12"/>
-      <c r="F505" s="12"/>
-    </row>
-    <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G505" s="12"/>
+    </row>
+    <row r="506" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="12"/>
-      <c r="F506" s="12"/>
-    </row>
-    <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G506" s="12"/>
+    </row>
+    <row r="507" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="12"/>
-      <c r="F507" s="12"/>
-    </row>
-    <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G507" s="12"/>
+    </row>
+    <row r="508" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="12"/>
-      <c r="F508" s="12"/>
-    </row>
-    <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G508" s="12"/>
+    </row>
+    <row r="509" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="12"/>
-      <c r="F509" s="12"/>
-    </row>
-    <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G509" s="12"/>
+    </row>
+    <row r="510" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="12"/>
-      <c r="F510" s="12"/>
-    </row>
-    <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G510" s="12"/>
+    </row>
+    <row r="511" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="12"/>
-      <c r="F511" s="12"/>
-    </row>
-    <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G511" s="12"/>
+    </row>
+    <row r="512" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="12"/>
-      <c r="F512" s="12"/>
-    </row>
-    <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G512" s="12"/>
+    </row>
+    <row r="513" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="12"/>
-      <c r="F513" s="12"/>
-    </row>
-    <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G513" s="12"/>
+    </row>
+    <row r="514" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="12"/>
-      <c r="F514" s="12"/>
-    </row>
-    <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G514" s="12"/>
+    </row>
+    <row r="515" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="12"/>
-      <c r="F515" s="12"/>
-    </row>
-    <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G515" s="12"/>
+    </row>
+    <row r="516" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="12"/>
-      <c r="F516" s="12"/>
-    </row>
-    <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G516" s="12"/>
+    </row>
+    <row r="517" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="12"/>
-      <c r="F517" s="12"/>
-    </row>
-    <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G517" s="12"/>
+    </row>
+    <row r="518" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="12"/>
-      <c r="F518" s="12"/>
-    </row>
-    <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G518" s="12"/>
+    </row>
+    <row r="519" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="12"/>
-      <c r="F519" s="12"/>
-    </row>
-    <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G519" s="12"/>
+    </row>
+    <row r="520" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="12"/>
-      <c r="F520" s="12"/>
-    </row>
-    <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G520" s="12"/>
+    </row>
+    <row r="521" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="12"/>
-      <c r="F521" s="12"/>
-    </row>
-    <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G521" s="12"/>
+    </row>
+    <row r="522" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="12"/>
-      <c r="F522" s="12"/>
-    </row>
-    <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G522" s="12"/>
+    </row>
+    <row r="523" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="12"/>
-      <c r="F523" s="12"/>
-    </row>
-    <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G523" s="12"/>
+    </row>
+    <row r="524" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="12"/>
-      <c r="F524" s="12"/>
-    </row>
-    <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G524" s="12"/>
+    </row>
+    <row r="525" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="12"/>
-      <c r="F525" s="12"/>
-    </row>
-    <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G525" s="12"/>
+    </row>
+    <row r="526" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="12"/>
-      <c r="F526" s="12"/>
-    </row>
-    <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G526" s="12"/>
+    </row>
+    <row r="527" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="12"/>
-      <c r="F527" s="12"/>
-    </row>
-    <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G527" s="12"/>
+    </row>
+    <row r="528" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="12"/>
-      <c r="F528" s="12"/>
-    </row>
-    <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G528" s="12"/>
+    </row>
+    <row r="529" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="12"/>
-      <c r="F529" s="12"/>
-    </row>
-    <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G529" s="12"/>
+    </row>
+    <row r="530" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="12"/>
-      <c r="F530" s="12"/>
-    </row>
-    <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G530" s="12"/>
+    </row>
+    <row r="531" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="12"/>
-      <c r="F531" s="12"/>
-    </row>
-    <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G531" s="12"/>
+    </row>
+    <row r="532" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="12"/>
-      <c r="F532" s="12"/>
-    </row>
-    <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G532" s="12"/>
+    </row>
+    <row r="533" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="12"/>
-      <c r="F533" s="12"/>
-    </row>
-    <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G533" s="12"/>
+    </row>
+    <row r="534" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="12"/>
-      <c r="F534" s="12"/>
-    </row>
-    <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G534" s="12"/>
+    </row>
+    <row r="535" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="12"/>
-      <c r="F535" s="12"/>
-    </row>
-    <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G535" s="12"/>
+    </row>
+    <row r="536" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="12"/>
-      <c r="F536" s="12"/>
-    </row>
-    <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G536" s="12"/>
+    </row>
+    <row r="537" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="12"/>
-      <c r="F537" s="12"/>
-    </row>
-    <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G537" s="12"/>
+    </row>
+    <row r="538" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="12"/>
-      <c r="F538" s="12"/>
-    </row>
-    <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G538" s="12"/>
+    </row>
+    <row r="539" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="12"/>
-      <c r="F539" s="12"/>
-    </row>
-    <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G539" s="12"/>
+    </row>
+    <row r="540" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="12"/>
-      <c r="F540" s="12"/>
-    </row>
-    <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G540" s="12"/>
+    </row>
+    <row r="541" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="12"/>
-      <c r="F541" s="12"/>
-    </row>
-    <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G541" s="12"/>
+    </row>
+    <row r="542" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="12"/>
-      <c r="F542" s="12"/>
-    </row>
-    <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G542" s="12"/>
+    </row>
+    <row r="543" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="12"/>
-      <c r="F543" s="12"/>
-    </row>
-    <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G543" s="12"/>
+    </row>
+    <row r="544" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="12"/>
-      <c r="F544" s="12"/>
-    </row>
-    <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G544" s="12"/>
+    </row>
+    <row r="545" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="12"/>
-      <c r="F545" s="12"/>
-    </row>
-    <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G545" s="12"/>
+    </row>
+    <row r="546" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="12"/>
-      <c r="F546" s="12"/>
-    </row>
-    <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G546" s="12"/>
+    </row>
+    <row r="547" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="12"/>
-      <c r="F547" s="12"/>
-    </row>
-    <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G547" s="12"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="12"/>
-      <c r="F548" s="12"/>
-    </row>
-    <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G548" s="12"/>
+    </row>
+    <row r="549" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="12"/>
-      <c r="F549" s="12"/>
-    </row>
-    <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G549" s="12"/>
+    </row>
+    <row r="550" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="12"/>
-      <c r="F550" s="12"/>
-    </row>
-    <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G550" s="12"/>
+    </row>
+    <row r="551" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="12"/>
-      <c r="F551" s="12"/>
-    </row>
-    <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G551" s="12"/>
+    </row>
+    <row r="552" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="12"/>
-      <c r="F552" s="12"/>
-    </row>
-    <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G552" s="12"/>
+    </row>
+    <row r="553" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="12"/>
-      <c r="F553" s="12"/>
-    </row>
-    <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G553" s="12"/>
+    </row>
+    <row r="554" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="12"/>
-      <c r="F554" s="12"/>
-    </row>
-    <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G554" s="12"/>
+    </row>
+    <row r="555" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="12"/>
-      <c r="F555" s="12"/>
-    </row>
-    <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G555" s="12"/>
+    </row>
+    <row r="556" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="12"/>
-      <c r="F556" s="12"/>
-    </row>
-    <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G556" s="12"/>
+    </row>
+    <row r="557" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="12"/>
-      <c r="F557" s="12"/>
-    </row>
-    <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G557" s="12"/>
+    </row>
+    <row r="558" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="12"/>
-      <c r="F558" s="12"/>
-    </row>
-    <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G558" s="12"/>
+    </row>
+    <row r="559" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="12"/>
-      <c r="F559" s="12"/>
-    </row>
-    <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G559" s="12"/>
+    </row>
+    <row r="560" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="12"/>
-      <c r="F560" s="12"/>
-    </row>
-    <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G560" s="12"/>
+    </row>
+    <row r="561" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="12"/>
-      <c r="F561" s="12"/>
-    </row>
-    <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G561" s="12"/>
+    </row>
+    <row r="562" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="12"/>
-      <c r="F562" s="12"/>
-    </row>
-    <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G562" s="12"/>
+    </row>
+    <row r="563" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="12"/>
-      <c r="F563" s="12"/>
-    </row>
-    <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G563" s="12"/>
+    </row>
+    <row r="564" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="12"/>
-      <c r="F564" s="12"/>
-    </row>
-    <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G564" s="12"/>
+    </row>
+    <row r="565" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="12"/>
-      <c r="F565" s="12"/>
-    </row>
-    <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G565" s="12"/>
+    </row>
+    <row r="566" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="12"/>
-      <c r="F566" s="12"/>
-    </row>
-    <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G566" s="12"/>
+    </row>
+    <row r="567" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="12"/>
-      <c r="F567" s="12"/>
-    </row>
-    <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G567" s="12"/>
+    </row>
+    <row r="568" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="12"/>
-      <c r="F568" s="12"/>
-    </row>
-    <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G568" s="12"/>
+    </row>
+    <row r="569" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="12"/>
-      <c r="F569" s="12"/>
-    </row>
-    <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G569" s="12"/>
+    </row>
+    <row r="570" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="12"/>
-      <c r="F570" s="12"/>
-    </row>
-    <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G570" s="12"/>
+    </row>
+    <row r="571" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="12"/>
-      <c r="F571" s="12"/>
-    </row>
-    <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G571" s="12"/>
+    </row>
+    <row r="572" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="12"/>
-      <c r="F572" s="12"/>
-    </row>
-    <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G572" s="12"/>
+    </row>
+    <row r="573" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="12"/>
-      <c r="F573" s="12"/>
-    </row>
-    <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G573" s="12"/>
+    </row>
+    <row r="574" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="12"/>
-      <c r="F574" s="12"/>
-    </row>
-    <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G574" s="12"/>
+    </row>
+    <row r="575" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="12"/>
-      <c r="F575" s="12"/>
-    </row>
-    <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G575" s="12"/>
+    </row>
+    <row r="576" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="12"/>
-      <c r="F576" s="12"/>
-    </row>
-    <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G576" s="12"/>
+    </row>
+    <row r="577" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="12"/>
-      <c r="F577" s="12"/>
-    </row>
-    <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G577" s="12"/>
+    </row>
+    <row r="578" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="12"/>
-      <c r="F578" s="12"/>
-    </row>
-    <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G578" s="12"/>
+    </row>
+    <row r="579" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="12"/>
-      <c r="F579" s="12"/>
-    </row>
-    <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G579" s="12"/>
+    </row>
+    <row r="580" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="12"/>
-      <c r="F580" s="12"/>
-    </row>
-    <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G580" s="12"/>
+    </row>
+    <row r="581" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="12"/>
-      <c r="F581" s="12"/>
-    </row>
-    <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G581" s="12"/>
+    </row>
+    <row r="582" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="12"/>
-      <c r="F582" s="12"/>
-    </row>
-    <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G582" s="12"/>
+    </row>
+    <row r="583" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="12"/>
-      <c r="F583" s="12"/>
-    </row>
-    <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G583" s="12"/>
+    </row>
+    <row r="584" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="12"/>
-      <c r="F584" s="12"/>
-    </row>
-    <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G584" s="12"/>
+    </row>
+    <row r="585" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="12"/>
-      <c r="F585" s="12"/>
-    </row>
-    <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G585" s="12"/>
+    </row>
+    <row r="586" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="12"/>
-      <c r="F586" s="12"/>
-    </row>
-    <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G586" s="12"/>
+    </row>
+    <row r="587" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="12"/>
-      <c r="F587" s="12"/>
-    </row>
-    <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G587" s="12"/>
+    </row>
+    <row r="588" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="12"/>
-      <c r="F588" s="12"/>
-    </row>
-    <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G588" s="12"/>
+    </row>
+    <row r="589" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="12"/>
-      <c r="F589" s="12"/>
-    </row>
-    <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G589" s="12"/>
+    </row>
+    <row r="590" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="12"/>
-      <c r="F590" s="12"/>
-    </row>
-    <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G590" s="12"/>
+    </row>
+    <row r="591" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="12"/>
-      <c r="F591" s="12"/>
-    </row>
-    <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G591" s="12"/>
+    </row>
+    <row r="592" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="12"/>
-      <c r="F592" s="12"/>
-    </row>
-    <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G592" s="12"/>
+    </row>
+    <row r="593" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="12"/>
-      <c r="F593" s="12"/>
-    </row>
-    <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G593" s="12"/>
+    </row>
+    <row r="594" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="12"/>
-      <c r="F594" s="12"/>
-    </row>
-    <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G594" s="12"/>
+    </row>
+    <row r="595" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="12"/>
-      <c r="F595" s="12"/>
-    </row>
-    <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G595" s="12"/>
+    </row>
+    <row r="596" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="12"/>
-      <c r="F596" s="12"/>
-    </row>
-    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G596" s="12"/>
+    </row>
+    <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="12"/>
-      <c r="F597" s="12"/>
-    </row>
-    <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G597" s="12"/>
+    </row>
+    <row r="598" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="12"/>
-      <c r="F598" s="12"/>
-    </row>
-    <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G598" s="12"/>
+    </row>
+    <row r="599" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="12"/>
-      <c r="F599" s="12"/>
-    </row>
-    <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G599" s="12"/>
+    </row>
+    <row r="600" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="12"/>
-      <c r="F600" s="12"/>
-    </row>
-    <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G600" s="12"/>
+    </row>
+    <row r="601" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="12"/>
-      <c r="F601" s="12"/>
-    </row>
-    <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G601" s="12"/>
+    </row>
+    <row r="602" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="12"/>
-      <c r="F602" s="12"/>
-    </row>
-    <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G602" s="12"/>
+    </row>
+    <row r="603" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="12"/>
-      <c r="F603" s="12"/>
-    </row>
-    <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G603" s="12"/>
+    </row>
+    <row r="604" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="12"/>
-      <c r="F604" s="12"/>
-    </row>
-    <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G604" s="12"/>
+    </row>
+    <row r="605" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="12"/>
-      <c r="F605" s="12"/>
-    </row>
-    <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G605" s="12"/>
+    </row>
+    <row r="606" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="12"/>
-      <c r="F606" s="12"/>
-    </row>
-    <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G606" s="12"/>
+    </row>
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="12"/>
-      <c r="F607" s="12"/>
-    </row>
-    <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G607" s="12"/>
+    </row>
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="12"/>
-      <c r="F608" s="12"/>
-    </row>
-    <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G608" s="12"/>
+    </row>
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="12"/>
-      <c r="F609" s="12"/>
-    </row>
-    <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G609" s="12"/>
+    </row>
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="12"/>
-      <c r="F610" s="12"/>
-    </row>
-    <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G610" s="12"/>
+    </row>
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="12"/>
-      <c r="F611" s="12"/>
-    </row>
-    <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G611" s="12"/>
+    </row>
+    <row r="612" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="12"/>
-      <c r="F612" s="12"/>
-    </row>
-    <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G612" s="12"/>
+    </row>
+    <row r="613" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="12"/>
-      <c r="F613" s="12"/>
-    </row>
-    <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G613" s="12"/>
+    </row>
+    <row r="614" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="12"/>
-      <c r="F614" s="12"/>
-    </row>
-    <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G614" s="12"/>
+    </row>
+    <row r="615" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="12"/>
-      <c r="F615" s="12"/>
-    </row>
-    <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G615" s="12"/>
+    </row>
+    <row r="616" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="12"/>
-      <c r="F616" s="12"/>
-    </row>
-    <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G616" s="12"/>
+    </row>
+    <row r="617" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="12"/>
-      <c r="F617" s="12"/>
-    </row>
-    <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G617" s="12"/>
+    </row>
+    <row r="618" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="12"/>
-      <c r="F618" s="12"/>
-    </row>
-    <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G618" s="12"/>
+    </row>
+    <row r="619" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="12"/>
-      <c r="F619" s="12"/>
-    </row>
-    <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G619" s="12"/>
+    </row>
+    <row r="620" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="12"/>
-      <c r="F620" s="12"/>
-    </row>
-    <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G620" s="12"/>
+    </row>
+    <row r="621" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="12"/>
-      <c r="F621" s="12"/>
-    </row>
-    <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G621" s="12"/>
+    </row>
+    <row r="622" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="12"/>
-      <c r="F622" s="12"/>
-    </row>
-    <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G622" s="12"/>
+    </row>
+    <row r="623" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="12"/>
-      <c r="F623" s="12"/>
-    </row>
-    <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G623" s="12"/>
+    </row>
+    <row r="624" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="12"/>
-      <c r="F624" s="12"/>
-    </row>
-    <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G624" s="12"/>
+    </row>
+    <row r="625" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="12"/>
-      <c r="F625" s="12"/>
-    </row>
-    <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G625" s="12"/>
+    </row>
+    <row r="626" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="12"/>
-      <c r="F626" s="12"/>
-    </row>
-    <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G626" s="12"/>
+    </row>
+    <row r="627" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="12"/>
-      <c r="F627" s="12"/>
-    </row>
-    <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G627" s="12"/>
+    </row>
+    <row r="628" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="12"/>
-      <c r="F628" s="12"/>
-    </row>
-    <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G628" s="12"/>
+    </row>
+    <row r="629" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="12"/>
-      <c r="F629" s="12"/>
-    </row>
-    <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G629" s="12"/>
+    </row>
+    <row r="630" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="12"/>
-      <c r="F630" s="12"/>
-    </row>
-    <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G630" s="12"/>
+    </row>
+    <row r="631" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="12"/>
-      <c r="F631" s="12"/>
-    </row>
-    <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G631" s="12"/>
+    </row>
+    <row r="632" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="12"/>
-      <c r="F632" s="12"/>
-    </row>
-    <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G632" s="12"/>
+    </row>
+    <row r="633" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="12"/>
-      <c r="F633" s="12"/>
-    </row>
-    <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G633" s="12"/>
+    </row>
+    <row r="634" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="12"/>
-      <c r="F634" s="12"/>
-    </row>
-    <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G634" s="12"/>
+    </row>
+    <row r="635" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="12"/>
-      <c r="F635" s="12"/>
-    </row>
-    <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G635" s="12"/>
+    </row>
+    <row r="636" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="12"/>
-      <c r="F636" s="12"/>
-    </row>
-    <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G636" s="12"/>
+    </row>
+    <row r="637" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="12"/>
-      <c r="F637" s="12"/>
-    </row>
-    <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G637" s="12"/>
+    </row>
+    <row r="638" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="12"/>
-      <c r="F638" s="12"/>
-    </row>
-    <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G638" s="12"/>
+    </row>
+    <row r="639" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="12"/>
-      <c r="F639" s="12"/>
-    </row>
-    <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G639" s="12"/>
+    </row>
+    <row r="640" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="12"/>
-      <c r="F640" s="12"/>
-    </row>
-    <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G640" s="12"/>
+    </row>
+    <row r="641" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="12"/>
-      <c r="F641" s="12"/>
-    </row>
-    <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G641" s="12"/>
+    </row>
+    <row r="642" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="12"/>
-      <c r="F642" s="12"/>
-    </row>
-    <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G642" s="12"/>
+    </row>
+    <row r="643" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="12"/>
-      <c r="F643" s="12"/>
-    </row>
-    <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G643" s="12"/>
+    </row>
+    <row r="644" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="12"/>
-      <c r="F644" s="12"/>
-    </row>
-    <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G644" s="12"/>
+    </row>
+    <row r="645" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="12"/>
-      <c r="F645" s="12"/>
-    </row>
-    <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G645" s="12"/>
+    </row>
+    <row r="646" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="12"/>
-      <c r="F646" s="12"/>
-    </row>
-    <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G646" s="12"/>
+    </row>
+    <row r="647" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="12"/>
-      <c r="F647" s="12"/>
-    </row>
-    <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G647" s="12"/>
+    </row>
+    <row r="648" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="12"/>
-      <c r="F648" s="12"/>
-    </row>
-    <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G648" s="12"/>
+    </row>
+    <row r="649" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="12"/>
-      <c r="F649" s="12"/>
-    </row>
-    <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G649" s="12"/>
+    </row>
+    <row r="650" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="12"/>
-      <c r="F650" s="12"/>
-    </row>
-    <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G650" s="12"/>
+    </row>
+    <row r="651" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="12"/>
-      <c r="F651" s="12"/>
-    </row>
-    <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G651" s="12"/>
+    </row>
+    <row r="652" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="12"/>
-      <c r="F652" s="12"/>
-    </row>
-    <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G652" s="12"/>
+    </row>
+    <row r="653" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="12"/>
-      <c r="F653" s="12"/>
-    </row>
-    <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G653" s="12"/>
+    </row>
+    <row r="654" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="12"/>
-      <c r="F654" s="12"/>
-    </row>
-    <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G654" s="12"/>
+    </row>
+    <row r="655" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="12"/>
-      <c r="F655" s="12"/>
-    </row>
-    <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G655" s="12"/>
+    </row>
+    <row r="656" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="12"/>
-      <c r="F656" s="12"/>
-    </row>
-    <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G656" s="12"/>
+    </row>
+    <row r="657" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="12"/>
-      <c r="F657" s="12"/>
-    </row>
-    <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G657" s="12"/>
+    </row>
+    <row r="658" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="12"/>
-      <c r="F658" s="12"/>
-    </row>
-    <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G658" s="12"/>
+    </row>
+    <row r="659" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="12"/>
-      <c r="F659" s="12"/>
-    </row>
-    <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G659" s="12"/>
+    </row>
+    <row r="660" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="12"/>
-      <c r="F660" s="12"/>
-    </row>
-    <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G660" s="12"/>
+    </row>
+    <row r="661" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="12"/>
-      <c r="F661" s="12"/>
-    </row>
-    <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G661" s="12"/>
+    </row>
+    <row r="662" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="12"/>
-      <c r="F662" s="12"/>
-    </row>
-    <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G662" s="12"/>
+    </row>
+    <row r="663" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="12"/>
-      <c r="F663" s="12"/>
-    </row>
-    <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G663" s="12"/>
+    </row>
+    <row r="664" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="12"/>
-      <c r="F664" s="12"/>
-    </row>
-    <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G664" s="12"/>
+    </row>
+    <row r="665" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="12"/>
-      <c r="F665" s="12"/>
-    </row>
-    <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G665" s="12"/>
+    </row>
+    <row r="666" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="12"/>
-      <c r="F666" s="12"/>
-    </row>
-    <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G666" s="12"/>
+    </row>
+    <row r="667" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="12"/>
-      <c r="F667" s="12"/>
-    </row>
-    <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G667" s="12"/>
+    </row>
+    <row r="668" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="12"/>
-      <c r="F668" s="12"/>
-    </row>
-    <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G668" s="12"/>
+    </row>
+    <row r="669" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="12"/>
-      <c r="F669" s="12"/>
-    </row>
-    <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G669" s="12"/>
+    </row>
+    <row r="670" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="12"/>
-      <c r="F670" s="12"/>
-    </row>
-    <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G670" s="12"/>
+    </row>
+    <row r="671" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="12"/>
-      <c r="F671" s="12"/>
-    </row>
-    <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G671" s="12"/>
+    </row>
+    <row r="672" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="12"/>
-      <c r="F672" s="12"/>
-    </row>
-    <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G672" s="12"/>
+    </row>
+    <row r="673" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="12"/>
-      <c r="F673" s="12"/>
-    </row>
-    <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G673" s="12"/>
+    </row>
+    <row r="674" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="12"/>
-      <c r="F674" s="12"/>
-    </row>
-    <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G674" s="12"/>
+    </row>
+    <row r="675" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="12"/>
-      <c r="F675" s="12"/>
-    </row>
-    <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G675" s="12"/>
+    </row>
+    <row r="676" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="12"/>
-      <c r="F676" s="12"/>
-    </row>
-    <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G676" s="12"/>
+    </row>
+    <row r="677" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="12"/>
-      <c r="F677" s="12"/>
-    </row>
-    <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G677" s="12"/>
+    </row>
+    <row r="678" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="12"/>
-      <c r="F678" s="12"/>
-    </row>
-    <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G678" s="12"/>
+    </row>
+    <row r="679" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="12"/>
-      <c r="F679" s="12"/>
-    </row>
-    <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G679" s="12"/>
+    </row>
+    <row r="680" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="12"/>
-      <c r="F680" s="12"/>
-    </row>
-    <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G680" s="12"/>
+    </row>
+    <row r="681" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="12"/>
-      <c r="F681" s="12"/>
-    </row>
-    <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G681" s="12"/>
+    </row>
+    <row r="682" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="12"/>
-      <c r="F682" s="12"/>
-    </row>
-    <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G682" s="12"/>
+    </row>
+    <row r="683" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="12"/>
-      <c r="F683" s="12"/>
-    </row>
-    <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G683" s="12"/>
+    </row>
+    <row r="684" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="12"/>
-      <c r="F684" s="12"/>
-    </row>
-    <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G684" s="12"/>
+    </row>
+    <row r="685" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="12"/>
-      <c r="F685" s="12"/>
-    </row>
-    <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G685" s="12"/>
+    </row>
+    <row r="686" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="12"/>
-      <c r="F686" s="12"/>
-    </row>
-    <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G686" s="12"/>
+    </row>
+    <row r="687" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="12"/>
-      <c r="F687" s="12"/>
-    </row>
-    <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G687" s="12"/>
+    </row>
+    <row r="688" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="12"/>
-      <c r="F688" s="12"/>
-    </row>
-    <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G688" s="12"/>
+    </row>
+    <row r="689" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="12"/>
-      <c r="F689" s="12"/>
-    </row>
-    <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G689" s="12"/>
+    </row>
+    <row r="690" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="12"/>
-      <c r="F690" s="12"/>
-    </row>
-    <row r="691" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G690" s="12"/>
+    </row>
+    <row r="691" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="12"/>
-      <c r="F691" s="12"/>
-    </row>
-    <row r="692" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G691" s="12"/>
+    </row>
+    <row r="692" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="12"/>
-      <c r="F692" s="12"/>
-    </row>
-    <row r="693" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G692" s="12"/>
+    </row>
+    <row r="693" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="12"/>
-      <c r="F693" s="12"/>
-    </row>
-    <row r="694" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G693" s="12"/>
+    </row>
+    <row r="694" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="12"/>
-      <c r="F694" s="12"/>
-    </row>
-    <row r="695" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G694" s="12"/>
+    </row>
+    <row r="695" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="12"/>
-      <c r="F695" s="12"/>
-    </row>
-    <row r="696" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G695" s="12"/>
+    </row>
+    <row r="696" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="12"/>
-      <c r="F696" s="12"/>
-    </row>
-    <row r="697" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G696" s="12"/>
+    </row>
+    <row r="697" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="12"/>
-      <c r="F697" s="12"/>
-    </row>
-    <row r="698" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G697" s="12"/>
+    </row>
+    <row r="698" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="12"/>
-      <c r="F698" s="12"/>
-    </row>
-    <row r="699" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G698" s="12"/>
+    </row>
+    <row r="699" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="12"/>
-      <c r="F699" s="12"/>
-    </row>
-    <row r="700" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G699" s="12"/>
+    </row>
+    <row r="700" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="12"/>
-      <c r="F700" s="12"/>
-    </row>
-    <row r="701" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G700" s="12"/>
+    </row>
+    <row r="701" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="12"/>
-      <c r="F701" s="12"/>
-    </row>
-    <row r="702" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G701" s="12"/>
+    </row>
+    <row r="702" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="12"/>
-      <c r="F702" s="12"/>
-    </row>
-    <row r="703" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G702" s="12"/>
+    </row>
+    <row r="703" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="12"/>
-      <c r="F703" s="12"/>
-    </row>
-    <row r="704" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G703" s="12"/>
+    </row>
+    <row r="704" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="12"/>
-      <c r="F704" s="12"/>
-    </row>
-    <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G704" s="12"/>
+    </row>
+    <row r="705" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="12"/>
-      <c r="F705" s="12"/>
-    </row>
-    <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G705" s="12"/>
+    </row>
+    <row r="706" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="12"/>
-      <c r="F706" s="12"/>
-    </row>
-    <row r="707" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G706" s="12"/>
+    </row>
+    <row r="707" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="12"/>
-      <c r="F707" s="12"/>
-    </row>
-    <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G707" s="12"/>
+    </row>
+    <row r="708" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="12"/>
-      <c r="F708" s="12"/>
-    </row>
-    <row r="709" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G708" s="12"/>
+    </row>
+    <row r="709" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="12"/>
-      <c r="F709" s="12"/>
-    </row>
-    <row r="710" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G709" s="12"/>
+    </row>
+    <row r="710" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="12"/>
-      <c r="F710" s="12"/>
-    </row>
-    <row r="711" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G710" s="12"/>
+    </row>
+    <row r="711" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="12"/>
-      <c r="F711" s="12"/>
-    </row>
-    <row r="712" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G711" s="12"/>
+    </row>
+    <row r="712" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="12"/>
-      <c r="F712" s="12"/>
-    </row>
-    <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G712" s="12"/>
+    </row>
+    <row r="713" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="12"/>
-      <c r="F713" s="12"/>
-    </row>
-    <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G713" s="12"/>
+    </row>
+    <row r="714" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="12"/>
-      <c r="F714" s="12"/>
-    </row>
-    <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G714" s="12"/>
+    </row>
+    <row r="715" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="12"/>
-      <c r="F715" s="12"/>
-    </row>
-    <row r="716" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G715" s="12"/>
+    </row>
+    <row r="716" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="12"/>
-      <c r="F716" s="12"/>
-    </row>
-    <row r="717" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G716" s="12"/>
+    </row>
+    <row r="717" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="12"/>
-      <c r="F717" s="12"/>
-    </row>
-    <row r="718" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G717" s="12"/>
+    </row>
+    <row r="718" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="12"/>
-      <c r="F718" s="12"/>
-    </row>
-    <row r="719" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G718" s="12"/>
+    </row>
+    <row r="719" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="12"/>
-      <c r="F719" s="12"/>
-    </row>
-    <row r="720" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G719" s="12"/>
+    </row>
+    <row r="720" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="12"/>
-      <c r="F720" s="12"/>
-    </row>
-    <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G720" s="12"/>
+    </row>
+    <row r="721" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="12"/>
-      <c r="F721" s="12"/>
-    </row>
-    <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G721" s="12"/>
+    </row>
+    <row r="722" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="12"/>
-      <c r="F722" s="12"/>
-    </row>
-    <row r="723" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G722" s="12"/>
+    </row>
+    <row r="723" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="12"/>
-      <c r="F723" s="12"/>
-    </row>
-    <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G723" s="12"/>
+    </row>
+    <row r="724" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="12"/>
-      <c r="F724" s="12"/>
-    </row>
-    <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G724" s="12"/>
+    </row>
+    <row r="725" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="12"/>
-      <c r="F725" s="12"/>
-    </row>
-    <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G725" s="12"/>
+    </row>
+    <row r="726" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="12"/>
-      <c r="F726" s="12"/>
-    </row>
-    <row r="727" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G726" s="12"/>
+    </row>
+    <row r="727" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="12"/>
-      <c r="F727" s="12"/>
-    </row>
-    <row r="728" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G727" s="12"/>
+    </row>
+    <row r="728" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="12"/>
-      <c r="F728" s="12"/>
-    </row>
-    <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G728" s="12"/>
+    </row>
+    <row r="729" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="12"/>
-      <c r="F729" s="12"/>
-    </row>
-    <row r="730" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G729" s="12"/>
+    </row>
+    <row r="730" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="12"/>
-      <c r="F730" s="12"/>
-    </row>
-    <row r="731" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G730" s="12"/>
+    </row>
+    <row r="731" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="12"/>
-      <c r="F731" s="12"/>
-    </row>
-    <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G731" s="12"/>
+    </row>
+    <row r="732" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="12"/>
-      <c r="F732" s="12"/>
-    </row>
-    <row r="733" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G732" s="12"/>
+    </row>
+    <row r="733" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="12"/>
-      <c r="F733" s="12"/>
-    </row>
-    <row r="734" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G733" s="12"/>
+    </row>
+    <row r="734" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="12"/>
-      <c r="F734" s="12"/>
-    </row>
-    <row r="735" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G734" s="12"/>
+    </row>
+    <row r="735" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="12"/>
-      <c r="F735" s="12"/>
-    </row>
-    <row r="736" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G735" s="12"/>
+    </row>
+    <row r="736" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="12"/>
-      <c r="F736" s="12"/>
-    </row>
-    <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G736" s="12"/>
+    </row>
+    <row r="737" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="12"/>
-      <c r="F737" s="12"/>
-    </row>
-    <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G737" s="12"/>
+    </row>
+    <row r="738" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="12"/>
-      <c r="F738" s="12"/>
-    </row>
-    <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G738" s="12"/>
+    </row>
+    <row r="739" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="12"/>
-      <c r="F739" s="12"/>
-    </row>
-    <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G739" s="12"/>
+    </row>
+    <row r="740" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="12"/>
-      <c r="F740" s="12"/>
-    </row>
-    <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G740" s="12"/>
+    </row>
+    <row r="741" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="12"/>
-      <c r="F741" s="12"/>
-    </row>
-    <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G741" s="12"/>
+    </row>
+    <row r="742" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="12"/>
-      <c r="F742" s="12"/>
-    </row>
-    <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G742" s="12"/>
+    </row>
+    <row r="743" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="12"/>
-      <c r="F743" s="12"/>
-    </row>
-    <row r="744" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G743" s="12"/>
+    </row>
+    <row r="744" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="12"/>
-      <c r="F744" s="12"/>
-    </row>
-    <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G744" s="12"/>
+    </row>
+    <row r="745" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="12"/>
-      <c r="F745" s="12"/>
-    </row>
-    <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G745" s="12"/>
+    </row>
+    <row r="746" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="12"/>
-      <c r="F746" s="12"/>
-    </row>
-    <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G746" s="12"/>
+    </row>
+    <row r="747" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="12"/>
-      <c r="F747" s="12"/>
-    </row>
-    <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G747" s="12"/>
+    </row>
+    <row r="748" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="12"/>
-      <c r="F748" s="12"/>
-    </row>
-    <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G748" s="12"/>
+    </row>
+    <row r="749" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="12"/>
-      <c r="F749" s="12"/>
-    </row>
-    <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G749" s="12"/>
+    </row>
+    <row r="750" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="12"/>
-      <c r="F750" s="12"/>
-    </row>
-    <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G750" s="12"/>
+    </row>
+    <row r="751" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="12"/>
-      <c r="F751" s="12"/>
-    </row>
-    <row r="752" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G751" s="12"/>
+    </row>
+    <row r="752" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="12"/>
-      <c r="F752" s="12"/>
-    </row>
-    <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G752" s="12"/>
+    </row>
+    <row r="753" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="12"/>
-      <c r="F753" s="12"/>
-    </row>
-    <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G753" s="12"/>
+    </row>
+    <row r="754" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="12"/>
-      <c r="F754" s="12"/>
-    </row>
-    <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G754" s="12"/>
+    </row>
+    <row r="755" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="12"/>
-      <c r="F755" s="12"/>
-    </row>
-    <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G755" s="12"/>
+    </row>
+    <row r="756" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="12"/>
-      <c r="F756" s="12"/>
-    </row>
-    <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G756" s="12"/>
+    </row>
+    <row r="757" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="12"/>
-      <c r="F757" s="12"/>
-    </row>
-    <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G757" s="12"/>
+    </row>
+    <row r="758" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="12"/>
-      <c r="F758" s="12"/>
-    </row>
-    <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G758" s="12"/>
+    </row>
+    <row r="759" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="12"/>
-      <c r="F759" s="12"/>
-    </row>
-    <row r="760" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G759" s="12"/>
+    </row>
+    <row r="760" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="12"/>
-      <c r="F760" s="12"/>
-    </row>
-    <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G760" s="12"/>
+    </row>
+    <row r="761" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="12"/>
-      <c r="F761" s="12"/>
-    </row>
-    <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G761" s="12"/>
+    </row>
+    <row r="762" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="12"/>
-      <c r="F762" s="12"/>
-    </row>
-    <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G762" s="12"/>
+    </row>
+    <row r="763" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="12"/>
-      <c r="F763" s="12"/>
-    </row>
-    <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G763" s="12"/>
+    </row>
+    <row r="764" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="12"/>
-      <c r="F764" s="12"/>
-    </row>
-    <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G764" s="12"/>
+    </row>
+    <row r="765" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="12"/>
-      <c r="F765" s="12"/>
-    </row>
-    <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G765" s="12"/>
+    </row>
+    <row r="766" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="12"/>
-      <c r="F766" s="12"/>
-    </row>
-    <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G766" s="12"/>
+    </row>
+    <row r="767" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="12"/>
-      <c r="F767" s="12"/>
-    </row>
-    <row r="768" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G767" s="12"/>
+    </row>
+    <row r="768" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="12"/>
-      <c r="F768" s="12"/>
-    </row>
-    <row r="769" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G768" s="12"/>
+    </row>
+    <row r="769" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="12"/>
-      <c r="F769" s="12"/>
-    </row>
-    <row r="770" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G769" s="12"/>
+    </row>
+    <row r="770" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="12"/>
-      <c r="F770" s="12"/>
-    </row>
-    <row r="771" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G770" s="12"/>
+    </row>
+    <row r="771" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="12"/>
-      <c r="F771" s="12"/>
-    </row>
-    <row r="772" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G771" s="12"/>
+    </row>
+    <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="12"/>
-      <c r="F772" s="12"/>
-    </row>
-    <row r="773" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G772" s="12"/>
+    </row>
+    <row r="773" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="12"/>
-      <c r="F773" s="12"/>
-    </row>
-    <row r="774" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G773" s="12"/>
+    </row>
+    <row r="774" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="12"/>
-      <c r="F774" s="12"/>
-    </row>
-    <row r="775" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G774" s="12"/>
+    </row>
+    <row r="775" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="12"/>
-      <c r="F775" s="12"/>
-    </row>
-    <row r="776" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G775" s="12"/>
+    </row>
+    <row r="776" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="12"/>
-      <c r="F776" s="12"/>
-    </row>
-    <row r="777" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G776" s="12"/>
+    </row>
+    <row r="777" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="12"/>
-      <c r="F777" s="12"/>
-    </row>
-    <row r="778" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G777" s="12"/>
+    </row>
+    <row r="778" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="12"/>
-      <c r="F778" s="12"/>
-    </row>
-    <row r="779" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G778" s="12"/>
+    </row>
+    <row r="779" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="12"/>
-      <c r="F779" s="12"/>
-    </row>
-    <row r="780" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G779" s="12"/>
+    </row>
+    <row r="780" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="12"/>
-      <c r="F780" s="12"/>
-    </row>
-    <row r="781" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G780" s="12"/>
+    </row>
+    <row r="781" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="12"/>
-      <c r="F781" s="12"/>
-    </row>
-    <row r="782" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G781" s="12"/>
+    </row>
+    <row r="782" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="12"/>
-      <c r="F782" s="12"/>
-    </row>
-    <row r="783" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G782" s="12"/>
+    </row>
+    <row r="783" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="12"/>
-      <c r="F783" s="12"/>
-    </row>
-    <row r="784" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G783" s="12"/>
+    </row>
+    <row r="784" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="12"/>
-      <c r="F784" s="12"/>
-    </row>
-    <row r="785" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G784" s="12"/>
+    </row>
+    <row r="785" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="12"/>
-      <c r="F785" s="12"/>
-    </row>
-    <row r="786" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G785" s="12"/>
+    </row>
+    <row r="786" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="12"/>
-      <c r="F786" s="12"/>
-    </row>
-    <row r="787" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G786" s="12"/>
+    </row>
+    <row r="787" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="12"/>
-      <c r="F787" s="12"/>
-    </row>
-    <row r="788" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G787" s="12"/>
+    </row>
+    <row r="788" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="12"/>
-      <c r="F788" s="12"/>
-    </row>
-    <row r="789" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G788" s="12"/>
+    </row>
+    <row r="789" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="12"/>
-      <c r="F789" s="12"/>
-    </row>
-    <row r="790" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G789" s="12"/>
+    </row>
+    <row r="790" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="12"/>
-      <c r="F790" s="12"/>
-    </row>
-    <row r="791" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G790" s="12"/>
+    </row>
+    <row r="791" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="12"/>
-      <c r="F791" s="12"/>
-    </row>
-    <row r="792" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G791" s="12"/>
+    </row>
+    <row r="792" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="12"/>
-      <c r="F792" s="12"/>
-    </row>
-    <row r="793" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G792" s="12"/>
+    </row>
+    <row r="793" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="12"/>
-      <c r="F793" s="12"/>
-    </row>
-    <row r="794" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G793" s="12"/>
+    </row>
+    <row r="794" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="12"/>
-      <c r="F794" s="12"/>
-    </row>
-    <row r="795" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G794" s="12"/>
+    </row>
+    <row r="795" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="12"/>
-      <c r="F795" s="12"/>
-    </row>
-    <row r="796" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G795" s="12"/>
+    </row>
+    <row r="796" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="12"/>
-      <c r="F796" s="12"/>
-    </row>
-    <row r="797" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G796" s="12"/>
+    </row>
+    <row r="797" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="12"/>
-      <c r="F797" s="12"/>
-    </row>
-    <row r="798" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G797" s="12"/>
+    </row>
+    <row r="798" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="12"/>
-      <c r="F798" s="12"/>
-    </row>
-    <row r="799" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G798" s="12"/>
+    </row>
+    <row r="799" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="12"/>
-      <c r="F799" s="12"/>
-    </row>
-    <row r="800" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G799" s="12"/>
+    </row>
+    <row r="800" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="12"/>
-      <c r="F800" s="12"/>
-    </row>
-    <row r="801" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G800" s="12"/>
+    </row>
+    <row r="801" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="12"/>
-      <c r="F801" s="12"/>
-    </row>
-    <row r="802" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G801" s="12"/>
+    </row>
+    <row r="802" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="12"/>
-      <c r="F802" s="12"/>
-    </row>
-    <row r="803" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G802" s="12"/>
+    </row>
+    <row r="803" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="12"/>
-      <c r="F803" s="12"/>
-    </row>
-    <row r="804" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G803" s="12"/>
+    </row>
+    <row r="804" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="12"/>
-      <c r="F804" s="12"/>
-    </row>
-    <row r="805" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G804" s="12"/>
+    </row>
+    <row r="805" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="12"/>
-      <c r="F805" s="12"/>
-    </row>
-    <row r="806" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G805" s="12"/>
+    </row>
+    <row r="806" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="12"/>
-      <c r="F806" s="12"/>
-    </row>
-    <row r="807" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G806" s="12"/>
+    </row>
+    <row r="807" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="12"/>
-      <c r="F807" s="12"/>
-    </row>
-    <row r="808" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G807" s="12"/>
+    </row>
+    <row r="808" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="12"/>
-      <c r="F808" s="12"/>
-    </row>
-    <row r="809" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G808" s="12"/>
+    </row>
+    <row r="809" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="12"/>
-      <c r="F809" s="12"/>
-    </row>
-    <row r="810" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G809" s="12"/>
+    </row>
+    <row r="810" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="12"/>
-      <c r="F810" s="12"/>
-    </row>
-    <row r="811" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G810" s="12"/>
+    </row>
+    <row r="811" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="12"/>
-      <c r="F811" s="12"/>
-    </row>
-    <row r="812" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G811" s="12"/>
+    </row>
+    <row r="812" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="12"/>
-      <c r="F812" s="12"/>
-    </row>
-    <row r="813" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G812" s="12"/>
+    </row>
+    <row r="813" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="12"/>
-      <c r="F813" s="12"/>
-    </row>
-    <row r="814" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G813" s="12"/>
+    </row>
+    <row r="814" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="12"/>
-      <c r="F814" s="12"/>
-    </row>
-    <row r="815" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G814" s="12"/>
+    </row>
+    <row r="815" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="12"/>
-      <c r="F815" s="12"/>
-    </row>
-    <row r="816" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G815" s="12"/>
+    </row>
+    <row r="816" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="12"/>
-      <c r="F816" s="12"/>
-    </row>
-    <row r="817" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G816" s="12"/>
+    </row>
+    <row r="817" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="12"/>
-      <c r="F817" s="12"/>
-    </row>
-    <row r="818" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G817" s="12"/>
+    </row>
+    <row r="818" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="12"/>
-      <c r="F818" s="12"/>
-    </row>
-    <row r="819" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G818" s="12"/>
+    </row>
+    <row r="819" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="12"/>
-      <c r="F819" s="12"/>
-    </row>
-    <row r="820" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G819" s="12"/>
+    </row>
+    <row r="820" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="12"/>
-      <c r="F820" s="12"/>
-    </row>
-    <row r="821" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G820" s="12"/>
+    </row>
+    <row r="821" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="12"/>
-      <c r="F821" s="12"/>
-    </row>
-    <row r="822" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G821" s="12"/>
+    </row>
+    <row r="822" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="12"/>
-      <c r="F822" s="12"/>
-    </row>
-    <row r="823" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G822" s="12"/>
+    </row>
+    <row r="823" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="12"/>
-      <c r="F823" s="12"/>
-    </row>
-    <row r="824" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G823" s="12"/>
+    </row>
+    <row r="824" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="12"/>
-      <c r="F824" s="12"/>
-    </row>
-    <row r="825" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G824" s="12"/>
+    </row>
+    <row r="825" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="12"/>
-      <c r="F825" s="12"/>
-    </row>
-    <row r="826" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G825" s="12"/>
+    </row>
+    <row r="826" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="12"/>
-      <c r="F826" s="12"/>
-    </row>
-    <row r="827" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G826" s="12"/>
+    </row>
+    <row r="827" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="12"/>
-      <c r="F827" s="12"/>
-    </row>
-    <row r="828" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G827" s="12"/>
+    </row>
+    <row r="828" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="12"/>
-      <c r="F828" s="12"/>
-    </row>
-    <row r="829" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G828" s="12"/>
+    </row>
+    <row r="829" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="12"/>
-      <c r="F829" s="12"/>
-    </row>
-    <row r="830" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G829" s="12"/>
+    </row>
+    <row r="830" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="12"/>
-      <c r="F830" s="12"/>
-    </row>
-    <row r="831" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G830" s="12"/>
+    </row>
+    <row r="831" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="12"/>
-      <c r="F831" s="12"/>
-    </row>
-    <row r="832" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G831" s="12"/>
+    </row>
+    <row r="832" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="12"/>
-      <c r="F832" s="12"/>
-    </row>
-    <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G832" s="12"/>
+    </row>
+    <row r="833" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="12"/>
-      <c r="F833" s="12"/>
-    </row>
-    <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G833" s="12"/>
+    </row>
+    <row r="834" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="12"/>
-      <c r="F834" s="12"/>
-    </row>
-    <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G834" s="12"/>
+    </row>
+    <row r="835" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="12"/>
-      <c r="F835" s="12"/>
-    </row>
-    <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G835" s="12"/>
+    </row>
+    <row r="836" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="12"/>
-      <c r="F836" s="12"/>
-    </row>
-    <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G836" s="12"/>
+    </row>
+    <row r="837" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="12"/>
-      <c r="F837" s="12"/>
-    </row>
-    <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G837" s="12"/>
+    </row>
+    <row r="838" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="12"/>
-      <c r="F838" s="12"/>
-    </row>
-    <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G838" s="12"/>
+    </row>
+    <row r="839" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="12"/>
-      <c r="F839" s="12"/>
-    </row>
-    <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G839" s="12"/>
+    </row>
+    <row r="840" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="12"/>
-      <c r="F840" s="12"/>
-    </row>
-    <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G840" s="12"/>
+    </row>
+    <row r="841" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="12"/>
-      <c r="F841" s="12"/>
-    </row>
-    <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G841" s="12"/>
+    </row>
+    <row r="842" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="12"/>
-      <c r="F842" s="12"/>
-    </row>
-    <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G842" s="12"/>
+    </row>
+    <row r="843" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="12"/>
-      <c r="F843" s="12"/>
-    </row>
-    <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G843" s="12"/>
+    </row>
+    <row r="844" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="12"/>
-      <c r="F844" s="12"/>
-    </row>
-    <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G844" s="12"/>
+    </row>
+    <row r="845" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="12"/>
-      <c r="F845" s="12"/>
-    </row>
-    <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G845" s="12"/>
+    </row>
+    <row r="846" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="12"/>
-      <c r="F846" s="12"/>
-    </row>
-    <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G846" s="12"/>
+    </row>
+    <row r="847" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="12"/>
-      <c r="F847" s="12"/>
-    </row>
-    <row r="848" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G847" s="12"/>
+    </row>
+    <row r="848" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="12"/>
-      <c r="F848" s="12"/>
-    </row>
-    <row r="849" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G848" s="12"/>
+    </row>
+    <row r="849" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="12"/>
-      <c r="F849" s="12"/>
-    </row>
-    <row r="850" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G849" s="12"/>
+    </row>
+    <row r="850" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="12"/>
-      <c r="F850" s="12"/>
-    </row>
-    <row r="851" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G850" s="12"/>
+    </row>
+    <row r="851" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="12"/>
-      <c r="F851" s="12"/>
-    </row>
-    <row r="852" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G851" s="12"/>
+    </row>
+    <row r="852" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="12"/>
-      <c r="F852" s="12"/>
-    </row>
-    <row r="853" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G852" s="12"/>
+    </row>
+    <row r="853" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="12"/>
-      <c r="F853" s="12"/>
-    </row>
-    <row r="854" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G853" s="12"/>
+    </row>
+    <row r="854" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="12"/>
-      <c r="F854" s="12"/>
-    </row>
-    <row r="855" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G854" s="12"/>
+    </row>
+    <row r="855" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="12"/>
-      <c r="F855" s="12"/>
-    </row>
-    <row r="856" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G855" s="12"/>
+    </row>
+    <row r="856" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="12"/>
-      <c r="F856" s="12"/>
-    </row>
-    <row r="857" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G856" s="12"/>
+    </row>
+    <row r="857" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="12"/>
-      <c r="F857" s="12"/>
-    </row>
-    <row r="858" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G857" s="12"/>
+    </row>
+    <row r="858" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="12"/>
-      <c r="F858" s="12"/>
-    </row>
-    <row r="859" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G858" s="12"/>
+    </row>
+    <row r="859" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="12"/>
-      <c r="F859" s="12"/>
-    </row>
-    <row r="860" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G859" s="12"/>
+    </row>
+    <row r="860" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="12"/>
-      <c r="F860" s="12"/>
-    </row>
-    <row r="861" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G860" s="12"/>
+    </row>
+    <row r="861" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="12"/>
-      <c r="F861" s="12"/>
-    </row>
-    <row r="862" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G861" s="12"/>
+    </row>
+    <row r="862" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="12"/>
-      <c r="F862" s="12"/>
-    </row>
-    <row r="863" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G862" s="12"/>
+    </row>
+    <row r="863" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="12"/>
-      <c r="F863" s="12"/>
-    </row>
-    <row r="864" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G863" s="12"/>
+    </row>
+    <row r="864" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="12"/>
-      <c r="F864" s="12"/>
-    </row>
-    <row r="865" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G864" s="12"/>
+    </row>
+    <row r="865" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="12"/>
-      <c r="F865" s="12"/>
-    </row>
-    <row r="866" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G865" s="12"/>
+    </row>
+    <row r="866" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="12"/>
-      <c r="F866" s="12"/>
-    </row>
-    <row r="867" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G866" s="12"/>
+    </row>
+    <row r="867" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="12"/>
-      <c r="F867" s="12"/>
-    </row>
-    <row r="868" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G867" s="12"/>
+    </row>
+    <row r="868" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="12"/>
-      <c r="F868" s="12"/>
-    </row>
-    <row r="869" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G868" s="12"/>
+    </row>
+    <row r="869" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="12"/>
-      <c r="F869" s="12"/>
-    </row>
-    <row r="870" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G869" s="12"/>
+    </row>
+    <row r="870" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="12"/>
-      <c r="F870" s="12"/>
-    </row>
-    <row r="871" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G870" s="12"/>
+    </row>
+    <row r="871" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="12"/>
-      <c r="F871" s="12"/>
-    </row>
-    <row r="872" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G871" s="12"/>
+    </row>
+    <row r="872" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="12"/>
-      <c r="F872" s="12"/>
-    </row>
-    <row r="873" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G872" s="12"/>
+    </row>
+    <row r="873" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="12"/>
-      <c r="F873" s="12"/>
-    </row>
-    <row r="874" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G873" s="12"/>
+    </row>
+    <row r="874" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="12"/>
-      <c r="F874" s="12"/>
-    </row>
-    <row r="875" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G874" s="12"/>
+    </row>
+    <row r="875" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="12"/>
-      <c r="F875" s="12"/>
-    </row>
-    <row r="876" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G875" s="12"/>
+    </row>
+    <row r="876" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="12"/>
-      <c r="F876" s="12"/>
-    </row>
-    <row r="877" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G876" s="12"/>
+    </row>
+    <row r="877" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="12"/>
-      <c r="F877" s="12"/>
-    </row>
-    <row r="878" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G877" s="12"/>
+    </row>
+    <row r="878" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="12"/>
-      <c r="F878" s="12"/>
-    </row>
-    <row r="879" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G878" s="12"/>
+    </row>
+    <row r="879" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="12"/>
-      <c r="F879" s="12"/>
-    </row>
-    <row r="880" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G879" s="12"/>
+    </row>
+    <row r="880" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="12"/>
-      <c r="F880" s="12"/>
-    </row>
-    <row r="881" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G880" s="12"/>
+    </row>
+    <row r="881" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="12"/>
-      <c r="F881" s="12"/>
-    </row>
-    <row r="882" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G881" s="12"/>
+    </row>
+    <row r="882" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="12"/>
-      <c r="F882" s="12"/>
-    </row>
-    <row r="883" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G882" s="12"/>
+    </row>
+    <row r="883" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="12"/>
-      <c r="F883" s="12"/>
-    </row>
-    <row r="884" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G883" s="12"/>
+    </row>
+    <row r="884" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="12"/>
-      <c r="F884" s="12"/>
-    </row>
-    <row r="885" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G884" s="12"/>
+    </row>
+    <row r="885" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="12"/>
-      <c r="F885" s="12"/>
-    </row>
-    <row r="886" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G885" s="12"/>
+    </row>
+    <row r="886" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="12"/>
-      <c r="F886" s="12"/>
-    </row>
-    <row r="887" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G886" s="12"/>
+    </row>
+    <row r="887" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="12"/>
-      <c r="F887" s="12"/>
-    </row>
-    <row r="888" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G887" s="12"/>
+    </row>
+    <row r="888" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="12"/>
-      <c r="F888" s="12"/>
-    </row>
-    <row r="889" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G888" s="12"/>
+    </row>
+    <row r="889" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="12"/>
-      <c r="F889" s="12"/>
-    </row>
-    <row r="890" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G889" s="12"/>
+    </row>
+    <row r="890" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="12"/>
-      <c r="F890" s="12"/>
-    </row>
-    <row r="891" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G890" s="12"/>
+    </row>
+    <row r="891" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="12"/>
-      <c r="F891" s="12"/>
-    </row>
-    <row r="892" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G891" s="12"/>
+    </row>
+    <row r="892" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="12"/>
-      <c r="F892" s="12"/>
-    </row>
-    <row r="893" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G892" s="12"/>
+    </row>
+    <row r="893" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="12"/>
-      <c r="F893" s="12"/>
-    </row>
-    <row r="894" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G893" s="12"/>
+    </row>
+    <row r="894" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="12"/>
-      <c r="F894" s="12"/>
-    </row>
-    <row r="895" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G894" s="12"/>
+    </row>
+    <row r="895" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="12"/>
-      <c r="F895" s="12"/>
-    </row>
-    <row r="896" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G895" s="12"/>
+    </row>
+    <row r="896" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="12"/>
-      <c r="F896" s="12"/>
-    </row>
-    <row r="897" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G896" s="12"/>
+    </row>
+    <row r="897" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="12"/>
-      <c r="F897" s="12"/>
-    </row>
-    <row r="898" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G897" s="12"/>
+    </row>
+    <row r="898" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="12"/>
-      <c r="F898" s="12"/>
-    </row>
-    <row r="899" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G898" s="12"/>
+    </row>
+    <row r="899" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="12"/>
-      <c r="F899" s="12"/>
-    </row>
-    <row r="900" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G899" s="12"/>
+    </row>
+    <row r="900" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="12"/>
-      <c r="F900" s="12"/>
-    </row>
-    <row r="901" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G900" s="12"/>
+    </row>
+    <row r="901" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="12"/>
-      <c r="F901" s="12"/>
-    </row>
-    <row r="902" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G901" s="12"/>
+    </row>
+    <row r="902" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="12"/>
-      <c r="F902" s="12"/>
-    </row>
-    <row r="903" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G902" s="12"/>
+    </row>
+    <row r="903" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="12"/>
-      <c r="F903" s="12"/>
-    </row>
-    <row r="904" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G903" s="12"/>
+    </row>
+    <row r="904" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="12"/>
-      <c r="F904" s="12"/>
-    </row>
-    <row r="905" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G904" s="12"/>
+    </row>
+    <row r="905" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="12"/>
-      <c r="F905" s="12"/>
-    </row>
-    <row r="906" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G905" s="12"/>
+    </row>
+    <row r="906" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="12"/>
-      <c r="F906" s="12"/>
-    </row>
-    <row r="907" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G906" s="12"/>
+    </row>
+    <row r="907" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="12"/>
-      <c r="F907" s="12"/>
-    </row>
-    <row r="908" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G907" s="12"/>
+    </row>
+    <row r="908" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="12"/>
-      <c r="F908" s="12"/>
-    </row>
-    <row r="909" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G908" s="12"/>
+    </row>
+    <row r="909" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="12"/>
-      <c r="F909" s="12"/>
-    </row>
-    <row r="910" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G909" s="12"/>
+    </row>
+    <row r="910" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="12"/>
-      <c r="F910" s="12"/>
-    </row>
-    <row r="911" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G910" s="12"/>
+    </row>
+    <row r="911" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="12"/>
-      <c r="F911" s="12"/>
-    </row>
-    <row r="912" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G911" s="12"/>
+    </row>
+    <row r="912" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="12"/>
-      <c r="F912" s="12"/>
-    </row>
-    <row r="913" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G912" s="12"/>
+    </row>
+    <row r="913" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="12"/>
-      <c r="F913" s="12"/>
-    </row>
-    <row r="914" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G913" s="12"/>
+    </row>
+    <row r="914" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="12"/>
-      <c r="F914" s="12"/>
-    </row>
-    <row r="915" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G914" s="12"/>
+    </row>
+    <row r="915" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="12"/>
-      <c r="F915" s="12"/>
-    </row>
-    <row r="916" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G915" s="12"/>
+    </row>
+    <row r="916" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="12"/>
-      <c r="F916" s="12"/>
-    </row>
-    <row r="917" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G916" s="12"/>
+    </row>
+    <row r="917" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="12"/>
-      <c r="F917" s="12"/>
-    </row>
-    <row r="918" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G917" s="12"/>
+    </row>
+    <row r="918" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="12"/>
-      <c r="F918" s="12"/>
-    </row>
-    <row r="919" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G918" s="12"/>
+    </row>
+    <row r="919" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="12"/>
-      <c r="F919" s="12"/>
-    </row>
-    <row r="920" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G919" s="12"/>
+    </row>
+    <row r="920" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="12"/>
-      <c r="F920" s="12"/>
-    </row>
-    <row r="921" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G920" s="12"/>
+    </row>
+    <row r="921" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="12"/>
-      <c r="F921" s="12"/>
-    </row>
-    <row r="922" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G921" s="12"/>
+    </row>
+    <row r="922" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="12"/>
-      <c r="F922" s="12"/>
-    </row>
-    <row r="923" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G922" s="12"/>
+    </row>
+    <row r="923" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="12"/>
-      <c r="F923" s="12"/>
-    </row>
-    <row r="924" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G923" s="12"/>
+    </row>
+    <row r="924" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="12"/>
-      <c r="F924" s="12"/>
-    </row>
-    <row r="925" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G924" s="12"/>
+    </row>
+    <row r="925" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="12"/>
-      <c r="F925" s="12"/>
-    </row>
-    <row r="926" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G925" s="12"/>
+    </row>
+    <row r="926" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="12"/>
-      <c r="F926" s="12"/>
-    </row>
-    <row r="927" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G926" s="12"/>
+    </row>
+    <row r="927" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="12"/>
-      <c r="F927" s="12"/>
-    </row>
-    <row r="928" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G927" s="12"/>
+    </row>
+    <row r="928" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="12"/>
-      <c r="F928" s="12"/>
-    </row>
-    <row r="929" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G928" s="12"/>
+    </row>
+    <row r="929" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="12"/>
-      <c r="F929" s="12"/>
-    </row>
-    <row r="930" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G929" s="12"/>
+    </row>
+    <row r="930" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="12"/>
-      <c r="F930" s="12"/>
-    </row>
-    <row r="931" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G930" s="12"/>
+    </row>
+    <row r="931" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="12"/>
-      <c r="F931" s="12"/>
-    </row>
-    <row r="932" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G931" s="12"/>
+    </row>
+    <row r="932" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="12"/>
-      <c r="F932" s="12"/>
-    </row>
-    <row r="933" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G932" s="12"/>
+    </row>
+    <row r="933" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="12"/>
-      <c r="F933" s="12"/>
-    </row>
-    <row r="934" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G933" s="12"/>
+    </row>
+    <row r="934" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="12"/>
-      <c r="F934" s="12"/>
-    </row>
-    <row r="935" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G934" s="12"/>
+    </row>
+    <row r="935" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="12"/>
-      <c r="F935" s="12"/>
-    </row>
-    <row r="936" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G935" s="12"/>
+    </row>
+    <row r="936" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="12"/>
-      <c r="F936" s="12"/>
-    </row>
-    <row r="937" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G936" s="12"/>
+    </row>
+    <row r="937" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="12"/>
-      <c r="F937" s="12"/>
-    </row>
-    <row r="938" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G937" s="12"/>
+    </row>
+    <row r="938" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="12"/>
-      <c r="F938" s="12"/>
-    </row>
-    <row r="939" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G938" s="12"/>
+    </row>
+    <row r="939" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="12"/>
-      <c r="F939" s="12"/>
-    </row>
-    <row r="940" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G939" s="12"/>
+    </row>
+    <row r="940" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="12"/>
-      <c r="F940" s="12"/>
-    </row>
-    <row r="941" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G940" s="12"/>
+    </row>
+    <row r="941" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="12"/>
-      <c r="F941" s="12"/>
-    </row>
-    <row r="942" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G941" s="12"/>
+    </row>
+    <row r="942" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="12"/>
-      <c r="F942" s="12"/>
-    </row>
-    <row r="943" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G942" s="12"/>
+    </row>
+    <row r="943" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="12"/>
-      <c r="F943" s="12"/>
-    </row>
-    <row r="944" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G943" s="12"/>
+    </row>
+    <row r="944" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="12"/>
-      <c r="F944" s="12"/>
-    </row>
-    <row r="945" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G944" s="12"/>
+    </row>
+    <row r="945" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="12"/>
-      <c r="F945" s="12"/>
-    </row>
-    <row r="946" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G945" s="12"/>
+    </row>
+    <row r="946" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="12"/>
-      <c r="F946" s="12"/>
-    </row>
-    <row r="947" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G946" s="12"/>
+    </row>
+    <row r="947" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="12"/>
-      <c r="F947" s="12"/>
-    </row>
-    <row r="948" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G947" s="12"/>
+    </row>
+    <row r="948" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="12"/>
-      <c r="F948" s="12"/>
-    </row>
-    <row r="949" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G948" s="12"/>
+    </row>
+    <row r="949" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="12"/>
-      <c r="F949" s="12"/>
-    </row>
-    <row r="950" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G949" s="12"/>
+    </row>
+    <row r="950" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="12"/>
-      <c r="F950" s="12"/>
-    </row>
-    <row r="951" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G950" s="12"/>
+    </row>
+    <row r="951" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="12"/>
-      <c r="F951" s="12"/>
-    </row>
-    <row r="952" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G951" s="12"/>
+    </row>
+    <row r="952" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="12"/>
-      <c r="F952" s="12"/>
-    </row>
-    <row r="953" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G952" s="12"/>
+    </row>
+    <row r="953" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="12"/>
-      <c r="F953" s="12"/>
-    </row>
-    <row r="954" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G953" s="12"/>
+    </row>
+    <row r="954" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="12"/>
-      <c r="F954" s="12"/>
-    </row>
-    <row r="955" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G954" s="12"/>
+    </row>
+    <row r="955" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="12"/>
-      <c r="F955" s="12"/>
-    </row>
-    <row r="956" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G955" s="12"/>
+    </row>
+    <row r="956" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="12"/>
-      <c r="F956" s="12"/>
-    </row>
-    <row r="957" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G956" s="12"/>
+    </row>
+    <row r="957" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="12"/>
-      <c r="F957" s="12"/>
-    </row>
-    <row r="958" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G957" s="12"/>
+    </row>
+    <row r="958" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="12"/>
-      <c r="F958" s="12"/>
-    </row>
-    <row r="959" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G958" s="12"/>
+    </row>
+    <row r="959" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="12"/>
-      <c r="F959" s="12"/>
-    </row>
-    <row r="960" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G959" s="12"/>
+    </row>
+    <row r="960" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="12"/>
-      <c r="F960" s="12"/>
-    </row>
-    <row r="961" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G960" s="12"/>
+    </row>
+    <row r="961" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="12"/>
-      <c r="F961" s="12"/>
-    </row>
-    <row r="962" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G961" s="12"/>
+    </row>
+    <row r="962" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="12"/>
-      <c r="F962" s="12"/>
-    </row>
-    <row r="963" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G962" s="12"/>
+    </row>
+    <row r="963" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="12"/>
-      <c r="F963" s="12"/>
-    </row>
-    <row r="964" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G963" s="12"/>
+    </row>
+    <row r="964" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="12"/>
-      <c r="F964" s="12"/>
-    </row>
-    <row r="965" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G964" s="12"/>
+    </row>
+    <row r="965" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="12"/>
-      <c r="F965" s="12"/>
-    </row>
-    <row r="966" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G965" s="12"/>
+    </row>
+    <row r="966" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="12"/>
-      <c r="F966" s="12"/>
-    </row>
-    <row r="967" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G966" s="12"/>
+    </row>
+    <row r="967" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="12"/>
-      <c r="F967" s="12"/>
-    </row>
-    <row r="968" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G967" s="12"/>
+    </row>
+    <row r="968" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="12"/>
-      <c r="F968" s="12"/>
-    </row>
-    <row r="969" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G968" s="12"/>
+    </row>
+    <row r="969" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="12"/>
-      <c r="F969" s="12"/>
-    </row>
-    <row r="970" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G969" s="12"/>
+    </row>
+    <row r="970" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="12"/>
-      <c r="F970" s="12"/>
-    </row>
-    <row r="971" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G970" s="12"/>
+    </row>
+    <row r="971" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="12"/>
-      <c r="F971" s="12"/>
-    </row>
-    <row r="972" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G971" s="12"/>
+    </row>
+    <row r="972" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="12"/>
-      <c r="F972" s="12"/>
-    </row>
-    <row r="973" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G972" s="12"/>
+    </row>
+    <row r="973" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="12"/>
-      <c r="F973" s="12"/>
-    </row>
-    <row r="974" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G973" s="12"/>
+    </row>
+    <row r="974" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="12"/>
-      <c r="F974" s="12"/>
-    </row>
-    <row r="975" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G974" s="12"/>
+    </row>
+    <row r="975" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="12"/>
-      <c r="F975" s="12"/>
-    </row>
-    <row r="976" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G975" s="12"/>
+    </row>
+    <row r="976" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="12"/>
-      <c r="F976" s="12"/>
-    </row>
-    <row r="977" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G976" s="12"/>
+    </row>
+    <row r="977" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="12"/>
-      <c r="F977" s="12"/>
-    </row>
-    <row r="978" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G977" s="12"/>
+    </row>
+    <row r="978" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="12"/>
-      <c r="F978" s="12"/>
-    </row>
-    <row r="979" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G978" s="12"/>
+    </row>
+    <row r="979" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="12"/>
-      <c r="F979" s="12"/>
-    </row>
-    <row r="980" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G979" s="12"/>
+    </row>
+    <row r="980" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="12"/>
-      <c r="F980" s="12"/>
-    </row>
-    <row r="981" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G980" s="12"/>
+    </row>
+    <row r="981" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="12"/>
-      <c r="F981" s="12"/>
-    </row>
-    <row r="982" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G981" s="12"/>
+    </row>
+    <row r="982" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="12"/>
-      <c r="F982" s="12"/>
-    </row>
-    <row r="983" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G982" s="12"/>
+    </row>
+    <row r="983" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="12"/>
-      <c r="F983" s="12"/>
-    </row>
-    <row r="984" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G983" s="12"/>
+    </row>
+    <row r="984" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="12"/>
-      <c r="F984" s="12"/>
-    </row>
-    <row r="985" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G984" s="12"/>
+    </row>
+    <row r="985" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="12"/>
-      <c r="F985" s="12"/>
-    </row>
-    <row r="986" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G985" s="12"/>
+    </row>
+    <row r="986" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="12"/>
-      <c r="F986" s="12"/>
-    </row>
-    <row r="987" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G986" s="12"/>
+    </row>
+    <row r="987" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="12"/>
-      <c r="F987" s="12"/>
-    </row>
-    <row r="988" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G987" s="12"/>
+    </row>
+    <row r="988" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="12"/>
-      <c r="F988" s="12"/>
-    </row>
-    <row r="989" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G988" s="12"/>
+    </row>
+    <row r="989" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="12"/>
-      <c r="F989" s="12"/>
-    </row>
-    <row r="990" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G989" s="12"/>
+    </row>
+    <row r="990" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="12"/>
-      <c r="F990" s="12"/>
-    </row>
-    <row r="991" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G990" s="12"/>
+    </row>
+    <row r="991" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="12"/>
-      <c r="F991" s="12"/>
-    </row>
-    <row r="992" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G991" s="12"/>
+    </row>
+    <row r="992" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="12"/>
-      <c r="F992" s="12"/>
-    </row>
-    <row r="993" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G992" s="12"/>
+    </row>
+    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="12"/>
-      <c r="F993" s="12"/>
-    </row>
-    <row r="994" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G993" s="12"/>
+    </row>
+    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="12"/>
-      <c r="F994" s="12"/>
-    </row>
-    <row r="995" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G994" s="12"/>
+    </row>
+    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="12"/>
-      <c r="F995" s="12"/>
-    </row>
-    <row r="996" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G995" s="12"/>
+    </row>
+    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="12"/>
-      <c r="F996" s="12"/>
-    </row>
-    <row r="997" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G996" s="12"/>
+    </row>
+    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="12"/>
-      <c r="F997" s="12"/>
-    </row>
-    <row r="998" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G997" s="12"/>
+    </row>
+    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="12"/>
-      <c r="F998" s="12"/>
-    </row>
-    <row r="999" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G998" s="12"/>
+    </row>
+    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="12"/>
-      <c r="F999" s="12"/>
-    </row>
-    <row r="1000" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G999" s="12"/>
+    </row>
+    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="12"/>
-      <c r="F1000" s="12"/>
+      <c r="G1000" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9102,10 +9117,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9113,14 +9128,15 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -9130,20 +9146,24 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9161,22 +9181,30 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="20">
+        <v>666677773</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C4C027-0B2E-4182-B105-B9187673E82B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B96A3-BD17-4DCF-AEA1-B1A5C17F28D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -130,9 +130,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>BRN - BRN</t>
+  </si>
+  <si>
+    <t>Simon</t>
   </si>
 </sst>
 </file>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -731,31 +731,31 @@
         <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -776,38 +776,38 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>34</v>
@@ -1804,7 +1804,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1833,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1875,13 +1875,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>13</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1923,7 +1923,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -1938,10 +1938,10 @@
         <v>1000</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
@@ -4954,8 +4954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4980,7 +4980,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>21</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -5025,24 +5025,24 @@
         <v>9</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="20">
         <v>666677773</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>22</v>
@@ -5057,19 +5057,19 @@
         <v>25</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -9138,7 +9138,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -9186,20 +9186,20 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="20">
         <v>666677773</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="H2">
         <v>1</v>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B96A3-BD17-4DCF-AEA1-B1A5C17F28D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A757D-9663-4D02-8C78-D0C63C0C677C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="96">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -224,6 +224,93 @@
   </si>
   <si>
     <t>Simon</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final-04</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto-04</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final_10_Lease_Space_31</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final_10_Lease_Space_32</t>
+  </si>
+  <si>
+    <t>666677778</t>
+  </si>
+  <si>
+    <t>666677779</t>
+  </si>
+  <si>
+    <t>666677780</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto-01</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final-02</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto-02</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final-03</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto-03</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final_10_Lease_Space_33</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>BRT - Base Rent Retail</t>
+  </si>
+  <si>
+    <t>BRS - Base Rent Storage</t>
+  </si>
+  <si>
+    <t>BRO - Base Rent Office</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final_10_Lease_Space_34</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>666677774</t>
+  </si>
+  <si>
+    <t>Add2</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto</t>
+  </si>
+  <si>
+    <t>666677781</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto-07</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final-07</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final_10_Lease_Space_37</t>
   </si>
 </sst>
 </file>
@@ -696,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -810,6 +897,162 @@
         <v>39</v>
       </c>
       <c r="N2" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1803,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1812,7 +2055,7 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
@@ -1947,11 +2190,61 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3">
+        <v>12230</v>
+      </c>
+      <c r="J3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3">
+        <v>100000000</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -4952,10 +5245,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:P997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5039,10 +5332,10 @@
         <v>666677773</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>22</v>
@@ -5063,7 +5356,7 @@
         <v>66</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>58</v>
@@ -5073,40 +5366,180 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="A3" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="20">
+        <v>666677773</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="A4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="20">
+        <v>666677773</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="A5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="20">
+        <v>666677773</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="A6" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="20">
+        <v>666677774</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
@@ -5128,30 +5561,15 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -5177,15 +5595,15 @@
       <c r="A17" s="12"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="G20" s="12"/>
     </row>
@@ -9096,18 +9514,6 @@
     <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="12"/>
       <c r="G997" s="12"/>
-    </row>
-    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A998" s="12"/>
-      <c r="G998" s="12"/>
-    </row>
-    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="12"/>
-      <c r="G999" s="12"/>
-    </row>
-    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="12"/>
-      <c r="G1000" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9120,7 +9526,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9130,7 +9536,7 @@
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="11" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="28" width="8.7109375" customWidth="1"/>
@@ -9205,6 +9611,75 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="20">
+        <v>666677773</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="20">
+        <v>666677773</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="20">
+        <v>666677774</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
         <v>34</v>
       </c>
     </row>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A757D-9663-4D02-8C78-D0C63C0C677C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981D0B2-5091-47F4-A926-262D9967D0B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="94">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -238,15 +238,6 @@
     <t>Test_Property_Auto_Final_10_Lease_Space_32</t>
   </si>
   <si>
-    <t>666677778</t>
-  </si>
-  <si>
-    <t>666677779</t>
-  </si>
-  <si>
-    <t>666677780</t>
-  </si>
-  <si>
     <t>Test_Property_Auto-01</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>BRO - Base Rent Office</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Test_Property_Auto_Final_10_Lease_Space_34</t>
   </si>
   <si>
@@ -301,9 +289,6 @@
     <t>Test_Property_Auto</t>
   </si>
   <si>
-    <t>666677781</t>
-  </si>
-  <si>
     <t>Test_Property_Auto-07</t>
   </si>
   <si>
@@ -311,6 +296,15 @@
   </si>
   <si>
     <t>Test_Property_Auto_Final_10_Lease_Space_37</t>
+  </si>
+  <si>
+    <t>666677778</t>
+  </si>
+  <si>
+    <t>Test_Property_Auto_Final_10_Lease_Space_38</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -783,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,7 +891,7 @@
         <v>39</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,7 +906,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -933,10 +927,10 @@
         <v>48</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,7 +945,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -972,10 +966,10 @@
         <v>48</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,10 +981,10 @@
         <v>55</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -1011,25 +1005,25 @@
         <v>48</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -1050,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>34</v>
@@ -2046,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2190,21 +2184,21 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -5247,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P997"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5355,8 +5349,8 @@
       <c r="M2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>86</v>
+      <c r="N2" t="s">
+        <v>34</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>58</v>
@@ -5367,7 +5361,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>53</v>
@@ -5379,7 +5373,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -5399,8 +5393,8 @@
       <c r="M3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="14" t="s">
-        <v>86</v>
+      <c r="N3" t="s">
+        <v>34</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>58</v>
@@ -5411,7 +5405,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>53</v>
@@ -5420,10 +5414,10 @@
         <v>666677773</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>22</v>
@@ -5443,8 +5437,8 @@
       <c r="M4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="14" t="s">
-        <v>86</v>
+      <c r="N4" t="s">
+        <v>34</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>58</v>
@@ -5455,7 +5449,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>53</v>
@@ -5464,10 +5458,10 @@
         <v>666677773</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -5487,8 +5481,8 @@
       <c r="M5" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>86</v>
+      <c r="N5" t="s">
+        <v>34</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>58</v>
@@ -5499,7 +5493,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>53</v>
@@ -5508,10 +5502,10 @@
         <v>666677774</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>22</v>
@@ -5531,7 +5525,7 @@
       <c r="M6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="N6" t="s">
         <v>34</v>
       </c>
       <c r="O6" s="14" t="s">
@@ -9525,8 +9519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9611,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9634,7 +9628,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9657,12 +9651,12 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>53</v>
@@ -9671,16 +9665,39 @@
         <v>666677774</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="20">
+        <v>666677774</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981D0B2-5091-47F4-A926-262D9967D0B3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9394F283-1FEF-4A3D-B753-3235AF556833}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="91">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -127,9 +127,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Monthly</t>
   </si>
   <si>
@@ -224,12 +221,6 @@
   </si>
   <si>
     <t>Simon</t>
-  </si>
-  <si>
-    <t>Test_Property_Auto_Final-04</t>
-  </si>
-  <si>
-    <t>Test_Property_Auto-04</t>
   </si>
   <si>
     <t>Test_Property_Auto_Final_10_Lease_Space_31</t>
@@ -777,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +791,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -812,31 +803,31 @@
         <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -857,185 +848,185 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="F2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" t="s">
         <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>38</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" t="s">
         <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" t="s">
         <v>37</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>25</v>
@@ -1044,10 +1035,10 @@
         <v>25</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2112,13 +2103,13 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>13</v>
@@ -2136,13 +2127,13 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -2160,7 +2151,7 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -2175,30 +2166,30 @@
         <v>1000</v>
       </c>
       <c r="P2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R2" t="b">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -2213,7 +2204,7 @@
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -2228,16 +2219,16 @@
         <v>1000</v>
       </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R3" t="b">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -5239,10 +5230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P997"/>
+  <dimension ref="A1:P996"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N6"/>
+      <selection activeCell="N2" sqref="N2:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5267,7 +5258,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -5303,7 +5294,7 @@
         <v>21</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -5312,21 +5303,21 @@
         <v>9</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="20">
         <v>666677773</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>68</v>
@@ -5344,36 +5335,36 @@
         <v>25</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="20">
         <v>666677773</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -5388,36 +5379,36 @@
         <v>25</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="20">
         <v>666677773</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>22</v>
@@ -5432,36 +5423,36 @@
         <v>25</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="20">
         <v>666677773</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -5476,64 +5467,29 @@
         <v>25</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="20">
-        <v>666677774</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>64</v>
-      </c>
+      <c r="A6" s="12"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
@@ -5546,12 +5502,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -5585,7 +5536,7 @@
       <c r="A16" s="12"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="G17" s="12"/>
     </row>
@@ -9504,10 +9455,6 @@
     <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="12"/>
       <c r="G996" s="12"/>
-    </row>
-    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A997" s="12"/>
-      <c r="G997" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9520,7 +9467,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9538,7 +9485,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -9586,118 +9533,118 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="20">
         <v>666677773</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>55</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>56</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="20">
         <v>666677773</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="20">
         <v>666677773</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="20">
         <v>666677774</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="20">
         <v>666677774</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A757D-9663-4D02-8C78-D0C63C0C677C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FC94A2-1C84-4680-B865-F8DF82AB2CA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="107">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -247,9 +247,6 @@
     <t>666677780</t>
   </si>
   <si>
-    <t>Test_Property_Auto-01</t>
-  </si>
-  <si>
     <t>Test_Property_Auto_Final-02</t>
   </si>
   <si>
@@ -286,19 +283,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Test_Property_Auto_Final_10_Lease_Space_34</t>
-  </si>
-  <si>
     <t>1254</t>
   </si>
   <si>
-    <t>666677774</t>
-  </si>
-  <si>
     <t>Add2</t>
-  </si>
-  <si>
-    <t>Test_Property_Auto</t>
   </si>
   <si>
     <t>666677781</t>
@@ -310,14 +298,59 @@
     <t>Test_Property_Auto_Final-07</t>
   </si>
   <si>
-    <t>Test_Property_Auto_Final_10_Lease_Space_37</t>
+    <t>Test_Property_Auto_666677778</t>
+  </si>
+  <si>
+    <t>Test_Lease_666677778</t>
+  </si>
+  <si>
+    <t>Test_Lease_666677778_Space_01</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>Building List</t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Owned</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>chartType</t>
+  </si>
+  <si>
+    <t>QA Testing</t>
+  </si>
+  <si>
+    <t>FASB w/o JE - FASB w/o JE Mapping</t>
+  </si>
+  <si>
+    <t>Test_667788_Propertry</t>
+  </si>
+  <si>
+    <t>667788</t>
+  </si>
+  <si>
+    <t>Test_667788_Lease</t>
+  </si>
+  <si>
+    <t>Test_667788_Lease_space</t>
+  </si>
+  <si>
+    <t>Lease_667788</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -350,6 +383,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -467,6 +518,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +841,7 @@
   <dimension ref="A1:AA997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -792,7 +849,7 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
     <col min="5" max="5" width="44.42578125" customWidth="1"/>
     <col min="6" max="6" width="40.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
@@ -897,7 +954,7 @@
         <v>39</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,7 +969,7 @@
         <v>69</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -933,10 +990,10 @@
         <v>48</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -951,7 +1008,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -972,10 +1029,10 @@
         <v>48</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -987,10 +1044,10 @@
         <v>55</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
         <v>35</v>
@@ -1011,25 +1068,25 @@
         <v>48</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>85</v>
+      <c r="D6" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
@@ -1047,10 +1104,10 @@
         <v>25</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N6" s="11" t="s">
         <v>34</v>
@@ -2044,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2064,17 +2121,17 @@
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.140625" customWidth="1"/>
     <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="25.140625" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" customWidth="1"/>
-    <col min="17" max="17" width="28.85546875" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="26" width="8.7109375" customWidth="1"/>
+    <col min="13" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" customWidth="1"/>
+    <col min="17" max="17" width="30.42578125" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -2114,33 +2171,36 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
@@ -2174,37 +2234,37 @@
       <c r="M2" t="s">
         <v>33</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>100000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1000</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>58</v>
       </c>
-      <c r="R2" t="b">
+      <c r="S2" t="b">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="T2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>89</v>
+      <c r="D3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -2219,7 +2279,7 @@
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -2227,62 +2287,65 @@
       <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3">
         <v>100000000</v>
       </c>
-      <c r="O3">
-        <v>1000</v>
-      </c>
       <c r="P3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" t="b">
+        <v>96</v>
+      </c>
+      <c r="R3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" t="b">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -5239,7 +5302,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5247,8 +5310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P997"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5322,7 +5385,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -5356,7 +5419,7 @@
         <v>66</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>58</v>
@@ -5366,20 +5429,20 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="20">
-        <v>666677773</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>55</v>
+      <c r="D3" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="23">
+        <v>667788</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -5394,16 +5457,16 @@
         <v>25</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>94</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>64</v>
@@ -5420,10 +5483,10 @@
         <v>666677773</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>76</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>22</v>
@@ -5444,7 +5507,7 @@
         <v>66</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>58</v>
@@ -5464,10 +5527,10 @@
         <v>666677773</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -5488,7 +5551,7 @@
         <v>66</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O5" s="14" t="s">
         <v>58</v>
@@ -5499,7 +5562,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>53</v>
@@ -5508,10 +5571,10 @@
         <v>666677774</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>22</v>
@@ -5532,7 +5595,7 @@
         <v>66</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="O6" s="14" t="s">
         <v>58</v>
@@ -9526,7 +9589,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9590,28 +9653,27 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="5"/>
       <c r="D2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="20">
-        <v>666677773</v>
+        <v>91</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9634,7 +9696,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9657,27 +9719,27 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="20">
-        <v>666677774</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>95</v>
+      <c r="D5" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="s">
         <v>34</v>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2364FA53-9FE4-4295-A91D-A05045D49957}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DEA0E1-B07D-45FC-994F-722CB787F509}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="98">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Floor</t>
   </si>
   <si>
-    <t>Add1</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
   </si>
   <si>
     <t>Calendar Year</t>
-  </si>
-  <si>
-    <t>1250</t>
   </si>
   <si>
     <t>chargeType</t>
@@ -184,13 +178,7 @@
     <t>Test_Property_Auto_Final</t>
   </si>
   <si>
-    <t>666677773</t>
-  </si>
-  <si>
     <t>Test_Property_Auto_Final-01</t>
-  </si>
-  <si>
-    <t>Test_Property_Auto_Final_10_Lease_Space_30</t>
   </si>
   <si>
     <t>contractType</t>
@@ -208,16 +196,10 @@
     <t>propertyGroup2-region</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>propertyGroup3-assetType</t>
   </si>
   <si>
     <t>Real Estate Contract</t>
-  </si>
-  <si>
-    <t>BRN - BRN</t>
   </si>
   <si>
     <t>Simon</t>
@@ -227,9 +209,6 @@
   </si>
   <si>
     <t>Test_Property_Auto_Final_10_Lease_Space_32</t>
-  </si>
-  <si>
-    <t>Test_Property_Auto-01</t>
   </si>
   <si>
     <t>Test_Property_Auto_Final-02</t>
@@ -289,12 +268,6 @@
     <t>QA Testing</t>
   </si>
   <si>
-    <t>Test_667788_Propertry</t>
-  </si>
-  <si>
-    <t>667788</t>
-  </si>
-  <si>
     <t>DEFAULT</t>
   </si>
   <si>
@@ -310,19 +283,40 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Test_667788_Lease</t>
+    <t>01</t>
   </si>
   <si>
-    <t>Test_667788_Lease_space</t>
+    <t>Test_6067788_Propertry_01</t>
   </si>
   <si>
-    <t>FASB w/o JE - FASB w/o JE Mapping</t>
+    <t>60677888</t>
   </si>
   <si>
-    <t>Lease_667788</t>
+    <t>Test_6067788_Lease_01</t>
   </si>
   <si>
-    <t>01</t>
+    <t>Lease_6067788_01</t>
+  </si>
+  <si>
+    <t>Test_6067788_Lease_space_01</t>
+  </si>
+  <si>
+    <t>Test_60067788_Propertry</t>
+  </si>
+  <si>
+    <t>60067788</t>
+  </si>
+  <si>
+    <t>Test_60067788_Lease</t>
+  </si>
+  <si>
+    <t>Test_60067788_Lease_space</t>
+  </si>
+  <si>
+    <t>Lease_60067788</t>
+  </si>
+  <si>
+    <t>FASB - Charge</t>
   </si>
 </sst>
 </file>
@@ -819,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -842,7 +836,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -854,31 +848,31 @@
         <v>26</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="13" t="s">
         <v>44</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -897,199 +891,199 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>50</v>
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="D2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>64</v>
+      <c r="D2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
       </c>
       <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" t="s">
         <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" t="s">
         <v>36</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" t="s">
         <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" t="s">
         <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>84</v>
+      <c r="A6" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>97</v>
       </c>
       <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" t="s">
         <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2082,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2112,7 +2106,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2151,19 +2145,19 @@
         <v>11</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>13</v>
@@ -2180,112 +2174,115 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>53</v>
+      <c r="A2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2">
+        <v>12230</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="I2">
-        <v>12229</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="O2">
         <v>100000000</v>
       </c>
-      <c r="P2">
-        <v>1000</v>
+      <c r="P2" t="s">
+        <v>82</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>84</v>
+      <c r="A3" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
       </c>
       <c r="I3">
         <v>12230</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="O3">
         <v>100000000</v>
       </c>
       <c r="P3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -5290,7 +5287,7 @@
   <dimension ref="A1:P996"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5315,7 +5312,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -5351,7 +5348,7 @@
         <v>21</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -5360,24 +5357,24 @@
         <v>9</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="20">
-        <v>666677773</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>54</v>
+      <c r="A2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="23">
+        <v>60677888</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>22</v>
@@ -5392,36 +5389,36 @@
         <v>25</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>84</v>
+      <c r="A3" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" s="23">
-        <v>667788</v>
+        <v>60067788</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -5436,36 +5433,36 @@
         <v>25</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>94</v>
+        <v>86</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="20">
         <v>666677773</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>22</v>
@@ -5480,36 +5477,36 @@
         <v>25</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="20">
         <v>666677773</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -5524,19 +5521,19 @@
         <v>25</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -9523,8 +9520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9542,7 +9539,7 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -9588,120 +9585,119 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="20">
-        <v>666677773</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="20">
         <v>666677773</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E4" s="20">
         <v>666677773</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F5" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>95</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>96</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>52</v>
       </c>
       <c r="E6" s="20">
         <v>666677774</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DEA0E1-B07D-45FC-994F-722CB787F509}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA7093-4B27-4CBD-AFB6-226C35555FFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAA7093-4B27-4CBD-AFB6-226C35555FFC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710ED78F-46A1-4CFE-9C44-EF426564BAA1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -271,12 +271,6 @@
     <t>DEFAULT</t>
   </si>
   <si>
-    <t>Building List</t>
-  </si>
-  <si>
-    <t>Central</t>
-  </si>
-  <si>
     <t>Owned</t>
   </si>
   <si>
@@ -317,6 +311,18 @@
   </si>
   <si>
     <t>FASB - Charge</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>CHC</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>FASB Charge - Offshore QA FASB Charge</t>
   </si>
 </sst>
 </file>
@@ -813,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,13 +903,13 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>91</v>
-      </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
         <v>33</v>
@@ -1053,13 +1059,13 @@
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
@@ -1083,7 +1089,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2076,8 +2082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2178,10 +2184,10 @@
         <v>48</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>73</v>
@@ -2199,7 +2205,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -2213,14 +2219,14 @@
       <c r="O2">
         <v>100000000</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>1500</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R2" t="s">
         <v>82</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" t="s">
-        <v>84</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
@@ -2234,10 +2240,10 @@
         <v>77</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
         <v>73</v>
@@ -2255,7 +2261,7 @@
         <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -2269,20 +2275,20 @@
       <c r="O3">
         <v>100000000</v>
       </c>
-      <c r="P3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" t="s">
-        <v>84</v>
+      <c r="P3">
+        <v>1500</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -5278,7 +5284,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5286,8 +5292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P996"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5365,16 +5371,16 @@
         <v>48</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E2" s="23">
         <v>60677888</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>22</v>
@@ -5392,7 +5398,7 @@
         <v>45</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
@@ -5409,16 +5415,16 @@
         <v>77</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E3" s="23">
         <v>60067788</v>
       </c>
       <c r="F3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -5435,14 +5441,14 @@
       <c r="L3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>86</v>
+      <c r="M3" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
-      </c>
-      <c r="O3" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="P3" s="14" t="s">
         <v>58</v>
@@ -9521,7 +9527,7 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9590,16 +9596,16 @@
         <v>48</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -9659,22 +9665,22 @@
         <v>77</v>
       </c>
       <c r="D5" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="G5" s="24" t="s">
         <v>93</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>95</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\AMT-TestFrameWork\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5BCB60-2443-45A2-B7C9-8D64D98F2C18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA408F55-9647-4DD7-9EDF-8B622B2A1223}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -797,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
   <dimension ref="A1:AA993"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9598,9 +9598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\AMT-TestFrameWork\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA408F55-9647-4DD7-9EDF-8B622B2A1223}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DC30BD-86DA-4246-A34C-258E565822F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -175,18 +175,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>leaseGroup1-contractTerm</t>
-  </si>
-  <si>
-    <t>propertyGroup1-buildingList</t>
-  </si>
-  <si>
-    <t>propertyGroup2-region</t>
-  </si>
-  <si>
-    <t>propertyGroup3-assetType</t>
-  </si>
-  <si>
     <t>Real Estate Contract</t>
   </si>
   <si>
@@ -293,6 +281,18 @@
   </si>
   <si>
     <t>Test_60067788_Lease_space_income_1</t>
+  </si>
+  <si>
+    <t>leaseGroup1</t>
+  </si>
+  <si>
+    <t>propertyGroup1</t>
+  </si>
+  <si>
+    <t>propertyGroup2</t>
+  </si>
+  <si>
+    <t>propertyGroup3</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>38</v>
@@ -866,7 +866,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -882,20 +882,20 @@
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -916,31 +916,31 @@
         <v>45</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -961,31 +961,31 @@
         <v>45</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1006,31 +1006,31 @@
         <v>45</v>
       </c>
       <c r="N4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="P4" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -1051,13 +1051,13 @@
         <v>45</v>
       </c>
       <c r="N5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="P5" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2050,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2120,19 +2120,19 @@
         <v>11</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>13</v>
@@ -2141,7 +2141,7 @@
         <v>14</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -2150,16 +2150,16 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -2183,7 +2183,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>100000000</v>
@@ -2192,33 +2192,33 @@
         <v>1500</v>
       </c>
       <c r="Q2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -2242,7 +2242,7 @@
         <v>32</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O3">
         <v>100000000</v>
@@ -2251,33 +2251,33 @@
         <v>1500</v>
       </c>
       <c r="Q3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -2292,7 +2292,7 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -2301,42 +2301,42 @@
         <v>32</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O4">
         <v>100000000</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -2351,7 +2351,7 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -2360,28 +2360,28 @@
         <v>32</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O5">
         <v>100000000</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q993"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5433,7 +5433,7 @@
         <v>21</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -5445,24 +5445,24 @@
         <v>48</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="22">
         <v>60067788</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>22</v>
@@ -5480,36 +5480,36 @@
         <v>45</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>49</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" s="22">
         <v>60067788</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -5518,7 +5518,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>25</v>
@@ -5527,36 +5527,36 @@
         <v>45</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="22">
         <v>60067788</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>22</v>
@@ -5574,36 +5574,36 @@
         <v>45</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="22">
         <v>60067788</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -5612,7 +5612,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>25</v>
@@ -5621,19 +5621,19 @@
         <v>45</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -9598,7 +9598,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9644,13 +9646,13 @@
         <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -9672,22 +9674,22 @@
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -9699,27 +9701,27 @@
         <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9731,27 +9733,27 @@
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9763,27 +9765,27 @@
         <v>45</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="G5" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -9795,27 +9797,27 @@
         <v>45</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="G6" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -9827,7 +9829,7 @@
         <v>45</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5CA150-AF2F-4B4E-B377-1E7AD5541DA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4680" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -18,12 +17,12 @@
     <sheet name="Lease" sheetId="3" r:id="rId3"/>
     <sheet name="Space" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="154">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -393,16 +392,116 @@
   <si>
     <t>SmokeAuto13thIn1Sp</t>
   </si>
+  <si>
+    <t>rentableLease</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -533,9 +632,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,51 +642,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -603,9 +702,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,64 +714,67 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{7284BA5D-4EF6-45DC-B928-7C88784A1BBA}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -983,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54C438-284B-408F-94AA-81616ADED1B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3484,7 +3586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8340,10 +8442,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R981"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -13751,11 +13853,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AC983"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD983"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -13769,13 +13871,13 @@
     <col min="7" max="7" width="43.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="11"/>
-    <col min="14" max="29" width="8.7109375" customWidth="1"/>
+    <col min="10" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="11"/>
+    <col min="15" max="30" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -13809,13 +13911,15 @@
       <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -13831,8 +13935,9 @@
       <c r="AA1" s="2"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
-    </row>
-    <row r="2" spans="1:29" s="26" customFormat="1" ht="15" customHeight="1">
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="24" t="s">
         <v>58</v>
       </c>
@@ -13862,14 +13967,17 @@
       <c r="K2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="27">
+      <c r="N2" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="26" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:30" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>55</v>
       </c>
@@ -13899,14 +14007,17 @@
       <c r="K3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="27">
+      <c r="N3" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="26" customFormat="1" ht="15" customHeight="1">
+    <row r="4" spans="1:30" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>69</v>
       </c>
@@ -13936,14 +14047,17 @@
       <c r="K4" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="27">
+      <c r="N4" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="31" t="s">
         <v>70</v>
       </c>
@@ -13973,14 +14087,17 @@
       <c r="K5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="M5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="27">
+      <c r="N5" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="32">
         <v>6530957</v>
       </c>
@@ -14010,14 +14127,17 @@
       <c r="K6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="27">
+      <c r="N6" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="32">
         <v>6530958</v>
       </c>
@@ -14047,14 +14167,17 @@
       <c r="K7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="27">
+      <c r="N7" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>73</v>
       </c>
@@ -14084,14 +14207,17 @@
       <c r="K8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="27">
+      <c r="N8" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>74</v>
       </c>
@@ -14121,14 +14247,17 @@
       <c r="K9" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="27">
+      <c r="N9" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="32">
         <v>6551796</v>
       </c>
@@ -14158,14 +14287,17 @@
       <c r="K10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="27">
+      <c r="N10" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="26" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="34">
         <v>6551803</v>
       </c>
@@ -14195,14 +14327,17 @@
       <c r="K11" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="27">
+      <c r="N11" s="27">
         <v>201480</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15" customHeight="1">
+    <row r="12" spans="1:30" ht="15" customHeight="1">
       <c r="A12" s="22">
         <v>6555589</v>
       </c>
@@ -14232,14 +14367,17 @@
       <c r="K12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>201534</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15" customHeight="1">
+    <row r="13" spans="1:30" ht="15" customHeight="1">
       <c r="A13" s="22">
         <v>6555590</v>
       </c>
@@ -14269,14 +14407,17 @@
       <c r="K13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>201534</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" customHeight="1">
+    <row r="14" spans="1:30" ht="15" customHeight="1">
       <c r="A14" s="22">
         <v>6530927</v>
       </c>
@@ -14306,14 +14447,17 @@
       <c r="K14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>201534</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1">
+    <row r="15" spans="1:30" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>6530966</v>
       </c>
@@ -14343,14 +14487,17 @@
       <c r="K15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>201534</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1">
+    <row r="16" spans="1:30" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>6530960</v>
       </c>
@@ -14380,14 +14527,17 @@
       <c r="K16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>201534</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>6530959</v>
       </c>
@@ -14417,14 +14567,17 @@
       <c r="K17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>201534</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>101</v>
       </c>
@@ -14454,14 +14607,17 @@
       <c r="K18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>201534</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="21">
         <v>6558241</v>
       </c>
@@ -14491,14 +14647,17 @@
       <c r="K19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>201534</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="21">
         <v>6558243</v>
       </c>
@@ -14528,14 +14687,17 @@
       <c r="K20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>201534</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="21">
         <v>6558245</v>
       </c>
@@ -14565,14 +14727,17 @@
       <c r="K21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>201534</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="22">
         <v>6555587</v>
       </c>
@@ -14602,14 +14767,17 @@
       <c r="K22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M22" s="42">
+      <c r="N22" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="22">
         <v>6555588</v>
       </c>
@@ -14639,14 +14807,17 @@
       <c r="K23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="42">
+      <c r="N23" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>113</v>
       </c>
@@ -14676,14 +14847,17 @@
       <c r="K24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M24" s="42">
+      <c r="N24" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="44" t="s">
         <v>114</v>
       </c>
@@ -14713,14 +14887,17 @@
       <c r="K25" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M25" s="42">
+      <c r="N25" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="45" t="s">
         <v>115</v>
       </c>
@@ -14750,14 +14927,17 @@
       <c r="K26" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="39" t="s">
+      <c r="L26" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="M26" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M26" s="42">
+      <c r="N26" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="45" t="s">
         <v>118</v>
       </c>
@@ -14787,14 +14967,17 @@
       <c r="K27" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="M27" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M27" s="42">
+      <c r="N27" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="21">
         <v>6541329</v>
       </c>
@@ -14824,14 +15007,17 @@
       <c r="K28" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="M28" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M28" s="42">
+      <c r="N28" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" customHeight="1">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="21">
         <v>6558247</v>
       </c>
@@ -14861,14 +15047,17 @@
       <c r="K29" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L29" s="39" t="s">
+      <c r="L29" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M29" s="42">
+      <c r="N29" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" customHeight="1">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="21">
         <v>6558248</v>
       </c>
@@ -14898,14 +15087,17 @@
       <c r="K30" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="M30" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M30" s="42">
+      <c r="N30" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>6558250</v>
       </c>
@@ -14935,14 +15127,17 @@
       <c r="K31" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="39" t="s">
+      <c r="L31" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="42">
+      <c r="N31" s="42">
         <v>201536</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSI\AMTAutomationRipo\AMT-TestFrameWork\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/dataCreate/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0F3DF3-86C3-8E46-BBA8-FCE8D2EB1B3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3780" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="156">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -485,11 +486,17 @@
   <si>
     <t>152</t>
   </si>
+  <si>
+    <t>6545928</t>
+  </si>
+  <si>
+    <t>uat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -580,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -629,12 +636,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,10 +789,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1085,29 +1105,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="7" width="40.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="17" max="27" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
+    <col min="6" max="7" width="40.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="27" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -2621,7 +2641,55 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>201480</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -3586,37 +3654,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y986"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD31"/>
+    <sheetView topLeftCell="R1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="32.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.42578125" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="25" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="13.5" customWidth="1"/>
+    <col min="22" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -3752,7 +3820,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="26" customFormat="1">
+    <row r="3" spans="1:25" s="26" customFormat="1" ht="16">
       <c r="A3" s="30" t="s">
         <v>55</v>
       </c>
@@ -3814,7 +3882,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="26" customFormat="1">
+    <row r="4" spans="1:25" s="26" customFormat="1" ht="16">
       <c r="A4" s="30" t="s">
         <v>69</v>
       </c>
@@ -5571,7 +5639,66 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A32" s="4"/>
+      <c r="A32" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="26">
+        <v>12230</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N32" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="O32" s="26">
+        <v>100000000</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="R32" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="U32" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="V32" s="59">
+        <v>201480</v>
+      </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
@@ -8442,35 +8569,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R981"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19" style="11" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="11" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" style="12" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="11"/>
-    <col min="16" max="16" width="20.7109375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="16384" width="14.42578125" style="11"/>
+    <col min="6" max="6" width="29.5" style="11" customWidth="1"/>
+    <col min="7" max="7" width="28.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="11" customWidth="1"/>
+    <col min="9" max="10" width="14.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="11" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="11"/>
+    <col min="16" max="16" width="20.6640625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="18.5" customWidth="1"/>
+    <col min="18" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="16" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -8576,7 +8703,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="27" customFormat="1">
+    <row r="3" spans="1:18" s="27" customFormat="1" ht="16">
       <c r="A3" s="30" t="s">
         <v>55</v>
       </c>
@@ -8626,7 +8753,7 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="27" customFormat="1">
+    <row r="4" spans="1:18" s="27" customFormat="1" ht="16">
       <c r="A4" s="30" t="s">
         <v>69</v>
       </c>
@@ -10047,8 +10174,54 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="R32" s="27">
+        <v>201480</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="12"/>
@@ -13853,28 +14026,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD983"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L31"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="12" width="17.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="11"/>
-    <col min="15" max="30" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" customWidth="1"/>
+    <col min="7" max="7" width="43.5" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" customWidth="1"/>
+    <col min="10" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="11" customWidth="1"/>
+    <col min="15" max="30" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -14537,7 +14711,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>6530959</v>
       </c>
@@ -14577,7 +14751,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>101</v>
       </c>
@@ -14617,7 +14791,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="21">
         <v>6558241</v>
       </c>
@@ -14657,7 +14831,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="21">
         <v>6558243</v>
       </c>
@@ -14697,7 +14871,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="21">
         <v>6558245</v>
       </c>
@@ -14737,7 +14911,7 @@
         <v>201534</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="22">
         <v>6555587</v>
       </c>
@@ -14777,7 +14951,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="22">
         <v>6555588</v>
       </c>
@@ -14817,7 +14991,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="43" t="s">
         <v>113</v>
       </c>
@@ -14857,7 +15031,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="44" t="s">
         <v>114</v>
       </c>
@@ -14897,7 +15071,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="45" t="s">
         <v>115</v>
       </c>
@@ -14937,7 +15111,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="45" t="s">
         <v>118</v>
       </c>
@@ -14977,7 +15151,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="21">
         <v>6541329</v>
       </c>
@@ -15017,7 +15191,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="21">
         <v>6558247</v>
       </c>
@@ -15057,7 +15231,7 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="21">
         <v>6558248</v>
       </c>
@@ -15096,8 +15270,9 @@
       <c r="N30" s="42">
         <v>201536</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>6558250</v>
       </c>
@@ -15137,7 +15312,44 @@
         <v>201536</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="26">
+        <v>1</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="N32" s="27">
+        <v>201480</v>
+      </c>
+    </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/dataCreate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0F3DF3-86C3-8E46-BBA8-FCE8D2EB1B3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D49DE-BB5F-B14E-AFB9-D3D8E5F23F58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -652,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -687,9 +687,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,11 +696,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,13 +732,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,13 +751,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +776,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1108,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
@@ -1193,487 +1211,487 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="D2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="22"/>
+      <c r="D3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="22"/>
+      <c r="D4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="M4" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="22"/>
+      <c r="D5" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="29" t="s">
+      <c r="M5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="27" t="s">
+      <c r="P5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="32">
+    <row r="6" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="29">
         <v>6530957</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="22"/>
+      <c r="D6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="29" t="s">
+      <c r="L6" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="32">
+    <row r="7" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="29">
         <v>6530958</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="22"/>
+      <c r="D7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="M7" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="22"/>
+      <c r="D8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="22"/>
+      <c r="D9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="29" t="s">
+      <c r="L9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="29" t="s">
+      <c r="M9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="29" t="s">
+      <c r="N9" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="32">
+    <row r="10" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="29">
         <v>6551796</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="22"/>
+      <c r="D10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="29" t="s">
+      <c r="L10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="23">
         <v>201480</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="34">
+    <row r="11" spans="1:27" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="31">
         <v>6551803</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="27" t="s">
+      <c r="P11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="23">
         <v>201480</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>6555589</v>
       </c>
       <c r="B12" s="5"/>
@@ -1683,10 +1701,10 @@
       <c r="E12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H12" t="s">
@@ -1721,7 +1739,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>6555590</v>
       </c>
       <c r="B13" s="5"/>
@@ -1731,10 +1749,10 @@
       <c r="E13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H13" t="s">
@@ -1769,7 +1787,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>6530927</v>
       </c>
       <c r="B14" s="5"/>
@@ -1779,10 +1797,10 @@
       <c r="E14" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H14" t="s">
@@ -1827,10 +1845,10 @@
       <c r="E15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H15" t="s">
@@ -1875,10 +1893,10 @@
       <c r="E16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H16" t="s">
@@ -1923,10 +1941,10 @@
       <c r="E17" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H17" t="s">
@@ -1961,7 +1979,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="5"/>
@@ -1971,10 +1989,10 @@
       <c r="E18" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H18" t="s">
@@ -2009,7 +2027,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>6558241</v>
       </c>
       <c r="B19" s="5"/>
@@ -2019,10 +2037,10 @@
       <c r="E19" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H19" t="s">
@@ -2057,7 +2075,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>6558243</v>
       </c>
       <c r="B20" s="5"/>
@@ -2067,10 +2085,10 @@
       <c r="E20" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H20" t="s">
@@ -2105,7 +2123,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>6558245</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -2114,10 +2132,10 @@
       <c r="E21" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>98</v>
       </c>
       <c r="H21" t="s">
@@ -2152,492 +2170,492 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A22" s="52">
+      <c r="A22" s="45">
         <v>6555587</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="46"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="46" t="s">
+      <c r="N22" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q22" s="42">
+      <c r="Q22" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A23" s="52">
+      <c r="A23" s="45">
         <v>6555588</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="46"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="39" t="s">
+      <c r="I23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="46" t="s">
+      <c r="L23" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="46" t="s">
+      <c r="M23" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="46" t="s">
+      <c r="N23" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="P23" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q23" s="42">
+      <c r="Q23" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="46"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="46" t="s">
+      <c r="M24" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N24" s="46" t="s">
+      <c r="N24" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="P24" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q24" s="42">
+      <c r="Q24" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="46"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="46" t="s">
+      <c r="L25" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="46" t="s">
+      <c r="M25" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N25" s="46" t="s">
+      <c r="N25" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q25" s="42">
+      <c r="Q25" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="39" t="s">
+      <c r="J26" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="46" t="s">
+      <c r="L26" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="46" t="s">
+      <c r="M26" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N26" s="46" t="s">
+      <c r="N26" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O26" s="39" t="s">
+      <c r="O26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P26" s="39" t="s">
+      <c r="P26" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q26" s="42">
+      <c r="Q26" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="F27" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="46" t="s">
+      <c r="L27" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M27" s="46" t="s">
+      <c r="M27" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N27" s="46" t="s">
+      <c r="N27" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P27" s="39" t="s">
+      <c r="P27" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="48">
         <v>6541329</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="46" t="s">
+      <c r="L28" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="46" t="s">
+      <c r="M28" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N28" s="46" t="s">
+      <c r="N28" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q28" s="42">
+      <c r="Q28" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A29" s="55">
+      <c r="A29" s="48">
         <v>6558247</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="50" t="s">
+      <c r="G29" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="39" t="s">
+      <c r="J29" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="46" t="s">
+      <c r="L29" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="46" t="s">
+      <c r="M29" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N29" s="46" t="s">
+      <c r="N29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="39" t="s">
+      <c r="O29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P29" s="39" t="s">
+      <c r="P29" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q29" s="42">
+      <c r="Q29" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="48">
         <v>6558248</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="46" t="s">
+      <c r="L30" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M30" s="46" t="s">
+      <c r="M30" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N30" s="46" t="s">
+      <c r="N30" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="P30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q30" s="42">
+      <c r="Q30" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A31" s="56">
+      <c r="A31" s="49">
         <v>6558250</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="50" t="s">
+      <c r="F31" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="40" t="s">
+      <c r="K31" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="46" t="s">
+      <c r="L31" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="M31" s="46" t="s">
+      <c r="M31" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="N31" s="46" t="s">
+      <c r="N31" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="O31" s="39" t="s">
+      <c r="O31" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="39" t="s">
+      <c r="P31" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="Q31" s="42">
+      <c r="Q31" s="37">
         <v>201536</v>
       </c>
     </row>
@@ -2645,48 +2663,48 @@
       <c r="A32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="N32" s="29" t="s">
+      <c r="N32" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="P32" s="27" t="s">
+      <c r="P32" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="23">
         <v>201480</v>
       </c>
     </row>
@@ -3657,29 +3675,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y986"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
     <col min="16" max="16" width="17.83203125" customWidth="1"/>
-    <col min="17" max="17" width="19.1640625" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" customWidth="1"/>
     <col min="19" max="19" width="15.33203125" customWidth="1"/>
     <col min="20" max="20" width="12.83203125" customWidth="1"/>
@@ -3758,628 +3776,628 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" s="26" customFormat="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:25" s="23" customFormat="1">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="23">
         <v>12230</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="23">
         <v>100000000</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="26" t="b">
+      <c r="S2" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="35">
+      <c r="V2" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="26" customFormat="1" ht="16">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:25" s="23" customFormat="1" ht="16">
+      <c r="A3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="23">
         <v>12230</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="26">
+      <c r="O3" s="23">
         <v>100000000</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S3" s="26" t="b">
+      <c r="S3" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="26" customFormat="1" ht="16">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:25" s="23" customFormat="1" ht="16">
+      <c r="A4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <v>12230</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="23">
         <v>100000000</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="28" t="s">
+      <c r="Q4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="26" t="b">
+      <c r="S4" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="U4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="5" spans="1:25" s="26" customFormat="1">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:25" s="23" customFormat="1">
+      <c r="A5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>12230</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="23">
         <v>100000000</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="Q5" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R5" s="27" t="s">
+      <c r="R5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S5" s="26" t="b">
+      <c r="S5" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="27" t="s">
+      <c r="T5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="U5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="26" customFormat="1">
-      <c r="A6" s="32">
+    <row r="6" spans="1:25" s="23" customFormat="1">
+      <c r="A6" s="29">
         <v>6530957</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>12230</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="26">
+      <c r="O6" s="23">
         <v>100000000</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="27" t="s">
+      <c r="R6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="26" t="b">
+      <c r="S6" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="27" t="s">
+      <c r="T6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="26" customFormat="1">
-      <c r="A7" s="32">
+    <row r="7" spans="1:25" s="23" customFormat="1">
+      <c r="A7" s="29">
         <v>6530958</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>12230</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="23">
         <v>100000000</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="26" t="b">
+      <c r="S7" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="27" t="s">
+      <c r="T7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U7" s="26" t="s">
+      <c r="U7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:25" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>12230</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="23">
         <v>100000000</v>
       </c>
-      <c r="P8" s="26" t="s">
+      <c r="P8" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="Q8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R8" s="27" t="s">
+      <c r="R8" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S8" s="26" t="b">
+      <c r="S8" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="U8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:25" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <v>12230</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="23">
         <v>100000000</v>
       </c>
-      <c r="P9" s="26" t="s">
+      <c r="P9" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q9" s="28" t="s">
+      <c r="Q9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="27" t="s">
+      <c r="R9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="26" t="b">
+      <c r="S9" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T9" s="27" t="s">
+      <c r="T9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="U9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="32">
+    <row r="10" spans="1:25" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="29">
         <v>6551796</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <v>12230</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="28" t="s">
+      <c r="N10" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="23">
         <v>100000000</v>
       </c>
-      <c r="P10" s="26" t="s">
+      <c r="P10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R10" s="27" t="s">
+      <c r="R10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S10" s="26" t="b">
+      <c r="S10" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T10" s="27" t="s">
+      <c r="T10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="U10" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="32">
         <v>201480</v>
       </c>
     </row>
-    <row r="11" spans="1:25" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="34">
+    <row r="11" spans="1:25" s="23" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="31">
         <v>6551803</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <v>12230</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="23">
         <v>100000000</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="P11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="28" t="s">
+      <c r="Q11" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R11" s="27" t="s">
+      <c r="R11" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="26" t="b">
+      <c r="S11" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T11" s="27" t="s">
+      <c r="T11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="35">
+      <c r="V11" s="32">
         <v>201480</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>6555589</v>
       </c>
       <c r="D12" t="s">
@@ -4412,7 +4430,7 @@
       <c r="M12" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O12">
@@ -4421,7 +4439,7 @@
       <c r="P12" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R12" s="11" t="s">
@@ -4441,7 +4459,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>6555590</v>
       </c>
       <c r="D13" t="s">
@@ -4474,7 +4492,7 @@
       <c r="M13" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O13">
@@ -4483,7 +4501,7 @@
       <c r="P13" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R13" s="11" t="s">
@@ -4503,7 +4521,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>6530927</v>
       </c>
       <c r="D14" t="s">
@@ -4536,7 +4554,7 @@
       <c r="M14" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O14">
@@ -4545,7 +4563,7 @@
       <c r="P14" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="19" t="s">
+      <c r="Q14" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R14" s="11" t="s">
@@ -4598,7 +4616,7 @@
       <c r="M15" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O15">
@@ -4607,7 +4625,7 @@
       <c r="P15" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="Q15" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R15" s="11" t="s">
@@ -4660,7 +4678,7 @@
       <c r="M16" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O16">
@@ -4669,7 +4687,7 @@
       <c r="P16" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="Q16" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R16" s="11" t="s">
@@ -4722,7 +4740,7 @@
       <c r="M17" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O17">
@@ -4731,7 +4749,7 @@
       <c r="P17" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="Q17" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R17" s="11" t="s">
@@ -4751,7 +4769,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D18" t="s">
@@ -4784,7 +4802,7 @@
       <c r="M18" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="19" t="s">
+      <c r="N18" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O18">
@@ -4793,7 +4811,7 @@
       <c r="P18" t="s">
         <v>62</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R18" s="11" t="s">
@@ -4813,7 +4831,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>6558241</v>
       </c>
       <c r="D19" t="s">
@@ -4846,7 +4864,7 @@
       <c r="M19" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O19">
@@ -4855,7 +4873,7 @@
       <c r="P19" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R19" s="11" t="s">
@@ -4875,7 +4893,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>6558243</v>
       </c>
       <c r="D20" t="s">
@@ -4908,7 +4926,7 @@
       <c r="M20" t="s">
         <v>32</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O20">
@@ -4917,7 +4935,7 @@
       <c r="P20" t="s">
         <v>62</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R20" s="11" t="s">
@@ -4937,7 +4955,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>6558245</v>
       </c>
       <c r="D21" t="s">
@@ -4970,7 +4988,7 @@
       <c r="M21" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="19" t="s">
+      <c r="N21" s="17" t="s">
         <v>53</v>
       </c>
       <c r="O21">
@@ -4979,7 +4997,7 @@
       <c r="P21" t="s">
         <v>62</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="17" t="s">
         <v>63</v>
       </c>
       <c r="R21" s="11" t="s">
@@ -4999,578 +5017,578 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>6555587</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="35">
         <v>12230</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L22" s="40" t="s">
+      <c r="L22" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="40" t="s">
+      <c r="M22" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="50" t="s">
+      <c r="N22" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="35">
         <v>100000000</v>
       </c>
-      <c r="P22" s="40" t="s">
+      <c r="P22" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R22" s="51" t="s">
+      <c r="R22" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S22" s="40" t="b">
+      <c r="S22" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T22" s="39" t="s">
+      <c r="T22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U22" s="40" t="s">
+      <c r="U22" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V22" s="42">
+      <c r="V22" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>6555588</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="40" t="s">
+      <c r="F23" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="35">
         <v>12230</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="40" t="s">
+      <c r="L23" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N23" s="50" t="s">
+      <c r="N23" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O23" s="40">
+      <c r="O23" s="35">
         <v>100000000</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="P23" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="50" t="s">
+      <c r="Q23" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R23" s="51" t="s">
+      <c r="R23" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S23" s="40" t="b">
+      <c r="S23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T23" s="39" t="s">
+      <c r="T23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U23" s="40" t="s">
+      <c r="U23" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V23" s="42">
+      <c r="V23" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="35">
         <v>12230</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="40" t="s">
+      <c r="K24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="40" t="s">
+      <c r="L24" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="40" t="s">
+      <c r="M24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N24" s="50" t="s">
+      <c r="N24" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="40">
+      <c r="O24" s="35">
         <v>100000000</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="P24" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q24" s="50" t="s">
+      <c r="Q24" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R24" s="51" t="s">
+      <c r="R24" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S24" s="40" t="b">
+      <c r="S24" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T24" s="39" t="s">
+      <c r="T24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U24" s="40" t="s">
+      <c r="U24" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V24" s="42">
+      <c r="V24" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="35">
         <v>12230</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="40" t="s">
+      <c r="K25" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L25" s="40" t="s">
+      <c r="L25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="40" t="s">
+      <c r="M25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N25" s="50" t="s">
+      <c r="N25" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O25" s="40">
+      <c r="O25" s="35">
         <v>100000000</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="P25" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q25" s="50" t="s">
+      <c r="Q25" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R25" s="51" t="s">
+      <c r="R25" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S25" s="40" t="b">
+      <c r="S25" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T25" s="39" t="s">
+      <c r="T25" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U25" s="40" t="s">
+      <c r="U25" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="40" t="s">
+      <c r="F26" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="35">
         <v>12230</v>
       </c>
-      <c r="J26" s="40" t="s">
+      <c r="J26" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L26" s="40" t="s">
+      <c r="L26" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="40" t="s">
+      <c r="M26" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N26" s="50" t="s">
+      <c r="N26" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O26" s="40">
+      <c r="O26" s="35">
         <v>100000000</v>
       </c>
-      <c r="P26" s="40" t="s">
+      <c r="P26" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="50" t="s">
+      <c r="Q26" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R26" s="51" t="s">
+      <c r="R26" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S26" s="40" t="b">
+      <c r="S26" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T26" s="39" t="s">
+      <c r="T26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U26" s="40" t="s">
+      <c r="U26" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V26" s="42">
+      <c r="V26" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="40" t="s">
+      <c r="F27" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="40" t="s">
+      <c r="G27" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="35">
         <v>12230</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="40" t="s">
+      <c r="K27" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="40" t="s">
+      <c r="L27" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="40" t="s">
+      <c r="M27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O27" s="40">
+      <c r="O27" s="35">
         <v>100000000</v>
       </c>
-      <c r="P27" s="40" t="s">
+      <c r="P27" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="50" t="s">
+      <c r="Q27" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R27" s="51" t="s">
+      <c r="R27" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S27" s="40" t="b">
+      <c r="S27" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T27" s="39" t="s">
+      <c r="T27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U27" s="40" t="s">
+      <c r="U27" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V27" s="42">
+      <c r="V27" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>6541329</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="G28" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="35">
         <v>12230</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K28" s="40" t="s">
+      <c r="K28" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="40" t="s">
+      <c r="L28" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="40" t="s">
+      <c r="M28" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N28" s="50" t="s">
+      <c r="N28" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="40">
+      <c r="O28" s="35">
         <v>100000000</v>
       </c>
-      <c r="P28" s="40" t="s">
+      <c r="P28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q28" s="50" t="s">
+      <c r="Q28" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R28" s="51" t="s">
+      <c r="R28" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S28" s="40" t="b">
+      <c r="S28" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T28" s="39" t="s">
+      <c r="T28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U28" s="40" t="s">
+      <c r="U28" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="42">
+      <c r="V28" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>6558247</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="35">
         <v>12230</v>
       </c>
-      <c r="J29" s="40" t="s">
+      <c r="J29" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="40" t="s">
+      <c r="K29" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="40" t="s">
+      <c r="L29" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="40" t="s">
+      <c r="M29" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N29" s="50" t="s">
+      <c r="N29" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="35">
         <v>100000000</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="P29" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q29" s="50" t="s">
+      <c r="Q29" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R29" s="51" t="s">
+      <c r="R29" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S29" s="40" t="b">
+      <c r="S29" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T29" s="39" t="s">
+      <c r="T29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U29" s="40" t="s">
+      <c r="U29" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V29" s="42">
+      <c r="V29" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>6558248</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="35">
         <v>12230</v>
       </c>
-      <c r="J30" s="40" t="s">
+      <c r="J30" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K30" s="40" t="s">
+      <c r="K30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L30" s="40" t="s">
+      <c r="L30" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="40" t="s">
+      <c r="M30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O30" s="40">
+      <c r="O30" s="35">
         <v>100000000</v>
       </c>
-      <c r="P30" s="40" t="s">
+      <c r="P30" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q30" s="50" t="s">
+      <c r="Q30" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R30" s="51" t="s">
+      <c r="R30" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S30" s="40" t="b">
+      <c r="S30" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T30" s="39" t="s">
+      <c r="T30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U30" s="40" t="s">
+      <c r="U30" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V30" s="42">
+      <c r="V30" s="37">
         <v>201536</v>
       </c>
     </row>
@@ -5578,63 +5596,63 @@
       <c r="A31" s="2">
         <v>6558250</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="35">
         <v>12230</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="J31" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="40" t="s">
+      <c r="K31" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="40" t="s">
+      <c r="L31" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="40" t="s">
+      <c r="M31" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="50" t="s">
+      <c r="N31" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="O31" s="40">
+      <c r="O31" s="35">
         <v>100000000</v>
       </c>
-      <c r="P31" s="40" t="s">
+      <c r="P31" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="Q31" s="50" t="s">
+      <c r="Q31" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="R31" s="51" t="s">
+      <c r="R31" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="S31" s="40" t="b">
+      <c r="S31" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="T31" s="39" t="s">
+      <c r="T31" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="U31" s="40" t="s">
+      <c r="U31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="V31" s="42">
+      <c r="V31" s="37">
         <v>201536</v>
       </c>
     </row>
@@ -5642,61 +5660,61 @@
       <c r="A32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="G32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="23">
         <v>12230</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K32" s="26" t="s">
+      <c r="K32" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="N32" s="28" t="s">
+      <c r="N32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="23">
         <v>100000000</v>
       </c>
-      <c r="P32" s="26" t="s">
+      <c r="P32" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Q32" s="28" t="s">
+      <c r="Q32" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="R32" s="27" t="s">
+      <c r="R32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="S32" s="26" t="b">
+      <c r="S32" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="T32" s="27" t="s">
+      <c r="T32" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="U32" s="58" t="s">
+      <c r="U32" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="V32" s="59">
+      <c r="V32" s="52">
         <v>201480</v>
       </c>
     </row>
@@ -8572,8 +8590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R981"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -8585,16 +8603,17 @@
     <col min="5" max="5" width="22" customWidth="1"/>
     <col min="6" max="6" width="29.5" style="11" customWidth="1"/>
     <col min="7" max="7" width="28.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="11" customWidth="1"/>
-    <col min="9" max="10" width="14.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="8" customWidth="1"/>
+    <col min="9" max="10" width="14.5" style="8" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" style="11" customWidth="1"/>
     <col min="12" max="12" width="14.5" style="11" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="11"/>
-    <col min="16" max="16" width="20.6640625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="16384" width="14.5" style="11"/>
+    <col min="13" max="13" width="14.33203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" style="8" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="8"/>
+    <col min="16" max="16" width="20.6640625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="53" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="14.5" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" thickBot="1">
@@ -8607,28 +8626,28 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="8" t="s">
@@ -8640,521 +8659,521 @@
       <c r="N1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="27" customFormat="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:18" s="24" customFormat="1">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R2" s="27">
+      <c r="R2" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="27" customFormat="1" ht="16">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:18" s="24" customFormat="1" ht="16">
+      <c r="A3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="27" t="s">
+      <c r="N3" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="Q3" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="27">
+      <c r="R3" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="27" customFormat="1" ht="16">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:18" s="24" customFormat="1" ht="16">
+      <c r="A4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="Q4" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="27" customFormat="1">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:18" s="24" customFormat="1">
+      <c r="A5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="26" t="s">
+      <c r="Q5" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="27">
+      <c r="R5" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="27" customFormat="1">
-      <c r="A6" s="32">
+    <row r="6" spans="1:18" s="24" customFormat="1">
+      <c r="A6" s="29">
         <v>6530957</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="27" t="s">
+      <c r="N6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="26" t="s">
+      <c r="Q6" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="27" customFormat="1">
-      <c r="A7" s="32">
+    <row r="7" spans="1:18" s="24" customFormat="1">
+      <c r="A7" s="29">
         <v>6530958</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="27" customFormat="1">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:18" s="24" customFormat="1">
+      <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="27" customFormat="1">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:18" s="24" customFormat="1">
+      <c r="A9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="26" t="s">
+      <c r="Q9" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="27" customFormat="1">
-      <c r="A10" s="32">
+    <row r="10" spans="1:18" s="24" customFormat="1">
+      <c r="A10" s="29">
         <v>6551796</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="27" t="s">
+      <c r="N10" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="27">
+      <c r="R10" s="57">
         <v>201480</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="27" customFormat="1">
-      <c r="A11" s="34">
+    <row r="11" spans="1:18" s="24" customFormat="1">
+      <c r="A11" s="31">
         <v>6551803</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="27" t="s">
+      <c r="N11" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O11" s="37" t="s">
+      <c r="O11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P11" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="Q11" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="57">
         <v>201480</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>6555589</v>
       </c>
       <c r="D12" t="s">
@@ -9169,13 +9188,13 @@
       <c r="G12" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="12" t="s">
@@ -9184,27 +9203,27 @@
       <c r="L12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="O12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <v>201534</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>6555590</v>
       </c>
       <c r="D13" t="s">
@@ -9219,13 +9238,13 @@
       <c r="G13" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K13" s="12" t="s">
@@ -9234,27 +9253,27 @@
       <c r="L13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="M13" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <v>201534</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>6530927</v>
       </c>
       <c r="D14" t="s">
@@ -9269,13 +9288,13 @@
       <c r="G14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K14" s="12" t="s">
@@ -9284,22 +9303,22 @@
       <c r="L14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="M14" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="P14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <v>201534</v>
       </c>
     </row>
@@ -9319,13 +9338,13 @@
       <c r="G15" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K15" s="12" t="s">
@@ -9334,22 +9353,22 @@
       <c r="L15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="M15" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <v>201534</v>
       </c>
     </row>
@@ -9369,13 +9388,13 @@
       <c r="G16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K16" s="12" t="s">
@@ -9384,22 +9403,22 @@
       <c r="L16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M16" s="20" t="s">
+      <c r="M16" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="2">
         <v>201534</v>
       </c>
     </row>
@@ -9419,13 +9438,13 @@
       <c r="G17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K17" s="12" t="s">
@@ -9434,27 +9453,27 @@
       <c r="L17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M17" s="20" t="s">
+      <c r="M17" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="14" t="s">
+      <c r="O17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="2">
         <v>201534</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D18" t="s">
@@ -9469,13 +9488,13 @@
       <c r="G18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="12" t="s">
@@ -9484,27 +9503,27 @@
       <c r="L18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="14" t="s">
+      <c r="O18" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <v>201534</v>
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>6558241</v>
       </c>
       <c r="D19" t="s">
@@ -9519,13 +9538,13 @@
       <c r="G19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="12" t="s">
@@ -9534,27 +9553,27 @@
       <c r="L19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <v>201534</v>
       </c>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>6558243</v>
       </c>
       <c r="D20" t="s">
@@ -9569,13 +9588,13 @@
       <c r="G20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K20" s="12" t="s">
@@ -9584,27 +9603,27 @@
       <c r="L20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M20" s="20" t="s">
+      <c r="M20" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="14" t="s">
+      <c r="O20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="14" t="s">
+      <c r="P20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <v>201534</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>6558245</v>
       </c>
       <c r="D21" t="s">
@@ -9619,13 +9638,13 @@
       <c r="G21" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="18" t="s">
+      <c r="H21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="8" t="s">
         <v>57</v>
       </c>
       <c r="K21" s="12" t="s">
@@ -9634,490 +9653,490 @@
       <c r="L21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="20" t="s">
+      <c r="M21" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="14" t="s">
+      <c r="P21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="2">
         <v>201534</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>6555587</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="47" t="s">
+      <c r="J22" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="48" t="s">
+      <c r="K22" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M22" s="49" t="s">
+      <c r="M22" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="O22" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q22" s="40" t="s">
+      <c r="Q22" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>6555588</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="47" t="s">
+      <c r="J23" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M23" s="49" t="s">
+      <c r="M23" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N23" s="39" t="s">
+      <c r="N23" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="O23" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="41" t="s">
+      <c r="P23" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="40" t="s">
+      <c r="Q23" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="47" t="s">
+      <c r="H24" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="47" t="s">
+      <c r="J24" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="48" t="s">
+      <c r="K24" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L24" s="41" t="s">
+      <c r="L24" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M24" s="49" t="s">
+      <c r="M24" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="41" t="s">
+      <c r="P24" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="40" t="s">
+      <c r="Q24" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="47" t="s">
+      <c r="I25" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="48" t="s">
+      <c r="K25" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M25" s="49" t="s">
+      <c r="M25" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O25" s="41" t="s">
+      <c r="O25" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="41" t="s">
+      <c r="P25" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q25" s="40" t="s">
+      <c r="Q25" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="47" t="s">
+      <c r="J26" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="48" t="s">
+      <c r="K26" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L26" s="41" t="s">
+      <c r="L26" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M26" s="49" t="s">
+      <c r="M26" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N26" s="39" t="s">
+      <c r="N26" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="41" t="s">
+      <c r="P26" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q26" s="40" t="s">
+      <c r="Q26" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J27" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="48" t="s">
+      <c r="K27" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M27" s="49" t="s">
+      <c r="M27" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="N27" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="O27" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="41" t="s">
+      <c r="P27" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q27" s="40" t="s">
+      <c r="Q27" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>6541329</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J28" s="47" t="s">
+      <c r="J28" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="48" t="s">
+      <c r="K28" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L28" s="41" t="s">
+      <c r="L28" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M28" s="49" t="s">
+      <c r="M28" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O28" s="41" t="s">
+      <c r="O28" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="41" t="s">
+      <c r="P28" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q28" s="40" t="s">
+      <c r="Q28" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>6558247</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I29" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="47" t="s">
+      <c r="J29" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M29" s="49" t="s">
+      <c r="M29" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N29" s="39" t="s">
+      <c r="N29" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="41" t="s">
+      <c r="P29" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q29" s="40" t="s">
+      <c r="Q29" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="48">
         <v>201536</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>6558248</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="H30" s="47" t="s">
+      <c r="H30" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="47" t="s">
+      <c r="I30" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J30" s="47" t="s">
+      <c r="J30" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="48" t="s">
+      <c r="K30" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="49" t="s">
+      <c r="M30" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O30" s="41" t="s">
+      <c r="O30" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P30" s="41" t="s">
+      <c r="P30" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q30" s="40" t="s">
+      <c r="Q30" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="48">
         <v>201536</v>
       </c>
     </row>
@@ -10125,51 +10144,51 @@
       <c r="A31" s="2">
         <v>6558250</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="46" t="s">
+      <c r="G31" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="I31" s="47" t="s">
+      <c r="I31" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="47" t="s">
+      <c r="J31" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="M31" s="49" t="s">
+      <c r="M31" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="N31" s="39" t="s">
+      <c r="N31" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="P31" s="41" t="s">
+      <c r="P31" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="40" t="s">
+      <c r="Q31" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="48">
         <v>201536</v>
       </c>
     </row>
@@ -10177,49 +10196,49 @@
       <c r="A32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="H32" s="36" t="s">
+      <c r="H32" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I32" s="36" t="s">
+      <c r="I32" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="36" t="s">
+      <c r="J32" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="38" t="s">
+      <c r="M32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="N32" s="27" t="s">
+      <c r="N32" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="O32" s="37" t="s">
+      <c r="O32" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="P32" s="37" t="s">
+      <c r="P32" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q32" s="27" t="s">
+      <c r="Q32" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="R32" s="27">
+      <c r="R32" s="57">
         <v>201480</v>
       </c>
     </row>
@@ -14061,7 +14080,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -14085,7 +14104,7 @@
       <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="50" t="s">
         <v>123</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -14111,408 +14130,408 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:30" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="23">
         <v>1</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="27">
+      <c r="N2" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:30" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="23">
         <v>1</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="27">
+      <c r="N3" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="26" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:30" s="23" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="23">
         <v>1</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>1</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A6" s="32">
+    <row r="6" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="29">
         <v>6530957</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>1</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="32">
+    <row r="7" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="29">
         <v>6530958</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="23">
         <v>1</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>1</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="23">
         <v>1</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="10" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A10" s="32">
+    <row r="10" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="29">
         <v>6551796</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="23">
         <v>1</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="24">
         <v>201480</v>
       </c>
     </row>
-    <row r="11" spans="1:30" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="34">
+    <row r="11" spans="1:30" s="23" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="31">
         <v>6551803</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="23">
         <v>1</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="L11" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="27">
+      <c r="N11" s="24">
         <v>201480</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="15" customHeight="1">
-      <c r="A12" s="22">
+      <c r="A12" s="19">
         <v>6555589</v>
       </c>
       <c r="B12" s="11"/>
@@ -14541,7 +14560,7 @@
       <c r="K12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="33" t="s">
         <v>134</v>
       </c>
       <c r="M12" s="11" t="s">
@@ -14552,7 +14571,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="19">
         <v>6555590</v>
       </c>
       <c r="B13" s="11"/>
@@ -14581,7 +14600,7 @@
       <c r="K13" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="33" t="s">
         <v>135</v>
       </c>
       <c r="M13" s="11" t="s">
@@ -14592,7 +14611,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="15" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="19">
         <v>6530927</v>
       </c>
       <c r="B14" s="11"/>
@@ -14621,7 +14640,7 @@
       <c r="K14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L14" s="37" t="s">
+      <c r="L14" s="33" t="s">
         <v>136</v>
       </c>
       <c r="M14" s="11" t="s">
@@ -14661,7 +14680,7 @@
       <c r="K15" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="L15" s="33" t="s">
         <v>137</v>
       </c>
       <c r="M15" s="11" t="s">
@@ -14701,7 +14720,7 @@
       <c r="K16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="33" t="s">
         <v>138</v>
       </c>
       <c r="M16" s="11" t="s">
@@ -14741,7 +14760,7 @@
       <c r="K17" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="33" t="s">
         <v>139</v>
       </c>
       <c r="M17" s="11" t="s">
@@ -14752,7 +14771,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="20" t="s">
         <v>101</v>
       </c>
       <c r="B18" s="11"/>
@@ -14781,7 +14800,7 @@
       <c r="K18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="37" t="s">
+      <c r="L18" s="33" t="s">
         <v>140</v>
       </c>
       <c r="M18" s="11" t="s">
@@ -14792,7 +14811,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>6558241</v>
       </c>
       <c r="B19" s="11"/>
@@ -14821,7 +14840,7 @@
       <c r="K19" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="33" t="s">
         <v>141</v>
       </c>
       <c r="M19" s="11" t="s">
@@ -14832,7 +14851,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>6558243</v>
       </c>
       <c r="B20" s="11"/>
@@ -14861,7 +14880,7 @@
       <c r="K20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="33" t="s">
         <v>142</v>
       </c>
       <c r="M20" s="11" t="s">
@@ -14872,7 +14891,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>6558245</v>
       </c>
       <c r="B21" s="11"/>
@@ -14901,7 +14920,7 @@
       <c r="K21" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="33" t="s">
         <v>143</v>
       </c>
       <c r="M21" s="11" t="s">
@@ -14912,362 +14931,362 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A22" s="22">
+      <c r="A22" s="19">
         <v>6555587</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="35">
         <v>1</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L22" s="37" t="s">
+      <c r="L22" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N22" s="42">
+      <c r="N22" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A23" s="22">
+      <c r="A23" s="19">
         <v>6555588</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="35">
         <v>1</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L23" s="37" t="s">
+      <c r="L23" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N23" s="42">
+      <c r="N23" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="35">
         <v>1</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="L24" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N24" s="42">
+      <c r="N24" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="35">
         <v>1</v>
       </c>
-      <c r="J25" s="41" t="s">
+      <c r="J25" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K25" s="41" t="s">
+      <c r="K25" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L25" s="37" t="s">
+      <c r="L25" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N25" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="35">
         <v>1</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="41" t="s">
+      <c r="K26" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="37" t="s">
+      <c r="L26" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="M26" s="39" t="s">
+      <c r="M26" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="35">
         <v>1</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="41" t="s">
+      <c r="K27" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L27" s="37" t="s">
+      <c r="L27" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="42">
+      <c r="N27" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A28" s="21">
+      <c r="A28" s="18">
         <v>6541329</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="39" t="s">
+      <c r="G28" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="35">
         <v>1</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J28" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K28" s="41" t="s">
+      <c r="K28" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L28" s="37" t="s">
+      <c r="L28" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N28" s="42">
+      <c r="N28" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A29" s="21">
+      <c r="A29" s="18">
         <v>6558247</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="39" t="s">
+      <c r="F29" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="39" t="s">
+      <c r="G29" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="35">
         <v>1</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K29" s="41" t="s">
+      <c r="K29" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="L29" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="M29" s="39" t="s">
+      <c r="M29" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N29" s="42">
+      <c r="N29" s="37">
         <v>201536</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A30" s="21">
+      <c r="A30" s="18">
         <v>6558248</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="39" t="s">
+      <c r="G30" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="35">
         <v>1</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="41" t="s">
+      <c r="K30" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="L30" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="42">
+      <c r="N30" s="37">
         <v>201536</v>
       </c>
       <c r="P30" s="11"/>
@@ -15276,39 +15295,39 @@
       <c r="A31" s="2">
         <v>6558250</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="39" t="s">
+      <c r="G31" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="35">
         <v>1</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="41" t="s">
+      <c r="K31" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="M31" s="39" t="s">
+      <c r="M31" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="42">
+      <c r="N31" s="37">
         <v>201536</v>
       </c>
     </row>
@@ -15316,37 +15335,37 @@
       <c r="A32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="23">
         <v>1</v>
       </c>
-      <c r="J32" s="37" t="s">
+      <c r="J32" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="K32" s="37" t="s">
+      <c r="K32" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="L32" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="M32" s="27" t="s">
+      <c r="M32" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="N32" s="27">
+      <c r="N32" s="24">
         <v>201480</v>
       </c>
     </row>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Documents/AMT/AMT-TestFrameWork/src/main/resources/dataCreate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DE0C0-FE83-5D43-A6F7-B883C0015347}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9B046-346A-814F-96A5-44DA6B3C0CF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2660" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,19 @@
     <sheet name="Space" sheetId="4" r:id="rId3"/>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="96">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -293,6 +300,24 @@
   </si>
   <si>
     <t>Space6545928</t>
+  </si>
+  <si>
+    <t>6596614</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>PropertyFRAT01</t>
+  </si>
+  <si>
+    <t>ExpenseLeaseFRAT02</t>
+  </si>
+  <si>
+    <t>Space66280601</t>
   </si>
 </sst>
 </file>
@@ -858,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V956"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1011,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>68</v>
@@ -1073,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="20" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="U3" s="31" t="s">
         <v>68</v>
@@ -1083,10 +1108,130 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12230</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="16">
+        <v>201480</v>
+      </c>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="16">
+        <v>6628060</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="17">
+        <v>12230</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="V5" s="32">
+        <v>201480</v>
+      </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -1108,6 +1253,7 @@
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
@@ -3951,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R950"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4068,7 +4214,7 @@
         <v>58</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="O2" s="21" t="s">
         <v>54</v>
@@ -4118,7 +4264,7 @@
         <v>58</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>54</v>
@@ -4134,12 +4280,104 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="20">
+        <v>201480</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="A5" s="16">
+        <v>6628060</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="20">
+        <v>201480</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
@@ -7932,7 +8170,7 @@
   <dimension ref="A1:N952"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8014,7 +8252,7 @@
         <v>71</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I2" s="17">
         <v>1</v>
@@ -8054,7 +8292,7 @@
         <v>89</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -8075,9 +8313,82 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="28">
+        <v>42736</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="7">
+        <v>123</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="7">
+        <v>201480</v>
+      </c>
+    </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>6628060</v>
+      </c>
       <c r="B5" s="10"/>
+      <c r="D5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="28">
+        <v>42736</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="7">
+        <v>123</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="7">
+        <v>201480</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9038,8 +9349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB958"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9169,7 +9480,7 @@
         <v>46</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="20" t="s">
         <v>68</v>
@@ -9219,7 +9530,7 @@
         <v>1254</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="7" t="s">
         <v>68</v>
@@ -9228,14 +9539,123 @@
         <v>201480</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="28">
+        <v>42736</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1254</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="7">
+        <v>201480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16">
+        <v>6628060</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1254</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="7">
+        <v>201480</v>
+      </c>
+    </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/dataCreate/DataCreate.xlsx
+++ b/src/main/resources/dataCreate/DataCreate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="183">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -552,7 +552,25 @@
     <t>FASB1</t>
   </si>
   <si>
-    <t>SmokePostEInSp601</t>
+    <t>Post Revision</t>
+  </si>
+  <si>
+    <t>Add Revision</t>
+  </si>
+  <si>
+    <t>SmokeAddCal</t>
+  </si>
+  <si>
+    <t>Post revision</t>
+  </si>
+  <si>
+    <t>Add revision</t>
+  </si>
+  <si>
+    <t>SmokeAddEx489</t>
+  </si>
+  <si>
+    <t>SmokeAddExSp489</t>
   </si>
 </sst>
 </file>
@@ -621,11 +639,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -639,7 +659,7 @@
       <name val="Docs-Lato"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,8 +744,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -819,12 +851,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -981,7 +1055,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -10